--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392928799638554</v>
+        <v>0.7392828719991881</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933965126032773</v>
+        <v>0.9933864546936857</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169624936794862</v>
+        <v>1.16961096848742</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732375966955256</v>
+        <v>0.9732340081821282</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977877834992922</v>
+        <v>0.8977924982160405</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164059956042158</v>
+        <v>0.2164181120371528</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195715241268415</v>
+        <v>1.195703835631785</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3777831844256183</v>
+        <v>0.3777742835511126</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845757760550238</v>
+        <v>0.2845674916027568</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059471429406227</v>
+        <v>1.0594881847824</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250338724136102</v>
+        <v>1.250325637455755</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783796089185625</v>
+        <v>0.9783595925711686</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406417294595719</v>
+        <v>1.406393146440403</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428481971775241</v>
+        <v>1.428463386444403</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9505285359796978</v>
+        <v>0.9504885578500271</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022416673173118</v>
+        <v>0.8022508394946557</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02080783166950743</v>
+        <v>-0.02084430753284252</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.484218061394788</v>
+        <v>0.484215256108911</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.27766631605846</v>
+        <v>1.277658598894677</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600849288845051</v>
+        <v>0.7600836230118817</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066285902744916</v>
+        <v>1.066300905182145</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738018012022037</v>
+        <v>0.173800837680496</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0189452155188036</v>
+        <v>0.01894448355462598</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322853030395017</v>
+        <v>1.322843092283253</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388956148153211</v>
+        <v>1.388940231824392</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007581665767937</v>
+        <v>1.007597359458809</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580451238116885</v>
+        <v>0.9580253166171342</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404363118688329</v>
+        <v>1.404359726973859</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.125586089107269</v>
+        <v>0.1255733080474344</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151369488904526</v>
+        <v>1.151351895950268</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.56966283152948</v>
+        <v>1.569637612491199</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9721597333986886</v>
+        <v>0.9721680193432393</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132101544538855</v>
+        <v>0.4132150514567472</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149068205966814</v>
+        <v>-0.114917542898523</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113568629677876</v>
+        <v>0.1135728777632942</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077937129403047</v>
+        <v>0.3077687374778902</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706416956685643</v>
+        <v>0.7706249878759016</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9646697592023804</v>
+        <v>0.9646829717394605</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449201575673328</v>
+        <v>0.5449133228636109</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390676981686729</v>
+        <v>0.9390650871408632</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970951988974967</v>
+        <v>1.970931496663294</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195210922458511</v>
+        <v>1.195207017155435</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618157704082871</v>
+        <v>0.2618051264737177</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331433836258164</v>
+        <v>1.331424419079274</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650104854566674</v>
+        <v>1.650082451126168</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072937553753685</v>
+        <v>1.072923836839314</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191151651485962</v>
+        <v>1.191159918677215</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519564064519378</v>
+        <v>1.519534513361164</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586066850246412</v>
+        <v>1.586058397290954</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718646658301195</v>
+        <v>0.2718689498352803</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719793515563899</v>
+        <v>1.719799975726093</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400972925910032</v>
+        <v>1.400977291891267</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332338746876744</v>
+        <v>1.332342705326142</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593451030113946</v>
+        <v>1.593462932221411</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.625392513288729</v>
+        <v>0.6253869313005512</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.311980459787773</v>
+        <v>0.3119825889029671</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9785107337030009</v>
+        <v>0.9785145403128247</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058530050657202</v>
+        <v>0.5058531339864339</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798624891816214</v>
+        <v>0.3798639283554094</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435391467337788</v>
+        <v>1.435373783001886</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483036200041</v>
+        <v>1.483021922016177</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002117054637323</v>
+        <v>2.002139248465487</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095222695018597</v>
+        <v>1.095222182898968</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518548003138456</v>
+        <v>1.518533348463234</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8031523294291689</v>
+        <v>0.8031703100188264</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3860778176494866</v>
+        <v>0.3861106325703975</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363881994351847</v>
+        <v>1.363887925524463</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439428268621471</v>
+        <v>0.7439435304595133</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.984889512120258</v>
+        <v>0.9848786857785813</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9007814762124177</v>
+        <v>0.9007982065542689</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846367726804677</v>
+        <v>0.6846485601857167</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972836568966454</v>
+        <v>0.6972764722115491</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8789602736298475</v>
+        <v>0.8789586213122178</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.665031069599421</v>
+        <v>0.6650386274263761</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754070678363357</v>
+        <v>0.4754143171362415</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.478568369857874</v>
+        <v>1.47857371269386</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181213695716369</v>
+        <v>0.2181202295887649</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070145563667012</v>
+        <v>1.070136798528794</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074110939178674</v>
+        <v>0.6074041137520174</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906697831733989</v>
+        <v>1.90668734190247</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5079542173359248</v>
+        <v>0.5079646416205031</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6208958837432782</v>
+        <v>0.6209252742736712</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771928034359382</v>
+        <v>-0.5771879710236666</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214561476488966</v>
+        <v>0.5214458984816277</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.944361444306183</v>
+        <v>0.944372588002435</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5423998041138768</v>
+        <v>0.5423974861278842</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5807897232702183</v>
+        <v>0.5807975169378736</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1600473033007088</v>
+        <v>-0.1600708343877028</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.552044365550391</v>
+        <v>0.5520258602389564</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411261968682001</v>
+        <v>1.411245210147695</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743104428321798</v>
+        <v>0.3743035037477433</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5607374599624176</v>
+        <v>0.5607611833189633</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2977910534311761</v>
+        <v>0.2977918503627884</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3273596376809368</v>
+        <v>0.3273755547207725</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8193232804899371</v>
+        <v>0.8193187990501772</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007638442997652</v>
+        <v>0.2007326891059368</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129902848452377</v>
+        <v>0.1129572030649917</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185597969615095</v>
+        <v>0.6185333257098895</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568488222070231</v>
+        <v>0.4568412324044155</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247463518464135</v>
+        <v>-0.2247700680938038</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7395121611544354</v>
+        <v>-0.7395184137402869</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5348344668809009</v>
+        <v>-0.5348162105848796</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909627937599213</v>
+        <v>0.1909653674506711</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.59489785771654</v>
+        <v>1.594911466087351</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5210840099777154</v>
+        <v>0.5211107509207745</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3855584257163219</v>
+        <v>0.3855845099471585</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06910220403100396</v>
+        <v>0.06909573221762534</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7831006363472628</v>
+        <v>0.7830761199705125</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8835129778076409</v>
+        <v>0.8835002035424168</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03032688913192247</v>
+        <v>-0.03035751082087476</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01562718922874232</v>
+        <v>0.01563525985417093</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3875301580468146</v>
+        <v>0.3875097872835693</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405830861081648</v>
+        <v>1.405829338090502</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.878040275280961</v>
+        <v>1.878014016853066</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4372807556987665</v>
+        <v>0.4372517361054236</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381582956872953</v>
+        <v>0.2381302636072122</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692560511368951</v>
+        <v>-0.66926728565867</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015361479921</v>
+        <v>2.015366794066398</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9051954301572215</v>
+        <v>0.9052016850541394</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259789606014214</v>
+        <v>1.259780932839987</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4007025527474385</v>
+        <v>0.4006964518457144</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1270058043055865</v>
+        <v>0.1269943940896798</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994734459733983</v>
+        <v>0.1994424633440593</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636743952684688</v>
+        <v>1.636722316322593</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238839544861363</v>
+        <v>1.238824285754984</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033426450275277</v>
+        <v>0.8033348871691249</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5758216239016757</v>
+        <v>0.5757920331760017</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5817852006803563</v>
+        <v>0.5817912362100333</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.0776232303505854</v>
+        <v>-0.07761597064545571</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304872531518863</v>
+        <v>-0.9304698225482978</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3233011576445041</v>
+        <v>-0.3232948990746877</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078574516557279</v>
+        <v>0.1078614903498696</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2312883982764603</v>
+        <v>-0.2313066281240317</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8557680522780347</v>
+        <v>0.8557737883590727</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293212103592642</v>
+        <v>0.4293326420965492</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.494027990944932</v>
+        <v>1.494010513185289</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875608144734567</v>
+        <v>1.87560090396503</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638950603585147</v>
+        <v>0.3638640581760648</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011476889932643</v>
+        <v>1.011453083832315</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.418742552611797</v>
+        <v>0.41875062999805</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.539700287828135</v>
+        <v>-0.5397020551450715</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944577039107193</v>
+        <v>0.6944634065508283</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01414218242261934</v>
+        <v>-0.01415271192646885</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775181288544018</v>
+        <v>-0.4775407945518055</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107864868642495</v>
+        <v>1.10784750030354</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930700538688471</v>
+        <v>0.1930701006461384</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05772583352957465</v>
+        <v>0.05772439715325396</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150849586368031</v>
+        <v>0.5150622972721952</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2704019135854538</v>
+        <v>-0.2704451677326296</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806169669381837</v>
+        <v>-0.1806239809398155</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841485573651931</v>
+        <v>0.4841576967726796</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685273169744914</v>
+        <v>-0.2685322099856446</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4521155048376684</v>
+        <v>-0.4521149654452047</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.294838408094236</v>
+        <v>-0.2948227494987011</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01052660263920569</v>
+        <v>0.01052560446882152</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107880431869831</v>
+        <v>1.107879633558987</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6960959045577063</v>
+        <v>0.6961053022764859</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2176816949662383</v>
+        <v>0.2176879265007562</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479001765356021</v>
+        <v>0.5479084907298869</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.084202635973315</v>
+        <v>-0.08421108330128262</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155537223025985</v>
+        <v>0.6155545097339754</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096248851951381</v>
+        <v>1.096227009695875</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8313315162599099</v>
+        <v>0.8313035662344892</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3103550433773</v>
+        <v>-0.3103793468328547</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08335113578827763</v>
+        <v>0.08335708283420086</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.597976106424261</v>
+        <v>-0.5979704096035248</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702836756232628</v>
+        <v>-0.1702789153517949</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.359823852079926</v>
+        <v>-0.3598273104643217</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2597861022129028</v>
+        <v>-0.2597942168784476</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.256812738774622</v>
+        <v>0.2568020408140847</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4797240569922633</v>
+        <v>0.4797114215346538</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453777903371835</v>
+        <v>-0.3453637020120313</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7616770470426633</v>
+        <v>-0.7616872207075553</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720406139044346</v>
+        <v>0.2720497791108804</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176262223730739</v>
+        <v>-0.7176194796011517</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639823308295187</v>
+        <v>0.6639837430885487</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03991872257714444</v>
+        <v>-0.03991543053318527</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.511518623353829</v>
+        <v>-0.5115152605223278</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4209241124140194</v>
+        <v>0.4209164625848265</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3427097652846955</v>
+        <v>0.3426932418186083</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.236368379951408</v>
+        <v>0.2363568569164386</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465314229106435</v>
+        <v>-0.5465479954595798</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266146028641218</v>
+        <v>1.266135778939229</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935918952610276</v>
+        <v>0.9935698381412246</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320456392948671</v>
+        <v>0.8320509491106963</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808558029754119</v>
+        <v>0.6808558228370994</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147807151400445</v>
+        <v>0.3147779041288579</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241738885796184</v>
+        <v>1.241695828880335</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059649214435962</v>
+        <v>0.4059498379761298</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4855686437058519</v>
+        <v>0.4855448243236078</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5498026795577028</v>
+        <v>0.5497769278350272</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6714500899956125</v>
+        <v>0.6714585056267058</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.802890378046244</v>
+        <v>0.8028841845505895</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310239530290407</v>
+        <v>0.2310084040154292</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2861069155459115</v>
+        <v>0.2860993183294061</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006247158065676424</v>
+        <v>-0.006266657371807109</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4575095470327779</v>
+        <v>0.4575104050709633</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088199058260084</v>
+        <v>0.1088208566613507</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068415111893776</v>
+        <v>0.1068354135785028</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750211207923888</v>
+        <v>1.750232555601113</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09877882925221133</v>
+        <v>-0.09877537914356743</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022699944470232</v>
+        <v>0.2022696276548747</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711801296786524</v>
+        <v>0.5711705106353409</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472817608443569</v>
+        <v>0.4472585257952587</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04310526403458525</v>
+        <v>-0.04311232122956944</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.522222197804779</v>
+        <v>1.522223700277198</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1076691519812569</v>
+        <v>0.1076697186772617</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770368480234682</v>
+        <v>0.4770194474770552</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291146173974076</v>
+        <v>1.291135238892828</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7410574387668901</v>
+        <v>0.7410425405007843</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9811102114798473</v>
+        <v>0.981068061222806</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07316361202022718</v>
+        <v>-0.07318175420821232</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144469846447508</v>
+        <v>0.5144344606537479</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155563914565084</v>
+        <v>1.155575898508362</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.797979717857056</v>
+        <v>0.7979790599581047</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382487267817558</v>
+        <v>1.382468492623752</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758753508510156</v>
+        <v>0.375873435789867</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993444776102943</v>
+        <v>0.2993308699682154</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9440353694409512</v>
+        <v>0.944015962783309</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251239880192603</v>
+        <v>1.251220398019747</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1698395826285495</v>
+        <v>0.1698270844440778</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522012508320356</v>
+        <v>0.4522165272721494</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793826540337442</v>
+        <v>0.1793721969159189</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4394018783995124</v>
+        <v>-0.4393999579871391</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947099164962608</v>
+        <v>-0.1947177595339833</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2424168901863524</v>
+        <v>-0.2424039668331058</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304828423485746</v>
+        <v>0.3304842396202777</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152911981057628</v>
+        <v>0.3152899815682913</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6175119553494838</v>
+        <v>0.6175002427875458</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3028870479029492</v>
+        <v>0.3028887755247718</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882129144411031</v>
+        <v>-0.3882270301179107</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095577873334663</v>
+        <v>-0.1095605316314319</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372716157829799</v>
+        <v>0.3372556953403489</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191574292229003</v>
+        <v>-0.5191733077962722</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.582249073171033</v>
+        <v>-0.5822779143876233</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652900127801331</v>
+        <v>-0.6652829242074147</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760673597059708</v>
+        <v>0.2760733249056863</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09349295353786607</v>
+        <v>-0.09349536052913597</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911273739873155</v>
+        <v>0.4911449096333174</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.465323023750343</v>
+        <v>0.465307043675716</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904715795461482</v>
+        <v>0.7904807558863171</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176258783291287</v>
+        <v>1.176265226367777</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.605418084038165</v>
+        <v>-0.6054378781267916</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.560108532109918</v>
+        <v>-0.5600963567212217</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2481189918073811</v>
+        <v>-0.248140873931488</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078782212993069</v>
+        <v>-0.4078767462408638</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8586029017225975</v>
+        <v>-0.858590815200438</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308717742381225</v>
+        <v>0.1308739963264268</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.685030636686927</v>
+        <v>1.685019089017362</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243293242585273</v>
+        <v>1.243324955664109</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990722195341462</v>
+        <v>0.7990631698263809</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.273545499582631</v>
+        <v>0.2735206041608235</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7308417642094844</v>
+        <v>0.7308214867329119</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5181986134421579</v>
+        <v>0.5182060406070962</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487349519300688</v>
+        <v>0.5487303028335737</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5323678261131056</v>
+        <v>0.5323851069020079</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5197295046358409</v>
+        <v>0.5196956757083551</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818191339612</v>
+        <v>0.7818195048153221</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2201313057040197</v>
+        <v>-0.2201623828680582</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828956693071729</v>
+        <v>-0.6828996528254311</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4301244114254396</v>
+        <v>-0.4300997702664811</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7378890513218272</v>
+        <v>0.7378874803669729</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9825859738060284</v>
+        <v>-0.9826035698656885</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1983339406671606</v>
+        <v>-0.1983474489969982</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01198350092570438</v>
+        <v>-0.01201319200779004</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263658963020492</v>
+        <v>-0.1263523566833888</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04608833888309175</v>
+        <v>-0.04610449041206333</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102261894891517</v>
+        <v>0.6102198254593176</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03103377452016181</v>
+        <v>-0.03101236855618008</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342523360647049</v>
+        <v>-0.8342573512300351</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732452428441859</v>
+        <v>0.5732576876401194</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7270313858252015</v>
+        <v>-0.727006192423031</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.653360901935542</v>
+        <v>-0.6533201509272332</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2093977451337684</v>
+        <v>-0.2094040826531516</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.01870512826867</v>
+        <v>-1.01871936025378</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3382002219763853</v>
+        <v>0.338189052528154</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1079127362115906</v>
+        <v>0.1078905421431502</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085745710061115</v>
+        <v>-0.4085889998505188</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09825229306906479</v>
+        <v>-0.09825653309521899</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6480026098559326</v>
+        <v>-0.6480046332869501</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.02997734405391598</v>
+        <v>-0.0299926379162677</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058581840150987</v>
+        <v>-0.5058626399760695</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3364646394943551</v>
+        <v>-0.336478957249914</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276928056277568</v>
+        <v>-1.276915256111729</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08489306880202045</v>
+        <v>-0.08486101750154398</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04931666430907002</v>
+        <v>-0.04933750501945123</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.211036284587808</v>
+        <v>-0.2110339730540448</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6343222205187897</v>
+        <v>0.6342983190775225</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516871328571876</v>
+        <v>1.516852884563022</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7036104782599154</v>
+        <v>0.7035877689636022</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05729936528423283</v>
+        <v>0.05727776724411407</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463880686706128</v>
+        <v>0.8463735915792305</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083841410474966</v>
+        <v>1.083827921770388</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625819253424446</v>
+        <v>1.625780436842144</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038071694946511</v>
+        <v>0.6038146524174259</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4734278991046061</v>
+        <v>0.4733901413333849</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572500540568321</v>
+        <v>0.4572553524397432</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092706113240383</v>
+        <v>0.1092669601937511</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2074453297607236</v>
+        <v>-0.2074597276681201</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8418096744930484</v>
+        <v>0.8418060932596312</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901294971956876</v>
+        <v>0.6901227417440232</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627719511105177</v>
+        <v>-0.2627896035014207</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219883995883632</v>
+        <v>-0.2219784879358539</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062466952051647</v>
+        <v>1.062466601589323</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380826439269216</v>
+        <v>1.380828969885589</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.15847558359716</v>
+        <v>-0.1584494345916022</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355779396118301</v>
+        <v>-1.355811153717302</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408216355604415</v>
+        <v>-1.408199658452021</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2942603526748606</v>
+        <v>-0.2942363489613719</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119966641322359</v>
+        <v>-1.119952611013025</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008133907945734742</v>
+        <v>-0.008142128173592151</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1697983609364599</v>
+        <v>-0.1698049228123376</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317347751702511</v>
+        <v>0.1317316546755511</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7604016795010248</v>
+        <v>-0.7604059455997192</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.464501184571079</v>
+        <v>-0.4644926357621634</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023981741172192</v>
+        <v>-1.023978863954875</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.29811935940616</v>
+        <v>-0.2981455526240812</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610542902714871</v>
+        <v>-0.3610549341540625</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03781912063655592</v>
+        <v>0.03785127867973214</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7329737802865913</v>
+        <v>0.7329950070618116</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2105493760494776</v>
+        <v>-0.2105176811237586</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8016260136374779</v>
+        <v>-0.8016204909514681</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518865407806741</v>
+        <v>0.2518656558402081</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02726754388454834</v>
+        <v>0.02725356444732106</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3228671040659029</v>
+        <v>0.322847838720122</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350672506023258</v>
+        <v>0.4350680784058595</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947282247028447</v>
+        <v>-0.594748910966194</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181782062448668</v>
+        <v>0.118179865088282</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8117190361937643</v>
+        <v>0.8117155733748612</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4610062699357668</v>
+        <v>0.4609826846756356</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884465836195985</v>
+        <v>0.4884394198811204</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1770339555832806</v>
+        <v>-0.177000383970986</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7724395980847668</v>
+        <v>-0.7724307680886822</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8106933808965533</v>
+        <v>-0.8106620412120229</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235313104446483</v>
+        <v>0.6235295802053257</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517412627063586</v>
+        <v>0.8517429653228916</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.977897894667869</v>
+        <v>0.977903475267765</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194849543508821</v>
+        <v>-0.2194857502739896</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04633171124148169</v>
+        <v>0.04632576510236867</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503688976468892</v>
+        <v>-0.6503617699711487</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742832036542152</v>
+        <v>0.9742703321214937</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572743289097225</v>
+        <v>0.6572837429819854</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026765837748478</v>
+        <v>1.026777629651203</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.194102998938641</v>
+        <v>0.1941013008235791</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.312279531558703</v>
+        <v>0.3122578721538503</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077353977497092</v>
+        <v>1.077338301283247</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5226274982493097</v>
+        <v>0.5226130916736342</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153383736066015</v>
+        <v>1.153343803031915</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129321098643888</v>
+        <v>1.12931425080394</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.128877768973962</v>
+        <v>0.1288645409679451</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07103748539849841</v>
+        <v>0.07101190393814698</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.371772422443523</v>
+        <v>0.3717916365346362</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884058800132541</v>
+        <v>0.4884252659836966</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5034889357556664</v>
+        <v>0.5035106008428001</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03151385537201024</v>
+        <v>-0.03151430239192642</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337952088860184</v>
+        <v>-0.2337817940828439</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487353001542917</v>
+        <v>1.487365167839328</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162659223459589</v>
+        <v>0.9162695239465525</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.524321045410455</v>
+        <v>0.5243229593721258</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3363783798209888</v>
+        <v>0.3363700024588839</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09796790081068955</v>
+        <v>0.0979419010062326</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516539910049568</v>
+        <v>-0.1516609605450512</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163845126511016</v>
+        <v>0.1163723870311247</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6525958737103874</v>
+        <v>-0.6526214868808892</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455259650423062</v>
+        <v>-0.4455480152926932</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2203942021949835</v>
+        <v>0.2204042589813596</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4696271148671016</v>
+        <v>0.4696063958897899</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840462451601779</v>
+        <v>-0.2840324216855156</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8519977281512836</v>
+        <v>-0.8519984119023669</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2097982759459862</v>
+        <v>0.2098096138429163</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2362359568457817</v>
+        <v>0.2362247090067347</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2317327106689214</v>
+        <v>-0.2317213700660377</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03037986223636155</v>
+        <v>-0.0303806414016424</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342796407834303</v>
+        <v>-0.1342716087930137</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728101437556382</v>
+        <v>-0.6728218335576664</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3694471071403544</v>
+        <v>-0.3694549988581632</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624792904212687</v>
+        <v>0.1624607690055359</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321482888775652</v>
+        <v>-0.9321651527502058</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6567969847037447</v>
+        <v>-0.6568174450504324</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3357768114399093</v>
+        <v>0.3357892831262269</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514227398210589</v>
+        <v>0.1514438427952572</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2135965316663919</v>
+        <v>0.2136205481193966</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.0928696157087935</v>
+        <v>0.0928508643833679</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4872387693243943</v>
+        <v>0.4872348223646813</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663531277282963</v>
+        <v>0.1663368569938421</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078372459507254</v>
+        <v>0.3078285911355377</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064608028264997</v>
+        <v>1.064615988820908</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9404249417728832</v>
+        <v>0.9403853947782648</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100453461959492</v>
+        <v>-0.2100614581183455</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.484293871173875</v>
+        <v>0.4842793282655163</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806956457066161</v>
+        <v>0.5806607230921828</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418530664549374</v>
+        <v>-0.1418587040023672</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154147794101655</v>
+        <v>0.7154198712254768</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512308156279782</v>
+        <v>-0.5512290000208159</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160688740356886</v>
+        <v>1.160693903694278</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09370835270949714</v>
+        <v>0.09369072790052395</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1940320092577397</v>
+        <v>-0.194029542470836</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001627515637009516</v>
+        <v>0.001630336428306599</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226145912461725</v>
+        <v>-0.4226410075323878</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09184944565778116</v>
+        <v>0.09182395468505754</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2814158392129277</v>
+        <v>0.2814080227466226</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115324312534297</v>
+        <v>-0.5115346183601818</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847466126025916</v>
+        <v>-0.3847445693555719</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4988001770691885</v>
+        <v>0.4987976996808046</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234250177463398</v>
+        <v>1.234235445573045</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1130797364048504</v>
+        <v>-0.1130958234102331</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4823049356387165</v>
+        <v>-0.4822833282578233</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073391637105481</v>
+        <v>-0.3073434097070277</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023916482399114</v>
+        <v>0.2023824631571622</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154483507747664</v>
+        <v>-0.3154530849471313</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352584132866024</v>
+        <v>-0.2352488338513024</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4581348373558144</v>
+        <v>-0.458142527148066</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05201722016952431</v>
+        <v>-0.05204405615276968</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073062934861052</v>
+        <v>-0.5073402505188493</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440942574738909</v>
+        <v>0.3440637572321652</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.109686736523143</v>
+        <v>0.1096791864371059</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1632183084835376</v>
+        <v>-0.16323667770111</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9584733551710486</v>
+        <v>0.9584473102508189</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5035960448761212</v>
+        <v>0.5036031337743673</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442454337844028</v>
+        <v>0.5442400522086754</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267963473926649</v>
+        <v>1.267944844350425</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199702272517797</v>
+        <v>1.199678956549234</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777860091916183</v>
+        <v>0.3777863882655153</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894564571337305</v>
+        <v>-0.4894615409779726</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259334598081141</v>
+        <v>-0.2259252698299469</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473116624845062</v>
+        <v>0.3473063292193183</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5343132522903329</v>
+        <v>-0.5342873077095059</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365444168501008</v>
+        <v>-0.8365386376685006</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152099969445975</v>
+        <v>0.4152169511522248</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.867744281032177</v>
+        <v>-0.8677295643703823</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377905899257483</v>
+        <v>-0.7377663355064129</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415064062888873</v>
+        <v>-0.1415056794780016</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5419349981893152</v>
+        <v>0.5419226114204186</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.270645679164484</v>
+        <v>0.270645302902716</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782406077829974</v>
+        <v>-0.7782598402758537</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078207538047557</v>
+        <v>0.3078330453452129</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6503601097920202</v>
+        <v>0.6503633557195532</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800600137434608</v>
+        <v>-0.3800765295337045</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.778097764492372</v>
+        <v>-0.778086100004973</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161242196457067</v>
+        <v>-0.1161150163818478</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0003661112325573868</v>
+        <v>-0.0003736298273546564</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568833051491187</v>
+        <v>0.4568772052224013</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598917593728338</v>
+        <v>-0.4598925169335152</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964402671216076</v>
+        <v>-0.4964424068821994</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07679068265235928</v>
+        <v>-0.07679246083332859</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732263829480593</v>
+        <v>-0.2732186571687957</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1206836231445282</v>
+        <v>0.1206819834499261</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.568951727090096</v>
+        <v>-0.5689430370576888</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.316848182036264</v>
+        <v>-0.3168521750014613</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1801167865546498</v>
+        <v>-0.1801379397661415</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2131872720397762</v>
+        <v>-0.2131893952590807</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671261066169172</v>
+        <v>-0.7671307059539806</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9390222452469523</v>
+        <v>-0.9390186050940909</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.0482722114290793</v>
+        <v>-0.0482954755973347</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563072166222801</v>
+        <v>-0.4563196479829484</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665260314407412</v>
+        <v>-0.566538401959004</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104675287721364</v>
+        <v>-0.2104662147214696</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03852693003495494</v>
+        <v>0.03852808742101329</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03055404363712413</v>
+        <v>0.03055754651045231</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124891399981678</v>
+        <v>0.2124873685807906</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815952258429858</v>
+        <v>0.9815844212372301</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003808624871243</v>
+        <v>1.003829502045493</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5812239562329251</v>
+        <v>0.5812133362366709</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485594665211507</v>
+        <v>0.2485519310903645</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6839374492289781</v>
+        <v>0.6839088699367107</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.266437444893564</v>
+        <v>-0.2664779646187678</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7520142811739386</v>
+        <v>0.7519976335120098</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453200353269647</v>
+        <v>-0.1453329296199636</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880510261243613</v>
+        <v>-0.288056515465976</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252744644358288</v>
+        <v>0.6252740363133338</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7353332886523888</v>
+        <v>0.7353163620273789</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3042132041355219</v>
+        <v>-0.3042164184078149</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969059074482947</v>
+        <v>-0.5969231169431575</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.539750603682483</v>
+        <v>0.5397404753856246</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.165015509204316</v>
+        <v>1.164982206391378</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3879417303804453</v>
+        <v>-0.3879542941001301</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.211040546791025</v>
+        <v>1.211010413276155</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705071758222145</v>
+        <v>-0.2705247023532723</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7003981684463453</v>
+        <v>-0.7003952912381591</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1312999118001233</v>
+        <v>-0.1313037272437355</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098441626458499</v>
+        <v>0.3098274499346848</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1527773971536007</v>
+        <v>-0.1527674957601887</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632020586819767</v>
+        <v>0.2632276925094754</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02411640031724404</v>
+        <v>0.02410733575206689</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289155236992393</v>
+        <v>-0.5289286851241178</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363774566301694</v>
+        <v>-0.5363745765048844</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827699661835345</v>
+        <v>-0.1827677310407646</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5785985782820696</v>
+        <v>0.5786063362216887</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4097679246390791</v>
+        <v>-0.4097462186997152</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2865937331918267</v>
+        <v>0.2866071823071444</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338905734643055</v>
+        <v>-0.7338980946888395</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537637321363226</v>
+        <v>-0.2537641190973496</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470780542227935</v>
+        <v>-0.8470832150888455</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.4873872176171952</v>
+        <v>-0.48737789087694</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182859002168891</v>
+        <v>-0.2182737203449948</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415824507967858</v>
+        <v>-0.1415975909448835</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016792470724487</v>
+        <v>-1.016776469790259</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9461150052116322</v>
+        <v>-0.9461006286810451</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9788868318562008</v>
+        <v>-0.9788936606682467</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915282486077715</v>
+        <v>-0.7915204638470573</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962502092324841</v>
+        <v>-0.3962458326703938</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941824832578776</v>
+        <v>-0.4941787633124972</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189497588441868</v>
+        <v>-0.5189282865969628</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.332348069677098</v>
+        <v>0.3323649087277462</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200193390551905</v>
+        <v>0.4200178306606907</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8416926885550117</v>
+        <v>-0.8417183389392766</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2086189728431901</v>
+        <v>-0.2086119981788687</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.09742267785936</v>
+        <v>1.097422117245906</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661124918376251</v>
+        <v>0.3661387236160409</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1448894289463707</v>
+        <v>0.1448976695815394</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.145060081590734</v>
+        <v>-0.145073470242937</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02431716142165946</v>
+        <v>0.02431669599818056</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141013365799952</v>
+        <v>-0.21412430951472</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3980344272641506</v>
+        <v>-0.3980219747805299</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07374899271392339</v>
+        <v>-0.07373203052884819</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685743155164528</v>
+        <v>0.5685763521953168</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.0365612021494448</v>
+        <v>0.03657427005556582</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09159035539911893</v>
+        <v>0.09160721068167955</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2098646620958139</v>
+        <v>0.209857605183778</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362779113438633</v>
+        <v>0.5362907991707258</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360561890626313</v>
+        <v>1.360535316518194</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238914159836292</v>
+        <v>1.238900421367384</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919930645199747</v>
+        <v>0.3919775183855267</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988169013244991</v>
+        <v>0.1988372133640365</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3166332071130179</v>
+        <v>0.3166255610222034</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307090315282553</v>
+        <v>1.307085917654452</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6255126914385443</v>
+        <v>0.625497544886867</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290581184951618</v>
+        <v>1.290564733576758</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.0644932628832413</v>
+        <v>-0.06449796722491581</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111873273093617</v>
+        <v>1.111856676775147</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.33080608517652</v>
+        <v>1.330784429750881</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942823948969994</v>
+        <v>0.1942689173635649</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536368367526698</v>
+        <v>1.536364100946338</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.11163001864044</v>
+        <v>1.111623481399328</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.0438476419028953</v>
+        <v>0.04383067343818398</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.441602969994821</v>
+        <v>0.4415950122812025</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4848116276158299</v>
+        <v>0.4848072400148482</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540688520704579</v>
+        <v>-0.154064829413716</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3331395281817942</v>
+        <v>-0.333177825275041</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696901487267752</v>
+        <v>0.3696886916898356</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.2784308537445</v>
+        <v>1.278420024745199</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272194031721554</v>
+        <v>-0.1272302529064993</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7562221451411022</v>
+        <v>0.7561945971210061</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4265094958425327</v>
+        <v>0.4264918185016646</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007078995728004874</v>
+        <v>0.007077439267412312</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3188363093963635</v>
+        <v>0.3188489938831041</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260188129771882</v>
+        <v>-1.2601879230186</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05167480925332654</v>
+        <v>0.05165326700332915</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09318531472369496</v>
+        <v>0.09317428838037133</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1114181594551994</v>
+        <v>0.1113994753378002</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01548160953664604</v>
+        <v>-0.01548373987332309</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077845434185547</v>
+        <v>0.1077734894254005</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1288914309858848</v>
+        <v>-0.1288982742248617</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5139677758671922</v>
+        <v>-0.513976058358684</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4846912297768002</v>
+        <v>0.4846717834960904</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218145475912071</v>
+        <v>0.2218130223215614</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.845730059242088</v>
+        <v>0.845719706792549</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649859957097576</v>
+        <v>0.4649667091840441</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4259434469712648</v>
+        <v>0.4259243442460968</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6287066657741027</v>
+        <v>-0.6286885547526867</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688892432422839</v>
+        <v>1.688879462560417</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289859416795057</v>
+        <v>1.289846397759091</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08660478011241554</v>
+        <v>-0.08660516718922157</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325551288625846</v>
+        <v>0.4325448957175505</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548285630994859</v>
+        <v>-0.4548368073163794</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549591589013057</v>
+        <v>-0.2549685163878272</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3969249895306527</v>
+        <v>0.3969097542172454</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816438441248392</v>
+        <v>-0.5816314465294278</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887654416066056</v>
+        <v>-0.588765681640655</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135189489598036</v>
+        <v>1.135169826912895</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217711950035464</v>
+        <v>2.217730966776884</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4924959114824534</v>
+        <v>0.4924998371693687</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1863043774671437</v>
+        <v>-0.186301783287748</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379233761047433</v>
+        <v>-0.1379154030980643</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3104920985705731</v>
+        <v>-0.3104973821949811</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501392849705755</v>
+        <v>-0.4501339551042413</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499454543790071</v>
+        <v>-0.2499492263254491</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06516749049409404</v>
+        <v>0.06518398103411403</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981379329165154</v>
+        <v>-0.1981288967966003</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844486877727367</v>
+        <v>-0.5844401224585604</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475563478127733</v>
+        <v>-0.5475458755000584</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268409390917675</v>
+        <v>0.4268524075235691</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955485335060665</v>
+        <v>-0.4955569744221948</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5704967813050589</v>
+        <v>0.5705066998130107</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529949491662647</v>
+        <v>-0.6529805322670107</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.402819535001566</v>
+        <v>-0.4028015021540977</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055635440295035</v>
+        <v>1.055626949922285</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622734932858016</v>
+        <v>-0.162280465277814</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903880709221825</v>
+        <v>-0.3903743585780066</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445494006565906</v>
+        <v>0.2445524339989049</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.208954568185778</v>
+        <v>0.208948429918944</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881777235158358</v>
+        <v>0.8881905940544198</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07279216752310678</v>
+        <v>-0.07280121542551368</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.166585534831443</v>
+        <v>0.1665637118280143</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5952213823378929</v>
+        <v>0.5952179663082171</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2823265456833322</v>
+        <v>0.2823227638395753</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5033495609026603</v>
+        <v>0.5033181269713951</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8072002462828068</v>
+        <v>0.8071968289253867</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746944337732115</v>
+        <v>0.6746788254956666</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.611679685819238</v>
+        <v>0.6116783283330285</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4499643335029054</v>
+        <v>0.449963167037481</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.317824192034804</v>
+        <v>-0.3178469697494853</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.109959706044176</v>
+        <v>-0.1099609927123098</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.493627316766769</v>
+        <v>-0.4936251141176038</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.09004919595441199</v>
+        <v>0.09001142738457284</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068952488077618</v>
+        <v>-1.068951544781779</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211821728030699</v>
+        <v>-1.211781473132584</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.896680420893931</v>
+        <v>-0.896656197998919</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1168110608732259</v>
+        <v>-0.1168055855512022</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.783671499842164</v>
+        <v>-0.7836615338967244</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735302717812559</v>
+        <v>-0.573527417604292</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294351125070628</v>
+        <v>-0.5294475772514231</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053657263233956</v>
+        <v>-0.9053645768523704</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5275047342033097</v>
+        <v>-0.5275005572217053</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.282927473969209</v>
+        <v>-0.2829292517455537</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01206841646751492</v>
+        <v>-0.01206908352655386</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9064019649158641</v>
+        <v>-0.9063945044326606</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1273189387847484</v>
+        <v>0.1273074636180157</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365869586837878</v>
+        <v>-0.3365732143767489</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1375131976935125</v>
+        <v>0.1374968597210212</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3837271618070802</v>
+        <v>-0.3837289398083014</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022964062976409</v>
+        <v>-1.022974599240749</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766756409532717</v>
+        <v>-0.8766628668971228</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824653871722411</v>
+        <v>0.1824756300704135</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975471381655397</v>
+        <v>0.2975529083762576</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06927234310811707</v>
+        <v>-0.06926534852325464</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5590440439876042</v>
+        <v>-0.5590362035853476</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686764816358436</v>
+        <v>-0.5686562402380493</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263970187436747</v>
+        <v>-0.9263980554582575</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417653746855581</v>
+        <v>-0.3417611220322778</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021118198019169</v>
+        <v>-1.021118457454079</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783545901676537</v>
+        <v>0.2783423092679191</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146461500002923</v>
+        <v>0.8146401664326444</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1351120756212945</v>
+        <v>0.1351013518068928</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628545929768577</v>
+        <v>0.5628511284311003</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528648912540911</v>
+        <v>0.5528632078134424</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.233773982786172</v>
+        <v>0.2337756249224738</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08465178699894493</v>
+        <v>0.08467859647478812</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09504437625576298</v>
+        <v>0.0950480191612143</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734254916325562</v>
+        <v>-0.2734308573746987</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500502647130829</v>
+        <v>-0.2500292944657405</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034873780594733</v>
+        <v>-0.3034778293374728</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4683369913127423</v>
+        <v>0.4683041846518874</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1101900753350352</v>
+        <v>0.1102105631661002</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.944030631806379</v>
+        <v>-0.9440371423706775</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668203644243807</v>
+        <v>-0.7668086425373191</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6518741299145129</v>
+        <v>-0.6518405642664999</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6978185907322221</v>
+        <v>-0.6977987834710351</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.38253595360767</v>
+        <v>-0.382533870327959</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3028976192069081</v>
+        <v>-0.3029022978988465</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265107346767596</v>
+        <v>1.265113442506758</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801820015896655</v>
+        <v>-0.3801705767722672</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.78365880853386</v>
+        <v>1.783646809477649</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.23432600732453</v>
+        <v>1.234334367941578</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.238264835361789</v>
+        <v>-0.2382792923274648</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920881316758348</v>
+        <v>0.392060065749343</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03538207130025985</v>
+        <v>0.03537286178370459</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194658527429892</v>
+        <v>1.194637118051153</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109138077020585</v>
+        <v>0.910911930682001</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257177053890408</v>
+        <v>-0.2257030863922031</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3783772114469433</v>
+        <v>0.3783822797557972</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2790365700348087</v>
+        <v>-0.2790043265149788</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541088496986077</v>
+        <v>-0.2541198440041347</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2695795245162244</v>
+        <v>-0.2695980478192046</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412418569635699</v>
+        <v>-0.4412379289255121</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009005489480600542</v>
+        <v>0.009029814795407948</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866694202635276</v>
+        <v>-0.8866532763777727</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2865670003613547</v>
+        <v>-0.2865656220720232</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.587375289438593</v>
+        <v>0.5873936139091668</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002453863889527</v>
+        <v>-0.100233746064813</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8669651576560589</v>
+        <v>0.866969029165325</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084195657685001</v>
+        <v>0.2084242043261764</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670681244583476</v>
+        <v>-0.3670497689822977</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.246158935009284</v>
+        <v>0.2461497635586039</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501932370147966</v>
+        <v>0.4501998276254287</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862857524545058</v>
+        <v>-0.2862749788723556</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.746184938935574</v>
+        <v>-0.746185032409877</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.525722332620241</v>
+        <v>-0.5257198021603068</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03144942710107116</v>
+        <v>0.0314722964818018</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7978462590303173</v>
+        <v>0.7978404791226614</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366926285767884</v>
+        <v>0.7366904147729062</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142547314116663</v>
+        <v>-0.1142547695996133</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02201781301430449</v>
+        <v>-0.02201271114891122</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858862365611214</v>
+        <v>0.5858933949607782</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02490296143144391</v>
+        <v>0.02488551483891318</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406355801830211</v>
+        <v>-0.7406468113086531</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04098400576840573</v>
+        <v>-0.04097056468862511</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076454510912411</v>
+        <v>0.4076490774549388</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2736975062681101</v>
+        <v>0.2737333309516384</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173935507608868</v>
+        <v>1.173932505642931</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.0117974011800789</v>
+        <v>-0.01180385643188658</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2124927009014936</v>
+        <v>0.2125052506650103</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039402762982874</v>
+        <v>-0.7039465656850166</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859210647554236</v>
+        <v>-0.3859251111574792</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782801954351983</v>
+        <v>0.2782579745056682</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2653251139814632</v>
+        <v>0.2652910031365942</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2841018769546203</v>
+        <v>-0.2840897974614448</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03695367827914315</v>
+        <v>0.03694818051467392</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03460720203526972</v>
+        <v>-0.03457973640704239</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081876094286633</v>
+        <v>-0.5081816481547572</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4306297867169857</v>
+        <v>-0.4306182971084557</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2343868295394338</v>
+        <v>0.234377244924898</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242076866948239</v>
+        <v>0.2242098718369639</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01112997738823518</v>
+        <v>-0.01113372198978929</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350009708605702</v>
+        <v>0.2350055952523495</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.309077075070815</v>
+        <v>-0.3090756644143038</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1314783642605025</v>
+        <v>0.1314901944348637</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2448562034749498</v>
+        <v>0.2448812591982038</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263249888123899</v>
+        <v>-0.2263342824083091</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216257455043644</v>
+        <v>0.5216245350280998</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397811355583668</v>
+        <v>-0.1397961278697668</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5159503500001942</v>
+        <v>0.515961669192009</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.597221945888898</v>
+        <v>-0.5972059273221495</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9080237190578831</v>
+        <v>0.9080559048161767</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.532580467093461</v>
+        <v>0.5325657455803744</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5394502675769223</v>
+        <v>-0.5394231297553745</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972677560380429</v>
+        <v>-0.7972652733772579</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2954710300821624</v>
+        <v>0.2954739841599148</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4464875432874901</v>
+        <v>0.4465005431123297</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686370197677921</v>
+        <v>-0.8686339662710436</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750323426711787</v>
+        <v>-0.4750409794064105</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.37083698196515</v>
+        <v>-0.3708228916257696</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759872155110396</v>
+        <v>-0.7759915163349452</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945140783711498</v>
+        <v>0.29452137998997</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3252823394582272</v>
+        <v>0.3252927716649852</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6972327866160909</v>
+        <v>-0.697221006702653</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173963900416747</v>
+        <v>-0.4173868733905102</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8810537341604756</v>
+        <v>0.8810808320471516</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402770675876231</v>
+        <v>-1.402747338986717</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970635475486458</v>
+        <v>-0.4970598097249076</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7115222393421808</v>
+        <v>-0.7114969974777392</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300094643393069</v>
+        <v>-0.4300097091413431</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1955224803287182</v>
+        <v>-0.195505917657844</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947464758990027</v>
+        <v>-0.3947580650937307</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5668393347131828</v>
+        <v>-0.5668279507007749</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115437086271712</v>
+        <v>-0.7115488387017794</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2302519728486613</v>
+        <v>0.2302826486858882</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1708357599455168</v>
+        <v>0.1708194122493288</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.498359022232825</v>
+        <v>0.4983261306830794</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1560394902140726</v>
+        <v>-0.1560253680065283</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6680865707623431</v>
+        <v>-0.6680617195959255</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195037699448098</v>
+        <v>0.7195356166116021</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034802078076048</v>
+        <v>2.034826924731548</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411074168841262</v>
+        <v>0.2411201673820889</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08335321798074122</v>
+        <v>-0.08333513734458081</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08946595224779132</v>
+        <v>0.08945709988131523</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193375610791325</v>
+        <v>0.1193579771626995</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887955473114998</v>
+        <v>-0.3887851524991468</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143439583232641</v>
+        <v>-1.143421803884745</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9858346344319574</v>
+        <v>-0.9857996870841048</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099406231078909</v>
+        <v>-1.099381144332665</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9762198804323567</v>
+        <v>-0.976195131824787</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1586571221878789</v>
+        <v>-0.1586237533147754</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310424592590291</v>
+        <v>-1.310394740047043</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021188721647662</v>
+        <v>-1.021168521259055</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1479127122515747</v>
+        <v>-0.1478925853208623</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7603423861512301</v>
+        <v>-0.7603363900435353</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086878822403578</v>
+        <v>-1.086851092382678</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3929646505251996</v>
+        <v>-0.3929378339532098</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2262432765155475</v>
+        <v>0.2262585952431085</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.948153432848808</v>
+        <v>-0.9481168189786005</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926816287916607</v>
+        <v>-0.3926640984920575</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4380889659980355</v>
+        <v>0.4380993509866658</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2112304507480414</v>
+        <v>-0.2112427581219344</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7249160613949732</v>
+        <v>0.7249069545000283</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8491466028625042</v>
+        <v>-0.8491197594392111</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03468600028237082</v>
+        <v>-0.0346720819844151</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398692446814335</v>
+        <v>-1.398694806824614</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966303152066592</v>
+        <v>0.1966367656760355</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6517206300593014</v>
+        <v>0.6517205592618895</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604044840492266</v>
+        <v>-0.260401532793471</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061744563751583</v>
+        <v>-1.061729352905929</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0004940151585758227</v>
+        <v>0.0005076686830509658</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7977397707375889</v>
+        <v>0.7977738676091033</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5358097178095307</v>
+        <v>-0.5357854592869692</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7634003838433607</v>
+        <v>-0.7633915305234382</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274882549517179</v>
+        <v>-0.5274818196617302</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.851250194138067</v>
+        <v>0.85126280086503</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6815191577571064</v>
+        <v>0.6815089470484454</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4323774376214433</v>
+        <v>0.432371684990086</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03490122138850526</v>
+        <v>0.03491163496956983</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08813950656340563</v>
+        <v>-0.08814425554927975</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883675376482823</v>
+        <v>-0.7883665053130009</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092895000828578</v>
+        <v>-0.3092706307209181</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.434942130655631</v>
+        <v>-0.4349408563750818</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7794363796555291</v>
+        <v>-0.7794108793823596</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100919305665248</v>
+        <v>-1.100900529314029</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03737412344484142</v>
+        <v>0.03739147918015633</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07096365626368016</v>
+        <v>0.07097809121803808</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.0969048735680522</v>
+        <v>0.09692807064402592</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097884674475247</v>
+        <v>-0.2097601790694529</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433982956299359</v>
+        <v>0.1433952669525291</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7842166618904537</v>
+        <v>0.784237988175564</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01483191761107411</v>
+        <v>0.01484353046297124</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2594705956489161</v>
+        <v>0.2594852448407115</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365816911472617</v>
+        <v>-0.6365666042410523</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5422269940017417</v>
+        <v>-0.5422035059558261</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8909107750394125</v>
+        <v>-0.8908759100701918</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.0526852140277294</v>
+        <v>0.05267455431718199</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006183108395999924</v>
+        <v>-0.006185084866255406</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01691784941919289</v>
+        <v>-0.01691795024458704</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292213687437354</v>
+        <v>0.5292289881793643</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5926617507257996</v>
+        <v>0.5926802179866538</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688617992496314</v>
+        <v>-0.2688789417572179</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.250793566217012</v>
+        <v>-0.25079835851243</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732552679577023</v>
+        <v>-0.3732531349540791</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02375116549182076</v>
+        <v>-0.02375056527268109</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257033950107812</v>
+        <v>-0.1257059622789131</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.164196113008068</v>
+        <v>0.1641927781958382</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2368311684223042</v>
+        <v>0.2368612984421975</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1153009504775366</v>
+        <v>-0.1152860286528134</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672335502749968</v>
+        <v>0.267242486043943</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456936476164899</v>
+        <v>0.8456864906836334</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07320431389789873</v>
+        <v>0.07319951908349356</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1018154868086229</v>
+        <v>-0.1018022295873475</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8798214586141754</v>
+        <v>0.8798157177129744</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07992766813348087</v>
+        <v>-0.07994117203530676</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386872888505953</v>
+        <v>-0.3386818724084318</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401234901584294</v>
+        <v>-0.9401200999523566</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611629325745775</v>
+        <v>0.5611557315380779</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2296514611915302</v>
+        <v>-0.2296860567976929</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713145726291718</v>
+        <v>-1.713141026022368</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1648107982963463</v>
+        <v>0.164802300991106</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467185555828413</v>
+        <v>-0.4467305887519218</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336631242497753</v>
+        <v>-1.336632079396363</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.109459969391463</v>
+        <v>-0.1094723598954086</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3137101184265457</v>
+        <v>0.3137021420312744</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847242992789558</v>
+        <v>0.584726487490341</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053911857199672</v>
+        <v>1.053940056965308</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.4479811766687936</v>
+        <v>-0.4479724567432455</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026793222928994</v>
+        <v>-0.9026945213929068</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568510389020003</v>
+        <v>-0.7568624080380819</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131606753827473</v>
+        <v>-0.8131484028592559</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276038427263325</v>
+        <v>0.227628908720154</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457902843404249</v>
+        <v>-0.4457602468050101</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1500068982009377</v>
+        <v>-0.1499692134053347</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04142753627988448</v>
+        <v>-0.04139542952694864</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1257763012332118</v>
+        <v>0.1257921838939018</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534573350403477</v>
+        <v>-0.8534660352550988</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542547732103994</v>
+        <v>-0.2542541800941209</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355939382280776</v>
+        <v>-0.8355946103293397</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511142765860569</v>
+        <v>-0.7511118322674133</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.240271649054785</v>
+        <v>-0.2402377279781215</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6161959103286497</v>
+        <v>0.6162346559945088</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510918648813861</v>
+        <v>0.1511009680342699</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8462373851301744</v>
+        <v>-0.8462307788342902</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892809021270718</v>
+        <v>-0.5892782250681028</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4933162832023111</v>
+        <v>-0.4932995535849265</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5784263021073424</v>
+        <v>-0.5783990959379881</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111493874074746</v>
+        <v>-0.2111608381637267</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491671112807022</v>
+        <v>-0.5491662512643904</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408458089270491</v>
+        <v>-0.4408407891766541</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2377972311356254</v>
+        <v>0.2378072353801882</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1280093828065491</v>
+        <v>0.1280053734008703</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316898761705346</v>
+        <v>-0.9316907611081299</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585774992582145</v>
+        <v>-0.4585569078933787</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284719557924468</v>
+        <v>-0.728463057016677</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2634083610419579</v>
+        <v>-0.2633825823789303</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7402950212137515</v>
+        <v>-0.740262170149763</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036896731599904</v>
+        <v>1.036902181212435</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763661115142425</v>
+        <v>0.3763692312205806</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4958602520960466</v>
+        <v>0.4958792028697914</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171505375813589</v>
+        <v>0.3171580207717403</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07605467984239031</v>
+        <v>0.07607731603571306</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03170782653911194</v>
+        <v>-0.03170869545278549</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108831211384888</v>
+        <v>-0.4108737667601912</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947877322020205</v>
+        <v>-0.4947677645766203</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192287459174854</v>
+        <v>0.1192313932094495</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.844891009849713</v>
+        <v>-0.8449066878553456</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023191766813932</v>
+        <v>-1.023185322431035</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1327006151904723</v>
+        <v>-0.1327054841025347</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2456473314957798</v>
+        <v>-0.2456337351938691</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6543568733683816</v>
+        <v>-0.654348087240235</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205658952591201</v>
+        <v>-1.20566911780234</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060668359258382</v>
+        <v>-0.8060509426521654</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894800688525737</v>
+        <v>-0.1894728390222611</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1890527876542684</v>
+        <v>-0.189032272411412</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7443872658410291</v>
+        <v>-0.7443852553402682</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116242910333422</v>
+        <v>-0.7116144625968436</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007581463443104567</v>
+        <v>-0.007560839910239873</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.617716062881459</v>
+        <v>-0.6177312004899264</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410455939503968</v>
+        <v>-1.410449191863826</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9792073064981638</v>
+        <v>-0.9791820407196791</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08233384648265284</v>
+        <v>-0.08232195999368308</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8580408623461894</v>
+        <v>-0.8579996401329147</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304723754622744</v>
+        <v>-1.304708026705287</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.22363342033265</v>
+        <v>-1.22362377981476</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542419173739505</v>
+        <v>-0.8542323467673343</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2841213851533555</v>
+        <v>-0.2841170629033956</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.605128204700832</v>
+        <v>-0.6051359135296933</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.711508052995909</v>
+        <v>-0.7114998268153772</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.3171128462928208</v>
+        <v>-0.3170988904643364</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942484795472737</v>
+        <v>-0.7942498524137652</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05091694076616533</v>
+        <v>-0.05089353118839601</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.756331106085562</v>
+        <v>-0.7563090979425113</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695911471867458</v>
+        <v>-1.695875739818495</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465680766694182</v>
+        <v>-1.465660182720201</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831599294742807</v>
+        <v>-0.9831532792322072</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423513645946827</v>
+        <v>-0.8423396961459358</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571724644513364</v>
+        <v>-0.557176565961334</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.211775965640784</v>
+        <v>-1.223203248712845</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392828719991881</v>
+        <v>0.7392791422716926</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933864546936857</v>
+        <v>0.9933928738008297</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16961096848742</v>
+        <v>1.169598283482279</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732340081821282</v>
+        <v>0.9732549388996271</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977924982160405</v>
+        <v>0.8978111549983152</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164181120371528</v>
+        <v>0.2164523535353863</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195703835631785</v>
+        <v>1.195706274919458</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3777742835511126</v>
+        <v>0.3777606327200081</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845674916027568</v>
+        <v>0.2845741262345903</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0594881847824</v>
+        <v>1.059522574670999</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250325637455755</v>
+        <v>1.250335495973333</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783595925711686</v>
+        <v>0.9783634081556479</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406393146440403</v>
+        <v>1.406384555677327</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428463386444403</v>
+        <v>1.428476465372094</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504885578500271</v>
+        <v>0.950454997057154</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022508394946557</v>
+        <v>0.8022856538592136</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02084430753284252</v>
+        <v>-0.02090254127465324</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.484215256108911</v>
+        <v>0.4842177261432398</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277658598894677</v>
+        <v>1.277653078926898</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600836230118817</v>
+        <v>0.7600909591371112</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066300905182145</v>
+        <v>1.066309733883062</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.173800837680496</v>
+        <v>0.1738094335796743</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01894448355462598</v>
+        <v>0.01896811780911698</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322843092283253</v>
+        <v>1.322856488052041</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388940231824392</v>
+        <v>1.38895651637411</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007597359458809</v>
+        <v>1.00763112878969</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580253166171342</v>
+        <v>0.9580090592454975</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404359726973859</v>
+        <v>1.404360235369673</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255733080474344</v>
+        <v>0.1255498984727085</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151351895950268</v>
+        <v>1.151315821787983</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.569637612491199</v>
+        <v>1.569597564498804</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9721680193432393</v>
+        <v>0.9721759372544564</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132150514567472</v>
+        <v>0.4132298001593797</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.114917542898523</v>
+        <v>-0.1149329931072905</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135728777632942</v>
+        <v>0.1135993315576584</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077687374778902</v>
+        <v>0.3077411080553556</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706249878759016</v>
+        <v>0.7706069503150862</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9646829717394605</v>
+        <v>0.9647203507890595</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449133228636109</v>
+        <v>0.5449285731570843</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390650871408632</v>
+        <v>0.9391141695336901</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970931496663294</v>
+        <v>1.970936056466117</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195207017155435</v>
+        <v>1.195229535295368</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618051264737177</v>
+        <v>0.2618072342743813</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331424419079274</v>
+        <v>1.331462816525488</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650082451126168</v>
+        <v>1.650055826129517</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072923836839314</v>
+        <v>1.072919201863318</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191159918677215</v>
+        <v>1.191208827868541</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519534513361164</v>
+        <v>1.519525314433131</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586058397290954</v>
+        <v>1.586073560441162</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718689498352803</v>
+        <v>0.2718838760080705</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719799975726093</v>
+        <v>1.719829489069876</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400977291891267</v>
+        <v>1.401008402616271</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332342705326142</v>
+        <v>1.332388215467516</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593462932221411</v>
+        <v>1.593483243625589</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6253869313005512</v>
+        <v>0.625382140703965</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119825889029671</v>
+        <v>0.3119921428572395</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9785145403128247</v>
+        <v>0.9785617852238364</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058531339864339</v>
+        <v>0.5058575905739585</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798639283554094</v>
+        <v>0.379906951599767</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435373783001886</v>
+        <v>1.435357658159048</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483021922016177</v>
+        <v>1.483012558074134</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002139248465487</v>
+        <v>2.00218398062614</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095222182898968</v>
+        <v>1.095213916956014</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518533348463234</v>
+        <v>1.518534871004605</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8031703100188264</v>
+        <v>0.8032153998201852</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861106325703975</v>
+        <v>0.3861800008960543</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363887925524463</v>
+        <v>1.363926930080866</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439435304595133</v>
+        <v>0.7439717007237695</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848786857785813</v>
+        <v>0.9848698757485933</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9007982065542689</v>
+        <v>0.9008319801742872</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846485601857167</v>
+        <v>0.6846969365271467</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972764722115491</v>
+        <v>0.6972908783981564</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8789586213122178</v>
+        <v>0.8789458864251798</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650386274263761</v>
+        <v>0.6650559684947207</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754143171362415</v>
+        <v>0.4754525731939414</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.47857371269386</v>
+        <v>1.478603263075208</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181202295887649</v>
+        <v>0.2181424099759667</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070136798528794</v>
+        <v>1.070152881667972</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074041137520174</v>
+        <v>0.6074041549697795</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.90668734190247</v>
+        <v>1.906683830056383</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5079646416205031</v>
+        <v>0.5079729490827743</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6209252742736712</v>
+        <v>0.6209798723296072</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771879710236666</v>
+        <v>-0.5771589566897155</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214458984816277</v>
+        <v>0.5214392439600738</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.944372588002435</v>
+        <v>0.9443967382188276</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5423974861278842</v>
+        <v>0.5423928366309539</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5807975169378736</v>
+        <v>0.5808069959264029</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1600708343877028</v>
+        <v>-0.1601033908396042</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5520258602389564</v>
+        <v>0.5520118813712656</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411245210147695</v>
+        <v>1.411241725991569</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743035037477433</v>
+        <v>0.3742849478053483</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5607611833189633</v>
+        <v>0.5608121260589863</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2977918503627884</v>
+        <v>0.2977891022346923</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3273755547207725</v>
+        <v>0.3274238430500312</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8193187990501772</v>
+        <v>0.819358173591391</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007326891059368</v>
+        <v>0.2007019218784755</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129572030649917</v>
+        <v>0.1129207303882933</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185333257098895</v>
+        <v>0.6184950527038495</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568412324044155</v>
+        <v>0.4568380423960738</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247700680938038</v>
+        <v>-0.2247775655373543</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7395184137402869</v>
+        <v>-0.7395181719994689</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5348162105848796</v>
+        <v>-0.534775059730641</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909653674506711</v>
+        <v>0.1909918323990422</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594911466087351</v>
+        <v>1.594956367440282</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211107509207745</v>
+        <v>0.5211659972463993</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3855845099471585</v>
+        <v>0.3856533822128382</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06909573221762534</v>
+        <v>0.06912290048656905</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830761199705125</v>
+        <v>0.7830911879652044</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8835002035424168</v>
+        <v>0.8835115110174068</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03035751082087476</v>
+        <v>-0.03039575544767086</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01563525985417093</v>
+        <v>0.01566667076629158</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3875097872835693</v>
+        <v>0.3874958308537214</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405829338090502</v>
+        <v>1.405859822369836</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.878014016853066</v>
+        <v>1.877969002427587</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4372517361054236</v>
+        <v>0.4372222562406402</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381302636072122</v>
+        <v>0.2380882081733785</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.66926728565867</v>
+        <v>-0.6692715831613867</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015366794066398</v>
+        <v>2.015390741356604</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9052016850541394</v>
+        <v>0.9052431797050905</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259780932839987</v>
+        <v>1.25978753995006</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4006964518457144</v>
+        <v>0.4007007794735178</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1269943940896798</v>
+        <v>0.1269724821860196</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994424633440593</v>
+        <v>0.1994195006648352</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636722316322593</v>
+        <v>1.636706004107157</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238824285754984</v>
+        <v>1.238834504795961</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033348871691249</v>
+        <v>0.8033346521034512</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757920331760017</v>
+        <v>0.5757596490209392</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5817912362100333</v>
+        <v>0.5818169336013096</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07761597064545571</v>
+        <v>-0.07759470005178887</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304698225482978</v>
+        <v>-0.9304158940268522</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232948990746877</v>
+        <v>-0.3232813492058073</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078614903498696</v>
+        <v>0.107870192213234</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2313066281240317</v>
+        <v>-0.2313332646594225</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8557737883590727</v>
+        <v>0.8557877495416327</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293326420965492</v>
+        <v>0.4293481722349877</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.494010513185289</v>
+        <v>1.493987725218825</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.87560090396503</v>
+        <v>1.875605342450768</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638640581760648</v>
+        <v>0.3638113811147596</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011453083832315</v>
+        <v>1.011426176228484</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.41875062999805</v>
+        <v>0.4187679713956574</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5397020551450715</v>
+        <v>-0.5396931873184838</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944634065508283</v>
+        <v>0.6944691596170075</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01415271192646885</v>
+        <v>-0.01417801904436939</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775407945518055</v>
+        <v>-0.4775627933204153</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.10784750030354</v>
+        <v>1.107823882289106</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930701006461384</v>
+        <v>0.1930806858926529</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05772439715325396</v>
+        <v>0.05773315138166771</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150622972721952</v>
+        <v>0.5150518611761422</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2704451677326296</v>
+        <v>-0.270475429182901</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806239809398155</v>
+        <v>-0.1806309759738419</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841576967726796</v>
+        <v>0.4841861131938898</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685322099856446</v>
+        <v>-0.2685288725525687</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4521149654452047</v>
+        <v>-0.4521129965039643</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2948227494987011</v>
+        <v>-0.2947921914269153</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01052560446882152</v>
+        <v>0.0105507025094327</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107879633558987</v>
+        <v>1.107874958399095</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6961053022764859</v>
+        <v>0.696119938887782</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2176879265007562</v>
+        <v>0.2176901482862836</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479084907298869</v>
+        <v>0.5479391771351153</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08421108330128262</v>
+        <v>-0.08423014402428496</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155545097339754</v>
+        <v>0.6155760040284718</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096227009695875</v>
+        <v>1.09620055996182</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8313035662344892</v>
+        <v>0.8312652890205946</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3103793468328547</v>
+        <v>-0.3104154009305732</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08335708283420086</v>
+        <v>0.08336387677866493</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979704096035248</v>
+        <v>-0.5979646972367306</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702789153517949</v>
+        <v>-0.1702795057818897</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3598273104643217</v>
+        <v>-0.359839365387144</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2597942168784476</v>
+        <v>-0.2598119801309183</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2568020408140847</v>
+        <v>0.2568074497940836</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4797114215346538</v>
+        <v>0.4797129321843253</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453637020120313</v>
+        <v>-0.3453393515216321</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7616872207075553</v>
+        <v>-0.761680471210614</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720497791108804</v>
+        <v>0.2720959664815977</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176194796011517</v>
+        <v>-0.717612903449046</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639837430885487</v>
+        <v>0.6639893467174213</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03991543053318527</v>
+        <v>-0.03988753628306666</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115152605223278</v>
+        <v>-0.5114981274268698</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4209164625848265</v>
+        <v>0.4209307600720788</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426932418186083</v>
+        <v>0.3426653649907131</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363568569164386</v>
+        <v>0.2363427783264999</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465479954595798</v>
+        <v>-0.5465608104147571</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266135778939229</v>
+        <v>1.266133308602361</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935698381412246</v>
+        <v>0.9935502613664211</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320509491106963</v>
+        <v>0.83205603634388</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808558228370994</v>
+        <v>0.6808547562174927</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147779041288579</v>
+        <v>0.3147836007313629</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241695828880335</v>
+        <v>1.241655835142078</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059498379761298</v>
+        <v>0.4059387076831749</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4855448243236078</v>
+        <v>0.4854760113971237</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497769278350272</v>
+        <v>0.5497266869889709</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6714585056267058</v>
+        <v>0.6714725866444187</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028841845505895</v>
+        <v>0.8029040333089199</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310084040154292</v>
+        <v>0.2310022788349764</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2860993183294061</v>
+        <v>0.2861045216035361</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006266657371807109</v>
+        <v>-0.006302645327203696</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4575104050709633</v>
+        <v>0.4575239852855699</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088208566613507</v>
+        <v>0.1088321918362369</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068354135785028</v>
+        <v>0.1068522292402268</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750232555601113</v>
+        <v>1.750270971633057</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09877537914356743</v>
+        <v>-0.09875993005125662</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022696276548747</v>
+        <v>0.2022929639541344</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711705106353409</v>
+        <v>0.5711687783004359</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472585257952587</v>
+        <v>0.4472529592752502</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04311232122956944</v>
+        <v>-0.04311150188824685</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.522223700277198</v>
+        <v>1.52225196270736</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1076697186772617</v>
+        <v>0.1077033513341991</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770194474770552</v>
+        <v>0.477005285531086</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291135238892828</v>
+        <v>1.291144021925847</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7410425405007843</v>
+        <v>0.7410350929170877</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.981068061222806</v>
+        <v>0.9810108676528243</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07318175420821232</v>
+        <v>-0.07320374649469916</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144344606537479</v>
+        <v>0.5144124440089601</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155575898508362</v>
+        <v>1.155582619098153</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979790599581047</v>
+        <v>0.7979896002212311</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382468492623752</v>
+        <v>1.382425857999382</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.375873435789867</v>
+        <v>0.3758650370306617</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993308699682154</v>
+        <v>0.2993073155488505</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.944015962783309</v>
+        <v>0.9439995092170091</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251220398019747</v>
+        <v>1.251198159906681</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1698270844440778</v>
+        <v>0.1698406869078604</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522165272721494</v>
+        <v>0.4522232345136925</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793721969159189</v>
+        <v>0.1793825823339641</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393999579871391</v>
+        <v>-0.4393988362013322</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947177595339833</v>
+        <v>-0.1947435542380799</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2424039668331058</v>
+        <v>-0.2424018055848606</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304842396202777</v>
+        <v>0.3304862825898686</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152899815682913</v>
+        <v>0.3152951108296013</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6175002427875458</v>
+        <v>0.6174945604265685</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3028887755247718</v>
+        <v>0.3028802790741764</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882270301179107</v>
+        <v>-0.3882357048100404</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095605316314319</v>
+        <v>-0.1095788201123207</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372556953403489</v>
+        <v>0.337229300424741</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191733077962722</v>
+        <v>-0.519212371589601</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5822779143876233</v>
+        <v>-0.5823305667932899</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652829242074147</v>
+        <v>-0.6652714426368002</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760733249056863</v>
+        <v>0.2760987406537579</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09349536052913597</v>
+        <v>-0.09350242987482626</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911449096333174</v>
+        <v>0.4911902331175295</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.465307043675716</v>
+        <v>0.4652944534506225</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904807558863171</v>
+        <v>0.7904999985976239</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176265226367777</v>
+        <v>1.176278794193787</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.6054378781267916</v>
+        <v>-0.6054700045149022</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5600963567212217</v>
+        <v>-0.5600336315667886</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.248140873931488</v>
+        <v>-0.2481240302868938</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078767462408638</v>
+        <v>-0.4078662032178266</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.858590815200438</v>
+        <v>-0.8585695921805023</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308739963264268</v>
+        <v>0.1309219021879702</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.685019089017362</v>
+        <v>1.685026210842147</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243324955664109</v>
+        <v>1.24338804012636</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990631698263809</v>
+        <v>0.7990903366518762</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2735206041608235</v>
+        <v>0.2734952282538302</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7308214867329119</v>
+        <v>0.7308033077648177</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182060406070962</v>
+        <v>0.5182126034702996</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487303028335737</v>
+        <v>0.5487096697017257</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5323851069020079</v>
+        <v>0.5324343941029969</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196956757083551</v>
+        <v>0.51965036938832</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818195048153221</v>
+        <v>0.781821666857487</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2201623828680582</v>
+        <v>-0.2201978631605515</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828996528254311</v>
+        <v>-0.6829113760163238</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4300997702664811</v>
+        <v>-0.4300309932839404</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7378874803669729</v>
+        <v>0.7378754180337662</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9826035698656885</v>
+        <v>-0.982636407015968</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1983474489969982</v>
+        <v>-0.1983432662161501</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01201319200779004</v>
+        <v>-0.01207401111891323</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263523566833888</v>
+        <v>-0.126329913892112</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04610449041206333</v>
+        <v>-0.04612134037968533</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102198254593176</v>
+        <v>0.6102294439943087</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03101236855618008</v>
+        <v>-0.03097496476560735</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342573512300351</v>
+        <v>-0.8342654358118349</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732576876401194</v>
+        <v>0.5732955388295831</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.727006192423031</v>
+        <v>-0.7269530830773419</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6533201509272332</v>
+        <v>-0.6532507393126418</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2094040826531516</v>
+        <v>-0.209395335821686</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.01871936025378</v>
+        <v>-1.018746938673187</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.338189052528154</v>
+        <v>0.3381856751403081</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1078905421431502</v>
+        <v>0.1078542044285708</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085889998505188</v>
+        <v>-0.408616544451105</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09825653309521899</v>
+        <v>-0.09826885052816979</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6480046332869501</v>
+        <v>-0.6480044909547715</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.0299926379162677</v>
+        <v>-0.02998745676200236</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058626399760695</v>
+        <v>-0.5058618276019907</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.336478957249914</v>
+        <v>-0.3364749099071037</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276915256111729</v>
+        <v>-1.276871712943878</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08486101750154398</v>
+        <v>-0.08480881797015706</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04933750501945123</v>
+        <v>-0.04934392459704928</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110339730540448</v>
+        <v>-0.2110133290396567</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6342983190775225</v>
+        <v>0.6342848864122865</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516852884563022</v>
+        <v>1.516842556092502</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7035877689636022</v>
+        <v>0.703554780548676</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05727776724411407</v>
+        <v>0.05724995145196869</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463735915792305</v>
+        <v>0.8463697965102089</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083827921770388</v>
+        <v>1.083806415273782</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625780436842144</v>
+        <v>1.62573100279695</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038146524174259</v>
+        <v>0.6038363662986442</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733901413333849</v>
+        <v>0.4733482143897824</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572553524397432</v>
+        <v>0.457258062837173</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092669601937511</v>
+        <v>0.1092449579229119</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2074597276681201</v>
+        <v>-0.207495570271269</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8418060932596312</v>
+        <v>0.8418231342957661</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901227417440232</v>
+        <v>0.6901133824606082</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627896035014207</v>
+        <v>-0.2628295253730392</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219784879358539</v>
+        <v>-0.2219426175891601</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062466601589323</v>
+        <v>1.062469419333124</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380828969885589</v>
+        <v>1.380853707588912</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1584494345916022</v>
+        <v>-0.1584126279060467</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355811153717302</v>
+        <v>-1.355861373552238</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408199658452021</v>
+        <v>-1.408164127757594</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2942363489613719</v>
+        <v>-0.2942031972566087</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119952611013025</v>
+        <v>-1.119949847944947</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008142128173592151</v>
+        <v>-0.008146284742616168</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698049228123376</v>
+        <v>-0.1698151892463162</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317316546755511</v>
+        <v>0.1317179935800782</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7604059455997192</v>
+        <v>-0.7604194597803581</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4644926357621634</v>
+        <v>-0.4644864628606656</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023978863954875</v>
+        <v>-1.023969051132089</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981455526240812</v>
+        <v>-0.2981963929635793</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610549341540625</v>
+        <v>-0.3610515510362689</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03785127867973214</v>
+        <v>0.03791755689071562</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7329950070618116</v>
+        <v>0.733044877584963</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2105176811237586</v>
+        <v>-0.2104607174412882</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8016204909514681</v>
+        <v>-0.8016155141832011</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518656558402081</v>
+        <v>0.2518355856666639</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02725356444732106</v>
+        <v>0.02725041509572681</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.322847838720122</v>
+        <v>0.3228407887317402</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350680784058595</v>
+        <v>0.4350632439549665</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.594748910966194</v>
+        <v>-0.5947685583819883</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.118179865088282</v>
+        <v>0.1181824333005939</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8117155733748612</v>
+        <v>0.8117227579801765</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609826846756356</v>
+        <v>0.4609417486599639</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884394198811204</v>
+        <v>0.4884384789116278</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.177000383970986</v>
+        <v>-0.1769577747740304</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7724307680886822</v>
+        <v>-0.772439142971774</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8106620412120229</v>
+        <v>-0.8106083964966517</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235295802053257</v>
+        <v>0.6235333498393164</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517429653228916</v>
+        <v>0.8517417433455559</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.977903475267765</v>
+        <v>0.9779117823332256</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194857502739896</v>
+        <v>-0.2194891468124375</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04632576510236867</v>
+        <v>0.04631054012972681</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503617699711487</v>
+        <v>-0.6503461290653899</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742703321214937</v>
+        <v>0.9742660239994695</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572837429819854</v>
+        <v>0.6572975663382484</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026777629651203</v>
+        <v>1.026785751307748</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1941013008235791</v>
+        <v>0.1941023147464495</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3122578721538503</v>
+        <v>0.312223221997101</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077338301283247</v>
+        <v>1.077329082333794</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5226130916736342</v>
+        <v>0.5226072419483829</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153343803031915</v>
+        <v>1.153316085454873</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.12931425080394</v>
+        <v>1.129311899768458</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288645409679451</v>
+        <v>0.1288352432678094</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07101190393814698</v>
+        <v>0.07097826113485729</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3717916365346362</v>
+        <v>0.3718541297192753</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884252659836966</v>
+        <v>0.4884889335796958</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5035106008428001</v>
+        <v>0.5035583109998518</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03151430239192642</v>
+        <v>-0.03153098489061957</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337817940828439</v>
+        <v>-0.2337567432202332</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487365167839328</v>
+        <v>1.487389946850535</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162695239465525</v>
+        <v>0.916262759030358</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5243229593721258</v>
+        <v>0.5243433653973713</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3363700024588839</v>
+        <v>0.3363671611704807</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0979419010062326</v>
+        <v>0.09790060411684555</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516609605450512</v>
+        <v>-0.1516717171177934</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163723870311247</v>
+        <v>0.1163508824568042</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526214868808892</v>
+        <v>-0.6526457341710918</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455480152926932</v>
+        <v>-0.4455744549579811</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204042589813596</v>
+        <v>0.2204100832789279</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4696063958897899</v>
+        <v>0.4696236464621544</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840324216855156</v>
+        <v>-0.2840125494781732</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8519984119023669</v>
+        <v>-0.8519947503957045</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2098096138429163</v>
+        <v>0.2098432621529822</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2362247090067347</v>
+        <v>0.2362129164727183</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2317213700660377</v>
+        <v>-0.2316972698929629</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.0303806414016424</v>
+        <v>-0.03038551113374175</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342716087930137</v>
+        <v>-0.1342712624177906</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728218335576664</v>
+        <v>-0.6728419081687184</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3694549988581632</v>
+        <v>-0.3694375836637234</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624607690055359</v>
+        <v>0.1624276313309821</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321651527502058</v>
+        <v>-0.9321991622330047</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568174450504324</v>
+        <v>-0.6568347407174583</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3357892831262269</v>
+        <v>0.3358363429853476</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514438427952572</v>
+        <v>0.1514790245325206</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2136205481193966</v>
+        <v>0.2136634297750135</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.0928508643833679</v>
+        <v>0.09282860832102695</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4872348223646813</v>
+        <v>0.4872415649570887</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663368569938421</v>
+        <v>0.1663254201680575</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078285911355377</v>
+        <v>0.3078285480982201</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064615988820908</v>
+        <v>1.064654600318839</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403853947782648</v>
+        <v>0.9403253439916437</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100614581183455</v>
+        <v>-0.2100801805282486</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842793282655163</v>
+        <v>0.4842597650623434</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806607230921828</v>
+        <v>0.5806013222227686</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418587040023672</v>
+        <v>-0.1418648060631666</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154198712254768</v>
+        <v>0.7154498760086194</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512290000208159</v>
+        <v>-0.5512392042259262</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160693903694278</v>
+        <v>1.160701221417113</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09369072790052395</v>
+        <v>0.0936645618867073</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.194029542470836</v>
+        <v>-0.1940520846661228</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001630336428306599</v>
+        <v>0.001632944437700924</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226410075323878</v>
+        <v>-0.4226760883249421</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09182395468505754</v>
+        <v>0.09179484227284718</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2814080227466226</v>
+        <v>0.2814100601797588</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115346183601818</v>
+        <v>-0.5115229735831023</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847445693555719</v>
+        <v>-0.3847224191497607</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4987976996808046</v>
+        <v>0.4988220591422038</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234235445573045</v>
+        <v>1.234218168004815</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1130958234102331</v>
+        <v>-0.1131202120366008</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822833282578233</v>
+        <v>-0.4822557911798188</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073434097070277</v>
+        <v>-0.3073523975771431</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023824631571622</v>
+        <v>0.2023668767493496</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154530849471313</v>
+        <v>-0.3154601636302207</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352488338513024</v>
+        <v>-0.2352336616747249</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.458142527148066</v>
+        <v>-0.4581310314918413</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05204405615276968</v>
+        <v>-0.05204960580899049</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073402505188493</v>
+        <v>-0.507395008045849</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440637572321652</v>
+        <v>0.3440187717937626</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096791864371059</v>
+        <v>0.1096492949813535</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.16323667770111</v>
+        <v>-0.1632637002691769</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9584473102508189</v>
+        <v>0.9584128677182797</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036031337743673</v>
+        <v>0.5035973296591434</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442400522086754</v>
+        <v>0.5442404210756601</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267944844350425</v>
+        <v>1.267947091736901</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199678956549234</v>
+        <v>1.199656602449588</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777863882655153</v>
+        <v>0.3777674909125348</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894615409779726</v>
+        <v>-0.4894677699138208</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259252698299469</v>
+        <v>-0.2259180701514769</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473063292193183</v>
+        <v>0.3472965312990836</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342873077095059</v>
+        <v>-0.5342486312045477</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365386376685006</v>
+        <v>-0.8365502577963564</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152169511522248</v>
+        <v>0.4152362568178923</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8677295643703823</v>
+        <v>-0.8677211636765199</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377663355064129</v>
+        <v>-0.7377257072007348</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415056794780016</v>
+        <v>-0.1415051796057453</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5419226114204186</v>
+        <v>0.5419253743191976</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.270645302902716</v>
+        <v>0.2706535766890146</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782598402758537</v>
+        <v>-0.7782867010522263</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078330453452129</v>
+        <v>0.3078479750946488</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6503633557195532</v>
+        <v>0.6503645557808235</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800765295337045</v>
+        <v>-0.3801242065249244</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.778086100004973</v>
+        <v>-0.7780774253999889</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161150163818478</v>
+        <v>-0.1160873974455232</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0003736298273546564</v>
+        <v>-0.0003617160819678518</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568772052224013</v>
+        <v>0.4568673298605376</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598925169335152</v>
+        <v>-0.4599123553474272</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964424068821994</v>
+        <v>-0.4964432506382613</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07679246083332859</v>
+        <v>-0.07679265031087674</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732186571687957</v>
+        <v>-0.2731979453117115</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1206819834499261</v>
+        <v>0.1206711815643426</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5689430370576888</v>
+        <v>-0.5689336906327972</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168521750014613</v>
+        <v>-0.3168607242774645</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1801379397661415</v>
+        <v>-0.1801628840687938</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2131893952590807</v>
+        <v>-0.213193571304271</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671307059539806</v>
+        <v>-0.7671408604198583</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9390186050940909</v>
+        <v>-0.9390202963364794</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.0482954755973347</v>
+        <v>-0.04833127735018857</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563196479829484</v>
+        <v>-0.4563539360111833</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.566538401959004</v>
+        <v>-0.5665593936775424</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104662147214696</v>
+        <v>-0.2104614062980471</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03852808742101329</v>
+        <v>0.03855137867662125</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03055754651045231</v>
+        <v>0.03056889743605719</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124873685807906</v>
+        <v>0.2125016655919103</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815844212372301</v>
+        <v>0.9815669420889839</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003829502045493</v>
+        <v>1.003894294876767</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5812133362366709</v>
+        <v>0.5812151839661275</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485519310903645</v>
+        <v>0.2485475380918007</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6839088699367107</v>
+        <v>0.6838750145120822</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2664779646187678</v>
+        <v>-0.2665221066362212</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519976335120098</v>
+        <v>0.7519771817363259</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453329296199636</v>
+        <v>-0.1453537754575207</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.288056515465976</v>
+        <v>-0.288049765013356</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252740363133338</v>
+        <v>0.6252916694414504</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7353163620273789</v>
+        <v>0.7353118485473015</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3042164184078149</v>
+        <v>-0.304227727823807</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969231169431575</v>
+        <v>-0.5969530244718267</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.5397404753856246</v>
+        <v>0.539722782770939</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164982206391378</v>
+        <v>1.164938508088193</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3879542941001301</v>
+        <v>-0.3879757829908431</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.211010413276155</v>
+        <v>1.210969717159788</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705247023532723</v>
+        <v>-0.2705502792846533</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7003952912381591</v>
+        <v>-0.7003788622692716</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313037272437355</v>
+        <v>-0.1313130086711692</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098274499346848</v>
+        <v>0.3097967923948355</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1527674957601887</v>
+        <v>-0.1527493596763606</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632276925094754</v>
+        <v>0.2632612603932438</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02410733575206689</v>
+        <v>0.02407408870843622</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289286851241178</v>
+        <v>-0.5289677963359937</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363745765048844</v>
+        <v>-0.5363772896446832</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827677310407646</v>
+        <v>-0.1827814472658902</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786063362216887</v>
+        <v>0.5785889075717253</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4097462186997152</v>
+        <v>-0.4097305511370208</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866071823071444</v>
+        <v>0.2866458123695872</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338980946888395</v>
+        <v>-0.7339116453925075</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537641190973496</v>
+        <v>-0.2537632148155515</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470832150888455</v>
+        <v>-0.847099395317796</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.48737789087694</v>
+        <v>-0.487367443809498</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182737203449948</v>
+        <v>-0.2182614232959187</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415975909448835</v>
+        <v>-0.1416255085173576</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016776469790259</v>
+        <v>-1.016749996132912</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9461006286810451</v>
+        <v>-0.9460903942111927</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9788936606682467</v>
+        <v>-0.9788896954726094</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915204638470573</v>
+        <v>-0.7914936205555329</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962458326703938</v>
+        <v>-0.3962347967902163</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941787633124972</v>
+        <v>-0.4941605642798422</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189282865969628</v>
+        <v>-0.5189047563198865</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323649087277462</v>
+        <v>0.3323882708284193</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200178306606907</v>
+        <v>0.4200095094710373</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8417183389392766</v>
+        <v>-0.8417736154983404</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2086119981788687</v>
+        <v>-0.2086132244575153</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097422117245906</v>
+        <v>1.097411161886222</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661387236160409</v>
+        <v>0.3661809856099308</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1448976695815394</v>
+        <v>0.1449356686126317</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.145073470242937</v>
+        <v>-0.145058696880511</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02431669599818056</v>
+        <v>0.02432779757260223</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.21412430951472</v>
+        <v>-0.2141698141900539</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3980219747805299</v>
+        <v>-0.3980102676276511</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07373203052884819</v>
+        <v>-0.07370504038456377</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685763521953168</v>
+        <v>0.5685799280279853</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03657427005556582</v>
+        <v>0.03659605342240752</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09160721068167955</v>
+        <v>0.0916371980955637</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.209857605183778</v>
+        <v>0.209861260983949</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362907991707258</v>
+        <v>0.536322776983221</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360535316518194</v>
+        <v>1.360486876773054</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238900421367384</v>
+        <v>1.238883948074964</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919775183855267</v>
+        <v>0.3919437027977009</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988372133640365</v>
+        <v>0.1988802727912497</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3166255610222034</v>
+        <v>0.3166328377425154</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307085917654452</v>
+        <v>1.30707539239248</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.625497544886867</v>
+        <v>0.6254920579783957</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290564733576758</v>
+        <v>1.29055446074362</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06449796722491581</v>
+        <v>-0.06449361516231643</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111856676775147</v>
+        <v>1.111829090301534</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330784429750881</v>
+        <v>1.330741326825081</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942689173635649</v>
+        <v>0.1942499671907637</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536364100946338</v>
+        <v>1.536355967907341</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111623481399328</v>
+        <v>1.111622817357666</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04383067343818398</v>
+        <v>0.04379383461981746</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415950122812025</v>
+        <v>0.4415995757049071</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4848072400148482</v>
+        <v>0.4848156792686422</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.154064829413716</v>
+        <v>-0.1540611855401151</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.333177825275041</v>
+        <v>-0.3332218561244694</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696886916898356</v>
+        <v>0.3696860480583407</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278420024745199</v>
+        <v>1.278423630673819</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272302529064993</v>
+        <v>-0.1272433800377822</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561945971210061</v>
+        <v>0.75617082248945</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264918185016646</v>
+        <v>0.4264741927326762</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007077439267412312</v>
+        <v>0.007084174826458436</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3188489938831041</v>
+        <v>0.318867245964036</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.2601879230186</v>
+        <v>-1.260185755469975</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05165326700332915</v>
+        <v>0.05163524959686539</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09317428838037133</v>
+        <v>0.09314795120338303</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113994753378002</v>
+        <v>0.1113712928928212</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01548373987332309</v>
+        <v>-0.01547237570518733</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077734894254005</v>
+        <v>0.107759692932325</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1288982742248617</v>
+        <v>-0.1288918233730966</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.513976058358684</v>
+        <v>-0.513991975619802</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4846717834960904</v>
+        <v>0.484638896120025</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218130223215614</v>
+        <v>0.2218167277516249</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.845719706792549</v>
+        <v>0.8457320526571916</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649667091840441</v>
+        <v>0.4649468080860125</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4259243442460968</v>
+        <v>0.4258979519079215</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286885547526867</v>
+        <v>-0.6286757866391561</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688879462560417</v>
+        <v>1.688884510069458</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289846397759091</v>
+        <v>1.289823260838284</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08660516718922157</v>
+        <v>-0.08659371241981038</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325448957175505</v>
+        <v>0.432518602763968</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548368073163794</v>
+        <v>-0.4548613750167031</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549685163878272</v>
+        <v>-0.2549869347154546</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3969097542172454</v>
+        <v>0.3968988725648047</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816314465294278</v>
+        <v>-0.5815793750564595</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.588765681640655</v>
+        <v>-0.5887600084968525</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135169826912895</v>
+        <v>1.135140263682905</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217730966776884</v>
+        <v>2.217769178285184</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4924998371693687</v>
+        <v>0.4924936842237391</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.186301783287748</v>
+        <v>-0.1863018825456534</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379154030980643</v>
+        <v>-0.1379006999597839</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3104973821949811</v>
+        <v>-0.310511353028706</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501339551042413</v>
+        <v>-0.4501258865901903</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499492263254491</v>
+        <v>-0.2499557880998651</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06518398103411403</v>
+        <v>0.06520340854166022</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981288967966003</v>
+        <v>-0.1981033577066746</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844401224585604</v>
+        <v>-0.5844197941915391</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475458755000584</v>
+        <v>-0.547531659716275</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268524075235691</v>
+        <v>0.4268637435645702</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955569744221948</v>
+        <v>-0.495563606811568</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705066998130107</v>
+        <v>0.5705368045263045</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529805322670107</v>
+        <v>-0.6529342463598343</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4028015021540977</v>
+        <v>-0.4027692266920068</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055626949922285</v>
+        <v>1.055653253826408</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.162280465277814</v>
+        <v>-0.1622861492442637</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903743585780066</v>
+        <v>-0.3903554769870702</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445524339989049</v>
+        <v>0.2445433073521648</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.208948429918944</v>
+        <v>0.2089411861181852</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881905940544198</v>
+        <v>0.8882300429058121</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07280121542551368</v>
+        <v>-0.07282237344364613</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665637118280143</v>
+        <v>0.1665126918241861</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5952179663082171</v>
+        <v>0.5952123650351311</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2823227638395753</v>
+        <v>0.2823287914295504</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5033181269713951</v>
+        <v>0.5032451999332829</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8071968289253867</v>
+        <v>0.8071740869620863</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746788254956666</v>
+        <v>0.6746530259909498</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6116783283330285</v>
+        <v>0.6116693978789904</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.449963167037481</v>
+        <v>0.4499537115252737</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3178469697494853</v>
+        <v>-0.3178878599269977</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099609927123098</v>
+        <v>-0.1099653317141572</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936251141176038</v>
+        <v>-0.4936255180331869</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.09001142738457284</v>
+        <v>0.0899474215623427</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068951544781779</v>
+        <v>-1.068966771174277</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211781473132584</v>
+        <v>-1.21172535484182</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.896656197998919</v>
+        <v>-0.8966530382615846</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1168055855512022</v>
+        <v>-0.1168110561531926</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836615338967244</v>
+        <v>-0.7836348032591203</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.573527417604292</v>
+        <v>-0.5735401173853675</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294475772514231</v>
+        <v>-0.52946443166435</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053645768523704</v>
+        <v>-0.9053777961326682</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5275005572217053</v>
+        <v>-0.5274977684487095</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829292517455537</v>
+        <v>-0.2829305482567734</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01206908352655386</v>
+        <v>-0.01206949003659599</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063945044326606</v>
+        <v>-0.9063789576436737</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1273074636180157</v>
+        <v>0.1272958540851796</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365732143767489</v>
+        <v>-0.3365648496638347</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374968597210212</v>
+        <v>0.1374607485890904</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3837289398083014</v>
+        <v>-0.3837480456407704</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022974599240749</v>
+        <v>-1.023008020224363</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766628668971228</v>
+        <v>-0.8766446718653925</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824756300704135</v>
+        <v>0.1824893687360097</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975529083762576</v>
+        <v>0.2975591428559678</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06926534852325464</v>
+        <v>-0.06927178915980797</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5590362035853476</v>
+        <v>-0.5590339390176994</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686562402380493</v>
+        <v>-0.5686324503882965</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263980554582575</v>
+        <v>-0.9263960197787213</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417611220322778</v>
+        <v>-0.341755313464549</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021118457454079</v>
+        <v>-1.021117156505845</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783423092679191</v>
+        <v>0.2783130398718329</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146401664326444</v>
+        <v>0.8146345461757565</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1351013518068928</v>
+        <v>0.135091296101908</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628511284311003</v>
+        <v>0.5628287087875673</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528632078134424</v>
+        <v>0.5528737126839739</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2337756249224738</v>
+        <v>0.2337717695039319</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08467859647478812</v>
+        <v>0.08471415466680562</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.0950480191612143</v>
+        <v>0.09505953693825753</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734308573746987</v>
+        <v>-0.2734479162663091</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500292944657405</v>
+        <v>-0.2499996459632972</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034778293374728</v>
+        <v>-0.3034775944110563</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4683041846518874</v>
+        <v>0.468238274629908</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1102105631661002</v>
+        <v>0.1102628647181903</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9440371423706775</v>
+        <v>-0.9440614463801251</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668086425373191</v>
+        <v>-0.7667817366005015</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6518405642664999</v>
+        <v>-0.6517931167677167</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6977987834710351</v>
+        <v>-0.6977514117210335</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.382533870327959</v>
+        <v>-0.3825326007204864</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3029022978988465</v>
+        <v>-0.3028994850987555</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265113442506758</v>
+        <v>1.265110713328204</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801705767722672</v>
+        <v>-0.3801713059741385</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783646809477649</v>
+        <v>1.783607932835495</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234334367941578</v>
+        <v>1.234339447828293</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2382792923274648</v>
+        <v>-0.2382836398595031</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.392060065749343</v>
+        <v>0.3920102908837538</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03537286178370459</v>
+        <v>0.03536613713565469</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194637118051153</v>
+        <v>1.194625775947136</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.910911930682001</v>
+        <v>0.9109100917845313</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257030863922031</v>
+        <v>-0.2256863019475477</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3783822797557972</v>
+        <v>0.3783863911230913</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2790043265149788</v>
+        <v>-0.278964064896683</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541198440041347</v>
+        <v>-0.2541419939786045</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2695980478192046</v>
+        <v>-0.269649304687033</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412379289255121</v>
+        <v>-0.4412577863539148</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009029814795407948</v>
+        <v>0.009078935858546943</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866532763777727</v>
+        <v>-0.8866326538370182</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2865656220720232</v>
+        <v>-0.2865357484623867</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5873936139091668</v>
+        <v>0.5874375004415124</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.100233746064813</v>
+        <v>-0.100208485288779</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.866969029165325</v>
+        <v>0.8669660741618631</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084242043261764</v>
+        <v>0.2084257835401035</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670497689822977</v>
+        <v>-0.3670048490948646</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461497635586039</v>
+        <v>0.2461391871222101</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501998276254287</v>
+        <v>0.4502177102633399</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862749788723556</v>
+        <v>-0.2862655885291623</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.746185032409877</v>
+        <v>-0.7461910170476709</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257198021603068</v>
+        <v>-0.5257010424265883</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.0314722964818018</v>
+        <v>0.0315052410176354</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7978404791226614</v>
+        <v>0.7978427501665392</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366904147729062</v>
+        <v>0.7366922613424123</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142547695996133</v>
+        <v>-0.1142654364440017</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02201271114891122</v>
+        <v>-0.02200183832148858</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858933949607782</v>
+        <v>0.5859104276959117</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02488551483891318</v>
+        <v>0.02485489860785308</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406468113086531</v>
+        <v>-0.7406606532591065</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04097056468862511</v>
+        <v>-0.04095526969382615</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076490774549388</v>
+        <v>0.4076518402291776</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2737333309516384</v>
+        <v>0.2737852709167083</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173932505642931</v>
+        <v>1.173928385371702</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01180385643188658</v>
+        <v>-0.01182649821344022</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2125052506650103</v>
+        <v>0.2125292747728897</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039465656850166</v>
+        <v>-0.7039718415503385</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859251111574792</v>
+        <v>-0.3859346170826314</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782579745056682</v>
+        <v>0.2782157221216531</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652910031365942</v>
+        <v>0.2652533492147071</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840897974614448</v>
+        <v>-0.2840812578145771</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03694818051467392</v>
+        <v>0.03693791765884923</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03457973640704239</v>
+        <v>-0.03454079611798976</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081816481547572</v>
+        <v>-0.5081402610621516</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4306182971084557</v>
+        <v>-0.4305798008722853</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.234377244924898</v>
+        <v>0.2343503636366106</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242098718369639</v>
+        <v>0.2241952188648974</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01113372198978929</v>
+        <v>-0.01115780236010305</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350055952523495</v>
+        <v>0.2349955375368534</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3090756644143038</v>
+        <v>-0.309079223655548</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1314901944348637</v>
+        <v>0.131490465661017</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2448812591982038</v>
+        <v>0.2449274852471714</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263342824083091</v>
+        <v>-0.2263628542410839</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216245350280998</v>
+        <v>0.5215943524558837</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397961278697668</v>
+        <v>-0.1398272747869083</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.515961669192009</v>
+        <v>0.5159543397140967</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5972059273221495</v>
+        <v>-0.5971845286448052</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9080559048161767</v>
+        <v>0.9080857912635649</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5325657455803744</v>
+        <v>0.5325214845660137</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5394231297553745</v>
+        <v>-0.5394030613861962</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972652733772579</v>
+        <v>-0.7972827631158901</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2954739841599148</v>
+        <v>0.2954918250568082</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4465005431123297</v>
+        <v>0.4464931912817194</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686339662710436</v>
+        <v>-0.8686367400445599</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750409794064105</v>
+        <v>-0.4750620982566606</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708228916257696</v>
+        <v>-0.3707984774154697</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759915163349452</v>
+        <v>-0.7759986570172066</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.29452137998997</v>
+        <v>0.2945338934295182</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3252927716649852</v>
+        <v>0.3253223658755402</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.697221006702653</v>
+        <v>-0.6972217068442562</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173868733905102</v>
+        <v>-0.4173704406838237</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8810808320471516</v>
+        <v>0.8811193546126368</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402747338986717</v>
+        <v>-1.402704711730161</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970598097249076</v>
+        <v>-0.4970664293285495</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114969974777392</v>
+        <v>-0.7114600709845527</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300097091413431</v>
+        <v>-0.4299967697745156</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.195505917657844</v>
+        <v>-0.1954726807209532</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947580650937307</v>
+        <v>-0.3947856769938514</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5668279507007749</v>
+        <v>-0.5667985154163979</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115488387017794</v>
+        <v>-0.7115487988262734</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2302826486858882</v>
+        <v>0.2303434248041889</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1708194122493288</v>
+        <v>0.17080270422064</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4983261306830794</v>
+        <v>0.4982676857960995</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1560253680065283</v>
+        <v>-0.1559723325857455</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6680617195959255</v>
+        <v>-0.6680212667178164</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195356166116021</v>
+        <v>0.7195810669937718</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034826924731548</v>
+        <v>2.034841865715319</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411201673820889</v>
+        <v>0.2411380520297218</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08333513734458081</v>
+        <v>-0.0832980212252933</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08945709988131523</v>
+        <v>0.08941981915054635</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193579771626995</v>
+        <v>0.1193681951587587</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887851524991468</v>
+        <v>-0.3887857873163992</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143421803884745</v>
+        <v>-1.143390367338716</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857996870841048</v>
+        <v>-0.9857556170472307</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099381144332665</v>
+        <v>-1.099373920385325</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.976195131824787</v>
+        <v>-0.9761491863082409</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1586237533147754</v>
+        <v>-0.1585857354160631</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310394740047043</v>
+        <v>-1.310351200825648</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021168521259055</v>
+        <v>-1.02114342792177</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1478925853208623</v>
+        <v>-0.147861078933987</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7603363900435353</v>
+        <v>-0.7603366623036323</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086851092382678</v>
+        <v>-1.086814808492311</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3929378339532098</v>
+        <v>-0.3929005450920798</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2262585952431085</v>
+        <v>0.2262706832845608</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9481168189786005</v>
+        <v>-0.9480631541351181</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926640984920575</v>
+        <v>-0.3926415600531809</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4380993509866658</v>
+        <v>0.438088732104182</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2112427581219344</v>
+        <v>-0.211282746185394</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7249069545000283</v>
+        <v>0.7248943560374654</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8491197594392111</v>
+        <v>-0.8490985136901438</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.0346720819844151</v>
+        <v>-0.03465172732701913</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398694806824614</v>
+        <v>-1.398703364203401</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966367656760355</v>
+        <v>0.1966368137255155</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6517205592618895</v>
+        <v>0.6517340324043706</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.260401532793471</v>
+        <v>-0.2603997204659436</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061729352905929</v>
+        <v>-1.061715256660293</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005076686830509658</v>
+        <v>0.0005321031132477667</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7977738676091033</v>
+        <v>0.797823528389408</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357854592869692</v>
+        <v>-0.5357594491746378</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7633915305234382</v>
+        <v>-0.763359195831351</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274818196617302</v>
+        <v>-0.5274822879005761</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.85126280086503</v>
+        <v>0.8512623540101628</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6815089470484454</v>
+        <v>0.6814873630280224</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.432371684990086</v>
+        <v>0.4323525520824775</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03491163496956983</v>
+        <v>0.03492061273304906</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08814425554927975</v>
+        <v>-0.0881761938257392</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883665053130009</v>
+        <v>-0.7883763598054623</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092706307209181</v>
+        <v>-0.3092357730324831</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4349408563750818</v>
+        <v>-0.4349567422158073</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7794108793823596</v>
+        <v>-0.7793726930120656</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100900529314029</v>
+        <v>-1.10089221865851</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03739147918015633</v>
+        <v>0.0374447071096762</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07097809121803808</v>
+        <v>0.0709944530397191</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09692807064402592</v>
+        <v>0.09696503905551407</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097601790694529</v>
+        <v>-0.209733365525975</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433952669525291</v>
+        <v>0.1433913193547696</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.784237988175564</v>
+        <v>0.784256274047865</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01484353046297124</v>
+        <v>0.01484800682465463</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2594852448407115</v>
+        <v>0.2595029064122805</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365666042410523</v>
+        <v>-0.6365357067803993</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5422035059558261</v>
+        <v>-0.5421698923816142</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908759100701918</v>
+        <v>-0.8908265433433774</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05267455431718199</v>
+        <v>0.05266342020591175</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006185084866255406</v>
+        <v>-0.006216198413242179</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01691795024458704</v>
+        <v>-0.01693817865072541</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292289881793643</v>
+        <v>0.5292324364594767</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5926802179866538</v>
+        <v>0.592711121422505</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688789417572179</v>
+        <v>-0.2689005780249343</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.25079835851243</v>
+        <v>-0.2508067487417715</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732531349540791</v>
+        <v>-0.3732733951202195</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02375056527268109</v>
+        <v>-0.02372558992925152</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257059622789131</v>
+        <v>-0.1257152519656232</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641927781958382</v>
+        <v>0.1641952918929091</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2368612984421975</v>
+        <v>0.236884493504784</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1152860286528134</v>
+        <v>-0.115255886390094</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.267242486043943</v>
+        <v>0.2672598534924427</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456864906836334</v>
+        <v>0.8456480495026069</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07319951908349356</v>
+        <v>0.07315331530506901</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1018022295873475</v>
+        <v>-0.1017967663989892</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8798157177129744</v>
+        <v>0.8798077737881478</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07994117203530676</v>
+        <v>-0.07999511406993214</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386818724084318</v>
+        <v>-0.3386846716454852</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401200999523566</v>
+        <v>-0.9401259935244596</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611557315380779</v>
+        <v>0.5611326090426959</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2296860567976929</v>
+        <v>-0.2297296686400061</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713141026022368</v>
+        <v>-1.713141332196032</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.164802300991106</v>
+        <v>0.1647999395721857</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467305887519218</v>
+        <v>-0.4467558508678701</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336632079396363</v>
+        <v>-1.336631323660163</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1094723598954086</v>
+        <v>-0.1094733034942392</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3137021420312744</v>
+        <v>0.3137078346245064</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.584726487490341</v>
+        <v>0.5847318081838864</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053940056965308</v>
+        <v>1.053979910560367</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.4479724567432455</v>
+        <v>-0.4479566604647184</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026945213929068</v>
+        <v>-0.902738750262846</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568624080380819</v>
+        <v>-0.7568909878322639</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131484028592559</v>
+        <v>-0.8131492157795168</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.227628908720154</v>
+        <v>0.2276515757675269</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457602468050101</v>
+        <v>-0.445706485380178</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1499692134053347</v>
+        <v>-0.149914404998384</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04139542952694864</v>
+        <v>-0.04133948244455033</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1257921838939018</v>
+        <v>0.1258087378308053</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534660352550988</v>
+        <v>-0.8535089252614984</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542541800941209</v>
+        <v>-0.2542481605269422</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355946103293397</v>
+        <v>-0.835594696167593</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511118322674133</v>
+        <v>-0.7511168571755297</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2402377279781215</v>
+        <v>-0.240180222595462</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162346559945088</v>
+        <v>0.6162977035967823</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1511009680342699</v>
+        <v>0.1511017354105489</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8462307788342902</v>
+        <v>-0.8462390201175702</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892782250681028</v>
+        <v>-0.5892695544527689</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4932995535849265</v>
+        <v>-0.4932526027124839</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783990959379881</v>
+        <v>-0.5783584594600679</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111608381637267</v>
+        <v>-0.2112073539217557</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491662512643904</v>
+        <v>-0.5491558233460226</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408407891766541</v>
+        <v>-0.4408451944913666</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378072353801882</v>
+        <v>0.2378064325097279</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1280053734008703</v>
+        <v>0.1279952090560168</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316907611081299</v>
+        <v>-0.9316903058901829</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585569078933787</v>
+        <v>-0.4585335332094586</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.728463057016677</v>
+        <v>-0.7284578901149665</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2633825823789303</v>
+        <v>-0.2633629556693227</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.740262170149763</v>
+        <v>-0.740218588005522</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036902181212435</v>
+        <v>1.036892066467891</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763692312205806</v>
+        <v>0.3763390057519136</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4958792028697914</v>
+        <v>0.4959039894369983</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171580207717403</v>
+        <v>0.3171887307437368</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07607731603571306</v>
+        <v>0.07611365917707552</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03170869545278549</v>
+        <v>-0.0317129004882914</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108737667601912</v>
+        <v>-0.410879849607642</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947677645766203</v>
+        <v>-0.4947389932565258</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192313932094495</v>
+        <v>0.1192528630665627</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449066878553456</v>
+        <v>-0.8449309703105802</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023185322431035</v>
+        <v>-1.023191432725748</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1327054841025347</v>
+        <v>-0.1327399123562088</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2456337351938691</v>
+        <v>-0.2456326071827889</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.654348087240235</v>
+        <v>-0.6543534429516152</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.20566911780234</v>
+        <v>-1.205698114573382</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060509426521654</v>
+        <v>-0.806037568443454</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894728390222611</v>
+        <v>-0.1894649317688238</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.189032272411412</v>
+        <v>-0.1890059663111908</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7443852553402682</v>
+        <v>-0.7443781995655314</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116144625968436</v>
+        <v>-0.7116014356600563</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007560839910239873</v>
+        <v>-0.007520527870233662</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177312004899264</v>
+        <v>-0.6177519974252111</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410449191863826</v>
+        <v>-1.410440833479857</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791820407196791</v>
+        <v>-0.9791352802356548</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08232195999368308</v>
+        <v>-0.08230126560008358</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579996401329147</v>
+        <v>-0.8579596703774702</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304708026705287</v>
+        <v>-1.304691394085276</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.22362377981476</v>
+        <v>-1.223613212706289</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542323467673343</v>
+        <v>-0.8542348984554068</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2841170629033956</v>
+        <v>-0.2841408596585882</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051359135296933</v>
+        <v>-0.6051545240858726</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.7114998268153772</v>
+        <v>-0.7114929551052278</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.3170988904643364</v>
+        <v>-0.3170993167742904</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942498524137652</v>
+        <v>-0.7942599654953356</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05089353118839601</v>
+        <v>-0.05085728515901535</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.7563090979425113</v>
+        <v>-0.7563000060403742</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695875739818495</v>
+        <v>-1.695831065661565</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465660182720201</v>
+        <v>-1.465646636637424</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831532792322072</v>
+        <v>-0.9831479113745263</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423396961459358</v>
+        <v>-0.8423020678956952</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.557176565961334</v>
+        <v>-0.5571892572888579</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.223203248712845</v>
+        <v>-1.267458791066692</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392791422716926</v>
+        <v>0.7392610413845246</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933928738008297</v>
+        <v>0.9933736138426167</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169598283482279</v>
+        <v>1.169587273200036</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732549388996271</v>
+        <v>0.9732331716452662</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978111549983152</v>
+        <v>0.8978097404474423</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164523535353863</v>
+        <v>0.2164428843824815</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195706274919458</v>
+        <v>1.195694709827556</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3777606327200081</v>
+        <v>0.3777723198884488</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845741262345903</v>
+        <v>0.2845586638568722</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059522574670999</v>
+        <v>1.059541146234638</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250335495973333</v>
+        <v>1.250307710129611</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783634081556479</v>
+        <v>0.9783389519736032</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406384555677327</v>
+        <v>1.406337414369253</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428476465372094</v>
+        <v>1.428458115732479</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.950454997057154</v>
+        <v>0.9504366826041302</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022856538592136</v>
+        <v>0.8022626199260336</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02090254127465324</v>
+        <v>-0.02092770425716903</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4842177261432398</v>
+        <v>0.4842086266234132</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277653078926898</v>
+        <v>1.277647310157825</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600909591371112</v>
+        <v>0.7600890310056284</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066309733883062</v>
+        <v>1.066328710813944</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738094335796743</v>
+        <v>0.1738090710898267</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01896811780911698</v>
+        <v>0.01896545172145343</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322856488052041</v>
+        <v>1.32283047987071</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.38895651637411</v>
+        <v>1.388924497940693</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.00763112878969</v>
+        <v>1.007648449605988</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580090592454975</v>
+        <v>0.9580094591238663</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404360235369673</v>
+        <v>1.404375730277568</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255498984727085</v>
+        <v>0.1255559326634033</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151315821787983</v>
+        <v>1.151311963191552</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.569597564498804</v>
+        <v>1.569601400093844</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9721759372544564</v>
+        <v>0.9721998827233825</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132298001593797</v>
+        <v>0.4132353638281123</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149329931072905</v>
+        <v>-0.1149366121650436</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135993315576584</v>
+        <v>0.1135977957044378</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077411080553556</v>
+        <v>0.3077376680174153</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706069503150862</v>
+        <v>0.7706093103281538</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9647203507890595</v>
+        <v>0.9647230966456549</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449285731570843</v>
+        <v>0.5449164865001714</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9391141695336901</v>
+        <v>0.9390810090161955</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970936056466117</v>
+        <v>1.970900413186779</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195229535295368</v>
+        <v>1.19521674202995</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618072342743813</v>
+        <v>0.261796498500252</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331462816525488</v>
+        <v>1.331419167241285</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650055826129517</v>
+        <v>1.650048670480269</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072919201863318</v>
+        <v>1.072906930603529</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191208827868541</v>
+        <v>1.191195411209125</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519525314433131</v>
+        <v>1.519487791061489</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586073560441162</v>
+        <v>1.586048893352587</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718838760080705</v>
+        <v>0.2718834211693839</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719829489069876</v>
+        <v>1.719817845570617</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.401008402616271</v>
+        <v>1.400998379947857</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332388215467516</v>
+        <v>1.332368892983383</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593483243625589</v>
+        <v>1.593485912311374</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.625382140703965</v>
+        <v>0.6253873891280807</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119921428572395</v>
+        <v>0.3119951924570162</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9785617852238364</v>
+        <v>0.9785428725369084</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058575905739585</v>
+        <v>0.5058664534407007</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.379906951599767</v>
+        <v>0.3798779237813923</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435357658159048</v>
+        <v>1.435350999322921</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483012558074134</v>
+        <v>1.483002921097378</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.00218398062614</v>
+        <v>2.002178756267671</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095213916956014</v>
+        <v>1.095224470556085</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518534871004605</v>
+        <v>1.518521121262548</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8032153998201852</v>
+        <v>0.8032247499897694</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861800008960543</v>
+        <v>0.3861822871620066</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363926930080866</v>
+        <v>1.363906763567303</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439717007237695</v>
+        <v>0.7439649974879362</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848698757485933</v>
+        <v>0.9848596784352956</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9008319801742872</v>
+        <v>0.9008539940813272</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846969365271467</v>
+        <v>0.6846944052487548</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972908783981564</v>
+        <v>0.6972684640054647</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8789458864251798</v>
+        <v>0.8789685529901624</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650559684947207</v>
+        <v>0.6650798029170468</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754525731939414</v>
+        <v>0.4754498959389021</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.478603263075208</v>
+        <v>1.478601044565703</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181424099759667</v>
+        <v>0.2181411870717077</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070152881667972</v>
+        <v>1.070127084804559</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074041549697795</v>
+        <v>0.6074048407007898</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906683830056383</v>
+        <v>1.90668053659011</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5079729490827743</v>
+        <v>0.507998652313892</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6209798723296072</v>
+        <v>0.620992704502729</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771589566897155</v>
+        <v>-0.5771611532237381</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214392439600738</v>
+        <v>0.5214386259545152</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9443967382188276</v>
+        <v>0.9443895809884481</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5423928366309539</v>
+        <v>0.5424049690813183</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808069959264029</v>
+        <v>0.5808234712790185</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1601033908396042</v>
+        <v>-0.1601021319441799</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5520118813712656</v>
+        <v>0.5519990811728194</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411241725991569</v>
+        <v>1.411212843750724</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3742849478053483</v>
+        <v>0.3742952246969597</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5608121260589863</v>
+        <v>0.5608300656546064</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2977891022346923</v>
+        <v>0.2978096219318728</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3274238430500312</v>
+        <v>0.327425593469014</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.819358173591391</v>
+        <v>0.8193274573287422</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007019218784755</v>
+        <v>0.2007083345961097</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129207303882933</v>
+        <v>0.1129204335567641</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6184950527038495</v>
+        <v>0.6184943660581932</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568380423960738</v>
+        <v>0.4568462700657941</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247775655373543</v>
+        <v>-0.2247974501407083</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7395181719994689</v>
+        <v>-0.7395152097071538</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.534775059730641</v>
+        <v>-0.5347601003502181</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909918323990422</v>
+        <v>0.1909804270325124</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594956367440282</v>
+        <v>1.59495187789651</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211659972463993</v>
+        <v>0.5211973295606963</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3856533822128382</v>
+        <v>0.3856544998844674</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06912290048656905</v>
+        <v>0.06909585012290878</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830911879652044</v>
+        <v>0.7830495713575183</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8835115110174068</v>
+        <v>0.883484983149043</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03039575544767086</v>
+        <v>-0.03041061720139047</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01566667076629158</v>
+        <v>0.01565551428979119</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3874958308537214</v>
+        <v>0.3874785161149266</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405859822369836</v>
+        <v>1.40583325338988</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.877969002427587</v>
+        <v>1.877952008664736</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4372222562406402</v>
+        <v>0.4371893830339025</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2380882081733785</v>
+        <v>0.2380804172085134</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692715831613867</v>
+        <v>-0.6692740919013751</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015390741356604</v>
+        <v>2.015372849802267</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9052431797050905</v>
+        <v>0.9052114659472235</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.25978753995006</v>
+        <v>1.259762951839236</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4007007794735178</v>
+        <v>0.400686806107947</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1269724821860196</v>
+        <v>0.126981906743072</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994195006648352</v>
+        <v>0.1993912151009815</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636706004107157</v>
+        <v>1.636682245490161</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238834504795961</v>
+        <v>1.238805648708437</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033346521034512</v>
+        <v>0.8033281264920337</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757596490209392</v>
+        <v>0.5757290610546042</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5818169336013096</v>
+        <v>0.5818159333040868</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07759470005178887</v>
+        <v>-0.07759881472789039</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304158940268522</v>
+        <v>-0.930423537168521</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232813492058073</v>
+        <v>-0.3232712382268121</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.107870192213234</v>
+        <v>0.1078671339365586</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2313332646594225</v>
+        <v>-0.2313236584704827</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8557877495416327</v>
+        <v>0.855790600385599</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293481722349877</v>
+        <v>0.4293570116795746</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.493987725218825</v>
+        <v>1.493983487104986</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875605342450768</v>
+        <v>1.875573514368652</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638113811147596</v>
+        <v>0.3637904963200873</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011426176228484</v>
+        <v>1.011403052109031</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4187679713956574</v>
+        <v>0.4187888379650538</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5396931873184838</v>
+        <v>-0.5396933429972883</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944691596170075</v>
+        <v>0.6944738665675783</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01417801904436939</v>
+        <v>-0.01416978873825832</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775627933204153</v>
+        <v>-0.477564286608322</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107823882289106</v>
+        <v>1.107819733678857</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930806858926529</v>
+        <v>0.1930671100118312</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05773315138166771</v>
+        <v>0.05771295204149578</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150518611761422</v>
+        <v>0.5150403742581874</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.270475429182901</v>
+        <v>-0.2705145620013161</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806309759738419</v>
+        <v>-0.1806385737059608</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841861131938898</v>
+        <v>0.4841886878881838</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685288725525687</v>
+        <v>-0.2685267755236193</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4521129965039643</v>
+        <v>-0.4521063434033996</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947921914269153</v>
+        <v>-0.2947747003000733</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0105507025094327</v>
+        <v>0.01053851616825763</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107874958399095</v>
+        <v>1.107863243590854</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.696119938887782</v>
+        <v>0.6961391507991374</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2176901482862836</v>
+        <v>0.2177039544252119</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479391771351153</v>
+        <v>0.5479334995316237</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08423014402428496</v>
+        <v>-0.08420808431971341</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155760040284718</v>
+        <v>0.6155589259013911</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.09620055996182</v>
+        <v>1.096187803029192</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8312652890205946</v>
+        <v>0.8312379449695624</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3104154009305732</v>
+        <v>-0.3104194052229983</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08336387677866493</v>
+        <v>0.08338612568231181</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979646972367306</v>
+        <v>-0.5979422168577739</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702795057818897</v>
+        <v>-0.1702539198862653</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.359839365387144</v>
+        <v>-0.359830082344601</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2598119801309183</v>
+        <v>-0.2598108112667848</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2568074497940836</v>
+        <v>0.256785464744732</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4797129321843253</v>
+        <v>0.4796883729415734</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453393515216321</v>
+        <v>-0.3453389533616156</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.761680471210614</v>
+        <v>-0.7617061082258373</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720959664815977</v>
+        <v>0.2720923034387129</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.717612903449046</v>
+        <v>-0.7176211677102482</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639893467174213</v>
+        <v>0.6639913900995279</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03988753628306666</v>
+        <v>-0.03989001754447098</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5114981274268698</v>
+        <v>-0.5115050597489712</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4209307600720788</v>
+        <v>0.4209003431429612</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426653649907131</v>
+        <v>0.3426528345003119</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363427783264999</v>
+        <v>0.2363518188681377</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465608104147571</v>
+        <v>-0.5465807916608487</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266133308602361</v>
+        <v>1.266132090530257</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935502613664211</v>
+        <v>0.993528406200116</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.83205603634388</v>
+        <v>0.8320587972911858</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808547562174927</v>
+        <v>0.6808483496457041</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147836007313629</v>
+        <v>0.3147829090815222</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241655835142078</v>
+        <v>1.241634584715712</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059387076831749</v>
+        <v>0.4059240545892288</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4854760113971237</v>
+        <v>0.4854810034735841</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497266869889709</v>
+        <v>0.5497060903517749</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6714725866444187</v>
+        <v>0.671457931158837</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8029040333089199</v>
+        <v>0.8028748402367074</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310022788349764</v>
+        <v>0.2310005569807408</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2861045216035361</v>
+        <v>0.2860931285926118</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006302645327203696</v>
+        <v>-0.006301668197196472</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4575239852855699</v>
+        <v>0.4575128387476849</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088321918362369</v>
+        <v>0.1088467072293336</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068522292402268</v>
+        <v>0.1068284217458313</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750270971633057</v>
+        <v>1.750285040233434</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09875993005125662</v>
+        <v>-0.09875790584782046</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022929639541344</v>
+        <v>0.2022705986376792</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711687783004359</v>
+        <v>0.5711462456966596</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472529592752502</v>
+        <v>0.4472248903871825</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04311150188824685</v>
+        <v>-0.04312615149460645</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.52225196270736</v>
+        <v>1.5222305195787</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1077033513341991</v>
+        <v>0.1076584533030461</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.477005285531086</v>
+        <v>0.4769949153204142</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291144021925847</v>
+        <v>1.291137713275907</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7410350929170877</v>
+        <v>0.7410094047650817</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9810108676528243</v>
+        <v>0.9809745043648846</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07320374649469916</v>
+        <v>-0.07320538506086285</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144124440089601</v>
+        <v>0.5144258087449322</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155582619098153</v>
+        <v>1.155601612132457</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979896002212311</v>
+        <v>0.7979724596937741</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382425857999382</v>
+        <v>1.382425125165549</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758650370306617</v>
+        <v>0.3758670808859055</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993073155488505</v>
+        <v>0.2993188774988799</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9439995092170091</v>
+        <v>0.9439918106030605</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251198159906681</v>
+        <v>1.251176379261641</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1698406869078604</v>
+        <v>0.1698088954868487</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522232345136925</v>
+        <v>0.4522467924980209</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793825823339641</v>
+        <v>0.1793669013603212</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393988362013322</v>
+        <v>-0.4393901278533116</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947435542380799</v>
+        <v>-0.1947315542326345</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2424018055848606</v>
+        <v>-0.2423817159586246</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304862825898686</v>
+        <v>0.3304763661261105</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152951108296013</v>
+        <v>0.3152942460918491</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174945604265685</v>
+        <v>0.6174759628929787</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3028802790741764</v>
+        <v>0.3028881289357655</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882357048100404</v>
+        <v>-0.3882424380781883</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095788201123207</v>
+        <v>-0.1095809743210585</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.337229300424741</v>
+        <v>0.337232429495408</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.519212371589601</v>
+        <v>-0.5191911232325389</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5823305667932899</v>
+        <v>-0.5823242936256073</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652714426368002</v>
+        <v>-0.6652585793958691</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760987406537579</v>
+        <v>0.2760968056154632</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350242987482626</v>
+        <v>-0.09350530250291916</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911902331175295</v>
+        <v>0.4911829711742976</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4652944534506225</v>
+        <v>0.465264673677051</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904999985976239</v>
+        <v>0.7904854952345052</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176278794193787</v>
+        <v>1.176283904256345</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.6054700045149022</v>
+        <v>-0.6054582531352724</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5600336315667886</v>
+        <v>-0.5600638341587609</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2481240302868938</v>
+        <v>-0.2481662818216772</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078662032178266</v>
+        <v>-0.4078694707862129</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585695921805023</v>
+        <v>-0.8585711736357635</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1309219021879702</v>
+        <v>0.1309026280653535</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.685026210842147</v>
+        <v>1.684994470945345</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.24338804012636</v>
+        <v>1.243388336417494</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990903366518762</v>
+        <v>0.7990533070630075</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734952282538302</v>
+        <v>0.2734659162858371</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7308033077648177</v>
+        <v>0.7307785958234553</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182126034702996</v>
+        <v>0.5182238885553221</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487096697017257</v>
+        <v>0.5487117310436629</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5324343941029969</v>
+        <v>0.5324324198847378</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.51965036938832</v>
+        <v>0.5196292431875912</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.781821666857487</v>
+        <v>0.7818263441319363</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2201978631605515</v>
+        <v>-0.2202237368340391</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6829113760163238</v>
+        <v>-0.6828969493370548</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4300309932839404</v>
+        <v>-0.4300370416981985</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7378754180337662</v>
+        <v>0.737886194922878</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.982636407015968</v>
+        <v>-0.9826222697496853</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1983432662161501</v>
+        <v>-0.198371447449091</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01207401111891323</v>
+        <v>-0.01207666013264636</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.126329913892112</v>
+        <v>-0.1263326844428316</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04612134037968533</v>
+        <v>-0.04613690307272012</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102294439943087</v>
+        <v>0.6102181446782456</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03097496476560735</v>
+        <v>-0.03097213992177204</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342654358118349</v>
+        <v>-0.8342566421342453</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732955388295831</v>
+        <v>0.5732977010082159</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269530830773419</v>
+        <v>-0.7269346199856316</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6532507393126418</v>
+        <v>-0.653231639394363</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.209395335821686</v>
+        <v>-0.2094033344785798</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.018746938673187</v>
+        <v>-1.0187401296711</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3381856751403081</v>
+        <v>0.3381926741660216</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1078542044285708</v>
+        <v>0.1078709690681777</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.408616544451105</v>
+        <v>-0.4086009235387729</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09826885052816979</v>
+        <v>-0.09826309814911674</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6480044909547715</v>
+        <v>-0.6479994168244875</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.02998745676200236</v>
+        <v>-0.03001432754145366</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058618276019907</v>
+        <v>-0.5058568205978697</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3364749099071037</v>
+        <v>-0.3364939927047056</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276871712943878</v>
+        <v>-1.276852586008843</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08480881797015706</v>
+        <v>-0.08479490960747012</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04934392459704928</v>
+        <v>-0.04937633738749318</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110133290396567</v>
+        <v>-0.2110190517028155</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6342848864122865</v>
+        <v>0.6342849011832468</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516842556092502</v>
+        <v>1.5168154270302</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.703554780548676</v>
+        <v>0.7035524353799558</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05724995145196869</v>
+        <v>0.05725214836346351</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463697965102089</v>
+        <v>0.8463442052075136</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083806415273782</v>
+        <v>1.083795259380834</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.62573100279695</v>
+        <v>1.625696779520465</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038363662986442</v>
+        <v>0.6038458975572332</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733482143897824</v>
+        <v>0.4733142761502755</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.457258062837173</v>
+        <v>0.4572682443764772</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092449579229119</v>
+        <v>0.1092527935077661</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.207495570271269</v>
+        <v>-0.207497840754418</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8418231342957661</v>
+        <v>0.8417876726172658</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901133824606082</v>
+        <v>0.6901162379228399</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2628295253730392</v>
+        <v>-0.2628149347763738</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219426175891601</v>
+        <v>-0.2219513279799739</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062469419333124</v>
+        <v>1.062464771377875</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380853707588912</v>
+        <v>1.380843747533351</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1584126279060467</v>
+        <v>-0.1583912464733477</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355861373552238</v>
+        <v>-1.35585816468548</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408164127757594</v>
+        <v>-1.4081503030917</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2942031972566087</v>
+        <v>-0.2941775848028416</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119949847944947</v>
+        <v>-1.119920896836866</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008146284742616168</v>
+        <v>-0.008157738339903705</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698151892463162</v>
+        <v>-0.169812544773788</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317179935800782</v>
+        <v>0.1317288793241069</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7604194597803581</v>
+        <v>-0.7604102207221023</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4644864628606656</v>
+        <v>-0.4644698608484681</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023969051132089</v>
+        <v>-1.023972011998354</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981963929635793</v>
+        <v>-0.2982027156219023</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610515510362689</v>
+        <v>-0.3610427612526811</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03791755689071562</v>
+        <v>0.03792643286441132</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.733044877584963</v>
+        <v>0.7330472618283295</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2104607174412882</v>
+        <v>-0.210451917239933</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8016155141832011</v>
+        <v>-0.8016008781577649</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518355856666639</v>
+        <v>0.2518438974786846</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02725041509572681</v>
+        <v>0.02723017527267392</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3228407887317402</v>
+        <v>0.3228106079801766</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350632439549665</v>
+        <v>0.4350731343270184</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947685583819883</v>
+        <v>-0.5947663555234405</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181824333005939</v>
+        <v>0.1181792088960965</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8117227579801765</v>
+        <v>0.8117105569306813</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609417486599639</v>
+        <v>0.4609254754473748</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884384789116278</v>
+        <v>0.4884417931263761</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769577747740304</v>
+        <v>-0.1769263289008763</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.772439142971774</v>
+        <v>-0.772412439326705</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8106083964966517</v>
+        <v>-0.8105817348057741</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235333498393164</v>
+        <v>0.6235361175144966</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517417433455559</v>
+        <v>0.8517565853169136</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779117823332256</v>
+        <v>0.9779149460410255</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194891468124375</v>
+        <v>-0.2194898598573064</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04631054012972681</v>
+        <v>0.04632255019072013</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503461290653899</v>
+        <v>-0.6503495963135405</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742660239994695</v>
+        <v>0.9742453246475158</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572975663382484</v>
+        <v>0.6572967377012143</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026785751307748</v>
+        <v>1.026795569507571</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1941023147464495</v>
+        <v>0.1941094022181282</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.312223221997101</v>
+        <v>0.3122013829735435</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077329082333794</v>
+        <v>1.077291755231292</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5226072419483829</v>
+        <v>0.5225771595959601</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153316085454873</v>
+        <v>1.153264533196879</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129311899768458</v>
+        <v>1.129295345645898</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288352432678094</v>
+        <v>0.1288343049026907</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07097826113485729</v>
+        <v>0.07097419500492225</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3718541297192753</v>
+        <v>0.37183605486178</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884889335796958</v>
+        <v>0.488483960133703</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5035583109998518</v>
+        <v>0.5035559237960048</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03153098489061957</v>
+        <v>-0.03151318960798656</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337567432202332</v>
+        <v>-0.2337359033379805</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487389946850535</v>
+        <v>1.487370849700634</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.916262759030358</v>
+        <v>0.9162486124376907</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5243433653973713</v>
+        <v>0.5243325913491006</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3363671611704807</v>
+        <v>0.3363274649141291</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09790060411684555</v>
+        <v>0.09790000615733023</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516717171177934</v>
+        <v>-0.1516786520941645</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163508824568042</v>
+        <v>0.1163452415899029</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526457341710918</v>
+        <v>-0.6526744272577154</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455744549579811</v>
+        <v>-0.4455951707764236</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204100832789279</v>
+        <v>0.2204258715946856</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4696236464621544</v>
+        <v>0.4695877229931938</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840125494781732</v>
+        <v>-0.2840037013611146</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8519947503957045</v>
+        <v>-0.8520002636558566</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2098432621529822</v>
+        <v>0.2098383247323695</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2362129164727183</v>
+        <v>0.236198202071123</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2316972698929629</v>
+        <v>-0.2317096943172761</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03038551113374175</v>
+        <v>-0.0303955287970574</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342712624177906</v>
+        <v>-0.1342689647835873</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728419081687184</v>
+        <v>-0.6728495636607993</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3694375836637234</v>
+        <v>-0.3694643772221269</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624276313309821</v>
+        <v>0.1624054741639711</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321991622330047</v>
+        <v>-0.9321842201657844</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568347407174583</v>
+        <v>-0.6568583659503174</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3358363429853476</v>
+        <v>0.3358279708301581</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514790245325206</v>
+        <v>0.1514901120591552</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2136634297750135</v>
+        <v>0.2136836205318016</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09282860832102695</v>
+        <v>0.09281086954909569</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4872415649570887</v>
+        <v>0.4872113788825452</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663254201680575</v>
+        <v>0.1663086638492139</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078285480982201</v>
+        <v>0.3078157429947814</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064654600318839</v>
+        <v>1.064633092292472</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403253439916437</v>
+        <v>0.9403183589044595</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100801805282486</v>
+        <v>-0.2100817258211911</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842597650623434</v>
+        <v>0.4842502244558023</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806013222227686</v>
+        <v>0.5805800450246323</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418648060631666</v>
+        <v>-0.1418630793430672</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154498760086194</v>
+        <v>0.7154389420752644</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512392042259262</v>
+        <v>-0.5512354050890796</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160701221417113</v>
+        <v>1.160693566238455</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.0936645618867073</v>
+        <v>0.09364856936508337</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1940520846661228</v>
+        <v>-0.1940330378884242</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001632944437700924</v>
+        <v>0.00165287207416425</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226760883249421</v>
+        <v>-0.4226853366004959</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09179484227284718</v>
+        <v>0.09176292639309588</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2814100601797588</v>
+        <v>0.2814051002331422</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115229735831023</v>
+        <v>-0.5115303152811005</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847224191497607</v>
+        <v>-0.384736191553763</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4988220591422038</v>
+        <v>0.4988110341462149</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234218168004815</v>
+        <v>1.234199556881502</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1131202120366008</v>
+        <v>-0.1131266929803975</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822557911798188</v>
+        <v>-0.4822417726452452</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073523975771431</v>
+        <v>-0.3073467048400028</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023668767493496</v>
+        <v>0.2023575499801567</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154601636302207</v>
+        <v>-0.3154489849602725</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352336616747249</v>
+        <v>-0.2352277698045013</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4581310314918413</v>
+        <v>-0.4581656629486665</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05204960580899049</v>
+        <v>-0.05208186199365083</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.507395008045849</v>
+        <v>-0.5074069764853031</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440187717937626</v>
+        <v>0.3440035251624489</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096492949813535</v>
+        <v>0.1096470222721948</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1632637002691769</v>
+        <v>-0.1632869395933131</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9584128677182797</v>
+        <v>0.9583918616086604</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5035973296591434</v>
+        <v>0.5036029005930701</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442404210756601</v>
+        <v>0.5442213644998678</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267947091736901</v>
+        <v>1.267903723574381</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199656602449588</v>
+        <v>1.199643679123149</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777674909125348</v>
+        <v>0.3777750078121309</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894677699138208</v>
+        <v>-0.4894685242305725</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259180701514769</v>
+        <v>-0.2259110745930679</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3472965312990836</v>
+        <v>0.3472981289387614</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342486312045477</v>
+        <v>-0.5342242970606345</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365502577963564</v>
+        <v>-0.8365378404220037</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152362568178923</v>
+        <v>0.4152345069417133</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8677211636765199</v>
+        <v>-0.8677126443504107</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377257072007348</v>
+        <v>-0.7377250252851386</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415051796057453</v>
+        <v>-0.1415258542350656</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5419253743191976</v>
+        <v>0.5419097854191965</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2706535766890146</v>
+        <v>0.2706508363404407</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782867010522263</v>
+        <v>-0.7783018072152174</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078479750946488</v>
+        <v>0.3078467215865143</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6503645557808235</v>
+        <v>0.6503935278079587</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3801242065249244</v>
+        <v>-0.3801110893452844</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.7780774253999889</v>
+        <v>-0.7780646594064494</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1160873974455232</v>
+        <v>-0.1160877747304953</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0003617160819678518</v>
+        <v>-0.0003961376429612103</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568673298605376</v>
+        <v>0.4568631153023593</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4599123553474272</v>
+        <v>-0.459895709307488</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964432506382613</v>
+        <v>-0.4964548954031224</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07679265031087674</v>
+        <v>-0.07680395959927827</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2731979453117115</v>
+        <v>-0.2732024696634477</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1206711815643426</v>
+        <v>0.1206915066978667</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5689336906327972</v>
+        <v>-0.5689082868043852</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168607242774645</v>
+        <v>-0.3168612238560635</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1801628840687938</v>
+        <v>-0.1802045111454243</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.213193571304271</v>
+        <v>-0.2132074125125449</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671408604198583</v>
+        <v>-0.7671283570096873</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9390202963364794</v>
+        <v>-0.939012002672392</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04833127735018857</v>
+        <v>-0.04835028355061942</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563539360111833</v>
+        <v>-0.4563685780671707</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665593936775424</v>
+        <v>-0.5665640776219137</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104614062980471</v>
+        <v>-0.2104530712142988</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03855137867662125</v>
+        <v>0.03855019928678666</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03056889743605719</v>
+        <v>0.03057457184684471</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2125016655919103</v>
+        <v>0.2124986031433862</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815669420889839</v>
+        <v>0.9815604894313429</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003894294876767</v>
+        <v>1.003885597006942</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5812151839661275</v>
+        <v>0.5811858922275056</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485475380918007</v>
+        <v>0.2485433181665309</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838750145120822</v>
+        <v>0.6838365421913843</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665221066362212</v>
+        <v>-0.2665594024186989</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519771817363259</v>
+        <v>0.7519637952495969</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453537754575207</v>
+        <v>-0.1453577108033828</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.288049765013356</v>
+        <v>-0.2880535902644633</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252916694414504</v>
+        <v>0.6252676870511137</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7353118485473015</v>
+        <v>0.7352747210740681</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.304227727823807</v>
+        <v>-0.3042144645799211</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969530244718267</v>
+        <v>-0.5969466908688885</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.539722782770939</v>
+        <v>0.5397185838372954</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164938508088193</v>
+        <v>1.164925548069053</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3879757829908431</v>
+        <v>-0.387989414351637</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.210969717159788</v>
+        <v>1.210945851833313</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705502792846533</v>
+        <v>-0.270558445373031</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7003788622692716</v>
+        <v>-0.7003918814876841</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313130086711692</v>
+        <v>-0.1313151925167179</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3097967923948355</v>
+        <v>0.3098074248442755</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1527493596763606</v>
+        <v>-0.1527666656443903</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632612603932438</v>
+        <v>0.2632611051413075</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02407408870843622</v>
+        <v>0.02408714972165888</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289677963359937</v>
+        <v>-0.5289667587543929</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363772896446832</v>
+        <v>-0.5363503136678569</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827814472658902</v>
+        <v>-0.182774742822417</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5785889075717253</v>
+        <v>0.5786062346513825</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4097305511370208</v>
+        <v>-0.4096991607518382</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866458123695872</v>
+        <v>0.2866448448133912</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7339116453925075</v>
+        <v>-0.7339005633940932</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537632148155515</v>
+        <v>-0.2537512146288606</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.847099395317796</v>
+        <v>-0.8470915174338977</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.487367443809498</v>
+        <v>-0.487369984816185</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182614232959187</v>
+        <v>-0.2182485279109184</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1416255085173576</v>
+        <v>-0.1416097879944621</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016749996132912</v>
+        <v>-1.016752068959199</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460903942111927</v>
+        <v>-0.9460693172020557</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9788896954726094</v>
+        <v>-0.97890048454953</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7914936205555329</v>
+        <v>-0.7915029371276414</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962347967902163</v>
+        <v>-0.3962240028033445</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941605642798422</v>
+        <v>-0.4941662604560091</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189047563198865</v>
+        <v>-0.5189026836646043</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323882708284193</v>
+        <v>0.3323962064809389</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200095094710373</v>
+        <v>0.4200182779185633</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8417736154983404</v>
+        <v>-0.8417747613605188</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2086132244575153</v>
+        <v>-0.2085969094543148</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097411161886222</v>
+        <v>1.097423577449698</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661809856099308</v>
+        <v>0.3661865788805543</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1449356686126317</v>
+        <v>0.1449294264301224</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.145058696880511</v>
+        <v>-0.1450755801428922</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02432779757260223</v>
+        <v>0.02432003646430236</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141698141900539</v>
+        <v>-0.2141883265956081</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3980102676276511</v>
+        <v>-0.3979902037797155</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07370504038456377</v>
+        <v>-0.07368277070205825</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685799280279853</v>
+        <v>0.5685783808331715</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03659605342240752</v>
+        <v>0.03659974699705239</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.0916371980955637</v>
+        <v>0.09163238489777244</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.209861260983949</v>
+        <v>0.2098419372584286</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.536322776983221</v>
+        <v>0.5363126853889365</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360486876773054</v>
+        <v>1.360466901764737</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238883948074964</v>
+        <v>1.238867445497013</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919437027977009</v>
+        <v>0.3919392861537799</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988802727912497</v>
+        <v>0.1988818592184496</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3166328377425154</v>
+        <v>0.3166050128420879</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.30707539239248</v>
+        <v>1.307055959808827</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6254920579783957</v>
+        <v>0.625462786826262</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.29055446074362</v>
+        <v>1.290544279965514</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06449361516231643</v>
+        <v>-0.06451527135711778</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111829090301534</v>
+        <v>1.11182296330304</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330741326825081</v>
+        <v>1.330720317791146</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942499671907637</v>
+        <v>0.1942499815318311</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536355967907341</v>
+        <v>1.536352743742788</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111622817357666</v>
+        <v>1.111614198328868</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04379383461981746</v>
+        <v>0.04378559593543365</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415995757049071</v>
+        <v>0.4415756274270452</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4848156792686422</v>
+        <v>0.4847909959674414</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540611855401151</v>
+        <v>-0.1540545092883545</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332218561244694</v>
+        <v>-0.3332620170301388</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696860480583407</v>
+        <v>0.369673642147084</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278423630673819</v>
+        <v>1.278398096937531</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272433800377822</v>
+        <v>-0.1272661438651599</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.75617082248945</v>
+        <v>0.7561370700075275</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264741927326762</v>
+        <v>0.4264581463710196</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007084174826458436</v>
+        <v>0.007079715943614</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.318867245964036</v>
+        <v>0.318851067813263</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260185755469975</v>
+        <v>-1.26016846829558</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05163524959686539</v>
+        <v>0.05160859693833658</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09314795120338303</v>
+        <v>0.0931464222002641</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113712928928212</v>
+        <v>0.1113465372535173</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01547237570518733</v>
+        <v>-0.01548483608756609</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.107759692932325</v>
+        <v>0.1077550677208595</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1288918233730966</v>
+        <v>-0.1289127406517353</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.513991975619802</v>
+        <v>-0.5139840754342638</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.484638896120025</v>
+        <v>0.4846068097242285</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218167277516249</v>
+        <v>0.2218112276673164</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8457320526571916</v>
+        <v>0.8457017707912311</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649468080860125</v>
+        <v>0.4649326492063575</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4258979519079215</v>
+        <v>0.4258807436936945</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286757866391561</v>
+        <v>-0.6286633643447889</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688884510069458</v>
+        <v>1.688857543151755</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289823260838284</v>
+        <v>1.289805860168398</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08659371241981038</v>
+        <v>-0.08660433224152991</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.432518602763968</v>
+        <v>0.4325106248918814</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548613750167031</v>
+        <v>-0.4548554635506655</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549869347154546</v>
+        <v>-0.2549938449177541</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3968988725648047</v>
+        <v>0.3968861102424965</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5815793750564595</v>
+        <v>-0.581591472369727</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887600084968525</v>
+        <v>-0.5887715983285899</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135140263682905</v>
+        <v>1.135127079930148</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217769178285184</v>
+        <v>2.217781420142904</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4924936842237391</v>
+        <v>0.4925168215914858</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1863018825456534</v>
+        <v>-0.1862917123936169</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379006999597839</v>
+        <v>-0.1379081912900635</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.310511353028706</v>
+        <v>-0.3105021931212628</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501258865901903</v>
+        <v>-0.4501469736788529</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499557880998651</v>
+        <v>-0.2499386775612628</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06520340854166022</v>
+        <v>0.06522419358508955</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981033577066746</v>
+        <v>-0.1980994536605733</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844197941915391</v>
+        <v>-0.5844086093520875</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.547531659716275</v>
+        <v>-0.5475332531447727</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268637435645702</v>
+        <v>0.4268590482256674</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.495563606811568</v>
+        <v>-0.4955759540416251</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705368045263045</v>
+        <v>0.5705306148341128</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529342463598343</v>
+        <v>-0.6529329907395366</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027692266920068</v>
+        <v>-0.4027611508096367</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055653253826408</v>
+        <v>1.055628277299707</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622861492442637</v>
+        <v>-0.1622876348847951</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903554769870702</v>
+        <v>-0.3903361471548054</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445433073521648</v>
+        <v>0.244552215174348</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2089411861181852</v>
+        <v>0.2089125018135011</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8882300429058121</v>
+        <v>0.8882112987195713</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07282237344364613</v>
+        <v>-0.07283554014870279</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665126918241861</v>
+        <v>0.1665210120276172</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5952123650351311</v>
+        <v>0.5952037633244689</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2823287914295504</v>
+        <v>0.2823068308681255</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5032451999332829</v>
+        <v>0.5032447789456354</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8071740869620863</v>
+        <v>0.807181303488428</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746530259909498</v>
+        <v>0.6746474569328658</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6116693978789904</v>
+        <v>0.6116725342715064</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4499537115252737</v>
+        <v>0.449971146859259</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3178878599269977</v>
+        <v>-0.3179028354572757</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099653317141572</v>
+        <v>-0.1099635515396534</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936255180331869</v>
+        <v>-0.4936324506619493</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.0899474215623427</v>
+        <v>0.08992039686356131</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068966771174277</v>
+        <v>-1.068946995041491</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.21172535484182</v>
+        <v>-1.211679983314327</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8966530382615846</v>
+        <v>-0.8965944092599806</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1168110561531926</v>
+        <v>-0.1167838728585366</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836348032591203</v>
+        <v>-0.7836208309379482</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735401173853675</v>
+        <v>-0.5735252733623779</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.52946443166435</v>
+        <v>-0.5294615387996674</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053777961326682</v>
+        <v>-0.9053651551328059</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5274977684487095</v>
+        <v>-0.5274709467023041</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829305482567734</v>
+        <v>-0.2829273924968325</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01206949003659599</v>
+        <v>-0.01208879656842747</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063789576436737</v>
+        <v>-0.9063681282753427</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1272958540851796</v>
+        <v>0.127288159703016</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365648496638347</v>
+        <v>-0.3365537066699317</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374607485890904</v>
+        <v>0.1374557056718927</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3837480456407704</v>
+        <v>-0.3837222451688445</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.023008020224363</v>
+        <v>-1.022994932174581</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766446718653925</v>
+        <v>-0.876649968446547</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824893687360097</v>
+        <v>0.1824865827473039</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975591428559678</v>
+        <v>0.2975607447458837</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06927178915980797</v>
+        <v>-0.06925637982290177</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5590339390176994</v>
+        <v>-0.5590214708335454</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686324503882965</v>
+        <v>-0.5686140747843526</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263960197787213</v>
+        <v>-0.9263968438250963</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.341755313464549</v>
+        <v>-0.3417436545141314</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021117156505845</v>
+        <v>-1.021108782218863</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783130398718329</v>
+        <v>0.278321667286595</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146345461757565</v>
+        <v>0.8146327358383835</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.135091296101908</v>
+        <v>0.1350844972534749</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628287087875673</v>
+        <v>0.5628307942157387</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528737126839739</v>
+        <v>0.5528751353555601</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2337717695039319</v>
+        <v>0.2337839902639369</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08471415466680562</v>
+        <v>0.08474214351902314</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09505953693825753</v>
+        <v>0.09507203724795017</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734479162663091</v>
+        <v>-0.2734298904233591</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2499996459632972</v>
+        <v>-0.2499883906186879</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034775944110563</v>
+        <v>-0.3034676411010301</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.468238274629908</v>
+        <v>0.468233340130372</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1102628647181903</v>
+        <v>0.110259862986508</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9440614463801251</v>
+        <v>-0.9440438596244031</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7667817366005015</v>
+        <v>-0.7667860078172337</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6517931167677167</v>
+        <v>-0.6517621573291044</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6977514117210335</v>
+        <v>-0.697762833101893</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825326007204864</v>
+        <v>-0.3825279747257044</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3028994850987555</v>
+        <v>-0.3029101283034015</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265110713328204</v>
+        <v>1.2651174177288</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801713059741385</v>
+        <v>-0.3801383332170779</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783607932835495</v>
+        <v>1.783609860205108</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234339447828293</v>
+        <v>1.234352628079206</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2382836398595031</v>
+        <v>-0.2383006140180923</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920102908837538</v>
+        <v>0.3919896719461861</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03536613713565469</v>
+        <v>0.03535762444616975</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194625775947136</v>
+        <v>1.194618843633911</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109100917845313</v>
+        <v>0.9109128624958641</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2256863019475477</v>
+        <v>-0.2256838339313615</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3783863911230913</v>
+        <v>0.3783982016712122</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.278964064896683</v>
+        <v>-0.2789375928370747</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541419939786045</v>
+        <v>-0.2541548129493958</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.269649304687033</v>
+        <v>-0.2696506642924053</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412577863539148</v>
+        <v>-0.4412459033530675</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009078935858546943</v>
+        <v>0.009084102198998122</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866326538370182</v>
+        <v>-0.8866123964511345</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2865357484623867</v>
+        <v>-0.2865592573320191</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5874375004415124</v>
+        <v>0.5874247409124409</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.100208485288779</v>
+        <v>-0.1002094186564064</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8669660741618631</v>
+        <v>0.8669655799349698</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084257835401035</v>
+        <v>0.2084454867941679</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670048490948646</v>
+        <v>-0.3670071576520033</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461391871222101</v>
+        <v>0.2461081974387775</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4502177102633399</v>
+        <v>0.4502110355115503</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862655885291623</v>
+        <v>-0.2862474557742937</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7461910170476709</v>
+        <v>-0.7462099718919221</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257010424265883</v>
+        <v>-0.5257004956373353</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.0315052410176354</v>
+        <v>0.03151046203982834</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7978427501665392</v>
+        <v>0.7978118295782056</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366922613424123</v>
+        <v>0.7366916237572224</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142654364440017</v>
+        <v>-0.1142499912249916</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02200183832148858</v>
+        <v>-0.02201327754992495</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5859104276959117</v>
+        <v>0.5858999737974532</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02485489860785308</v>
+        <v>0.02486767543641137</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406606532591065</v>
+        <v>-0.7406780435993084</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04095526969382615</v>
+        <v>-0.04094924240025305</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076518402291776</v>
+        <v>0.4076597766533166</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2737852709167083</v>
+        <v>0.2738047117485414</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173928385371702</v>
+        <v>1.173923831778638</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01182649821344022</v>
+        <v>-0.0118367544509023</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2125292747728897</v>
+        <v>0.2125267686567248</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039718415503385</v>
+        <v>-0.7039650633120413</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859346170826314</v>
+        <v>-0.3859279466241198</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782157221216531</v>
+        <v>0.2782146624281031</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652533492147071</v>
+        <v>0.2652340551954763</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840812578145771</v>
+        <v>-0.2840758147431754</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03693791765884923</v>
+        <v>0.03692465260913243</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03454079611798976</v>
+        <v>-0.03451453594227494</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081402610621516</v>
+        <v>-0.5081509536857747</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4305798008722853</v>
+        <v>-0.4306093372628881</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2343503636366106</v>
+        <v>0.234332682943467</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2241952188648974</v>
+        <v>0.2242011883309708</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01115780236010305</v>
+        <v>-0.01115019582146813</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2349955375368534</v>
+        <v>0.2350069268704059</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.309079223655548</v>
+        <v>-0.309073794850782</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.131490465661017</v>
+        <v>0.1315054320661889</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2449274852471714</v>
+        <v>0.2449383804747469</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263628542410839</v>
+        <v>-0.2263561472676177</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5215943524558837</v>
+        <v>0.5216135441978802</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1398272747869083</v>
+        <v>-0.1398190566964043</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5159543397140967</v>
+        <v>0.5159776544534475</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971845286448052</v>
+        <v>-0.5971584627157966</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9080857912635649</v>
+        <v>0.9081161413923299</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5325214845660137</v>
+        <v>0.5325343682003347</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5394030613861962</v>
+        <v>-0.5393629514424026</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972827631158901</v>
+        <v>-0.7972682071217713</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2954918250568082</v>
+        <v>0.2954978963317314</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4464931912817194</v>
+        <v>0.4465171412689032</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686367400445599</v>
+        <v>-0.8686231427359828</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750620982566606</v>
+        <v>-0.4750615681277519</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3707984774154697</v>
+        <v>-0.3708080103423033</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759986570172066</v>
+        <v>-0.7759989205398172</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945338934295182</v>
+        <v>0.2945524666224541</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3253223658755402</v>
+        <v>0.3253112998055292</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6972217068442562</v>
+        <v>-0.6972011086977802</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173704406838237</v>
+        <v>-0.4173686160125371</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8811193546126368</v>
+        <v>0.881139012955773</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402704711730161</v>
+        <v>-1.402701513194266</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970664293285495</v>
+        <v>-0.4970509187766271</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114600709845527</v>
+        <v>-0.7114429720295306</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4299967697745156</v>
+        <v>-0.4300153851854186</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1954726807209532</v>
+        <v>-0.1954750249731114</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947856769938514</v>
+        <v>-0.3947668219570489</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5667985154163979</v>
+        <v>-0.5667964825276691</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115487988262734</v>
+        <v>-0.7115543883322032</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2303434248041889</v>
+        <v>0.2303459967622361</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.17080270422064</v>
+        <v>0.1707980950513247</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4982676857960995</v>
+        <v>0.4982550139465542</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1559723325857455</v>
+        <v>-0.1559722257954368</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6680212667178164</v>
+        <v>-0.6679931506306835</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195810669937718</v>
+        <v>0.7196035585373649</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034841865715319</v>
+        <v>2.034873690953429</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411380520297218</v>
+        <v>0.2411494828806586</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.0832980212252933</v>
+        <v>-0.08328861518831589</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08941981915054635</v>
+        <v>0.08944797278944394</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193681951587587</v>
+        <v>0.1193840226721013</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887857873163992</v>
+        <v>-0.3887675088867316</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143390367338716</v>
+        <v>-1.143382707429002</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857556170472307</v>
+        <v>-0.9857234731977483</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099373920385325</v>
+        <v>-1.099337996922261</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761491863082409</v>
+        <v>-0.9761338587486516</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1585857354160631</v>
+        <v>-0.1585633205623355</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310351200825648</v>
+        <v>-1.310321384598367</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.02114342792177</v>
+        <v>-1.021117257775667</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.147861078933987</v>
+        <v>-0.1478199832798337</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7603366623036323</v>
+        <v>-0.7603195834451033</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086814808492311</v>
+        <v>-1.086800817668057</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3929005450920798</v>
+        <v>-0.3928775349762071</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2262706832845608</v>
+        <v>0.2262936577386568</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9480631541351181</v>
+        <v>-0.9480500251098772</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926415600531809</v>
+        <v>-0.3926201805220148</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.438088732104182</v>
+        <v>0.4380948183424163</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.211282746185394</v>
+        <v>-0.2112716288441797</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7248943560374654</v>
+        <v>0.7248830016583819</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490985136901438</v>
+        <v>-0.8490711532586718</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03465172732701913</v>
+        <v>-0.03464067001560807</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398703364203401</v>
+        <v>-1.39871010705635</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966368137255155</v>
+        <v>0.1966332194267909</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6517340324043706</v>
+        <v>0.6517301076473947</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2603997204659436</v>
+        <v>-0.260399405671336</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061715256660293</v>
+        <v>-1.061688020243831</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005321031132477667</v>
+        <v>0.0005336570342888273</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.797823528389408</v>
+        <v>0.7978517830045705</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357594491746378</v>
+        <v>-0.5357214128848029</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.763359195831351</v>
+        <v>-0.7633619233612061</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274822879005761</v>
+        <v>-0.5274758711270287</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512623540101628</v>
+        <v>0.8512770609547706</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814873630280224</v>
+        <v>0.6814777889122129</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4323525520824775</v>
+        <v>0.4323666240112989</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03492061273304906</v>
+        <v>0.03490904432611305</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.0881761938257392</v>
+        <v>-0.08816959551924322</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883763598054623</v>
+        <v>-0.7883729519355219</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092357730324831</v>
+        <v>-0.3092389147670487</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4349567422158073</v>
+        <v>-0.4349355909345744</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7793726930120656</v>
+        <v>-0.7793423933533105</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.10089221865851</v>
+        <v>-1.10085564506951</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.0374447071096762</v>
+        <v>0.03744951040934131</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.0709944530397191</v>
+        <v>0.07101171596310149</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09696503905551407</v>
+        <v>0.09697168929031133</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.209733365525975</v>
+        <v>-0.2097058617639665</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433913193547696</v>
+        <v>0.1433860824065019</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.784256274047865</v>
+        <v>0.7842732587241557</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01484800682465463</v>
+        <v>0.01486247718691489</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595029064122805</v>
+        <v>0.2595262940423737</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365357067803993</v>
+        <v>-0.63653959358831</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421698923816142</v>
+        <v>-0.5421521004727342</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908265433433774</v>
+        <v>-0.8907947091577306</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05266342020591175</v>
+        <v>0.05264826770206325</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006216198413242179</v>
+        <v>-0.006208291400126414</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01693817865072541</v>
+        <v>-0.01692216787047631</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292324364594767</v>
+        <v>0.5292343878426415</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.592711121422505</v>
+        <v>0.5927214944415454</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2689005780249343</v>
+        <v>-0.2688957725942216</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508067487417715</v>
+        <v>-0.2508154032166279</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732733951202195</v>
+        <v>-0.3732607463501528</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02372558992925152</v>
+        <v>-0.02374649237653111</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257152519656232</v>
+        <v>-0.125721454107309</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641952918929091</v>
+        <v>0.164183343397983</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.236884493504784</v>
+        <v>0.2369170491209433</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.115255886390094</v>
+        <v>-0.1152417357138503</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672598534924427</v>
+        <v>0.2672647571242326</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456480495026069</v>
+        <v>0.8456558196206636</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07315331530506901</v>
+        <v>0.07317197308628537</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017967663989892</v>
+        <v>-0.1017813816823699</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8798077737881478</v>
+        <v>0.8798020191469432</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07999511406993214</v>
+        <v>-0.07999383263031618</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386846716454852</v>
+        <v>-0.3386659627207057</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401259935244596</v>
+        <v>-0.9401120913215129</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611326090426959</v>
+        <v>0.5611382782886697</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297296686400061</v>
+        <v>-0.2297750868752992</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713141332196032</v>
+        <v>-1.713126779296716</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647999395721857</v>
+        <v>0.1647857971307349</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467558508678701</v>
+        <v>-0.4467518416095151</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336631323660163</v>
+        <v>-1.336636805385172</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1094733034942392</v>
+        <v>-0.10949410650101</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3137078346245064</v>
+        <v>0.3136965144932652</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847318081838864</v>
+        <v>0.5847301141225687</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053979910560367</v>
+        <v>1.053985960862559</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.4479566604647184</v>
+        <v>-0.447953806661319</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.902738750262846</v>
+        <v>-0.9027281284648484</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568909878322639</v>
+        <v>-0.756894502626825</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131492157795168</v>
+        <v>-0.8131226436768062</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276515757675269</v>
+        <v>0.2276746630331059</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.445706485380178</v>
+        <v>-0.4456973574771627</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.149914404998384</v>
+        <v>-0.1498862366388541</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04133948244455033</v>
+        <v>-0.04133209740866808</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258087378308053</v>
+        <v>0.1258395851363128</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8535089252614984</v>
+        <v>-0.8534883000679222</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542481605269422</v>
+        <v>-0.25424191620479</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.835594696167593</v>
+        <v>-0.8355887621731424</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511168571755297</v>
+        <v>-0.7511169364752553</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.240180222595462</v>
+        <v>-0.2401554664214094</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162977035967823</v>
+        <v>0.6163178708233119</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1511017354105489</v>
+        <v>0.1510999972235704</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8462390201175702</v>
+        <v>-0.8462129690494073</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892695544527689</v>
+        <v>-0.589270607036156</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4932526027124839</v>
+        <v>-0.4932550033634456</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783584594600679</v>
+        <v>-0.578340688535445</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2112073539217557</v>
+        <v>-0.2111916862427849</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491558233460226</v>
+        <v>-0.5491542078283752</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408451944913666</v>
+        <v>-0.440833935948026</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378064325097279</v>
+        <v>0.2378337061126723</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1279952090560168</v>
+        <v>0.1279874450181337</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316903058901829</v>
+        <v>-0.931682568372259</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585335332094586</v>
+        <v>-0.4585153392045985</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284578901149665</v>
+        <v>-0.7284381778746004</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2633629556693227</v>
+        <v>-0.2633374149311898</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.740218588005522</v>
+        <v>-0.7401990296458849</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036892066467891</v>
+        <v>1.036887790742486</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763390057519136</v>
+        <v>0.3763543596099786</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4959039894369983</v>
+        <v>0.4959102446856973</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171887307437368</v>
+        <v>0.3171809096584823</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07611365917707552</v>
+        <v>0.07610886553711491</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.0317129004882914</v>
+        <v>-0.03170423361535644</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.410879849607642</v>
+        <v>-0.4108633803922733</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947389932565258</v>
+        <v>-0.4947417320264749</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192528630665627</v>
+        <v>0.1192376484722544</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449309703105802</v>
+        <v>-0.844943414181464</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023191432725748</v>
+        <v>-1.023167323447783</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1327399123562088</v>
+        <v>-0.132721304504986</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2456326071827889</v>
+        <v>-0.2456003055490631</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6543534429516152</v>
+        <v>-0.6543211637974318</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205698114573382</v>
+        <v>-1.205681859561131</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.806037568443454</v>
+        <v>-0.8060267887356903</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894649317688238</v>
+        <v>-0.1894562255954489</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1890059663111908</v>
+        <v>-0.1890014005593094</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7443781995655314</v>
+        <v>-0.7443852241645467</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116014356600563</v>
+        <v>-0.7115982736972063</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007520527870233662</v>
+        <v>-0.007531973268266993</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177519974252111</v>
+        <v>-0.6177664917865539</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410440833479857</v>
+        <v>-1.410423379708195</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791352802356548</v>
+        <v>-0.9791200039792133</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08230126560008358</v>
+        <v>-0.08228638278389994</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579596703774702</v>
+        <v>-0.8579258094781642</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304691394085276</v>
+        <v>-1.304652917916009</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223613212706289</v>
+        <v>-1.223596373010598</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542348984554068</v>
+        <v>-0.8542240584910813</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2841408596585882</v>
+        <v>-0.2841125831050815</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051545240858726</v>
+        <v>-0.6051472110401547</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.7114929551052278</v>
+        <v>-0.7114709591376516</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.3170993167742904</v>
+        <v>-0.3170617295783847</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942599654953356</v>
+        <v>-0.7942447204550086</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05085728515901535</v>
+        <v>-0.05084011567286715</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.7563000060403742</v>
+        <v>-0.7562446866477915</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695831065661565</v>
+        <v>-1.695784801013892</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465646636637424</v>
+        <v>-1.465614497676131</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831479113745263</v>
+        <v>-0.9831218382654197</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423020678956952</v>
+        <v>-0.8423178346901218</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571892572888579</v>
+        <v>-0.5571860240582786</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.267458791066692</v>
+        <v>-1.324467490224912</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392610413845246</v>
+        <v>0.7392535085531681</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933736138426167</v>
+        <v>0.9933619400150818</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169587273200036</v>
+        <v>1.16959929480661</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732331716452662</v>
+        <v>0.9731969530417403</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978097404474423</v>
+        <v>0.8977922316816537</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164428843824815</v>
+        <v>0.2164056349586474</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195694709827556</v>
+        <v>1.195670189149368</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3777723198884488</v>
+        <v>0.3778141057341019</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845586638568722</v>
+        <v>0.2845383031528546</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059541146234638</v>
+        <v>1.05954424876049</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250307710129611</v>
+        <v>1.250283874032103</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783389519736032</v>
+        <v>0.9783264665505342</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406337414369253</v>
+        <v>1.406317986633533</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428458115732479</v>
+        <v>1.428453215763642</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504366826041302</v>
+        <v>0.9504624909452707</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022626199260336</v>
+        <v>0.8022106843794864</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02092770425716903</v>
+        <v>-0.02092292853193899</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4842086266234132</v>
+        <v>0.4842014779862999</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277647310157825</v>
+        <v>1.277652272979379</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600890310056284</v>
+        <v>0.7600688624880648</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066328710813944</v>
+        <v>1.066332404151376</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738090710898267</v>
+        <v>0.1738060084175114</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01896545172145343</v>
+        <v>0.01895674448295592</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.32283047987071</v>
+        <v>1.322819900729584</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388924497940693</v>
+        <v>1.388898394033786</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007648449605988</v>
+        <v>1.007656407417975</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580094591238663</v>
+        <v>0.9580487695696225</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404375730277568</v>
+        <v>1.404391957626479</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255559326634033</v>
+        <v>0.1255824201433499</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151311963191552</v>
+        <v>1.151338349497139</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.569601400093844</v>
+        <v>1.56964527477548</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9721998827233825</v>
+        <v>0.9722232921011904</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132353638281123</v>
+        <v>0.4132300984182098</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149366121650436</v>
+        <v>-0.1149241385152917</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135977957044378</v>
+        <v>0.1135916974701311</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077376680174153</v>
+        <v>0.3077711849444589</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706093103281538</v>
+        <v>0.7706366460784364</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9647230966456549</v>
+        <v>0.9647060840455917</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449164865001714</v>
+        <v>0.5449069841545062</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390810090161955</v>
+        <v>0.9390201413353282</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970900413186779</v>
+        <v>1.970849797541672</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.19521674202995</v>
+        <v>1.195185216474448</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.261796498500252</v>
+        <v>0.2617977262574306</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331419167241285</v>
+        <v>1.331342543397198</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650048670480269</v>
+        <v>1.650070234474533</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072906930603529</v>
+        <v>1.072900427313366</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191195411209125</v>
+        <v>1.191160092695805</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519487791061489</v>
+        <v>1.519478661620511</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586048893352587</v>
+        <v>1.586038914559388</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718834211693839</v>
+        <v>0.2718698142474176</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719817845570617</v>
+        <v>1.719784390089624</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400998379947857</v>
+        <v>1.400974845007108</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332368892983383</v>
+        <v>1.332323039255838</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593485912311374</v>
+        <v>1.59348486481403</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6253873891280807</v>
+        <v>0.6254014262210187</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119951924570162</v>
+        <v>0.3119886503767402</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9785428725369084</v>
+        <v>0.9784906498703625</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058664534407007</v>
+        <v>0.5058760780746555</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798779237813923</v>
+        <v>0.3798327075048594</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435350999322921</v>
+        <v>1.435364915113224</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483002921097378</v>
+        <v>1.483001440703113</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002178756267671</v>
+        <v>2.002141911290248</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095224470556085</v>
+        <v>1.095238043892195</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518521121262548</v>
+        <v>1.518516391586952</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8032247499897694</v>
+        <v>0.8032052933345096</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861822871620066</v>
+        <v>0.3861326060835202</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363906763567303</v>
+        <v>1.36386541336953</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439649974879362</v>
+        <v>0.74392537649196</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848596784352956</v>
+        <v>0.9848684159483904</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9008539940813272</v>
+        <v>0.9008557582202484</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846944052487548</v>
+        <v>0.6846687746743878</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972684640054647</v>
+        <v>0.6972581050852071</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8789685529901624</v>
+        <v>0.8790115718918916</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650798029170468</v>
+        <v>0.665100627338797</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754498959389021</v>
+        <v>0.4754286884239237</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.478601044565703</v>
+        <v>1.47857257001398</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181411870717077</v>
+        <v>0.2181257279406495</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070127084804559</v>
+        <v>1.070080563806971</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074048407007898</v>
+        <v>0.6074215608194208</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.90668053659011</v>
+        <v>1.906693266432539</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.507998652313892</v>
+        <v>0.5080100726864381</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.620992704502729</v>
+        <v>0.6209730450268238</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771611532237381</v>
+        <v>-0.5771825807638459</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214386259545152</v>
+        <v>0.5214563748304977</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9443895809884481</v>
+        <v>0.9443783469764495</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5424049690813183</v>
+        <v>0.5424246894432836</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808234712790185</v>
+        <v>0.5808362508668823</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1601021319441799</v>
+        <v>-0.1600711835052918</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5519990811728194</v>
+        <v>0.5520028727180567</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411212843750724</v>
+        <v>1.411186954825333</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3742952246969597</v>
+        <v>0.3743066279387651</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5608300656546064</v>
+        <v>0.5608111875954606</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2978096219318728</v>
+        <v>0.2978431041508245</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.327425593469014</v>
+        <v>0.3274058299069707</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8193274573287422</v>
+        <v>0.8192898134928157</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007083345961097</v>
+        <v>0.2007556449837268</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129204335567641</v>
+        <v>0.1129653288845448</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6184943660581932</v>
+        <v>0.6185324948812806</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568462700657941</v>
+        <v>0.4568693617456596</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247974501407083</v>
+        <v>-0.2248016401643756</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7395152097071538</v>
+        <v>-0.7394955437218717</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5347601003502181</v>
+        <v>-0.53477550546627</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909804270325124</v>
+        <v>0.1909655682047004</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.59495187789651</v>
+        <v>1.594918266014802</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211973295606963</v>
+        <v>0.5211940116257099</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3856544998844674</v>
+        <v>0.3856100255843994</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06909585012290878</v>
+        <v>0.06905371035044329</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830495713575183</v>
+        <v>0.7830218875175943</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.883484983149043</v>
+        <v>0.8834508032456205</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03041061720139047</v>
+        <v>-0.03039019018009909</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01565551428979119</v>
+        <v>0.01561990212291579</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3874785161149266</v>
+        <v>0.387471331474034</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.40583325338988</v>
+        <v>1.405767319368637</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.877952008664736</v>
+        <v>1.877978758799179</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4371893830339025</v>
+        <v>0.437174663189992</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2380804172085134</v>
+        <v>0.2381074431204163</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692740919013751</v>
+        <v>-0.6692689292603269</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015372849802267</v>
+        <v>2.015332471331804</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9052114659472235</v>
+        <v>0.9051518979826506</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259762951839236</v>
+        <v>1.259751563948835</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.400686806107947</v>
+        <v>0.40067073609806</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.126981906743072</v>
+        <v>0.1270139895273669</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1993912151009815</v>
+        <v>0.199398462910424</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636682245490161</v>
+        <v>1.636686932142824</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238805648708437</v>
+        <v>1.238780367275415</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033281264920337</v>
+        <v>0.8033277701752694</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757290610546042</v>
+        <v>0.5757188961783531</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5818159333040868</v>
+        <v>0.581795212043465</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07759881472789039</v>
+        <v>-0.07763067042446223</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.930423537168521</v>
+        <v>-0.9304719678107034</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232712382268121</v>
+        <v>-0.3232704069606146</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078671339365586</v>
+        <v>0.1078536354310136</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2313236584704827</v>
+        <v>-0.2312861036253435</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.855790600385599</v>
+        <v>0.855778812523503</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293570116795746</v>
+        <v>0.429342314053228</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.493983487104986</v>
+        <v>1.493992199971106</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875573514368652</v>
+        <v>1.875522076818692</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3637904963200873</v>
+        <v>0.3638126513209021</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011403052109031</v>
+        <v>1.011400882749321</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4187888379650538</v>
+        <v>0.4188021096519925</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5396933429972883</v>
+        <v>-0.5396944135744176</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944738665675783</v>
+        <v>0.6944640764020659</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01416978873825832</v>
+        <v>-0.01414739034276673</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.477564286608322</v>
+        <v>-0.4775483191245712</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107819733678857</v>
+        <v>1.107841184424658</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930671100118312</v>
+        <v>0.1930461470275069</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05771295204149578</v>
+        <v>0.05767523833197537</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150403742581874</v>
+        <v>0.5150428379564004</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2705145620013161</v>
+        <v>-0.2705245933629695</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806385737059608</v>
+        <v>-0.1806444870718832</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841886878881838</v>
+        <v>0.4841646983216937</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685267755236193</v>
+        <v>-0.2685254801990665</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4521063434033996</v>
+        <v>-0.4520947449003986</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947747003000733</v>
+        <v>-0.2947815028922969</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01053851616825763</v>
+        <v>0.0105091296358281</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107863243590854</v>
+        <v>1.107848318495285</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6961391507991374</v>
+        <v>0.6961434118379404</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2177039544252119</v>
+        <v>0.2177204606907268</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479334995316237</v>
+        <v>0.5479152469137312</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08420808431971341</v>
+        <v>-0.08416685496252012</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155589259013911</v>
+        <v>0.6155127637021635</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096187803029192</v>
+        <v>1.096196968361237</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8312379449695624</v>
+        <v>0.831233343322063</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3104194052229983</v>
+        <v>-0.3104007595770013</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08338612568231181</v>
+        <v>0.0834112092337167</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979422168577739</v>
+        <v>-0.5979245291242141</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702539198862653</v>
+        <v>-0.1702233636462188</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.359830082344601</v>
+        <v>-0.3598186607878995</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2598108112667848</v>
+        <v>-0.2598000492965515</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.256785464744732</v>
+        <v>0.2567608074875595</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4796883729415734</v>
+        <v>0.4796577979549265</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453389533616156</v>
+        <v>-0.3453605067990416</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617061082258373</v>
+        <v>-0.7617272581047199</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720923034387129</v>
+        <v>0.2720680078262401</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176211677102482</v>
+        <v>-0.7176408235175549</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639913900995279</v>
+        <v>0.6639876405605414</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03989001754447098</v>
+        <v>-0.03990981923262691</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115050597489712</v>
+        <v>-0.5115210584191573</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4209003431429612</v>
+        <v>0.4208694202493644</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426528345003119</v>
+        <v>0.3426492711340528</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363518188681377</v>
+        <v>0.23636839512146</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465807916608487</v>
+        <v>-0.5465952382816981</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266132090530257</v>
+        <v>1.266125849063091</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.993528406200116</v>
+        <v>0.9935249031486346</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320587972911858</v>
+        <v>0.8320457250133957</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808483496457041</v>
+        <v>0.6808413821322404</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147829090815222</v>
+        <v>0.3147724294396167</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241634584715712</v>
+        <v>1.241656550861085</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059240545892288</v>
+        <v>0.405918703914279</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4854810034735841</v>
+        <v>0.485526438728491</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497060903517749</v>
+        <v>0.5497336048332561</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.671457931158837</v>
+        <v>0.6714319433850867</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028748402367074</v>
+        <v>0.8028505301068686</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310005569807408</v>
+        <v>0.2310039192801865</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2860931285926118</v>
+        <v>0.2860964744262466</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006301668197196472</v>
+        <v>-0.006267375109986154</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4575128387476849</v>
+        <v>0.4574961772729773</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088467072293336</v>
+        <v>0.108867286168329</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068284217458313</v>
+        <v>0.1068170978466124</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750285040233434</v>
+        <v>1.75027524920282</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09875790584782046</v>
+        <v>-0.09876315454701803</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022705986376792</v>
+        <v>0.2022280869058594</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711462456966596</v>
+        <v>0.571134753701389</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472248903871825</v>
+        <v>0.4472091872951966</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04312615149460645</v>
+        <v>-0.04314614294834863</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.5222305195787</v>
+        <v>1.522206423789673</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1076584533030461</v>
+        <v>0.1075999953300151</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4769949153204142</v>
+        <v>0.4770015244393833</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291137713275907</v>
+        <v>1.291131463371905</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7410094047650817</v>
+        <v>0.7409784927766023</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9809745043648846</v>
+        <v>0.9809843821860623</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07320538506086285</v>
+        <v>-0.07319355972008167</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144258087449322</v>
+        <v>0.5144582989098937</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155601612132457</v>
+        <v>1.155614353250705</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979724596937741</v>
+        <v>0.7979354728873107</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382425125165549</v>
+        <v>1.382450696700531</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758670808859055</v>
+        <v>0.3758774327068081</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993188774988799</v>
+        <v>0.2993541573916478</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9439918106030605</v>
+        <v>0.9440015004878306</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251176379261641</v>
+        <v>1.251158695737102</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1698088954868487</v>
+        <v>0.1697742935400186</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522467924980209</v>
+        <v>0.452255814847967</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793669013603212</v>
+        <v>0.1793409274047559</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393901278533116</v>
+        <v>-0.43939345460585</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947315542326345</v>
+        <v>-0.1947061564439299</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2423817159586246</v>
+        <v>-0.2423686055059798</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304763661261105</v>
+        <v>0.3304632310190518</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152942460918491</v>
+        <v>0.3152975842656002</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174759628929787</v>
+        <v>0.6174766565372453</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3028881289357655</v>
+        <v>0.3029106581975708</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882424380781883</v>
+        <v>-0.3882326600007541</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095809743210585</v>
+        <v>-0.1095623973474392</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.337232429495408</v>
+        <v>0.3372598685684634</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191911232325389</v>
+        <v>-0.5191298455030103</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5823242936256073</v>
+        <v>-0.5822698251687876</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652585793958691</v>
+        <v>-0.665243640278196</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760968056154632</v>
+        <v>0.276080345595617</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350530250291916</v>
+        <v>-0.09350561994459204</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911829711742976</v>
+        <v>0.4911509683653247</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.465264673677051</v>
+        <v>0.465245109559558</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904854952345052</v>
+        <v>0.7904592063710918</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176283904256345</v>
+        <v>1.176285243715185</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.6054582531352724</v>
+        <v>-0.605414529830244</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5600638341587609</v>
+        <v>-0.5601183888273281</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2481662818216772</v>
+        <v>-0.2481982889226228</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078694707862129</v>
+        <v>-0.4078821310316592</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585711736357635</v>
+        <v>-0.8585852636322857</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1309026280653535</v>
+        <v>0.1308536080045726</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684994470945345</v>
+        <v>1.684952806863196</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243388336417494</v>
+        <v>1.243347688848991</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990533070630075</v>
+        <v>0.7990107728213122</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734659162858371</v>
+        <v>0.2734577491291075</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7307785958234553</v>
+        <v>0.7307781424170451</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182238885553221</v>
+        <v>0.5182293175785302</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487117310436629</v>
+        <v>0.5487303800008085</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5324324198847378</v>
+        <v>0.5324060805927781</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196292431875912</v>
+        <v>0.5196382134022632</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818263441319363</v>
+        <v>0.7818359114329945</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2202237368340391</v>
+        <v>-0.2202140690072435</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828969493370548</v>
+        <v>-0.682864703680787</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4300370416981985</v>
+        <v>-0.4300889837666776</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.737886194922878</v>
+        <v>0.7378988900590622</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9826222697496853</v>
+        <v>-0.9825943656793126</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.198371447449091</v>
+        <v>-0.1984000886668716</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01207666013264636</v>
+        <v>-0.01203093699881383</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263326844428316</v>
+        <v>-0.1263522606545522</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04613690307272012</v>
+        <v>-0.04613716671252809</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102181446782456</v>
+        <v>0.6102145319242178</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03097213992177204</v>
+        <v>-0.03099314791432893</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342566421342453</v>
+        <v>-0.8342327869452829</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732977010082159</v>
+        <v>0.5732720633452835</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269346199856316</v>
+        <v>-0.7269589556123565</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.653231639394363</v>
+        <v>-0.6532480895888721</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2094033344785798</v>
+        <v>-0.209397317161743</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.0187401296711</v>
+        <v>-1.01870939209</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3381926741660216</v>
+        <v>0.3382219887238903</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1078709690681777</v>
+        <v>0.1079189157395873</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4086009235387729</v>
+        <v>-0.4085631632196143</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09826309814911674</v>
+        <v>-0.09824630352864842</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6479994168244875</v>
+        <v>-0.6479856963491983</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03001432754145366</v>
+        <v>-0.03003209917770229</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058568205978697</v>
+        <v>-0.5058461124433199</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3364939927047056</v>
+        <v>-0.3365179955785011</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276852586008843</v>
+        <v>-1.276859108148647</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08479490960747012</v>
+        <v>-0.08480806584020302</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04937633738749318</v>
+        <v>-0.04938666083002306</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110190517028155</v>
+        <v>-0.2110378677004206</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6342849011832468</v>
+        <v>0.6343093957542346</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.5168154270302</v>
+        <v>1.516792101214179</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7035524353799558</v>
+        <v>0.7035765300191879</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05725214836346351</v>
+        <v>0.05728714947538734</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463442052075136</v>
+        <v>0.8463289188749049</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083795259380834</v>
+        <v>1.083796817956549</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625696779520465</v>
+        <v>1.625703705331089</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038458975572332</v>
+        <v>0.6038494849585085</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733142761502755</v>
+        <v>0.4733249242356619</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572682443764772</v>
+        <v>0.4572914214815452</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092527935077661</v>
+        <v>0.1092843087162634</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.207497840754418</v>
+        <v>-0.2074828564661497</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8417876726172658</v>
+        <v>0.8417420847302024</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901162379228399</v>
+        <v>0.6901379551076552</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2628149347763738</v>
+        <v>-0.2627693717217455</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219513279799739</v>
+        <v>-0.2219945278574981</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062464771377875</v>
+        <v>1.062450900703853</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380843747533351</v>
+        <v>1.380820971335419</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1583912464733477</v>
+        <v>-0.1583876840257459</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.35585816468548</v>
+        <v>-1.355816943185018</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.4081503030917</v>
+        <v>-1.408154064905472</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2941775848028416</v>
+        <v>-0.2941664489748421</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119920896836866</v>
+        <v>-1.119882899267567</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008157738339903705</v>
+        <v>-0.00815326073122972</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.169812544773788</v>
+        <v>-0.1698038899722783</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317288793241069</v>
+        <v>0.1317581390152084</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7604102207221023</v>
+        <v>-0.7603944478820645</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4644698608484681</v>
+        <v>-0.464462008993043</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023972011998354</v>
+        <v>-1.023984818332019</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2982027156219023</v>
+        <v>-0.2981686451915121</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610427612526811</v>
+        <v>-0.3610220403674608</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03792643286441132</v>
+        <v>0.03789362157756351</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7330472618283295</v>
+        <v>0.7330235228605696</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.210451917239933</v>
+        <v>-0.2104924158677666</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8016008781577649</v>
+        <v>-0.8015830192686403</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518438974786846</v>
+        <v>0.2518792186434162</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02723017527267392</v>
+        <v>0.02721736148152117</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3228106079801766</v>
+        <v>0.3227859473518443</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350731343270184</v>
+        <v>0.4350836562098497</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947663555234405</v>
+        <v>-0.5947426957450593</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181792088960965</v>
+        <v>0.1181812858181723</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8117105569306813</v>
+        <v>0.8116965741856839</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609254754473748</v>
+        <v>0.460947844493145</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884417931263761</v>
+        <v>0.4884670349394437</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769263289008763</v>
+        <v>-0.1769321610033191</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.772412439326705</v>
+        <v>-0.7723735444520906</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8105817348057741</v>
+        <v>-0.810594182987597</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235361175144966</v>
+        <v>0.6235401093517364</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517565853169136</v>
+        <v>0.8517851472838323</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779149460410255</v>
+        <v>0.9779168482197188</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194898598573064</v>
+        <v>-0.2194816012393977</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04632255019072013</v>
+        <v>0.04634499891004212</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503495963135405</v>
+        <v>-0.6503645952410289</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742453246475158</v>
+        <v>0.9742214809662192</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572967377012143</v>
+        <v>0.6572886797887043</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026795569507571</v>
+        <v>1.026790297492885</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1941094022181282</v>
+        <v>0.1940963448801911</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3122013829735435</v>
+        <v>0.3121821891959616</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077291755231292</v>
+        <v>1.077243486723729</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5225771595959601</v>
+        <v>0.522554339078001</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153264533196879</v>
+        <v>1.153261461093086</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129295345645898</v>
+        <v>1.129285537303835</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288343049026907</v>
+        <v>0.1288514005028612</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07097419500492225</v>
+        <v>0.0710055318607017</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.37183605486178</v>
+        <v>0.3717783701392966</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.488483960133703</v>
+        <v>0.4884304065327557</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5035559237960048</v>
+        <v>0.5035139217229473</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03151318960798656</v>
+        <v>-0.03148532274556838</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337359033379805</v>
+        <v>-0.2337342386847444</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487370849700634</v>
+        <v>1.487308583666942</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162486124376907</v>
+        <v>0.9162249940327917</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5243325913491006</v>
+        <v>0.5243080478155719</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3363274649141291</v>
+        <v>0.3362864940890624</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09790000615733023</v>
+        <v>0.0979260280381845</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516786520941645</v>
+        <v>-0.1516826280005155</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163452415899029</v>
+        <v>0.1163623695311774</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526744272577154</v>
+        <v>-0.652681820736339</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455951707764236</v>
+        <v>-0.4455907177613481</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204258715946856</v>
+        <v>0.2204252605552999</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4695877229931938</v>
+        <v>0.469558005798668</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840037013611146</v>
+        <v>-0.2840272463817646</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8520002636558566</v>
+        <v>-0.8520173438678615</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2098383247323695</v>
+        <v>0.2098081460121714</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.236198202071123</v>
+        <v>0.2361976593796164</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2317096943172761</v>
+        <v>-0.2317465802012117</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.0303955287970574</v>
+        <v>-0.03039288675067895</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342689647835873</v>
+        <v>-0.1342698701305275</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728495636607993</v>
+        <v>-0.6728451010733316</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3694643772221269</v>
+        <v>-0.3695081611983788</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624054741639711</v>
+        <v>0.162411138878921</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321842201657844</v>
+        <v>-0.93214652759595</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568583659503174</v>
+        <v>-0.6568796186793812</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3358279708301581</v>
+        <v>0.3357764831039416</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514901120591552</v>
+        <v>0.1514763288687534</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2136836205318016</v>
+        <v>0.2136681943496179</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09281086954909569</v>
+        <v>0.09280230531626658</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4872113788825452</v>
+        <v>0.4871775913580401</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663086638492139</v>
+        <v>0.1663070761618007</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078157429947814</v>
+        <v>0.3078088485321973</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064633092292472</v>
+        <v>1.064592334403813</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403183589044595</v>
+        <v>0.9403556373021701</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100817258211911</v>
+        <v>-0.2100573644543371</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842502244558023</v>
+        <v>0.4842420256190134</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5805800450246323</v>
+        <v>0.5806106259707404</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418630793430672</v>
+        <v>-0.1418370897110731</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154389420752644</v>
+        <v>0.7154256335108935</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512354050890796</v>
+        <v>-0.5512221581040618</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160693566238455</v>
+        <v>1.160689517236162</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09364856936508337</v>
+        <v>0.09364874544691107</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1940330378884242</v>
+        <v>-0.1940003885764214</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.00165287207416425</v>
+        <v>0.001671336283661062</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226853366004959</v>
+        <v>-0.422657071174117</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09176292639309588</v>
+        <v>0.091760996360959</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2814051002331422</v>
+        <v>0.2813910139260127</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115303152811005</v>
+        <v>-0.5115409959026319</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.384736191553763</v>
+        <v>-0.3847585998671606</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4988110341462149</v>
+        <v>0.4987931628937616</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234199556881502</v>
+        <v>1.234207912317046</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1131266929803975</v>
+        <v>-0.1131065545663905</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822417726452452</v>
+        <v>-0.4822561727708226</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073467048400028</v>
+        <v>-0.3073379923026534</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023575499801567</v>
+        <v>0.2023713864525485</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154489849602725</v>
+        <v>-0.3154253975336156</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352277698045013</v>
+        <v>-0.2352459169310216</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4581656629486665</v>
+        <v>-0.4582202685479151</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05208186199365083</v>
+        <v>-0.05210435935863843</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5074069764853031</v>
+        <v>-0.5073874274164507</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440035251624489</v>
+        <v>0.3440194673005664</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096470222721948</v>
+        <v>0.1096639310537166</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1632869395933131</v>
+        <v>-0.1633011588563656</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9583918616086604</v>
+        <v>0.9583920558250705</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036029005930701</v>
+        <v>0.5036198799457984</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442213644998678</v>
+        <v>0.544211578596682</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267903723574381</v>
+        <v>1.267864561094909</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199643679123149</v>
+        <v>1.199650369456807</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777750078121309</v>
+        <v>0.3777949629124537</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894685242305725</v>
+        <v>-0.4894559582655947</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259110745930679</v>
+        <v>-0.2258959449759436</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3472981289387614</v>
+        <v>0.3473056355114988</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342242970606345</v>
+        <v>-0.5342272133720324</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365378404220037</v>
+        <v>-0.8365281760501646</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152345069417133</v>
+        <v>0.4152309067798118</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8677126443504107</v>
+        <v>-0.867722574417861</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377250252851386</v>
+        <v>-0.7377642681523902</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415258542350656</v>
+        <v>-0.1415538108049887</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5419097854191965</v>
+        <v>0.5418975692361788</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2706508363404407</v>
+        <v>0.2706401507944763</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7783018072152174</v>
+        <v>-0.7782995702066039</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078467215865143</v>
+        <v>0.3078277096103791</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6503935278079587</v>
+        <v>0.6504310024266525</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3801110893452844</v>
+        <v>-0.3800597274324857</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.7780646594064494</v>
+        <v>-0.7780579665735959</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1160877747304953</v>
+        <v>-0.1161077363962853</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0003961376429612103</v>
+        <v>-0.0004507022700663832</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568631153023593</v>
+        <v>0.4568692993057596</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.459895709307488</v>
+        <v>-0.4598649955588412</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964548954031224</v>
+        <v>-0.4964563023779858</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07680395959927827</v>
+        <v>-0.07681669644955963</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732024696634477</v>
+        <v>-0.2732190043208404</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1206915066978667</v>
+        <v>0.1207212540489997</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5689082868043852</v>
+        <v>-0.5688946470225323</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168612238560635</v>
+        <v>-0.316853265255705</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1802045111454243</v>
+        <v>-0.1802315186005116</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132074125125449</v>
+        <v>-0.2132378127503911</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671283570096873</v>
+        <v>-0.7671094765247554</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.939012002672392</v>
+        <v>-0.939016337746959</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04835028355061942</v>
+        <v>-0.04835587458752769</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563685780671707</v>
+        <v>-0.4563646126797749</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665640776219137</v>
+        <v>-0.5665616895617693</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104530712142988</v>
+        <v>-0.2104537028026876</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03855019928678666</v>
+        <v>0.03854050489849995</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03057457184684471</v>
+        <v>0.03057713298556072</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124986031433862</v>
+        <v>0.2124920432891293</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815604894313429</v>
+        <v>0.9815716437260608</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003885597006942</v>
+        <v>1.003814510177618</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5811858922275056</v>
+        <v>0.5811515493749314</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485433181665309</v>
+        <v>0.2485327648281911</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838365421913843</v>
+        <v>0.6838113579274273</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665594024186989</v>
+        <v>-0.2665664541179097</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519637952495969</v>
+        <v>0.7519566110440976</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453577108033828</v>
+        <v>-0.1453560120355922</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880535902644633</v>
+        <v>-0.2880549724155432</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252676870511137</v>
+        <v>0.6252329418679522</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7352747210740681</v>
+        <v>0.7352252973058531</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3042144645799211</v>
+        <v>-0.3041913410665092</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969466908688885</v>
+        <v>-0.5969118022581795</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.5397185838372954</v>
+        <v>0.539724683814142</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164925548069053</v>
+        <v>1.164938463692428</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.387989414351637</v>
+        <v>-0.3879915083189489</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.210945851833313</v>
+        <v>1.210947764392433</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.270558445373031</v>
+        <v>-0.2705525015994888</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7003918814876841</v>
+        <v>-0.700429901251707</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313151925167179</v>
+        <v>-0.1313137622135194</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098074248442755</v>
+        <v>0.309853853551643</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1527666656443903</v>
+        <v>-0.1528029903018377</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632611051413075</v>
+        <v>0.2632276525300014</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02408714972165888</v>
+        <v>0.02412329062500157</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289667587543929</v>
+        <v>-0.5289240570634746</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363503136678569</v>
+        <v>-0.5363108836754887</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.182774742822417</v>
+        <v>-0.1827579061319984</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786062346513825</v>
+        <v>0.5786437953090705</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4096991607518382</v>
+        <v>-0.409673627692836</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866448448133912</v>
+        <v>0.2866520319731268</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7339005633940932</v>
+        <v>-0.7338749647353292</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537512146288606</v>
+        <v>-0.2537418880553337</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470915174338977</v>
+        <v>-0.8470797236033302</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.487369984816185</v>
+        <v>-0.4873817922480256</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182485279109184</v>
+        <v>-0.2182454182844735</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1416097879944621</v>
+        <v>-0.1415641519726368</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016752068959199</v>
+        <v>-1.016792368388078</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460693172020557</v>
+        <v>-0.9460632386724356</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.97890048454953</v>
+        <v>-0.9789177998093989</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915029371276414</v>
+        <v>-0.791532392961586</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962240028033445</v>
+        <v>-0.3962288864972933</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941662604560091</v>
+        <v>-0.4941875186182757</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189026836646043</v>
+        <v>-0.5189266423191354</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323962064809389</v>
+        <v>0.3323917418875664</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200182779185633</v>
+        <v>0.4200390788574022</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8417747613605188</v>
+        <v>-0.8417464814134784</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2085969094543148</v>
+        <v>-0.2085794346114175</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097423577449698</v>
+        <v>1.097446022437647</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661865788805543</v>
+        <v>0.3661861799857921</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1449294264301224</v>
+        <v>0.1448863318050649</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.1450755801428922</v>
+        <v>-0.1450911495194413</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02432003646430236</v>
+        <v>0.02429065895006288</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141883265956081</v>
+        <v>-0.2141793863299011</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3979902037797155</v>
+        <v>-0.3979868455127205</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07368277070205825</v>
+        <v>-0.07368777185169863</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685783808331715</v>
+        <v>0.5685821585995009</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03659974699705239</v>
+        <v>0.03658362804764431</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09163238489777244</v>
+        <v>0.09161739230576922</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2098419372584286</v>
+        <v>0.2098095722159846</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5363126853889365</v>
+        <v>0.5362797664777726</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360466901764737</v>
+        <v>1.360467044473588</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238867445497013</v>
+        <v>1.238866426177841</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919392861537799</v>
+        <v>0.3919600296558062</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988818592184496</v>
+        <v>0.198854403964913</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3166050128420879</v>
+        <v>0.3165742362943489</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307055959808827</v>
+        <v>1.307039069177777</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.625462786826262</v>
+        <v>0.6254427311470168</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290544279965514</v>
+        <v>1.290538370537926</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06451527135711778</v>
+        <v>-0.064544121763601</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.11182296330304</v>
+        <v>1.11183137352806</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330720317791146</v>
+        <v>1.330731221567915</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942499815318311</v>
+        <v>0.1942663985283081</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536352743742788</v>
+        <v>1.536366271267689</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111614198328868</v>
+        <v>1.111605471014308</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04378559593543365</v>
+        <v>0.04381582496751237</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415756274270452</v>
+        <v>0.4415646870772718</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4847909959674414</v>
+        <v>0.4847566671125903</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540545092883545</v>
+        <v>-0.1540521367813815</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332620170301388</v>
+        <v>-0.3332777776625558</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.369673642147084</v>
+        <v>0.3696564277753505</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278398096937531</v>
+        <v>1.278386794874594</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272661438651599</v>
+        <v>-0.127282877551739</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561370700075275</v>
+        <v>0.7561144327472664</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264581463710196</v>
+        <v>0.4264451615830674</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007079715943614</v>
+        <v>0.007062966805133258</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.318851067813263</v>
+        <v>0.318825142806632</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.26016846829558</v>
+        <v>-1.260150337704858</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05160859693833658</v>
+        <v>0.05159626338290904</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.0931464222002641</v>
+        <v>0.09315550105057774</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113465372535173</v>
+        <v>0.1113397790727726</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01548483608756609</v>
+        <v>-0.01550358529991436</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077550677208595</v>
+        <v>0.107756810683929</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1289127406517353</v>
+        <v>-0.1289291127839323</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5139840754342638</v>
+        <v>-0.5139715479058057</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4846068097242285</v>
+        <v>0.4845902545537154</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218112276673164</v>
+        <v>0.2218148968766991</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8457017707912311</v>
+        <v>0.8456699582894213</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649326492063575</v>
+        <v>0.4649332364873156</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4258807436936945</v>
+        <v>0.4258884071303498</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286633643447889</v>
+        <v>-0.6286674636899553</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688857543151755</v>
+        <v>1.688817812250706</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289805860168398</v>
+        <v>1.28980415308802</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08660433224152991</v>
+        <v>-0.08660313068377019</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325106248918814</v>
+        <v>0.4325224186586705</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548554635506655</v>
+        <v>-0.4548405935650716</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549938449177541</v>
+        <v>-0.2549852633403956</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3968861102424965</v>
+        <v>0.396884879125452</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.581591472369727</v>
+        <v>-0.5816394293168535</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887715983285899</v>
+        <v>-0.5887871807115281</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135127079930148</v>
+        <v>1.135138689035447</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217781420142904</v>
+        <v>2.217776708439238</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4925168215914858</v>
+        <v>0.4925564769891299</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1862917123936169</v>
+        <v>-0.1862855285422352</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379081912900635</v>
+        <v>-0.1379196525357727</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3105021931212628</v>
+        <v>-0.3104816340682858</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501469736788529</v>
+        <v>-0.4501821208801116</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499386775612628</v>
+        <v>-0.249922682712594</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06522419358508955</v>
+        <v>0.06522534852847257</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1980994536605733</v>
+        <v>-0.1981139969272572</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844086093520875</v>
+        <v>-0.58440341314245</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475332531447727</v>
+        <v>-0.5475446913800429</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268590482256674</v>
+        <v>0.4268422402479619</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955759540416251</v>
+        <v>-0.4955922887514818</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705306148341128</v>
+        <v>0.5705141533716434</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529329907395366</v>
+        <v>-0.6529546800106032</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027611508096367</v>
+        <v>-0.4027766974288474</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055628277299707</v>
+        <v>1.055587405533166</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622876348847951</v>
+        <v>-0.1622805538791298</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903361471548054</v>
+        <v>-0.3903358993737186</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.244552215174348</v>
+        <v>0.2445690760427911</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2089125018135011</v>
+        <v>0.208888177621347</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8882112987195713</v>
+        <v>0.8881596996302978</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07283554014870279</v>
+        <v>-0.07284662124226271</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665210120276172</v>
+        <v>0.1665650749967827</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5952037633244689</v>
+        <v>0.5951870171012934</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2823068308681255</v>
+        <v>0.2822645333641707</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5032447789456354</v>
+        <v>0.5032860806954987</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.807181303488428</v>
+        <v>0.8072086756724833</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746474569328658</v>
+        <v>0.6746828554634481</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6116725342715064</v>
+        <v>0.6116980248649339</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.449971146859259</v>
+        <v>0.4499963078525833</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3179028354572757</v>
+        <v>-0.317882378808941</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099635515396534</v>
+        <v>-0.1099560358916866</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936324506619493</v>
+        <v>-0.4936450354473664</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.08992039686356131</v>
+        <v>0.08993991618348059</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068946995041491</v>
+        <v>-1.06891063282225</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211679983314327</v>
+        <v>-1.211675077523038</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8965944092599806</v>
+        <v>-0.8965358942975248</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1167838728585366</v>
+        <v>-0.1167450954462003</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836208309379482</v>
+        <v>-0.7836137575184874</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735252733623779</v>
+        <v>-0.5735115948409303</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294615387996674</v>
+        <v>-0.5294477546373787</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053651551328059</v>
+        <v>-0.9053456056511892</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5274709467023041</v>
+        <v>-0.5274532284976297</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829273924968325</v>
+        <v>-0.2829257328206989</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01208879656842747</v>
+        <v>-0.01211960933430065</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063681282753427</v>
+        <v>-0.9063709355532293</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.127288159703016</v>
+        <v>0.1272974820740411</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365537066699317</v>
+        <v>-0.3365556956881435</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374557056718927</v>
+        <v>0.1374646214912566</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3837222451688445</v>
+        <v>-0.3836845351840876</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022994932174581</v>
+        <v>-1.022962930187636</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.876649968446547</v>
+        <v>-0.87667919681312</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824865827473039</v>
+        <v>0.1824612633047684</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975607447458837</v>
+        <v>0.2975382795094534</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06925637982290177</v>
+        <v>-0.06923655731217747</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5590214708335454</v>
+        <v>-0.5589929834427432</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686140747843526</v>
+        <v>-0.5686128070042157</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263968438250963</v>
+        <v>-0.9263934549091065</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417436545141314</v>
+        <v>-0.3417377942653292</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021108782218863</v>
+        <v>-1.021094141702691</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.278321667286595</v>
+        <v>0.2783538506691788</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146327358383835</v>
+        <v>0.8146525486270438</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1350844972534749</v>
+        <v>0.1350862083732545</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628307942157387</v>
+        <v>0.5628540340578262</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528751353555601</v>
+        <v>0.552877741547452</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2337839902639369</v>
+        <v>0.2338074527095032</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08474214351902314</v>
+        <v>0.08475584857143161</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09507203724795017</v>
+        <v>0.09507256490502805</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734298904233591</v>
+        <v>-0.2734004390091977</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2499883906186879</v>
+        <v>-0.2500002415749503</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034676411010301</v>
+        <v>-0.3034563134320299</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.468233340130372</v>
+        <v>0.4682736803199888</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.110259862986508</v>
+        <v>0.1102038294163282</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9440438596244031</v>
+        <v>-0.9440131822975324</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7667860078172337</v>
+        <v>-0.7668241152710358</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6517621573291044</v>
+        <v>-0.6517759659052016</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.697762833101893</v>
+        <v>-0.6978180162826257</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825279747257044</v>
+        <v>-0.3825325466926507</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3029101283034015</v>
+        <v>-0.302929864435098</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.2651174177288</v>
+        <v>1.265129403968919</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801383332170779</v>
+        <v>-0.3801080501301107</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783609860205108</v>
+        <v>1.783639367681731</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234352628079206</v>
+        <v>1.234373629244018</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2383006140180923</v>
+        <v>-0.238303358421731</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3919896719461861</v>
+        <v>0.3920013059118559</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03535762444616975</v>
+        <v>0.03538367102032106</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194618843633911</v>
+        <v>1.194627452981053</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109128624958641</v>
+        <v>0.9109208868861324</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2256838339313615</v>
+        <v>-0.2257021946661919</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3783982016712122</v>
+        <v>0.3784156292015468</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2789375928370747</v>
+        <v>-0.2789426664054676</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541548129493958</v>
+        <v>-0.2541622850085549</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2696506642924053</v>
+        <v>-0.2696202856561455</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412459033530675</v>
+        <v>-0.4412270656543115</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009084102198998122</v>
+        <v>0.009064188486492274</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866123964511345</v>
+        <v>-0.8866072504822705</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2865592573320191</v>
+        <v>-0.2866125608509236</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5874247409124409</v>
+        <v>0.5873879831075446</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002094186564064</v>
+        <v>-0.1002331403482261</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8669655799349698</v>
+        <v>0.866964622160117</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084454867941679</v>
+        <v>0.2084782658988715</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670071576520033</v>
+        <v>-0.3670397995264925</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461081974387775</v>
+        <v>0.2461020529454824</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4502110355115503</v>
+        <v>0.4501923000852651</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862474557742937</v>
+        <v>-0.2862330840294776</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7462099718919221</v>
+        <v>-0.7462225103737442</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257004956373353</v>
+        <v>-0.5257059110602633</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03151046203982834</v>
+        <v>0.03148207297859855</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7978118295782056</v>
+        <v>0.7977642754004023</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366916237572224</v>
+        <v>0.7366842322097129</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142499912249916</v>
+        <v>-0.1142233166175296</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02201327754992495</v>
+        <v>-0.02203706162285556</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858999737974532</v>
+        <v>0.5858852742306774</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02486767543641137</v>
+        <v>0.02490656424841129</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406780435993084</v>
+        <v>-0.7406969231883026</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04094924240025305</v>
+        <v>-0.04096680455978273</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076597766533166</v>
+        <v>0.4076651639982524</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2738047117485414</v>
+        <v>0.2737845574081231</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173923831778638</v>
+        <v>1.173918689322461</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.0118367544509023</v>
+        <v>-0.01182726640015406</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2125267686567248</v>
+        <v>0.2124993623493644</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039650633120413</v>
+        <v>-0.7039341617589552</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859279466241198</v>
+        <v>-0.3859120182874272</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782146624281031</v>
+        <v>0.2782458252208475</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652340551954763</v>
+        <v>0.2652578892371155</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840758147431754</v>
+        <v>-0.2840648268498893</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03692465260913243</v>
+        <v>0.03692483641742889</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03451453594227494</v>
+        <v>-0.03451811768359972</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081509536857747</v>
+        <v>-0.5081890901140291</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4306093372628881</v>
+        <v>-0.4306815784349553</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.234332682943467</v>
+        <v>0.234327945168061</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242011883309708</v>
+        <v>0.2242057097331363</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01115019582146813</v>
+        <v>-0.01111193661402889</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350069268704059</v>
+        <v>0.2350281781584015</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.309073794850782</v>
+        <v>-0.3090594256959054</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1315054320661889</v>
+        <v>0.1315205131462515</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2449383804747469</v>
+        <v>0.2449078943103061</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263561472676177</v>
+        <v>-0.2263228425354993</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216135441978802</v>
+        <v>0.5216417119647977</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1398190566964043</v>
+        <v>-0.1397811720965044</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5159776544534475</v>
+        <v>0.5160037597488523</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971584627157966</v>
+        <v>-0.5971260767130055</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9081161413923299</v>
+        <v>0.9081246264161122</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5325343682003347</v>
+        <v>0.5325842566406997</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5393629514424026</v>
+        <v>-0.5393319576595232</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972682071217713</v>
+        <v>-0.7972426882583912</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2954978963317314</v>
+        <v>0.2955015975797649</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4465171412689032</v>
+        <v>0.4465474677881254</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686231427359828</v>
+        <v>-0.868616952729906</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750615681277519</v>
+        <v>-0.475048468639338</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708080103423033</v>
+        <v>-0.3708431617788075</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759989205398172</v>
+        <v>-0.7759873716130488</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945524666224541</v>
+        <v>0.2945623560387627</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3253112998055292</v>
+        <v>0.3252693443142375</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6972011086977802</v>
+        <v>-0.6971762490272541</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173686160125371</v>
+        <v>-0.4173854006816957</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.881139012955773</v>
+        <v>0.8811293531400455</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402701513194266</v>
+        <v>-1.402715754605797</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970509187766271</v>
+        <v>-0.4970249925814258</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114429720295306</v>
+        <v>-0.7114512647904504</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300153851854186</v>
+        <v>-0.4300452387367117</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1954750249731114</v>
+        <v>-0.1955019133011927</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947668219570489</v>
+        <v>-0.3947230211017634</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5667964825276691</v>
+        <v>-0.566808931331755</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115543883322032</v>
+        <v>-0.7115520126325269</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2303459967622361</v>
+        <v>0.2302973951444281</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1707980950513247</v>
+        <v>0.1708018604681337</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4982550139465542</v>
+        <v>0.4982969333187202</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1559722257954368</v>
+        <v>-0.1559921362708524</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6679931506306835</v>
+        <v>-0.6679877739367425</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7196035585373649</v>
+        <v>0.7195839851124192</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034873690953429</v>
+        <v>2.034889306629376</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411494828806586</v>
+        <v>0.241152879155866</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08328861518831589</v>
+        <v>-0.08330182918320644</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08944797278944394</v>
+        <v>0.08950562057698301</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193840226721013</v>
+        <v>0.1193883378639303</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887675088867316</v>
+        <v>-0.3887530738096213</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143382707429002</v>
+        <v>-1.143406779628719</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857234731977483</v>
+        <v>-0.9857319912234949</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099337996922261</v>
+        <v>-1.099314563170319</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761338587486516</v>
+        <v>-0.9761466051509617</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1585633205623355</v>
+        <v>-0.158557010775443</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310321384598367</v>
+        <v>-1.310327686055192</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021117257775667</v>
+        <v>-1.021119209100647</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1478199832798337</v>
+        <v>-0.1477960230718266</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7603195834451033</v>
+        <v>-0.7602952011063201</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086800817668057</v>
+        <v>-1.086814050517367</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3928775349762071</v>
+        <v>-0.3928797984080067</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2262936577386568</v>
+        <v>0.2263054224689147</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9480500251098772</v>
+        <v>-0.9480827932054908</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926201805220148</v>
+        <v>-0.3926112691795955</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4380948183424163</v>
+        <v>0.4381217279788096</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2112716288441797</v>
+        <v>-0.211220448174526</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7248830016583819</v>
+        <v>0.7248814725014324</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490711532586718</v>
+        <v>-0.8490628144243888</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03464067001560807</v>
+        <v>-0.03463550633065222</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.39871010705635</v>
+        <v>-1.398721541129144</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966332194267909</v>
+        <v>0.1966152871440005</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6517301076473947</v>
+        <v>0.6517069793484327</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.260399405671336</v>
+        <v>-0.2604031150202391</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061688020243831</v>
+        <v>-1.061668148933876</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005336570342888273</v>
+        <v>0.0005138722534529068</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7978517830045705</v>
+        <v>0.7978379143349744</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357214128848029</v>
+        <v>-0.5357119669726508</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7633619233612061</v>
+        <v>-0.7633974301990719</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274758711270287</v>
+        <v>-0.5274672978078717</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512770609547706</v>
+        <v>0.8512918596590613</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814777889122129</v>
+        <v>0.6814827966179625</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4323666240112989</v>
+        <v>0.4324052357412946</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03490904432611305</v>
+        <v>0.03489490928111331</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08816959551924322</v>
+        <v>-0.0881494239844262</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883729519355219</v>
+        <v>-0.7883525313893337</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092389147670487</v>
+        <v>-0.3092802574386893</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4349355909345744</v>
+        <v>-0.4349018462255033</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7793423933533105</v>
+        <v>-0.7793472397926656</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.10085564506951</v>
+        <v>-1.100826842863956</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03744951040934131</v>
+        <v>0.03742180285370465</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07101171596310149</v>
+        <v>0.07102684786811637</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09697168929031133</v>
+        <v>0.0969587298683371</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097058617639665</v>
+        <v>-0.2097211097391932</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433860824065019</v>
+        <v>0.1433833312626074</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7842732587241557</v>
+        <v>0.7842766120386858</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01486247718691489</v>
+        <v>0.01486328365390941</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595262940423737</v>
+        <v>0.2595263146538127</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.63653959358831</v>
+        <v>-0.6365677546032393</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421521004727342</v>
+        <v>-0.5421516170761178</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8907947091577306</v>
+        <v>-0.8908019458201391</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05264826770206325</v>
+        <v>0.05263106269224659</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006208291400126414</v>
+        <v>-0.006189446527749686</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01692216787047631</v>
+        <v>-0.01688253061418249</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292343878426415</v>
+        <v>0.529229052012575</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5927214944415454</v>
+        <v>0.5927106583036191</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688957725942216</v>
+        <v>-0.2688821099313642</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508154032166279</v>
+        <v>-0.2508229612000051</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732607463501528</v>
+        <v>-0.3732439699644958</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02374649237653111</v>
+        <v>-0.02378691964113204</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.125721454107309</v>
+        <v>-0.1257311878131724</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.164183343397983</v>
+        <v>0.1641777296847113</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2369170491209433</v>
+        <v>0.2369267276662259</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1152417357138503</v>
+        <v>-0.1152547620420563</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672647571242326</v>
+        <v>0.2672353775790411</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456558196206636</v>
+        <v>0.845670954635207</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07317197308628537</v>
+        <v>0.07322203010465136</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017813816823699</v>
+        <v>-0.1017735928991113</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8798020191469432</v>
+        <v>0.8797969776455254</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07999383263031618</v>
+        <v>-0.07996899898199047</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386659627207057</v>
+        <v>-0.3386519012691985</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401120913215129</v>
+        <v>-0.9401076704973471</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611382782886697</v>
+        <v>0.5611540889457011</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297750868752992</v>
+        <v>-0.2297752861116862</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713126779296716</v>
+        <v>-1.713112343255017</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647857971307349</v>
+        <v>0.1647863601943242</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467518416095151</v>
+        <v>-0.4467260467815251</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336636805385172</v>
+        <v>-1.336652540773706</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.10949410650101</v>
+        <v>-0.1095097242390285</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3136965144932652</v>
+        <v>0.3136908550715827</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847301141225687</v>
+        <v>0.5847290783653326</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053985960862559</v>
+        <v>1.053967962443978</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.447953806661319</v>
+        <v>-0.447951829871242</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9027281284648484</v>
+        <v>-0.9026720719059573</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.756894502626825</v>
+        <v>-0.7568716968723239</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131226436768062</v>
+        <v>-0.8131015438297385</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276746630331059</v>
+        <v>0.2276652153134126</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4456973574771627</v>
+        <v>-0.4457327548432775</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1498862366388541</v>
+        <v>-0.1499053981536063</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04133209740866808</v>
+        <v>-0.04137928661157975</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258395851363128</v>
+        <v>0.1258630469790016</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534883000679222</v>
+        <v>-0.8534497674727403</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.25424191620479</v>
+        <v>-0.2542442970976603</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355887621731424</v>
+        <v>-0.8355839911021486</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511169364752553</v>
+        <v>-0.7511188656444683</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2401554664214094</v>
+        <v>-0.2401801295983682</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6163178708233119</v>
+        <v>0.6162956674151349</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510999972235704</v>
+        <v>0.1510880521485596</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8462129690494073</v>
+        <v>-0.8461846470395726</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.589270607036156</v>
+        <v>-0.589271000968942</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4932550033634456</v>
+        <v>-0.4932932227626773</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.578340688535445</v>
+        <v>-0.5783523576568099</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111916862427849</v>
+        <v>-0.2111466835302625</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491542078283752</v>
+        <v>-0.5491655419437645</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.440833935948026</v>
+        <v>-0.4408290037562357</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378337061126723</v>
+        <v>0.2378655821785302</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1279874450181337</v>
+        <v>0.127992422539999</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.931682568372259</v>
+        <v>-0.9316750527144954</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585153392045985</v>
+        <v>-0.4585206259056106</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284381778746004</v>
+        <v>-0.7284184500330915</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2633374149311898</v>
+        <v>-0.263327967362022</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7401990296458849</v>
+        <v>-0.7402002210131109</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036887790742486</v>
+        <v>1.036899320060227</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763543596099786</v>
+        <v>0.3763884403945355</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4959102446856973</v>
+        <v>0.4958956529564654</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171809096584823</v>
+        <v>0.3171614961112582</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07610886553711491</v>
+        <v>0.07608511360727517</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03170423361535644</v>
+        <v>-0.03168589818401198</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108633803922733</v>
+        <v>-0.4108387625598027</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947417320264749</v>
+        <v>-0.4947759398393971</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192376484722544</v>
+        <v>0.1192090405104805</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.844943414181464</v>
+        <v>-0.8449367772904367</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023167323447783</v>
+        <v>-1.023142702752851</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.132721304504986</v>
+        <v>-0.132674424691137</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2456003055490631</v>
+        <v>-0.2455667778596119</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6543211637974318</v>
+        <v>-0.6542735210813301</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205681859561131</v>
+        <v>-1.205651299318082</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060267887356903</v>
+        <v>-0.8060372121638</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894562255954489</v>
+        <v>-0.1894591768849615</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1890014005593094</v>
+        <v>-0.1890215404556271</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7443852241645467</v>
+        <v>-0.7444092996272766</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7115982736972063</v>
+        <v>-0.7116144153791659</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007531973268266993</v>
+        <v>-0.007571452371141082</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177664917865539</v>
+        <v>-0.6177647864551793</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410423379708195</v>
+        <v>-1.410407992640074</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791200039792133</v>
+        <v>-0.9791213249659844</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08228638278389994</v>
+        <v>-0.08228336656035176</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579258094781642</v>
+        <v>-0.8579256336797612</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304652917916009</v>
+        <v>-1.304630763198618</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223596373010598</v>
+        <v>-1.223595059740957</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542240584910813</v>
+        <v>-0.8542249731100058</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2841125831050815</v>
+        <v>-0.2840788251605182</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051472110401547</v>
+        <v>-0.6051363631671219</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.7114709591376516</v>
+        <v>-0.7114576605994466</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.3170617295783847</v>
+        <v>-0.317024305158905</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942447204550086</v>
+        <v>-0.7942161996205458</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05084011567286715</v>
+        <v>-0.05084991849235338</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.7562446866477915</v>
+        <v>-0.7561988620995014</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695784801013892</v>
+        <v>-1.695764454242854</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465614497676131</v>
+        <v>-1.465599837456271</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831218382654197</v>
+        <v>-0.9831038567101688</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423178346901218</v>
+        <v>-0.8423764152783864</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571860240582786</v>
+        <v>-0.5571843748582201</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.324467490224912</v>
+        <v>-1.372810907370986</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392535085531681</v>
+        <v>0.7392500479357429</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933619400150818</v>
+        <v>0.9933562645274044</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16959929480661</v>
+        <v>1.169603264711341</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9731969530417403</v>
+        <v>0.9731794153318608</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977922316816537</v>
+        <v>0.8977860325873419</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164056349586474</v>
+        <v>0.2163872261582708</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195670189149368</v>
+        <v>1.195656975358152</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3778141057341019</v>
+        <v>0.3778329262023529</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845383031528546</v>
+        <v>0.2845266967400465</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.05954424876049</v>
+        <v>1.059541995248864</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250283874032103</v>
+        <v>1.250267833414373</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783264665505342</v>
+        <v>0.9783234443321758</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406317986633533</v>
+        <v>1.40631504890783</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428453215763642</v>
+        <v>1.428450248228999</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504624909452707</v>
+        <v>0.9504817176504182</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022106843794864</v>
+        <v>0.8021879443802334</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02092292853193899</v>
+        <v>-0.02091164403835133</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4842014779862999</v>
+        <v>0.4842019561219703</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277652272979379</v>
+        <v>1.277652131968753</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600688624880648</v>
+        <v>0.7600582629319022</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066332404151376</v>
+        <v>1.066328670669861</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738060084175114</v>
+        <v>0.1738011992600903</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01895674448295592</v>
+        <v>0.01895227835224653</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322819900729584</v>
+        <v>1.322813547203926</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388898394033786</v>
+        <v>1.388886366011381</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007656407417975</v>
+        <v>1.007655205340967</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580487695696225</v>
+        <v>0.9580713542025303</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404391957626479</v>
+        <v>1.404397616089843</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255824201433499</v>
+        <v>0.1255942341753986</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151338349497139</v>
+        <v>1.151351425900831</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.56964527477548</v>
+        <v>1.56966256652979</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9722232921011904</v>
+        <v>0.9722271417418403</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132300984182098</v>
+        <v>0.413220666734096</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149241385152917</v>
+        <v>-0.1149216888994746</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135916974701311</v>
+        <v>0.1135870150376242</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077711849444589</v>
+        <v>0.3077898494018553</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706366460784364</v>
+        <v>0.7706470509798514</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9647060840455917</v>
+        <v>0.9646931831175724</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449069841545062</v>
+        <v>0.5449018040759859</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390201413353282</v>
+        <v>0.9389953483113108</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970849797541672</v>
+        <v>1.970826050099836</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195185216474448</v>
+        <v>1.195169077782396</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2617977262574306</v>
+        <v>0.2618029117054428</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331342543397198</v>
+        <v>1.331309027216204</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650070234474533</v>
+        <v>1.650076170145777</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072900427313366</v>
+        <v>1.072897874785148</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191160092695805</v>
+        <v>1.191140111814061</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519478661620511</v>
+        <v>1.519484216154448</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586038914559388</v>
+        <v>1.586035609537305</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718698142474176</v>
+        <v>0.2718573311903402</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719784390089624</v>
+        <v>1.719764588779685</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400974845007108</v>
+        <v>1.400958655686906</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332323039255838</v>
+        <v>1.332301443780797</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.59348486481403</v>
+        <v>1.593481564391453</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6254014262210187</v>
+        <v>0.6254021101036135</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119886503767402</v>
+        <v>0.3119787238593416</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9784906498703625</v>
+        <v>0.9784620364541811</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058760780746555</v>
+        <v>0.5058752084235467</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798327075048594</v>
+        <v>0.3798139787589071</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435364915113224</v>
+        <v>1.435369854328735</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483001440703113</v>
+        <v>1.482995929015739</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002141911290248</v>
+        <v>2.002115665218445</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095238043892195</v>
+        <v>1.095244138987072</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518516391586952</v>
+        <v>1.51851439562466</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8032052933345096</v>
+        <v>0.8031872395262362</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861326060835202</v>
+        <v>0.3861030287911243</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.36386541336953</v>
+        <v>1.36383875750387</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.74392537649196</v>
+        <v>0.7439049308604772</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848684159483904</v>
+        <v>0.9848694559126591</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9008557582202484</v>
+        <v>0.90084896784772</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846687746743878</v>
+        <v>0.6846498212221068</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972581050852071</v>
+        <v>0.6972540858857784</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8790115718918916</v>
+        <v>0.8790306470704309</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.665100627338797</v>
+        <v>0.6651065311426914</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754286884239237</v>
+        <v>0.4754146688862803</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.47857257001398</v>
+        <v>1.47855330982983</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181257279406495</v>
+        <v>0.2181167947667982</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070080563806971</v>
+        <v>1.07005721066531</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074215608194208</v>
+        <v>0.6074272585488653</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906693266432539</v>
+        <v>1.906694740758277</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5080100726864381</v>
+        <v>0.5080095739259213</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6209730450268238</v>
+        <v>0.6209556461308249</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771825807638459</v>
+        <v>-0.5771911423508599</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214563748304977</v>
+        <v>0.5214655358639365</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9443783469764495</v>
+        <v>0.944367466381651</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5424246894432836</v>
+        <v>0.5424301317792243</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808362508668823</v>
+        <v>0.5808404859309213</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1600711835052918</v>
+        <v>-0.1600530497729265</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5520028727180567</v>
+        <v>0.5520049310683489</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411186954825333</v>
+        <v>1.411174829077926</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743066279387651</v>
+        <v>0.3743122845391136</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5608111875954606</v>
+        <v>0.5607978080995044</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2978431041508245</v>
+        <v>0.297851992233334</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3274058299069707</v>
+        <v>0.3273885151848947</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8192898134928157</v>
+        <v>0.819269860233383</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007556449837268</v>
+        <v>0.2007793705314306</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129653288845448</v>
+        <v>0.1129872134465287</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185324948812806</v>
+        <v>0.6185544044640685</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568693617456596</v>
+        <v>0.4568827804868029</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2248016401643756</v>
+        <v>-0.2248007311826431</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7394955437218717</v>
+        <v>-0.739486419446183</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.53477550546627</v>
+        <v>-0.534780634750463</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909655682047004</v>
+        <v>0.1909606541736057</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594918266014802</v>
+        <v>1.594899329781476</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211940116257099</v>
+        <v>0.5211812320878794</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3856100255843994</v>
+        <v>0.3855811206592529</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06905371035044329</v>
+        <v>0.06903568620662635</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830218875175943</v>
+        <v>0.7830132912910229</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8834508032456205</v>
+        <v>0.8834359973040073</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03039019018009909</v>
+        <v>-0.03037594589394665</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01561990212291579</v>
+        <v>0.01560242796255747</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.387471331474034</v>
+        <v>0.3874735106924477</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405767319368637</v>
+        <v>1.405739396478263</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.877978758799179</v>
+        <v>1.877995403303083</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.437174663189992</v>
+        <v>0.4371722195434088</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381074431204163</v>
+        <v>0.2381186311208409</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692689292603269</v>
+        <v>-0.6692669017754636</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015332471331804</v>
+        <v>2.015310942023293</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9051518979826506</v>
+        <v>0.9051263339158685</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259751563948835</v>
+        <v>1.259745881444345</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.40067073609806</v>
+        <v>0.4006645571940619</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1270139895273669</v>
+        <v>0.1270285294246545</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.199398462910424</v>
+        <v>0.1994099233886659</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636686932142824</v>
+        <v>1.636694864156311</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238780367275415</v>
+        <v>1.238769767155583</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033277701752694</v>
+        <v>0.8033333437465461</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757188961783531</v>
+        <v>0.5757240356808594</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.581795212043465</v>
+        <v>0.5817783208795687</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07763067042446223</v>
+        <v>-0.0776472859855669</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304719678107034</v>
+        <v>-0.9304994933329321</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232704069606146</v>
+        <v>-0.3232724314171349</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078536354310136</v>
+        <v>0.1078453050218219</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2312861036253435</v>
+        <v>-0.2312652123353182</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.855778812523503</v>
+        <v>0.8557688297902472</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.429342314053228</v>
+        <v>0.4293324302336193</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.493992199971106</v>
+        <v>1.493994363779666</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875522076818692</v>
+        <v>1.875500195421465</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638126513209021</v>
+        <v>0.3638281961685756</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011400882749321</v>
+        <v>1.011399529494718</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4188021096519925</v>
+        <v>0.4188036722099207</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5396944135744176</v>
+        <v>-0.5396999023884207</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944640764020659</v>
+        <v>0.6944545908558994</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01414739034276673</v>
+        <v>-0.01413263367200933</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775483191245712</v>
+        <v>-0.4775363419866558</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107841184424658</v>
+        <v>1.107854609128542</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930461470275069</v>
+        <v>0.1930354676411892</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05767523833197537</v>
+        <v>0.05766085224764896</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150428379564004</v>
+        <v>0.5150460270520569</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2705245933629695</v>
+        <v>-0.2705225265514787</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806444870718832</v>
+        <v>-0.1806499653934321</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841646983216937</v>
+        <v>0.4841485569148338</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685254801990665</v>
+        <v>-0.2685256909927871</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4520947449003986</v>
+        <v>-0.4520899592731901</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947815028922969</v>
+        <v>-0.2947937381172273</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0105091296358281</v>
+        <v>0.01049691200144729</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107848318495285</v>
+        <v>1.107840068515274</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6961434118379404</v>
+        <v>0.6961442010382231</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2177204606907268</v>
+        <v>0.2177266077897554</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479152469137312</v>
+        <v>0.547902917161742</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08416685496252012</v>
+        <v>-0.08414792566415731</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155127637021635</v>
+        <v>0.6154925956752058</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096196968361237</v>
+        <v>1.096204244641602</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.831233343322063</v>
+        <v>0.831233999833784</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3104007595770013</v>
+        <v>-0.3103903014847353</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0834112092337167</v>
+        <v>0.08341841650106277</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979245291242141</v>
+        <v>-0.5979203580728564</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702233636462188</v>
+        <v>-0.1702113809855753</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3598186607878995</v>
+        <v>-0.359815942204331</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2598000492965515</v>
+        <v>-0.2597954145268907</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2567608074875595</v>
+        <v>0.2567531183401998</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4796577979549265</v>
+        <v>0.4796425424295092</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453605067990416</v>
+        <v>-0.3453735946644503</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617272581047199</v>
+        <v>-0.7617369747458168</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720680078262401</v>
+        <v>0.2720557645210265</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176408235175549</v>
+        <v>-0.7176504986436135</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639876405605414</v>
+        <v>0.6639825486866677</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03990981923262691</v>
+        <v>-0.03991759375602313</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115210584191573</v>
+        <v>-0.5115313695810818</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4208694202493644</v>
+        <v>0.420858299656951</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426492711340528</v>
+        <v>0.3426460451168738</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.23636839512146</v>
+        <v>0.2363756435123306</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465952382816981</v>
+        <v>-0.5465976219545465</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266125849063091</v>
+        <v>1.266124201644482</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935249031486346</v>
+        <v>0.9935231243782469</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320457250133957</v>
+        <v>0.8320420647136446</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808413821322404</v>
+        <v>0.6808330756414601</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147724294396167</v>
+        <v>0.3147700517498535</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241656550861085</v>
+        <v>1.241672326046767</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.405918703914279</v>
+        <v>0.4059191907183824</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.485526438728491</v>
+        <v>0.485553458812195</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497336048332561</v>
+        <v>0.5497488468331112</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6714319433850867</v>
+        <v>0.6714184285594386</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028505301068686</v>
+        <v>0.8028408301164881</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310039192801865</v>
+        <v>0.2310057160736164</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2860964744262466</v>
+        <v>0.2861001090119915</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006267375109986154</v>
+        <v>-0.006245612376132473</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4574961772729773</v>
+        <v>0.4574887042282462</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.108867286168329</v>
+        <v>0.1088776650669912</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068170978466124</v>
+        <v>0.1068140240532254</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.75027524920282</v>
+        <v>1.750265567582842</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09876315454701803</v>
+        <v>-0.09876792658133793</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022280869058594</v>
+        <v>0.2022120899450935</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.571134753701389</v>
+        <v>0.5711325810633474</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472091872951966</v>
+        <v>0.4472037097155824</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04314614294834863</v>
+        <v>-0.04315730955147382</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.522206423789673</v>
+        <v>1.522191017864203</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1075999953300151</v>
+        <v>0.1075721113811407</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770015244393833</v>
+        <v>0.4770064108222173</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291131463371905</v>
+        <v>1.291130434126664</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7409784927766023</v>
+        <v>0.7409661091924848</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9809843821860623</v>
+        <v>0.9809953843164523</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07319355972008167</v>
+        <v>-0.07318841086237211</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144582989098937</v>
+        <v>0.5144760554365461</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155614353250705</v>
+        <v>1.155615288955292</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979354728873107</v>
+        <v>0.7979179994053063</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382450696700531</v>
+        <v>1.382460205163182</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758774327068081</v>
+        <v>0.3758808962414328</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993541573916478</v>
+        <v>0.2993667216857917</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9440015004878306</v>
+        <v>0.9440047466917258</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251158695737102</v>
+        <v>1.251156109491303</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1697742935400186</v>
+        <v>0.1697615856213267</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.452255814847967</v>
+        <v>0.4522557652041293</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793409274047559</v>
+        <v>0.1793296185065103</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.43939345460585</v>
+        <v>-0.4393974365526319</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947061564439299</v>
+        <v>-0.1946954851975063</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2423686055059798</v>
+        <v>-0.2423655085462066</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304632310190518</v>
+        <v>0.3304601335444988</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152975842656002</v>
+        <v>0.3152951885111777</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174766565372453</v>
+        <v>0.6174765488611507</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3029106581975708</v>
+        <v>0.3029186843399257</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882326600007541</v>
+        <v>-0.3882268680956523</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095623973474392</v>
+        <v>-0.1095518685361024</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372598685684634</v>
+        <v>0.3372752358872622</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191298455030103</v>
+        <v>-0.5191022501311358</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5822698251687876</v>
+        <v>-0.5822408398770628</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.665243640278196</v>
+        <v>-0.665245919446608</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.276080345595617</v>
+        <v>0.276071042003206</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350561994459204</v>
+        <v>-0.09350882218517929</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911509683653247</v>
+        <v>0.4911321160070495</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.465245109559558</v>
+        <v>0.4652378841177864</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904592063710918</v>
+        <v>0.7904433770751903</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176285243715185</v>
+        <v>1.176281434224634</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.605414529830244</v>
+        <v>-0.6053924849400857</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5601183888273281</v>
+        <v>-0.5601455186437485</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2481982889226228</v>
+        <v>-0.2482106347944973</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078821310316592</v>
+        <v>-0.4078827075765827</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585852636322857</v>
+        <v>-0.8585933411817909</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308536080045726</v>
+        <v>0.1308308974358455</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684952806863196</v>
+        <v>1.684932873311339</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243347688848991</v>
+        <v>1.243322308505746</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990107728213122</v>
+        <v>0.7989977582626842</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734577491291075</v>
+        <v>0.2734538104487689</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7307781424170451</v>
+        <v>0.7307814478124433</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182293175785302</v>
+        <v>0.5182281625069931</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487303800008085</v>
+        <v>0.5487398080813459</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5324060805927781</v>
+        <v>0.5323936547036452</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196382134022632</v>
+        <v>0.5196451100931486</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818359114329945</v>
+        <v>0.7818452228610693</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2202140690072435</v>
+        <v>-0.2202055848162652</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.682864703680787</v>
+        <v>-0.6828518059224642</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4300889837666776</v>
+        <v>-0.4301213458253337</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7378988900590622</v>
+        <v>0.7379052055922426</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9825943656793126</v>
+        <v>-0.982576784726049</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1984000886668716</v>
+        <v>-0.1984108716172968</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01203093699881383</v>
+        <v>-0.01200647564574251</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263522606545522</v>
+        <v>-0.1263650889271679</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04613716671252809</v>
+        <v>-0.04613770959788548</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102145319242178</v>
+        <v>0.6102133573345762</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03099314791432893</v>
+        <v>-0.03101047916653601</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342327869452829</v>
+        <v>-0.8342235658865548</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732720633452835</v>
+        <v>0.573255787008448</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269589556123565</v>
+        <v>-0.7269771990184829</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6532480895888721</v>
+        <v>-0.6532629881285613</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.209397317161743</v>
+        <v>-0.2093947158992142</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.01870939209</v>
+        <v>-1.018693481298855</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3382219887238903</v>
+        <v>0.3382336984137274</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1079189157395873</v>
+        <v>0.1079384326989296</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085631632196143</v>
+        <v>-0.4085455672905445</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09824630352864842</v>
+        <v>-0.0982382149167294</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6479856963491983</v>
+        <v>-0.6479812752178924</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03003209917770229</v>
+        <v>-0.03004021730927991</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058461124433199</v>
+        <v>-0.505845447228449</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3365179955785011</v>
+        <v>-0.3365300752913943</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276859108148647</v>
+        <v>-1.276869548752677</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08480806584020302</v>
+        <v>-0.08482130368469723</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04938666083002306</v>
+        <v>-0.04938548379241145</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110378677004206</v>
+        <v>-0.2110465907409235</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6343093957542346</v>
+        <v>0.6343218554883642</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516792101214179</v>
+        <v>1.516783585586693</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7035765300191879</v>
+        <v>0.703589383404214</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05728714947538734</v>
+        <v>0.05730471062347118</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463289188749049</v>
+        <v>0.846324956990798</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083796817956549</v>
+        <v>1.083799110000349</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625703705331089</v>
+        <v>1.625714391898137</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038494849585085</v>
+        <v>0.6038512436236614</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733249242356619</v>
+        <v>0.4733356454731338</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572914214815452</v>
+        <v>0.4572987236939526</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092843087162634</v>
+        <v>0.1092971270873949</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2074828564661497</v>
+        <v>-0.207475773575852</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8417420847302024</v>
+        <v>0.8417285794715651</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901379551076552</v>
+        <v>0.6901445394959063</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627693717217455</v>
+        <v>-0.2627444366300953</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219945278574981</v>
+        <v>-0.2220159051174687</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062450900703853</v>
+        <v>1.062443465741</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380820971335419</v>
+        <v>1.380807986854985</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1583876840257459</v>
+        <v>-0.1583982744159436</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355816943185018</v>
+        <v>-1.355797205884523</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408154064905472</v>
+        <v>-1.408166256407371</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2941664489748421</v>
+        <v>-0.2941696491682729</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119882899267567</v>
+        <v>-1.119869428034609</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.00815326073122972</v>
+        <v>-0.008150169795268215</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698038899722783</v>
+        <v>-0.1698041169534363</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317581390152084</v>
+        <v>0.1317654109573071</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7603944478820645</v>
+        <v>-0.7603877479363886</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.464462008993043</v>
+        <v>-0.4644614818799967</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023984818332019</v>
+        <v>-1.023992495800974</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981686451915121</v>
+        <v>-0.2981481836379651</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610220403674608</v>
+        <v>-0.3610137352430083</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03789362157756351</v>
+        <v>0.03787535161663141</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7330235228605696</v>
+        <v>0.7330074887209841</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2104924158677666</v>
+        <v>-0.2105206155762452</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8015830192686403</v>
+        <v>-0.8015766560858787</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518792186434162</v>
+        <v>0.2518996052065582</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02721736148152117</v>
+        <v>0.02721372405357188</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3227859473518443</v>
+        <v>0.3227788264631109</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350836562098497</v>
+        <v>0.4350850040391549</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947426957450593</v>
+        <v>-0.5947273326712824</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181812858181723</v>
+        <v>0.1181815147131164</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8116965741856839</v>
+        <v>0.8116929946785644</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.460947844493145</v>
+        <v>0.4609645075833829</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884670349394437</v>
+        <v>0.4884774956167779</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769321610033191</v>
+        <v>-0.1769440029728518</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7723735444520906</v>
+        <v>-0.7723577771467997</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.810594182987597</v>
+        <v>-0.8106065274961155</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235401093517364</v>
+        <v>0.6235411864390533</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517851472838323</v>
+        <v>0.8517960193555763</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779168482197188</v>
+        <v>0.9779106456057824</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194816012393977</v>
+        <v>-0.2194794190983605</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04634499891004212</v>
+        <v>0.04635285569342319</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503645952410289</v>
+        <v>-0.6503705644647434</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742214809662192</v>
+        <v>0.9742150921874936</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572886797887043</v>
+        <v>0.6572838491892548</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026790297492885</v>
+        <v>1.026786049128996</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1940963448801911</v>
+        <v>0.1940922204323126</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3121821891959616</v>
+        <v>0.3121781462354733</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077243486723729</v>
+        <v>1.07722381532259</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.522554339078001</v>
+        <v>0.5225450850983121</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153261461093086</v>
+        <v>1.153262514102291</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129285537303835</v>
+        <v>1.129279386838697</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288514005028612</v>
+        <v>0.1288600043268555</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.0710055318607017</v>
+        <v>0.07102548585251715</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3717783701392966</v>
+        <v>0.3717488099240931</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884304065327557</v>
+        <v>0.4884016663523685</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5035139217229473</v>
+        <v>0.5034873889655935</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03148532274556838</v>
+        <v>-0.03147415807483164</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337342386847444</v>
+        <v>-0.2337375835089455</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487308583666942</v>
+        <v>1.487278703324883</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162249940327917</v>
+        <v>0.9162142112519284</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5243080478155719</v>
+        <v>0.5242936972727993</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3362864940890624</v>
+        <v>0.3362690939861072</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0979260280381845</v>
+        <v>0.09794184361865109</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516826280005155</v>
+        <v>-0.1516797423928861</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163623695311774</v>
+        <v>0.1163732232824359</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.652681820736339</v>
+        <v>-0.6526796906941031</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455907177613481</v>
+        <v>-0.4455890063133078</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204252605552999</v>
+        <v>0.220422768350667</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.469558005798668</v>
+        <v>0.4695452812838205</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840272463817646</v>
+        <v>-0.28404014539301</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8520173438678615</v>
+        <v>-0.8520277126164228</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2098081460121714</v>
+        <v>0.209792553094468</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2361976593796164</v>
+        <v>0.2361981391736928</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2317465802012117</v>
+        <v>-0.2317666205031943</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03039288675067895</v>
+        <v>-0.03038596827681176</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342698701305275</v>
+        <v>-0.1342718906782333</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728451010733316</v>
+        <v>-0.6728416839118742</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3695081611983788</v>
+        <v>-0.3695219311269761</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.162411138878921</v>
+        <v>0.1624133907115509</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.93214652759595</v>
+        <v>-0.9321236611550557</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568796186793812</v>
+        <v>-0.6568833296686406</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3357764831039416</v>
+        <v>0.3357510359744871</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514763288687534</v>
+        <v>0.1514643753413153</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2136681943496179</v>
+        <v>0.213655995843981</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09280230531626658</v>
+        <v>0.09280016233480805</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4871775913580401</v>
+        <v>0.4871615849196899</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663070761618007</v>
+        <v>0.1663081924024937</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078088485321973</v>
+        <v>0.307803835338314</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064592334403813</v>
+        <v>1.064572478682313</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403556373021701</v>
+        <v>0.9403742363446342</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100573644543371</v>
+        <v>-0.2100447103214158</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842420256190134</v>
+        <v>0.4842387893655348</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806106259707404</v>
+        <v>0.5806336917918341</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418370897110731</v>
+        <v>-0.1418241820071268</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154256335108935</v>
+        <v>0.7154198588851884</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512221581040618</v>
+        <v>-0.551214636156237</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160689517236162</v>
+        <v>1.160690229662063</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09364874544691107</v>
+        <v>0.09365163749308754</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1940003885764214</v>
+        <v>-0.193986042274175</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001671336283661062</v>
+        <v>0.001680233144947601</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.422657071174117</v>
+        <v>-0.4226423023559442</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.091760996360959</v>
+        <v>0.09176408979876181</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2813910139260127</v>
+        <v>0.2813818049992647</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115409959026319</v>
+        <v>-0.5115451072246613</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847585998671606</v>
+        <v>-0.3847683569626042</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4987931628937616</v>
+        <v>0.4987888414504033</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234207912317046</v>
+        <v>1.234216532942617</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1131065545663905</v>
+        <v>-0.1130921342713982</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822561727708226</v>
+        <v>-0.4822679405371871</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073379923026534</v>
+        <v>-0.3073345374746339</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023713864525485</v>
+        <v>0.2023822632530838</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154253975336156</v>
+        <v>-0.3154131876283473</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352459169310216</v>
+        <v>-0.2352566148777875</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4582202685479151</v>
+        <v>-0.4582377993380706</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05210435935863843</v>
+        <v>-0.05210556446768595</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073874274164507</v>
+        <v>-0.5073712936105065</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440194673005664</v>
+        <v>0.3440332036988804</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096639310537166</v>
+        <v>0.1096752260878743</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1633011588563656</v>
+        <v>-0.1633031432622925</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9583920558250705</v>
+        <v>0.9584000050031749</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036198799457984</v>
+        <v>0.5036279076835771</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.544211578596682</v>
+        <v>0.544210160607429</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267864561094909</v>
+        <v>1.267853448071725</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199650369456807</v>
+        <v>1.199660771114105</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777949629124537</v>
+        <v>0.3778054178171689</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894559582655947</v>
+        <v>-0.4894506831717686</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2258959449759436</v>
+        <v>-0.2258887333585625</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473056355114988</v>
+        <v>0.3473113864512823</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342272133720324</v>
+        <v>-0.5342330457513724</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365281760501646</v>
+        <v>-0.8365217757404415</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152309067798118</v>
+        <v>0.4152271711895505</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.867722574417861</v>
+        <v>-0.8677305916845901</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377642681523902</v>
+        <v>-0.7377875440359526</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415538108049887</v>
+        <v>-0.1415641138470973</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5418975692361788</v>
+        <v>0.5418942816321227</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2706401507944763</v>
+        <v>0.2706327201423849</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782995702066039</v>
+        <v>-0.7782978859242782</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078277096103791</v>
+        <v>0.3078189521102631</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6504310024266525</v>
+        <v>0.6504428712696764</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800597274324857</v>
+        <v>-0.3800328558543365</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.7780579665735959</v>
+        <v>-0.778059980748804</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161077363962853</v>
+        <v>-0.1161189372162364</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0004507022700663832</v>
+        <v>-0.0004725768578930071</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568692993057596</v>
+        <v>0.4568719499070376</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598649955588412</v>
+        <v>-0.4598504679998964</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964563023779858</v>
+        <v>-0.4964599624614844</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07681669644955963</v>
+        <v>-0.0768221033203299</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732190043208404</v>
+        <v>-0.2732292541985027</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1207212540489997</v>
+        <v>0.1207347705330358</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5688946470225323</v>
+        <v>-0.5688927039283042</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.316853265255705</v>
+        <v>-0.3168531999014346</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1802315186005116</v>
+        <v>-0.1802394449506194</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132378127503911</v>
+        <v>-0.2132503878635698</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671094765247554</v>
+        <v>-0.7670969536026916</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.939016337746959</v>
+        <v>-0.9390172334977811</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04835587458752769</v>
+        <v>-0.04835658779359255</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563646126797749</v>
+        <v>-0.4563598908544712</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665616895617693</v>
+        <v>-0.5665546372255129</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104537028026876</v>
+        <v>-0.2104558656149291</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03854050489849995</v>
+        <v>0.03853385885293325</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03057713298556072</v>
+        <v>0.03057635093982644</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124920432891293</v>
+        <v>0.2124893189758043</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815716437260608</v>
+        <v>0.9815744061953908</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003814510177618</v>
+        <v>1.003779601546882</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5811515493749314</v>
+        <v>0.5811443526874317</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485327648281911</v>
+        <v>0.2485295421910889</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838113579274273</v>
+        <v>0.6838086375840434</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665664541179097</v>
+        <v>-0.2665621429751266</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519566110440976</v>
+        <v>0.7519558406603645</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453560120355922</v>
+        <v>-0.1453511090334942</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880549724155432</v>
+        <v>-0.2880519770718201</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252329418679522</v>
+        <v>0.6252178461949608</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7352252973058531</v>
+        <v>0.7352085045812926</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3041913410665092</v>
+        <v>-0.3041762422143225</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969118022581795</v>
+        <v>-0.5968916469202492</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.539724683814142</v>
+        <v>0.5397307552665375</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164938463692428</v>
+        <v>1.164949276854048</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3879915083189489</v>
+        <v>-0.3879953695313089</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.210947764392433</v>
+        <v>1.2109586549403</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705525015994888</v>
+        <v>-0.2705463988741202</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.700429901251707</v>
+        <v>-0.7004454798455978</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313137622135194</v>
+        <v>-0.1313131396780788</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.309853853551643</v>
+        <v>0.3098779607396026</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1528029903018377</v>
+        <v>-0.1528192331659958</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632276525300014</v>
+        <v>0.2632082779772036</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02412329062500157</v>
+        <v>0.02414027730853609</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289240570634746</v>
+        <v>-0.5288995412683519</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363108836754887</v>
+        <v>-0.5362928058476116</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827579061319984</v>
+        <v>-0.1827484376414841</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786437953090705</v>
+        <v>0.5786557822099743</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.409673627692836</v>
+        <v>-0.4096676265048692</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866520319731268</v>
+        <v>0.2866546842702725</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338749647353292</v>
+        <v>-0.7338631807108021</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537418880553337</v>
+        <v>-0.2537398487083551</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470797236033302</v>
+        <v>-0.8470764170222435</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.4873817922480256</v>
+        <v>-0.4873867085519626</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182454182844735</v>
+        <v>-0.2182446246141599</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415641519726368</v>
+        <v>-0.1415438049739961</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016792368388078</v>
+        <v>-1.016809784628905</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460632386724356</v>
+        <v>-0.9460610170797377</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9789177998093989</v>
+        <v>-0.9789208822446285</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.791532392961586</v>
+        <v>-0.7915519471813692</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962288864972933</v>
+        <v>-0.3962353026800883</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941875186182757</v>
+        <v>-0.494197304211596</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189266423191354</v>
+        <v>-0.5189436139754557</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323917418875664</v>
+        <v>0.3323833889775665</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200390788574022</v>
+        <v>0.4200471895334071</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8417464814134784</v>
+        <v>-0.841724106520631</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2085794346114175</v>
+        <v>-0.2085704621776769</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097446022437647</v>
+        <v>1.097453700577519</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661861799857921</v>
+        <v>0.3661807863696839</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1448863318050649</v>
+        <v>0.1448659325735838</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.1450911495194413</v>
+        <v>-0.145093260524366</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02429065895006288</v>
+        <v>0.02427911922245233</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141793863299011</v>
+        <v>-0.2141706139123512</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3979868455127205</v>
+        <v>-0.3979853394164441</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07368777185169863</v>
+        <v>-0.07369193280444519</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685821585995009</v>
+        <v>0.5685849702987844</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03658362804764431</v>
+        <v>0.03657669415969395</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09161739230576922</v>
+        <v>0.09160769512841085</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2098095722159846</v>
+        <v>0.2097952965625515</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362797664777726</v>
+        <v>0.5362627524315379</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360467044473588</v>
+        <v>1.360472446094165</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238866426177841</v>
+        <v>1.238871119950915</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919600296558062</v>
+        <v>0.3919723944292827</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.198854403964913</v>
+        <v>0.1988429523367474</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3165742362943489</v>
+        <v>0.3165622975043795</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307039069177777</v>
+        <v>1.307033776761465</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6254427311470168</v>
+        <v>0.6254401733213576</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290538370537926</v>
+        <v>1.290534646967394</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.064544121763601</v>
+        <v>-0.06455536320485006</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.11183137352806</v>
+        <v>1.111836951861484</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330731221567915</v>
+        <v>1.330740992782054</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942663985283081</v>
+        <v>0.1942773786062954</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536366271267689</v>
+        <v>1.536373004652461</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111605471014308</v>
+        <v>1.111597712326263</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04381582496751237</v>
+        <v>0.04383587546423996</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415646870772718</v>
+        <v>0.4415656260860065</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4847566671125903</v>
+        <v>0.4847442626058425</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540521367813815</v>
+        <v>-0.154054466928867</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332777776625558</v>
+        <v>-0.3332794285188909</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696564277753505</v>
+        <v>0.369647808755977</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278386794874594</v>
+        <v>1.278383351788674</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.127282877551739</v>
+        <v>-0.1272886578028297</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561144327472664</v>
+        <v>0.7561092870272285</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264451615830674</v>
+        <v>0.4264410573569591</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007062966805133258</v>
+        <v>0.007054856288732344</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.318825142806632</v>
+        <v>0.3188093901046823</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260150337704858</v>
+        <v>-1.260144240581702</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05159626338290904</v>
+        <v>0.05159572977451329</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09315550105057774</v>
+        <v>0.09316371040097896</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113397790727726</v>
+        <v>0.1113417317850945</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01550358529991436</v>
+        <v>-0.01550946867546233</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.107756810683929</v>
+        <v>0.1077579813146255</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1289291127839323</v>
+        <v>-0.1289324676846882</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5139715479058057</v>
+        <v>-0.5139655373043045</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4845902545537154</v>
+        <v>0.4845870629250815</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218148968766991</v>
+        <v>0.2218209267165791</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8456699582894213</v>
+        <v>0.8456601018855575</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649332364873156</v>
+        <v>0.4649369292536016</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4258884071303498</v>
+        <v>0.4258958378249005</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286674636899553</v>
+        <v>-0.6286675095830624</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688817812250706</v>
+        <v>1.688807258678493</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.28980415308802</v>
+        <v>1.289806345812253</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08660313068377019</v>
+        <v>-0.08659927748703954</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325224186586705</v>
+        <v>0.4325306175409006</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548405935650716</v>
+        <v>-0.4548301082269551</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549852633403956</v>
+        <v>-0.2549799005705233</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.396884879125452</v>
+        <v>0.3968893029773466</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816394293168535</v>
+        <v>-0.5816661717876828</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887871807115281</v>
+        <v>-0.5887936608165644</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135138689035447</v>
+        <v>1.135145270970165</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217776708439238</v>
+        <v>2.217770373859169</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4925564769891299</v>
+        <v>0.492571669408444</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1862855285422352</v>
+        <v>-0.1862851514167904</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379196525357727</v>
+        <v>-0.137927154481569</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3104816340682858</v>
+        <v>-0.3104678521116506</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501821208801116</v>
+        <v>-0.450197569093736</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.249922682712594</v>
+        <v>-0.2499151967701896</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06522534852847257</v>
+        <v>0.06522173654923716</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981139969272572</v>
+        <v>-0.1981240363478474</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.58440341314245</v>
+        <v>-0.5844056528520788</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475446913800429</v>
+        <v>-0.54754677304217</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268422402479619</v>
+        <v>0.4268338138894115</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955922887514818</v>
+        <v>-0.4955954071234643</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705141533716434</v>
+        <v>0.5705051082862029</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529546800106032</v>
+        <v>-0.6529710555459614</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027766974288474</v>
+        <v>-0.4027888251053593</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055587405533166</v>
+        <v>1.055572998355523</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622805538791298</v>
+        <v>-0.1622761045111644</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903358993737186</v>
+        <v>-0.3903425906034276</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445690760427911</v>
+        <v>0.2445747329902037</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.208888177621347</v>
+        <v>0.2088784694321282</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881596996302978</v>
+        <v>0.8881345494108127</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07284662124226271</v>
+        <v>-0.07284932306768295</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665650749967827</v>
+        <v>0.1665852654477553</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5951870171012934</v>
+        <v>0.595180387268725</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2822645333641707</v>
+        <v>0.2822461245715011</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5032860806954987</v>
+        <v>0.5033099204986005</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8072086756724833</v>
+        <v>0.8072208745154967</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746828554634481</v>
+        <v>0.6747033002976536</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6116980248649339</v>
+        <v>0.6117077086876999</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4499963078525833</v>
+        <v>0.4500078461244003</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.317882378808941</v>
+        <v>-0.3178695026668043</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099560358916866</v>
+        <v>-0.1099515260669464</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936450354473664</v>
+        <v>-0.4936531887493289</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.08993991618348059</v>
+        <v>0.08995424635922536</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.06891063282225</v>
+        <v>-1.068894128658028</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211675077523038</v>
+        <v>-1.211680631642621</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8965358942975248</v>
+        <v>-0.8965143666840214</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1167450954462003</v>
+        <v>-0.1167313154425519</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836137575184874</v>
+        <v>-0.7836118889161207</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735115948409303</v>
+        <v>-0.5735063974832966</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294477546373787</v>
+        <v>-0.5294393127487697</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053456056511892</v>
+        <v>-0.9053366853329031</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5274532284976297</v>
+        <v>-0.5274467044638537</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829257328206989</v>
+        <v>-0.2829274859308464</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01211960933430065</v>
+        <v>-0.01213103101330047</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063709355532293</v>
+        <v>-0.9063728542346418</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1272974820740411</v>
+        <v>0.1273014761870819</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365556956881435</v>
+        <v>-0.3365609212684639</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374646214912566</v>
+        <v>0.1374701423837641</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3836845351840876</v>
+        <v>-0.3836750114737902</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022962930187636</v>
+        <v>-1.02294478516653</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.87667919681312</v>
+        <v>-0.8766965144525234</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824612633047684</v>
+        <v>0.1824493084096912</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975382795094534</v>
+        <v>0.2975283721343495</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06923655731217747</v>
+        <v>-0.06923049135608453</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5589929834427432</v>
+        <v>-0.5589835390109911</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686128070042157</v>
+        <v>-0.5686147482345784</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263934549091065</v>
+        <v>-0.9263898006447675</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417377942653292</v>
+        <v>-0.3417396727532803</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021094141702691</v>
+        <v>-1.021091067233728</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783538506691788</v>
+        <v>0.2783725005287417</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146525486270438</v>
+        <v>0.814659645552992</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1350862083732545</v>
+        <v>0.1350901827253244</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628540340578262</v>
+        <v>0.5628625107778195</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.552877741547452</v>
+        <v>0.5528789891645435</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2338074527095032</v>
+        <v>0.2338173171740822</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08475584857143161</v>
+        <v>0.08475666717576121</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09507256490502805</v>
+        <v>0.09507101150360474</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734004390091977</v>
+        <v>-0.2733855842627953</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500002415749503</v>
+        <v>-0.2500101595527733</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034563134320299</v>
+        <v>-0.3034534841603906</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4682736803199888</v>
+        <v>0.468295156221921</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1102038294163282</v>
+        <v>0.1101745442582284</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9440131822975324</v>
+        <v>-0.9439972192653889</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668241152710358</v>
+        <v>-0.7668419456295048</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6517759659052016</v>
+        <v>-0.6517923114996841</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6978180162826257</v>
+        <v>-0.6978455702185674</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825325466926507</v>
+        <v>-0.3825349859338394</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.302929864435098</v>
+        <v>-0.3029362784335646</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265129403968919</v>
+        <v>1.265130455324252</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801080501301107</v>
+        <v>-0.3800959917225651</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783639367681731</v>
+        <v>1.783655414831055</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234373629244018</v>
+        <v>1.234382838612384</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.238303358421731</v>
+        <v>-0.2383005430499038</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920013059118559</v>
+        <v>0.3920094027720732</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03538367102032106</v>
+        <v>0.03539517936392221</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194627452981053</v>
+        <v>1.194634708942627</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109208868861324</v>
+        <v>0.9109233479657399</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257021946661919</v>
+        <v>-0.2257129749068511</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3784156292015468</v>
+        <v>0.3784231176424609</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2789426664054676</v>
+        <v>-0.2789516802956894</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541622850085549</v>
+        <v>-0.254164987063809</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2696202856561455</v>
+        <v>-0.2696026961143416</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412270656543115</v>
+        <v>-0.441216665121284</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009064188486492274</v>
+        <v>0.009046100512625308</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866072504822705</v>
+        <v>-0.8866045207593335</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2866125608509236</v>
+        <v>-0.2866357371308771</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5873879831075446</v>
+        <v>0.5873683770374103</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002331403482261</v>
+        <v>-0.1002480683020484</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.866964622160117</v>
+        <v>0.8669619836828859</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084782658988715</v>
+        <v>0.2084881866497924</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670397995264925</v>
+        <v>-0.3670576604144012</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461020529454824</v>
+        <v>0.2461063725007288</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501923000852651</v>
+        <v>0.4501834073926865</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862330840294776</v>
+        <v>-0.2862313777999513</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7462225103737442</v>
+        <v>-0.7462260086367218</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257059110602633</v>
+        <v>-0.5257099529270397</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03148207297859855</v>
+        <v>0.03146412316973728</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7977642754004023</v>
+        <v>0.7977488816392705</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366842322097129</v>
+        <v>0.7366810564857675</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142233166175296</v>
+        <v>-0.1142114925304037</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02203706162285556</v>
+        <v>-0.02204786968867003</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858852742306774</v>
+        <v>0.5858769305170716</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02490656424841129</v>
+        <v>0.02492706124953871</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406969231883026</v>
+        <v>-0.7406989887281927</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04096680455978273</v>
+        <v>-0.04097850549324128</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076651639982524</v>
+        <v>0.4076704057072945</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2737845574081231</v>
+        <v>0.2737612162639846</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173918689322461</v>
+        <v>1.1739088039192</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01182726640015406</v>
+        <v>-0.01182109826584656</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2124993623493644</v>
+        <v>0.2124790720946184</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039341617589552</v>
+        <v>-0.7039208139875569</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859120182874272</v>
+        <v>-0.3859041842580743</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782458252208475</v>
+        <v>0.2782620588027644</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652578892371155</v>
+        <v>0.265276700493158</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840648268498893</v>
+        <v>-0.2840625813963211</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03692483641742889</v>
+        <v>0.03692720312677332</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03451811768359972</v>
+        <v>-0.03452486296929131</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081890901140291</v>
+        <v>-0.5082110992221057</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4306815784349553</v>
+        <v>-0.4307130551490503</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.234327945168061</v>
+        <v>0.2343270987629115</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242057097331363</v>
+        <v>0.2242061338078541</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01111193661402889</v>
+        <v>-0.01109443717878046</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350281781584015</v>
+        <v>0.2350336108732893</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3090594256959054</v>
+        <v>-0.3090523241007334</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1315205131462515</v>
+        <v>0.1315279311471647</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2449078943103061</v>
+        <v>0.2448879931991139</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263228425354993</v>
+        <v>-0.2263047136725531</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216417119647977</v>
+        <v>0.5216536170762731</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397811720965044</v>
+        <v>-0.1397632265643735</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5160037597488523</v>
+        <v>0.5160135676098544</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971260767130055</v>
+        <v>-0.5971122532585336</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9081246264161122</v>
+        <v>0.9081237049020222</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5325842566406997</v>
+        <v>0.5326063801999583</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5393319576595232</v>
+        <v>-0.5393206419702907</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972426882583912</v>
+        <v>-0.7972288819228582</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2955015975797649</v>
+        <v>0.2955037801215911</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4465474677881254</v>
+        <v>0.4465583726908372</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.868616952729906</v>
+        <v>-0.8686159812842474</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.475048468639338</v>
+        <v>-0.4750412100371513</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708431617788075</v>
+        <v>-0.3708619395974787</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759873716130488</v>
+        <v>-0.7759809800327075</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945623560387627</v>
+        <v>0.2945641821019037</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3252693443142375</v>
+        <v>0.325250701145725</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6971762490272541</v>
+        <v>-0.6971651292860501</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173854006816957</v>
+        <v>-0.4173986729521099</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8811293531400455</v>
+        <v>0.8811163416368349</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402715754605797</v>
+        <v>-1.402727777826648</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970249925814258</v>
+        <v>-0.4970094336320119</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114512647904504</v>
+        <v>-0.7114600034102019</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300452387367117</v>
+        <v>-0.4300566904302793</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1955019133011927</v>
+        <v>-0.1955159359533399</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947230211017634</v>
+        <v>-0.3947012825431592</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.566808931331755</v>
+        <v>-0.5668182301248633</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115520126325269</v>
+        <v>-0.7115524358230075</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2302973951444281</v>
+        <v>0.2302695002244446</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1708018604681337</v>
+        <v>0.1708102954616579</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4982969333187202</v>
+        <v>0.4983254613035668</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1559921362708524</v>
+        <v>-0.1560103311831657</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6679877739367425</v>
+        <v>-0.6679920388220715</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195839851124192</v>
+        <v>0.7195689724893557</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034889306629376</v>
+        <v>2.034889876032563</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.241152879155866</v>
+        <v>0.2411531064860993</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08330182918320644</v>
+        <v>-0.08331551618828446</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08950562057698301</v>
+        <v>0.0895310654129966</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193883378639303</v>
+        <v>0.1193870367227759</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887530738096213</v>
+        <v>-0.3887456176775232</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143406779628719</v>
+        <v>-1.143420442767255</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857319912234949</v>
+        <v>-0.985741885211048</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099314563170319</v>
+        <v>-1.099309182388855</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761466051509617</v>
+        <v>-0.9761592210413477</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.158557010775443</v>
+        <v>-0.1585613863367266</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310327686055192</v>
+        <v>-1.310340334720124</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021119209100647</v>
+        <v>-1.021124564382388</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1477960230718266</v>
+        <v>-0.1477900004101861</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7602952011063201</v>
+        <v>-0.7602887002491744</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086814050517367</v>
+        <v>-1.086822866267103</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3928797984080067</v>
+        <v>-0.3928892843277983</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2263054224689147</v>
+        <v>0.2263044169655894</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9480827932054908</v>
+        <v>-0.9481029571309831</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926112691795955</v>
+        <v>-0.3926129172286794</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4381217279788096</v>
+        <v>0.438133627065019</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.211220448174526</v>
+        <v>-0.211199551868242</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7248814725014324</v>
+        <v>0.724881715105377</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490628144243888</v>
+        <v>-0.8490655671430731</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03463550633065222</v>
+        <v>-0.03463291119552075</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398721541129144</v>
+        <v>-1.398726160938522</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966152871440005</v>
+        <v>0.1966092706869374</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6517069793484327</v>
+        <v>0.651693095566272</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604031150202391</v>
+        <v>-0.2604079682812746</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061668148933876</v>
+        <v>-1.061663505245737</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005138722534529068</v>
+        <v>0.0005026711131294084</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7978379143349744</v>
+        <v>0.7978263742268995</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357119669726508</v>
+        <v>-0.5357117218422258</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7633974301990719</v>
+        <v>-0.7634166431184323</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274672978078717</v>
+        <v>-0.5274636196067319</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512918596590613</v>
+        <v>0.8512980011580827</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814827966179625</v>
+        <v>0.6814871669214323</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4324052357412946</v>
+        <v>0.4324187763289121</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03489490928111331</v>
+        <v>0.03488638789960962</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.0881494239844262</v>
+        <v>-0.08814243275870419</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883525313893337</v>
+        <v>-0.7883441500358442</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092802574386893</v>
+        <v>-0.3092995322121124</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4349018462255033</v>
+        <v>-0.4348862268061553</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7793472397926656</v>
+        <v>-0.7793542356691343</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100826842863956</v>
+        <v>-1.100815469826261</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03742180285370465</v>
+        <v>0.03740103894035957</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07102684786811637</v>
+        <v>0.07102999290603947</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.0969587298683371</v>
+        <v>0.0969536476085919</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097211097391932</v>
+        <v>-0.2097346940911595</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433833312626074</v>
+        <v>0.1433796163064393</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7842766120386858</v>
+        <v>0.784273723579971</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01486328365390941</v>
+        <v>0.01485996210354878</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595263146538127</v>
+        <v>0.2595217955886168</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365677546032393</v>
+        <v>-0.6365863139039543</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421516170761178</v>
+        <v>-0.5421554102145989</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908019458201391</v>
+        <v>-0.8908135066819364</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05263106269224659</v>
+        <v>0.05262867547763946</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006189446527749686</v>
+        <v>-0.006181757706871016</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01688253061418249</v>
+        <v>-0.01686412182223816</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.529229052012575</v>
+        <v>0.5292290248937086</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5927106583036191</v>
+        <v>0.5927040469225791</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688821099313642</v>
+        <v>-0.2688719961124318</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508229612000051</v>
+        <v>-0.2508232351852077</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732439699644958</v>
+        <v>-0.373235109005211</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02378691964113204</v>
+        <v>-0.02380426517760052</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257311878131724</v>
+        <v>-0.1257344684142951</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641777296847113</v>
+        <v>0.1641783501317232</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2369267276662259</v>
+        <v>0.2369284337860321</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1152547620420563</v>
+        <v>-0.1152634084685146</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672353775790411</v>
+        <v>0.2672175187695653</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.845670954635207</v>
+        <v>0.8456781344243546</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07322203010465136</v>
+        <v>0.07325005166926453</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017735928991113</v>
+        <v>-0.1017680354372432</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8797969776455254</v>
+        <v>0.8797963661802835</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07996899898199047</v>
+        <v>-0.07995593236414297</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386519012691985</v>
+        <v>-0.3386421111987885</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401076704973471</v>
+        <v>-0.9401021757001327</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611540889457011</v>
+        <v>0.5611616625109955</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297752861116862</v>
+        <v>-0.2297681971188446</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713112343255017</v>
+        <v>-1.713104799476478</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647863601943242</v>
+        <v>0.1647912543828886</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467260467815251</v>
+        <v>-0.4467165708871642</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336652540773706</v>
+        <v>-1.336659231793139</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1095097242390285</v>
+        <v>-0.1095157960126388</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3136908550715827</v>
+        <v>0.3136919588568706</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847290783653326</v>
+        <v>0.5847273906133356</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053967962443978</v>
+        <v>1.053953844666458</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.447951829871242</v>
+        <v>-0.447952147810385</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026720719059573</v>
+        <v>-0.9026429818507358</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568716968723239</v>
+        <v>-0.7568634801564198</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131015438297385</v>
+        <v>-0.8130940771915018</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276652153134126</v>
+        <v>0.2276551456118051</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457327548432775</v>
+        <v>-0.4457521682489855</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1499053981536063</v>
+        <v>-0.1499280413672219</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04137928661157975</v>
+        <v>-0.04140520431778249</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258630469790016</v>
+        <v>0.1258657384828276</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534497674727403</v>
+        <v>-0.8534345441172064</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542442970976603</v>
+        <v>-0.2542433469129695</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355839911021486</v>
+        <v>-0.8355829095574813</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511188656444683</v>
+        <v>-0.7511196568131918</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2401801295983682</v>
+        <v>-0.2402004326820305</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162956674151349</v>
+        <v>0.6162808677882171</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510880521485596</v>
+        <v>0.1510813286147418</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8461846470395726</v>
+        <v>-0.8461726091592989</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.589271000968942</v>
+        <v>-0.5892691435694158</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4932932227626773</v>
+        <v>-0.4933153155373166</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783523576568099</v>
+        <v>-0.5783655876430113</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111466835302625</v>
+        <v>-0.2111243773255464</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491655419437645</v>
+        <v>-0.5491722139434311</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408290037562357</v>
+        <v>-0.4408256363774603</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378655821785302</v>
+        <v>0.2378801044000896</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.127992422539999</v>
+        <v>0.1279956729861792</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316750527144954</v>
+        <v>-0.931674079166664</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585206259056106</v>
+        <v>-0.458527631208539</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284184500330915</v>
+        <v>-0.7284102975190938</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.263327967362022</v>
+        <v>-0.26332911012281</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7402002210131109</v>
+        <v>-0.7402104586681896</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036899320060227</v>
+        <v>1.036906908715918</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763884403945355</v>
+        <v>0.3764075218946219</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4958956529564654</v>
+        <v>0.4958846520619549</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171614961112582</v>
+        <v>0.3171493229467286</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07608511360727517</v>
+        <v>0.07606442454712638</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03168589818401198</v>
+        <v>-0.03167632485392529</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108387625598027</v>
+        <v>-0.41082970298129</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947759398393971</v>
+        <v>-0.4947951071053192</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192090405104805</v>
+        <v>0.1191976358427331</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449367772904367</v>
+        <v>-0.8449343568126743</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023142702752851</v>
+        <v>-1.023138354415488</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.132674424691137</v>
+        <v>-0.1326576973085622</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2455667778596119</v>
+        <v>-0.24555325119128</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6542735210813301</v>
+        <v>-0.6542532734179825</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205651299318082</v>
+        <v>-1.205635611313843</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060372121638</v>
+        <v>-0.806043497701037</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894591768849615</v>
+        <v>-0.1894619279844333</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1890215404556271</v>
+        <v>-0.18903672883148</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7444092996272766</v>
+        <v>-0.744419056993985</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116144153791659</v>
+        <v>-0.711621788834269</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007571452371141082</v>
+        <v>-0.007591309123934675</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177647864551793</v>
+        <v>-0.6177631685731979</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410407992640074</v>
+        <v>-1.410403621721396</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791213249659844</v>
+        <v>-0.9791260831425771</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08228336656035176</v>
+        <v>-0.08228429284886075</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579256336797612</v>
+        <v>-0.8579322820503168</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304630763198618</v>
+        <v>-1.304624604424188</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223595059740957</v>
+        <v>-1.223598736721715</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542249731100058</v>
+        <v>-0.8542251434577615</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2840788251605182</v>
+        <v>-0.2840656827043173</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051363631671219</v>
+        <v>-0.6051314773502195</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.7114576605994466</v>
+        <v>-0.711455597122883</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.317024305158905</v>
+        <v>-0.3170110357804678</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942161996205458</v>
+        <v>-0.7942026389483848</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05084991849235338</v>
+        <v>-0.05085885446139816</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.7561988620995014</v>
+        <v>-0.7561875891376146</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695764454242854</v>
+        <v>-1.695767274069376</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465599837456271</v>
+        <v>-1.465599985535006</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831038567101688</v>
+        <v>-0.9830995974482427</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423764152783864</v>
+        <v>-0.8424065270782306</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571843748582201</v>
+        <v>-0.5571867471550965</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.372810907370986</v>
+        <v>-1.389751769861004</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392500479357429</v>
+        <v>0.7392512896079415</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933562645274044</v>
+        <v>0.9933592626493826</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169603264711341</v>
+        <v>1.169602672740579</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9731794153318608</v>
+        <v>0.9731883780271547</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977860325873419</v>
+        <v>0.8977909447273904</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2163872261582708</v>
+        <v>0.2163903691755896</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195656975358152</v>
+        <v>1.195664602823154</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3778329262023529</v>
+        <v>0.3778223053369449</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845266967400465</v>
+        <v>0.2845292439249048</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059541995248864</v>
+        <v>1.059536709239034</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250267833414373</v>
+        <v>1.250278256820605</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783234443321758</v>
+        <v>0.9783272970570011</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.40631504890783</v>
+        <v>1.406322759615868</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428450248228999</v>
+        <v>1.428455248667034</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504817176504182</v>
+        <v>0.9504813971839492</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8021879443802334</v>
+        <v>0.8021958716920173</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02091164403835133</v>
+        <v>-0.02090510665068459</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4842019561219703</v>
+        <v>0.48420162662355</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277652131968753</v>
+        <v>1.277652200173959</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600582629319022</v>
+        <v>0.7600602807359165</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066328670669861</v>
+        <v>1.066324731348534</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738011992600903</v>
+        <v>0.1738032660156154</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01895227835224653</v>
+        <v>0.01895134555191932</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322813547203926</v>
+        <v>1.322819242765024</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388886366011381</v>
+        <v>1.388894670016154</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007655205340967</v>
+        <v>1.007648041158963</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580713542025303</v>
+        <v>0.9580634186753073</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404397616089843</v>
+        <v>1.404395434027102</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255942341753986</v>
+        <v>0.1255905155640767</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151351425900831</v>
+        <v>1.151346390788411</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.56966256652979</v>
+        <v>1.569662479570142</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9722271417418403</v>
+        <v>0.9722210991706047</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.413220666734096</v>
+        <v>0.4132190772343455</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149216888994746</v>
+        <v>-0.1149214830612139</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135870150376242</v>
+        <v>0.1135843543245779</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077898494018553</v>
+        <v>0.3077848849653342</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706470509798514</v>
+        <v>0.7706466396451921</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9646931831175724</v>
+        <v>0.9646949050898856</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449018040759859</v>
+        <v>0.5449042134267373</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9389953483113108</v>
+        <v>0.9390055286627674</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970826050099836</v>
+        <v>1.970839784106511</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195169077782396</v>
+        <v>1.195172356016463</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618029117054428</v>
+        <v>0.2618011997656532</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331309027216204</v>
+        <v>1.331322568835295</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650076170145777</v>
+        <v>1.650077359359747</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072897874785148</v>
+        <v>1.072900528698687</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191140111814061</v>
+        <v>1.191145101816963</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519484216154448</v>
+        <v>1.519488949933606</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586035609537305</v>
+        <v>1.586037748949979</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718573311903402</v>
+        <v>0.2718597046671772</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719764588779685</v>
+        <v>1.719770749072992</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400958655686906</v>
+        <v>1.400963410001509</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332301443780797</v>
+        <v>1.332305784042387</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593481564391453</v>
+        <v>1.593479686257115</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6254021101036135</v>
+        <v>0.6253988494447469</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119787238593416</v>
+        <v>0.3119795424685556</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9784620364541811</v>
+        <v>0.9784730290651332</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058752084235467</v>
+        <v>0.5058715696775403</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798139787589071</v>
+        <v>0.3798209228409988</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435369854328735</v>
+        <v>1.435372192325385</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.482995929015739</v>
+        <v>1.483001083875169</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002115665218445</v>
+        <v>2.002117308752818</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095244138987072</v>
+        <v>1.095242387131608</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.51851439562466</v>
+        <v>1.518519837659888</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8031872395262362</v>
+        <v>0.8031860590403026</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861030287911243</v>
+        <v>0.3861058675935877</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.36383875750387</v>
+        <v>1.363845315058286</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439049308604772</v>
+        <v>0.7439122939105396</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848694559126591</v>
+        <v>0.9848675093144921</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.90084896784772</v>
+        <v>0.9008464378746217</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846498212221068</v>
+        <v>0.6846522737721206</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972540858857784</v>
+        <v>0.6972564521829762</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8790306470704309</v>
+        <v>0.8790177644394328</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6651065311426914</v>
+        <v>0.6650992566827939</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754146688862803</v>
+        <v>0.4754175938623786</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.47855330982983</v>
+        <v>1.478560761756449</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181167947667982</v>
+        <v>0.2181201446067374</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.07005721066531</v>
+        <v>1.070067564590383</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074272585488653</v>
+        <v>0.6074207837673362</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906694740758277</v>
+        <v>1.906693490708149</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5080095739259213</v>
+        <v>0.5080057856718205</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6209556461308249</v>
+        <v>0.620954194946749</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771911423508599</v>
+        <v>-0.577187562497684</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214655358639365</v>
+        <v>0.5214639416448776</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.944367466381651</v>
+        <v>0.9443662328348654</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5424301317792243</v>
+        <v>0.5424285364866477</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808404859309213</v>
+        <v>0.5808353434142488</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1600530497729265</v>
+        <v>-0.1600560192267596</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5520049310683489</v>
+        <v>0.5520045118211385</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411174829077926</v>
+        <v>1.411183517173398</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743122845391136</v>
+        <v>0.3743128514135544</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5607978080995044</v>
+        <v>0.5607947161737961</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.297851992233334</v>
+        <v>0.297840869268323</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3273885151848947</v>
+        <v>0.3273867319141553</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.819269860233383</v>
+        <v>0.8192802215892103</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007793705314306</v>
+        <v>0.2007755866385014</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129872134465287</v>
+        <v>0.1129859501687759</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185544044640685</v>
+        <v>0.6185499289927394</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568827804868029</v>
+        <v>0.4568741660580479</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2248007311826431</v>
+        <v>-0.2247946737020862</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.739486419446183</v>
+        <v>-0.739494111810842</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.534780634750463</v>
+        <v>-0.5347850457927726</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909606541736057</v>
+        <v>0.1909576592067472</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594899329781476</v>
+        <v>1.594903020321789</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211812320878794</v>
+        <v>0.5211753910698146</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3855811206592529</v>
+        <v>0.3855852187443032</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06903568620662635</v>
+        <v>0.06904326438896678</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830132912910229</v>
+        <v>0.7830234400440403</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8834359973040073</v>
+        <v>0.883444485056</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03037594589394665</v>
+        <v>-0.03037616300480266</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01560242796255747</v>
+        <v>0.01560772287493512</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3874735106924477</v>
+        <v>0.3874788588428408</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405739396478263</v>
+        <v>1.405752779550456</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.877995403303083</v>
+        <v>1.87800028278538</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4371722195434088</v>
+        <v>0.4371760539860788</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381186311208409</v>
+        <v>0.2381125315337532</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692669017754636</v>
+        <v>-0.6692698004886826</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015310942023293</v>
+        <v>2.015320903692486</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9051263339158685</v>
+        <v>0.9051362612237035</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259745881444345</v>
+        <v>1.259748188371755</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4006645571940619</v>
+        <v>0.4006683058520367</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1270285294246545</v>
+        <v>0.1270280922294415</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994099233886659</v>
+        <v>0.1994161788583178</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636694864156311</v>
+        <v>1.636695200149741</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238769767155583</v>
+        <v>1.23877840068828</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033333437465461</v>
+        <v>0.8033340372016</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757240356808594</v>
+        <v>0.5757331178904909</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5817783208795687</v>
+        <v>0.5817807499859335</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.0776472859855669</v>
+        <v>-0.0776407818477223</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304994933329321</v>
+        <v>-0.9304917176419387</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232724314171349</v>
+        <v>-0.3232749995840929</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078453050218219</v>
+        <v>0.1078501473705951</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2312652123353182</v>
+        <v>-0.2312698296206971</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8557688297902472</v>
+        <v>0.8557745302200847</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293324302336193</v>
+        <v>0.429333535592266</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.493994363779666</v>
+        <v>1.493999732086657</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875500195421465</v>
+        <v>1.875514094193702</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638281961685756</v>
+        <v>0.363827390942402</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011399529494718</v>
+        <v>1.011403920673845</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4188036722099207</v>
+        <v>0.4187980387044893</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5396999023884207</v>
+        <v>-0.5397019433499469</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944545908558994</v>
+        <v>0.6944547124394492</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01413263367200933</v>
+        <v>-0.01413382364464683</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775363419866558</v>
+        <v>-0.4775337785048084</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107854609128542</v>
+        <v>1.107854735118521</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930354676411892</v>
+        <v>0.1930416635418951</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05766085224764896</v>
+        <v>0.05766814679422552</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150460270520569</v>
+        <v>0.5150553625138722</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2705225265514787</v>
+        <v>-0.2705120705780354</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806499653934321</v>
+        <v>-0.1806508244782683</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841485569148338</v>
+        <v>0.4841516213449815</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685256909927871</v>
+        <v>-0.2685259921868987</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4520899592731901</v>
+        <v>-0.4520955314771378</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947937381172273</v>
+        <v>-0.2947956781361473</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01049691200144729</v>
+        <v>0.01050324080982704</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107840068515274</v>
+        <v>1.107843991437614</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6961442010382231</v>
+        <v>0.696138191080198</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2177266077897554</v>
+        <v>0.2177210313570231</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.547902917161742</v>
+        <v>0.5479026467617019</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08414792566415731</v>
+        <v>-0.08415242222602295</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6154925956752058</v>
+        <v>0.615502517894566</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096204244641602</v>
+        <v>1.096205860859749</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.831233999833784</v>
+        <v>0.8312383921768425</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3103903014847353</v>
+        <v>-0.3103917936823624</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08341841650106277</v>
+        <v>0.08340893320317025</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979203580728564</v>
+        <v>-0.5979237203110366</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702113809855753</v>
+        <v>-0.1702191535071083</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.359815942204331</v>
+        <v>-0.3598148766282722</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2597954145268907</v>
+        <v>-0.2597958403950918</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2567531183401998</v>
+        <v>0.2567593904071832</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4796425424295092</v>
+        <v>0.4796520888836489</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453735946644503</v>
+        <v>-0.3453743148816521</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617369747458168</v>
+        <v>-0.7617341106655431</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720557645210265</v>
+        <v>0.2720590545679936</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176504986436135</v>
+        <v>-0.7176496774269288</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639825486866677</v>
+        <v>0.6639818449595355</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03991759375602313</v>
+        <v>-0.03991497454067937</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115313695810818</v>
+        <v>-0.5115305460742019</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.420858299656951</v>
+        <v>0.4208657994976667</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426460451168738</v>
+        <v>0.3426515675666938</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363756435123306</v>
+        <v>0.2363755195031859</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465976219545465</v>
+        <v>-0.5465888867025163</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266124201644482</v>
+        <v>1.266128425738016</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935231243782469</v>
+        <v>0.9935295245134582</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320420647136446</v>
+        <v>0.8320453540350307</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808330756414601</v>
+        <v>0.680832147048775</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147700517498535</v>
+        <v>0.3147722992441299</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241672326046767</v>
+        <v>1.241676381035053</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059191907183824</v>
+        <v>0.4059221696576245</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.485553458812195</v>
+        <v>0.4855501055791867</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497488468331112</v>
+        <v>0.5497453157320699</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6714184285594386</v>
+        <v>0.671420347394956</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028408301164881</v>
+        <v>0.8028434193665399</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310057160736164</v>
+        <v>0.2310077138840286</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2861001090119915</v>
+        <v>0.2860993257759419</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006245612376132473</v>
+        <v>-0.0062487981729064</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4574887042282462</v>
+        <v>0.457492417233712</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088776650669912</v>
+        <v>0.1088708592591851</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068140240532254</v>
+        <v>0.1068150424518731</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750265567582842</v>
+        <v>1.75026597607153</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09876792658133793</v>
+        <v>-0.09876974237691817</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022120899450935</v>
+        <v>0.2022185412329549</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711325810633474</v>
+        <v>0.5711344125029735</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472037097155824</v>
+        <v>0.4472130769216227</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04315730955147382</v>
+        <v>-0.04314887275760712</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.522191017864203</v>
+        <v>1.522189737811148</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1075721113811407</v>
+        <v>0.1075826434659102</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770064108222173</v>
+        <v>0.4770065516918741</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291130434126664</v>
+        <v>1.29113611174913</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7409661091924848</v>
+        <v>0.7409767155000708</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9809953843164523</v>
+        <v>0.9810007475727474</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07318841086237211</v>
+        <v>-0.07318974791918971</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144760554365461</v>
+        <v>0.5144727342105033</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155615288955292</v>
+        <v>1.155614678312029</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979179994053063</v>
+        <v>0.7979274944936662</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382460205163182</v>
+        <v>1.382460697227615</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758808962414328</v>
+        <v>0.3758792764279212</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993667216857917</v>
+        <v>0.2993636185595328</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9440047466917258</v>
+        <v>0.9440095657893679</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251156109491303</v>
+        <v>1.251167899343606</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1697615856213267</v>
+        <v>0.1697701862926236</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522557652041293</v>
+        <v>0.4522516771147079</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793296185065103</v>
+        <v>0.1793369168460378</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393974365526319</v>
+        <v>-0.4393989429419144</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1946954851975063</v>
+        <v>-0.1947010808525362</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2423655085462066</v>
+        <v>-0.2423728461744911</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304601335444988</v>
+        <v>0.3304608864959785</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152951885111777</v>
+        <v>0.315293180400897</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174765488611507</v>
+        <v>0.6174782348028189</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3029186843399257</v>
+        <v>0.302913757058516</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882268680956523</v>
+        <v>-0.388225567939339</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095518685361024</v>
+        <v>-0.1095558652733123</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372752358872622</v>
+        <v>0.3372715071651534</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191022501311358</v>
+        <v>-0.5191163214466942</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5822408398770628</v>
+        <v>-0.5822494067002522</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.665245919446608</v>
+        <v>-0.6652515296702006</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.276071042003206</v>
+        <v>0.2760722304860738</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350882218517929</v>
+        <v>-0.09350809917326207</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911321160070495</v>
+        <v>0.4911337259721067</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4652378841177864</v>
+        <v>0.4652459735943306</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904433770751903</v>
+        <v>0.7904458610333207</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176281434224634</v>
+        <v>1.176281058397761</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.6053924849400857</v>
+        <v>-0.605394871679354</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5601455186437485</v>
+        <v>-0.5601387836170425</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2482106347944973</v>
+        <v>-0.248195531431816</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078827075765827</v>
+        <v>-0.4078787158869077</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585933411817909</v>
+        <v>-0.8585934887720839</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308308974358455</v>
+        <v>0.1308406406346855</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684932873311339</v>
+        <v>1.684945445555636</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243322308505746</v>
+        <v>1.243324257545502</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7989977582626842</v>
+        <v>0.7990078826673096</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734538104487689</v>
+        <v>0.2734604270894714</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7307814478124433</v>
+        <v>0.7307877162840823</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182281625069931</v>
+        <v>0.5182245207971758</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487398080813459</v>
+        <v>0.5487352706391546</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5323936547036452</v>
+        <v>0.5323919385756128</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196451100931486</v>
+        <v>0.5196499852156693</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818452228610693</v>
+        <v>0.7818417927968521</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2202055848162652</v>
+        <v>-0.2201991628884581</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828518059224642</v>
+        <v>-0.6828609465968127</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4301213458253337</v>
+        <v>-0.4301156725794584</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7379052055922426</v>
+        <v>0.7379015256840047</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.982576784726049</v>
+        <v>-0.9825779284223114</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1984108716172968</v>
+        <v>-0.1983999372469472</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01200647564574251</v>
+        <v>-0.0120113501183053</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263650889271679</v>
+        <v>-0.1263632850779407</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04613770959788548</v>
+        <v>-0.04613497022787015</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102133573345762</v>
+        <v>0.6102179353118889</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03101047916653601</v>
+        <v>-0.03101195181042965</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342235658865548</v>
+        <v>-0.8342289109369907</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.573255787008448</v>
+        <v>0.5732602615942078</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269771990184829</v>
+        <v>-0.7269781084436069</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6532629881285613</v>
+        <v>-0.6532723340409536</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2093947158992142</v>
+        <v>-0.2093972298419351</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.018693481298855</v>
+        <v>-1.018698831692036</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3382336984137274</v>
+        <v>0.3382270639060938</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1079384326989296</v>
+        <v>0.107931724132801</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085455672905445</v>
+        <v>-0.4085506166286213</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.0982382149167294</v>
+        <v>-0.09824209313568691</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6479812752178924</v>
+        <v>-0.6479824527868322</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03004021730927991</v>
+        <v>-0.03003426397222871</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.505845447228449</v>
+        <v>-0.5058479529408958</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3365300752913943</v>
+        <v>-0.3365242689141972</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276869548752677</v>
+        <v>-1.276873618648872</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08482130368469723</v>
+        <v>-0.08482675321450435</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04938548379241145</v>
+        <v>-0.04938078182756531</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110465907409235</v>
+        <v>-0.2110453038955955</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6343218554883642</v>
+        <v>0.6343235727328841</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516783585586693</v>
+        <v>1.516790414837154</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.703589383404214</v>
+        <v>0.703587279775466</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05730471062347118</v>
+        <v>0.05730114562068939</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.846324956990798</v>
+        <v>0.8463312054367951</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083799110000349</v>
+        <v>1.083799212482368</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625714391898137</v>
+        <v>1.62572131301036</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038512436236614</v>
+        <v>0.6038508381962202</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733356454731338</v>
+        <v>0.4733368401694994</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572987236939526</v>
+        <v>0.4572936818035068</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092971270873949</v>
+        <v>0.109288582643763</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.207475773575852</v>
+        <v>-0.2074764445666324</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8417285794715651</v>
+        <v>0.8417377391219188</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901445394959063</v>
+        <v>0.690142795044505</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627444366300953</v>
+        <v>-0.2627478758101502</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2220159051174687</v>
+        <v>-0.2220074595650764</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062443465741</v>
+        <v>1.062449709754159</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380807986854985</v>
+        <v>1.380812277861895</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1583982744159436</v>
+        <v>-0.1584037677283706</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355797205884523</v>
+        <v>-1.355800477030184</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408166256407371</v>
+        <v>-1.408171491034993</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2941696491682729</v>
+        <v>-0.2941763894238184</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119869428034609</v>
+        <v>-1.119883628745184</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008150169795268215</v>
+        <v>-0.00815079851799394</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698041169534363</v>
+        <v>-0.1698014056089853</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317654109573071</v>
+        <v>0.1317574873448907</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7603877479363886</v>
+        <v>-0.760389202646266</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4644614818799967</v>
+        <v>-0.4644678919569381</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023992495800974</v>
+        <v>-1.023989826042196</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981481836379651</v>
+        <v>-0.2981529742420324</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610137352430083</v>
+        <v>-0.361021492101051</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03787535161663141</v>
+        <v>0.03787363221859939</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7330074887209841</v>
+        <v>0.7330078860291057</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2105206155762452</v>
+        <v>-0.2105165886863932</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8015766560858787</v>
+        <v>-0.8015827854088127</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518996052065582</v>
+        <v>0.2518973506927647</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02721372405357188</v>
+        <v>0.02722078960652514</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3227788264631109</v>
+        <v>0.322791106361989</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350850040391549</v>
+        <v>0.4350829617951729</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947273326712824</v>
+        <v>-0.5947282951134382</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181815147131164</v>
+        <v>0.1181792519059682</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8116929946785644</v>
+        <v>0.8116970754980596</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609645075833829</v>
+        <v>0.4609632769855875</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884774956167779</v>
+        <v>0.4884725342321634</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769440029728518</v>
+        <v>-0.1769488215747571</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7723577771467997</v>
+        <v>-0.7723687985630053</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8106065274961155</v>
+        <v>-0.810614189292022</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235411864390533</v>
+        <v>0.6235397123001686</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517960193555763</v>
+        <v>0.8517883677748963</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779106456057824</v>
+        <v>0.9779103167737008</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194794190983605</v>
+        <v>-0.219484058923655</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04635285569342319</v>
+        <v>0.04634938563845013</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503705644647434</v>
+        <v>-0.6503682280359298</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742150921874936</v>
+        <v>0.9742248129235126</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572838491892548</v>
+        <v>0.6572812915122022</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026786049128996</v>
+        <v>1.026788511374066</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1940922204323126</v>
+        <v>0.1940951782543102</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3121781462354733</v>
+        <v>0.3121853224388298</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.07722381532259</v>
+        <v>1.077235354581094</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5225450850983121</v>
+        <v>0.522549934051677</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153262514102291</v>
+        <v>1.153275608863127</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129279386838697</v>
+        <v>1.129279421751627</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288600043268555</v>
+        <v>0.1288619511840403</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07102548585251715</v>
+        <v>0.07102488039006172</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3717488099240931</v>
+        <v>0.3717568324028625</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884016663523685</v>
+        <v>0.4884060825572616</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5034873889655935</v>
+        <v>0.5034908960894904</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03147415807483164</v>
+        <v>-0.03148168999851533</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337375835089455</v>
+        <v>-0.2337393196578288</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487278703324883</v>
+        <v>1.487291104752373</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162142112519284</v>
+        <v>0.916220926968086</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5242936972727993</v>
+        <v>0.524296997144037</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3362690939861072</v>
+        <v>0.3362814331907409</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09794184361865109</v>
+        <v>0.09794388866210543</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516797423928861</v>
+        <v>-0.1516759161176834</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163732232824359</v>
+        <v>0.1163734034940084</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526796906941031</v>
+        <v>-0.6526677479927342</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455890063133078</v>
+        <v>-0.4455874664369019</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.220422768350667</v>
+        <v>0.2204200940135811</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4695452812838205</v>
+        <v>0.4695531857578141</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.28404014539301</v>
+        <v>-0.2840347024546777</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8520277126164228</v>
+        <v>-0.852026471695514</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.209792553094468</v>
+        <v>0.2097955647826154</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2361981391736928</v>
+        <v>0.2361997588581811</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2317666205031943</v>
+        <v>-0.231762060986499</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03038596827681176</v>
+        <v>-0.03038923372757071</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342718906782333</v>
+        <v>-0.1342747863550957</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728416839118742</v>
+        <v>-0.6728401673260713</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3695219311269761</v>
+        <v>-0.3695128101261183</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624133907115509</v>
+        <v>0.162415461437891</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321236611550557</v>
+        <v>-0.9321269639968199</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568833296686406</v>
+        <v>-0.6568747623044086</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3357510359744871</v>
+        <v>0.335757311993839</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514643753413153</v>
+        <v>0.1514628994247768</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.213655995843981</v>
+        <v>0.213657057466838</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09280016233480805</v>
+        <v>0.09280708506792205</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4871615849196899</v>
+        <v>0.4871736502478751</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663081924024937</v>
+        <v>0.1663144669952931</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.307803835338314</v>
+        <v>0.3078099560198294</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064572478682313</v>
+        <v>1.064579718898652</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403742363446342</v>
+        <v>0.9403778927280873</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100447103214158</v>
+        <v>-0.2100498944214354</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842387893655348</v>
+        <v>0.4842460424248173</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806336917918341</v>
+        <v>0.5806333313315007</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418241820071268</v>
+        <v>-0.14182836924535</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154198588851884</v>
+        <v>0.7154234187178962</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.551214636156237</v>
+        <v>-0.551215726943762</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160690229662063</v>
+        <v>1.1606891831698</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09365163749308754</v>
+        <v>0.09365489223340695</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.193986042274175</v>
+        <v>-0.19399339280417</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001680233144947601</v>
+        <v>0.001676359048929464</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226423023559442</v>
+        <v>-0.4226423445922525</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09176408979876181</v>
+        <v>0.09177101734351729</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2813818049992647</v>
+        <v>0.281385286129305</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115451072246613</v>
+        <v>-0.511544018650919</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847683569626042</v>
+        <v>-0.3847648548061973</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4987888414504033</v>
+        <v>0.4987933452354331</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234216532942617</v>
+        <v>1.234217886049286</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1130921342713982</v>
+        <v>-0.1130904223549388</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822679405371871</v>
+        <v>-0.4822682560495226</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073345374746339</v>
+        <v>-0.3073333940051766</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023822632530838</v>
+        <v>0.2023783605284225</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154131876283473</v>
+        <v>-0.315416154012837</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352566148777875</v>
+        <v>-0.2352535513028827</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4582377993380706</v>
+        <v>-0.4582241678814262</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05210556446768595</v>
+        <v>-0.05209880574250962</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073712936105065</v>
+        <v>-0.5073716227977489</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440332036988804</v>
+        <v>0.3440331704251428</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096752260878743</v>
+        <v>0.10967244866847</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1633031432622925</v>
+        <v>-0.1632960744768256</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9584000050031749</v>
+        <v>0.958403671273023</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036279076835771</v>
+        <v>0.5036228109895065</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.544210160607429</v>
+        <v>0.5442108194790611</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267853448071725</v>
+        <v>1.267861863761476</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199660771114105</v>
+        <v>1.199663170041283</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3778054178171689</v>
+        <v>0.3778002539441818</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894506831717686</v>
+        <v>-0.4894545739286909</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2258887333585625</v>
+        <v>-0.2258969043742409</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473113864512823</v>
+        <v>0.3473110155355733</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342330457513724</v>
+        <v>-0.5342371008788809</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365217757404415</v>
+        <v>-0.8365253454039805</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152271711895505</v>
+        <v>0.4152262999965025</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8677305916845901</v>
+        <v>-0.867729422767019</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377875440359526</v>
+        <v>-0.7377837124782286</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415641138470973</v>
+        <v>-0.1415593228499626</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5418942816321227</v>
+        <v>0.5418980239920709</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2706327201423849</v>
+        <v>0.270637426828174</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782978859242782</v>
+        <v>-0.7782931151430023</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078189521102631</v>
+        <v>0.3078208612294492</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6504428712696764</v>
+        <v>0.6504348119803512</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800328558543365</v>
+        <v>-0.3800393500784257</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.778059980748804</v>
+        <v>-0.778068720514307</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161189372162364</v>
+        <v>-0.1161178651347876</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0004725768578930071</v>
+        <v>-0.0004614144059811309</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568719499070376</v>
+        <v>0.45687150524742</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598504679998964</v>
+        <v>-0.4598562034556212</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964599624614844</v>
+        <v>-0.4964599148393797</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.0768221033203299</v>
+        <v>-0.07681893621197303</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732292541985027</v>
+        <v>-0.2732264241495735</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1207347705330358</v>
+        <v>0.120728555332721</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5688927039283042</v>
+        <v>-0.5688984578709333</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168531999014346</v>
+        <v>-0.3168525362419687</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1802394449506194</v>
+        <v>-0.1802273879059224</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132503878635698</v>
+        <v>-0.2132426183510835</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7670969536026916</v>
+        <v>-0.7671015942921954</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9390172334977811</v>
+        <v>-0.939019582279862</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04835658779359255</v>
+        <v>-0.04835264440818531</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563598908544712</v>
+        <v>-0.4563593724812102</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665546372255129</v>
+        <v>-0.5665524827219467</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104558656149291</v>
+        <v>-0.2104561873576575</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03853385885293325</v>
+        <v>0.03853611731006362</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03057635093982644</v>
+        <v>0.03057603523452449</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124893189758043</v>
+        <v>0.2124912794273802</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815744061953908</v>
+        <v>0.9815748171189845</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003779601546882</v>
+        <v>1.003794117261403</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5811443526874317</v>
+        <v>0.5811556829412426</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485295421910889</v>
+        <v>0.2485336980641971</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838086375840434</v>
+        <v>0.6838207492415626</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665621429751266</v>
+        <v>-0.2665545719691538</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519558406603645</v>
+        <v>0.7519642711398186</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453511090334942</v>
+        <v>-0.1453461353624535</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880519770718201</v>
+        <v>-0.2880491414667057</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252178461949608</v>
+        <v>0.6252238482117607</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7352085045812926</v>
+        <v>0.7352235661435845</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3041762422143225</v>
+        <v>-0.3041818111227296</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5968916469202492</v>
+        <v>-0.5968943665207616</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.5397307552665375</v>
+        <v>0.5397303741010624</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164949276854048</v>
+        <v>1.164954546338973</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3879953695313089</v>
+        <v>-0.387994061517427</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.2109586549403</v>
+        <v>1.210964685633062</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705463988741202</v>
+        <v>-0.2705451599561735</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7004454798455978</v>
+        <v>-0.7004386181430267</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313131396780788</v>
+        <v>-0.1313148674168739</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098779607396026</v>
+        <v>0.3098721830320628</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1528192331659958</v>
+        <v>-0.1528143989288383</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632082779772036</v>
+        <v>0.2632079977652426</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02414027730853609</v>
+        <v>0.02413390580391301</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5288995412683519</v>
+        <v>-0.5289101421046994</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5362928058476116</v>
+        <v>-0.5363041453333399</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827484376414841</v>
+        <v>-0.1827510864162258</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786557822099743</v>
+        <v>0.5786464517297547</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4096676265048692</v>
+        <v>-0.4096765229554406</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866546842702725</v>
+        <v>0.2866503438608508</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338631807108021</v>
+        <v>-0.7338665283232508</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537398487083551</v>
+        <v>-0.2537360416692169</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470764170222435</v>
+        <v>-0.8470791194018524</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.4873867085519626</v>
+        <v>-0.4873883713578655</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182446246141599</v>
+        <v>-0.2182513994758152</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415438049739961</v>
+        <v>-0.1415502212848965</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016809784628905</v>
+        <v>-1.016803783480965</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460610170797377</v>
+        <v>-0.9460668273365089</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9789208822446285</v>
+        <v>-0.9789201949527782</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915519471813692</v>
+        <v>-0.7915509449926134</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962353026800883</v>
+        <v>-0.396232986557735</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.494197304211596</v>
+        <v>-0.4941914791924648</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189436139754557</v>
+        <v>-0.5189433370817836</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323833889775665</v>
+        <v>0.332377649930431</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200471895334071</v>
+        <v>0.4200431417238215</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.841724106520631</v>
+        <v>-0.8417275185076358</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2085704621776769</v>
+        <v>-0.2085763142315044</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097453700577519</v>
+        <v>1.097450696798911</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661807863696839</v>
+        <v>0.3661733571965253</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1448659325735838</v>
+        <v>0.1448758590894056</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.145093260524366</v>
+        <v>-0.1450888924509086</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02427911922245233</v>
+        <v>0.02428679739926546</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141706139123512</v>
+        <v>-0.2141699071257409</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3979853394164441</v>
+        <v>-0.3979881298544988</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07369193280444519</v>
+        <v>-0.07369021020768497</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685849702987844</v>
+        <v>0.5685836977857236</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03657669415969395</v>
+        <v>0.03657510992075987</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09160769512841085</v>
+        <v>0.09160735582556034</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2097952965625515</v>
+        <v>0.2098073458343075</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362627524315379</v>
+        <v>0.5362651163472937</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360472446094165</v>
+        <v>1.360480600964951</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238871119950915</v>
+        <v>1.23887542940562</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3919723944292827</v>
+        <v>0.391970425931447</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988429523367474</v>
+        <v>0.1988476202711862</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3165622975043795</v>
+        <v>0.3165678642312503</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307033776761465</v>
+        <v>1.307043140930152</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6254401733213576</v>
+        <v>0.6254455748293603</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290534646967394</v>
+        <v>1.290538346592101</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06455536320485006</v>
+        <v>-0.06454862904054547</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111836951861484</v>
+        <v>1.111837400311878</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330740992782054</v>
+        <v>1.33074166016446</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942773786062954</v>
+        <v>0.1942732047605752</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536373004652461</v>
+        <v>1.536373054720337</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111597712326263</v>
+        <v>1.111600862186486</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04383587546423996</v>
+        <v>0.0438346841390268</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415656260860065</v>
+        <v>0.4415654817057477</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4847442626058425</v>
+        <v>0.4847513286328959</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.154054466928867</v>
+        <v>-0.1540541269350285</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332794285188909</v>
+        <v>-0.3332678047732369</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.369647808755977</v>
+        <v>0.3696471717805555</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278383351788674</v>
+        <v>1.278384717019671</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272886578028297</v>
+        <v>-0.1272849191504116</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561092870272285</v>
+        <v>0.7561172304614591</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264410573569591</v>
+        <v>0.4264478483023476</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007054856288732344</v>
+        <v>0.007057230151215209</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3188093901046823</v>
+        <v>0.3188121092698702</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260144240581702</v>
+        <v>-1.260149392393487</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05159572977451329</v>
+        <v>0.05160338470201119</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09316371040097896</v>
+        <v>0.09316345229469346</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113417317850945</v>
+        <v>0.1113480613111589</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01550946867546233</v>
+        <v>-0.01550632239984238</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077579813146255</v>
+        <v>0.1077618459496055</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1289324676846882</v>
+        <v>-0.1289272942979656</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5139655373043045</v>
+        <v>-0.5139651144863104</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4845870629250815</v>
+        <v>0.4845916572630571</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218209267165791</v>
+        <v>0.2218198319138577</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8456601018855575</v>
+        <v>0.8456693474621571</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649369292536016</v>
+        <v>0.4649383179912867</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4258958378249005</v>
+        <v>0.4259009013253985</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286675095830624</v>
+        <v>-0.6286720165958921</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688807258678493</v>
+        <v>1.688817206058973</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289806345812253</v>
+        <v>1.289810881837632</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08659927748703954</v>
+        <v>-0.0866023045209728</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325306175409006</v>
+        <v>0.4325302149034804</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548301082269551</v>
+        <v>-0.4548336844884182</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549799005705233</v>
+        <v>-0.254979047695106</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3968893029773466</v>
+        <v>0.3968956940382251</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816661717876828</v>
+        <v>-0.5816591902686618</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887936608165644</v>
+        <v>-0.5887901750492096</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135145270970165</v>
+        <v>1.135146252327563</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217770373859169</v>
+        <v>2.217768490488698</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.492571669408444</v>
+        <v>0.4925647612135278</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1862851514167904</v>
+        <v>-0.1862840833391536</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.137927154481569</v>
+        <v>-0.1379284323274304</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3104678521116506</v>
+        <v>-0.310472445946178</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.450197569093736</v>
+        <v>-0.4501891086630073</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499151967701896</v>
+        <v>-0.2499167680733031</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06522173654923716</v>
+        <v>0.06521604120533263</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981240363478474</v>
+        <v>-0.1981244404550118</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844056528520788</v>
+        <v>-0.584409826121279</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.54754677304217</v>
+        <v>-0.5475463974706969</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268338138894115</v>
+        <v>0.4268372049708649</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955954071234643</v>
+        <v>-0.495591613500003</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705051082862029</v>
+        <v>0.5705075331782272</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529710555459614</v>
+        <v>-0.6529679188095626</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027888251053593</v>
+        <v>-0.4027882572614535</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055572998355523</v>
+        <v>1.055579772820134</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622761045111644</v>
+        <v>-0.1622751167999784</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903425906034276</v>
+        <v>-0.3903480243872689</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445747329902037</v>
+        <v>0.2445734933727202</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2088784694321282</v>
+        <v>0.2088866696128736</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881345494108127</v>
+        <v>0.8881427285240844</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07284932306768295</v>
+        <v>-0.07284457325009054</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665852654477553</v>
+        <v>0.1665763645746073</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.595180387268725</v>
+        <v>0.5951855906651369</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2822461245715011</v>
+        <v>0.2822560293327919</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5033099204986005</v>
+        <v>0.5033090801724439</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8072208745154967</v>
+        <v>0.8072156447033724</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6747033002976536</v>
+        <v>0.6746960337829603</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6117077086876999</v>
+        <v>0.6117059947624262</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4500078461244003</v>
+        <v>0.4500032008424031</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3178695026668043</v>
+        <v>-0.3178645107769249</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099515260669464</v>
+        <v>-0.1099537247885351</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936531887493289</v>
+        <v>-0.4936522324489869</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.08995424635922536</v>
+        <v>0.08995676307597819</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068894128658028</v>
+        <v>-1.068903691429704</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211680631642621</v>
+        <v>-1.211687030328781</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8965143666840214</v>
+        <v>-0.8965331489704309</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1167313154425519</v>
+        <v>-0.1167375399096895</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836118889161207</v>
+        <v>-0.7836150654407606</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735063974832966</v>
+        <v>-0.5735104650730309</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294393127487697</v>
+        <v>-0.5294377111710633</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053366853329031</v>
+        <v>-0.9053389784661363</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5274467044638537</v>
+        <v>-0.527449485240843</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829274859308464</v>
+        <v>-0.2829247221451733</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01213103101330047</v>
+        <v>-0.01212434060042757</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063728542346418</v>
+        <v>-0.9063725286984862</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1273014761870819</v>
+        <v>0.1273012046668404</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365609212684639</v>
+        <v>-0.3365609977368358</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374701423837641</v>
+        <v>0.1374721539962517</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3836750114737902</v>
+        <v>-0.3836820009177795</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.02294478516653</v>
+        <v>-1.022948224378834</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766965144525234</v>
+        <v>-0.8766944830645886</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824493084096912</v>
+        <v>0.1824534590912452</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975283721343495</v>
+        <v>0.2975318613699805</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06923049135608453</v>
+        <v>-0.06923742820083989</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5589835390109911</v>
+        <v>-0.5589912802381392</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686147482345784</v>
+        <v>-0.568618411933798</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263898006447675</v>
+        <v>-0.9263875034495282</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417396727532803</v>
+        <v>-0.3417432609576153</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021091067233728</v>
+        <v>-1.021095170428654</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783725005287417</v>
+        <v>0.2783686880636459</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.814659645552992</v>
+        <v>0.8146600959026754</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1350901827253244</v>
+        <v>0.1350943648513511</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628625107778195</v>
+        <v>0.5628546407188658</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528789891645435</v>
+        <v>0.5528819637487858</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2338173171740822</v>
+        <v>0.2338097236186522</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08475666717576121</v>
+        <v>0.0847478904670067</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09507101150360474</v>
+        <v>0.09507118468857956</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2733855842627953</v>
+        <v>-0.2733863892876228</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500101595527733</v>
+        <v>-0.2500163388385595</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034534841603906</v>
+        <v>-0.3034550485311258</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.468295156221921</v>
+        <v>0.4682929061814612</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1101745442582284</v>
+        <v>0.1101827208638741</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9439972192653889</v>
+        <v>-0.944001431799227</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668419456295048</v>
+        <v>-0.7668366198434279</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6517923114996841</v>
+        <v>-0.6517975511829383</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6978455702185674</v>
+        <v>-0.697838838479732</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825349859338394</v>
+        <v>-0.3825349757529501</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3029362784335646</v>
+        <v>-0.302932675909684</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265130455324252</v>
+        <v>1.265127363581365</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3800959917225651</v>
+        <v>-0.3801057733015155</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783655414831055</v>
+        <v>1.783653163638907</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234382838612384</v>
+        <v>1.234382497735621</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2383005430499038</v>
+        <v>-0.2382963586031472</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920094027720732</v>
+        <v>0.3920099173974484</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03539517936392221</v>
+        <v>0.0353892060754268</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194634708942627</v>
+        <v>1.194637838962818</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109233479657399</v>
+        <v>0.9109252125961841</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257129749068511</v>
+        <v>-0.2257141102685717</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3784231176424609</v>
+        <v>0.378418900678078</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2789516802956894</v>
+        <v>-0.2789579429471853</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.254164987063809</v>
+        <v>-0.2541590910551252</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2696026961143416</v>
+        <v>-0.2696064401353133</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.441216665121284</v>
+        <v>-0.4412223088337977</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009046100512625308</v>
+        <v>0.009046355514750269</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866045207593335</v>
+        <v>-0.8866088946845914</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2866357371308771</v>
+        <v>-0.2866234438750586</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5873683770374103</v>
+        <v>0.5873727662275096</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002480683020484</v>
+        <v>-0.1002451048936806</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8669619836828859</v>
+        <v>0.8669610611642375</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084881866497924</v>
+        <v>0.2084806378983726</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670576604144012</v>
+        <v>-0.3670541833305807</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461063725007288</v>
+        <v>0.2461074622230724</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501834073926865</v>
+        <v>0.4501849162713746</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862313777999513</v>
+        <v>-0.2862359336519056</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7462260086367218</v>
+        <v>-0.7462212501805313</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257099529270397</v>
+        <v>-0.5257103404254859</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03146412316973728</v>
+        <v>0.03146674770835468</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7977488816392705</v>
+        <v>0.7977610522169931</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366810564857675</v>
+        <v>0.7366840932675477</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142114925304037</v>
+        <v>-0.1142197108144259</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02204786968867003</v>
+        <v>-0.02204633347936702</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858769305170716</v>
+        <v>0.5858714515947453</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02492706124953871</v>
+        <v>0.02492568808624975</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406989887281927</v>
+        <v>-0.740691197258761</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04097850549324128</v>
+        <v>-0.04097850222238417</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076704057072945</v>
+        <v>0.40767036018338</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2737612162639846</v>
+        <v>0.273758920459289</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.1739088039192</v>
+        <v>1.173911088924654</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01182109826584656</v>
+        <v>-0.01181928695050012</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2124790720946184</v>
+        <v>0.2124835949683777</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039208139875569</v>
+        <v>-0.7039278957219393</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859041842580743</v>
+        <v>-0.3859065208872715</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782620588027644</v>
+        <v>0.2782585913014406</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.265276700493158</v>
+        <v>0.2652824408550937</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840625813963211</v>
+        <v>-0.2840690955410193</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03692720312677332</v>
+        <v>0.03692909017437362</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03452486296929131</v>
+        <v>-0.03453280022868535</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5082110992221057</v>
+        <v>-0.5082048920301871</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4307130551490503</v>
+        <v>-0.430700612773833</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2343270987629115</v>
+        <v>0.2343293760666366</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242061338078541</v>
+        <v>0.2242066745332503</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01109443717878046</v>
+        <v>-0.01110230339818675</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350336108732893</v>
+        <v>0.2350306794382439</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3090523241007334</v>
+        <v>-0.3090580675994566</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1315279311471647</v>
+        <v>0.1315222504540239</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2448879931991139</v>
+        <v>0.2448867600142769</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263047136725531</v>
+        <v>-0.226308475654662</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216536170762731</v>
+        <v>0.5216504666150306</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397632265643735</v>
+        <v>-0.1397643160183561</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5160135676098544</v>
+        <v>0.5160052270366554</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971122532585336</v>
+        <v>-0.5971216812413979</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9081237049020222</v>
+        <v>0.9081142899583144</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5326063801999583</v>
+        <v>0.5326027252587886</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5393206419702907</v>
+        <v>-0.5393324865997221</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972288819228582</v>
+        <v>-0.7972348715469258</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2955037801215911</v>
+        <v>0.2955021273041353</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4465583726908372</v>
+        <v>0.446550175394391</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686159812842474</v>
+        <v>-0.8686148631431186</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750412100371513</v>
+        <v>-0.4750380407307921</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708619395974787</v>
+        <v>-0.3708577747138221</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759809800327075</v>
+        <v>-0.7759815029404982</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945641821019037</v>
+        <v>0.2945617183880177</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.325250701145725</v>
+        <v>0.3252584118647132</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6971651292860501</v>
+        <v>-0.6971729421253153</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173986729521099</v>
+        <v>-0.4173991533181689</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8811163416368349</v>
+        <v>0.8811116928753233</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402727777826648</v>
+        <v>-1.402730494789494</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970094336320119</v>
+        <v>-0.4970164554624337</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114600034102019</v>
+        <v>-0.7114633499379639</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300566904302793</v>
+        <v>-0.4300462245605681</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1955159359533399</v>
+        <v>-0.1955115631819852</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947012825431592</v>
+        <v>-0.3947109791011335</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5668182301248633</v>
+        <v>-0.5668214676898559</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115524358230075</v>
+        <v>-0.7115479949408479</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2302695002244446</v>
+        <v>0.2302707114487198</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1708102954616579</v>
+        <v>0.1708113919800988</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4983254613035668</v>
+        <v>0.4983242935301025</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1560103311831657</v>
+        <v>-0.1560074405752252</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6679920388220715</v>
+        <v>-0.6679975529561395</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195689724893557</v>
+        <v>0.7195647970247449</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034889876032563</v>
+        <v>2.03488253648725</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411531064860993</v>
+        <v>0.2411498757631735</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08331551618828446</v>
+        <v>-0.08331371313377292</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.0895310654129966</v>
+        <v>0.0895241263649081</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193870367227759</v>
+        <v>0.1193811462721581</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887456176775232</v>
+        <v>-0.3887489867445766</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143420442767255</v>
+        <v>-1.143416998551161</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.985741885211048</v>
+        <v>-0.9857472600723433</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099309182388855</v>
+        <v>-1.09931821137687</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761592210413477</v>
+        <v>-0.9761642249793556</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1585613863367266</v>
+        <v>-0.1585704306410923</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310340334720124</v>
+        <v>-1.31034652557388</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021124564382388</v>
+        <v>-1.021128915622184</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1477900004101861</v>
+        <v>-0.1477981198599912</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7602887002491744</v>
+        <v>-0.7602959081392175</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086822866267103</v>
+        <v>-1.086825996662052</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3928892843277983</v>
+        <v>-0.3928945229645304</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2263044169655894</v>
+        <v>0.2263013893434393</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9481029571309831</v>
+        <v>-0.9481009894240424</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926129172286794</v>
+        <v>-0.3926150328510672</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.438133627065019</v>
+        <v>0.4381272126275573</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.211199551868242</v>
+        <v>-0.2112113121830565</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.724881715105377</v>
+        <v>0.7248855863188406</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490655671430731</v>
+        <v>-0.8490715450818188</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03463291119552075</v>
+        <v>-0.03463919268724789</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398726160938522</v>
+        <v>-1.398723952361624</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966092706869374</v>
+        <v>0.1966109270999554</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.651693095566272</v>
+        <v>0.6516983225328389</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604079682812746</v>
+        <v>-0.2604069936497</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061663505245737</v>
+        <v>-1.061669407990506</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005026711131294084</v>
+        <v>0.0005043964027817131</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7978263742268995</v>
+        <v>0.7978246717985826</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357117218422258</v>
+        <v>-0.535714134230257</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7634166431184323</v>
+        <v>-0.7634106308453609</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274636196067319</v>
+        <v>-0.527464998483166</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512980011580827</v>
+        <v>0.8512934482432344</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814871669214323</v>
+        <v>0.6814904907833897</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4324187763289121</v>
+        <v>0.4324167336204151</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03488638789960962</v>
+        <v>0.03489232159631848</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08814243275870419</v>
+        <v>-0.08814180232255306</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883441500358442</v>
+        <v>-0.7883485587241774</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092995322121124</v>
+        <v>-0.3092949268847598</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4348862268061553</v>
+        <v>-0.4348935723868712</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7793542356691343</v>
+        <v>-0.779359237858591</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100815469826261</v>
+        <v>-1.100823427055502</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03740103894035957</v>
+        <v>0.0374056043767513</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07102999290603947</v>
+        <v>0.07102359730328617</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.0969536476085919</v>
+        <v>0.09695520736283608</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097346940911595</v>
+        <v>-0.2097340719254837</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433796163064393</v>
+        <v>0.1433883603180866</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.784273723579971</v>
+        <v>0.7842694951572615</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01485996210354878</v>
+        <v>0.01486075454134757</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595217955886168</v>
+        <v>0.2595224734556129</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365863139039543</v>
+        <v>-0.6365822902652741</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421554102145989</v>
+        <v>-0.5421612322762663</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908135066819364</v>
+        <v>-0.8908187796284585</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05262867547763946</v>
+        <v>0.05263414487236046</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006181757706871016</v>
+        <v>-0.006185878859725081</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01686412182223816</v>
+        <v>-0.01687262272137537</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292290248937086</v>
+        <v>0.5292308874547998</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5927040469225791</v>
+        <v>0.5927016722756329</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688719961124318</v>
+        <v>-0.2688686391415231</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508232351852077</v>
+        <v>-0.2508189562666666</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.373235109005211</v>
+        <v>-0.3732383521200941</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02380426517760052</v>
+        <v>-0.0237951609843592</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257344684142951</v>
+        <v>-0.125732503187134</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641783501317232</v>
+        <v>0.1641811539023343</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2369284337860321</v>
+        <v>0.2369225302762101</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1152634084685146</v>
+        <v>-0.115264423010999</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672175187695653</v>
+        <v>0.2672226577406427</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456781344243546</v>
+        <v>0.8456795277499184</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07325005166926453</v>
+        <v>0.07323852972043589</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017680354372432</v>
+        <v>-0.1017706503713999</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8797963661802835</v>
+        <v>0.8797998664542021</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07995593236414297</v>
+        <v>-0.07995731161725035</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386421111987885</v>
+        <v>-0.3386449547781108</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401021757001327</v>
+        <v>-0.9401041615152089</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611616625109955</v>
+        <v>0.5611640986286078</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297681971188446</v>
+        <v>-0.2297605166690357</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713104799476478</v>
+        <v>-1.713106755092969</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647912543828886</v>
+        <v>0.1647926783131668</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467165708871642</v>
+        <v>-0.4467196772722443</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336659231793139</v>
+        <v>-1.33665714042084</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1095157960126388</v>
+        <v>-0.1095092743726399</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3136919588568706</v>
+        <v>0.3136949208577167</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847273906133356</v>
+        <v>0.5847277746091066</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053953844666458</v>
+        <v>1.053951762887722</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.447952147810385</v>
+        <v>-0.4479548222076368</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026429818507358</v>
+        <v>-0.9026528291254786</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568634801564198</v>
+        <v>-0.7568625221413418</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8130940771915018</v>
+        <v>-0.8131021034788123</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276551456118051</v>
+        <v>0.2276593990216557</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457521682489855</v>
+        <v>-0.4457497073047386</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1499280413672219</v>
+        <v>-0.149930002634937</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04140520431778249</v>
+        <v>-0.04139929076043077</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258657384828276</v>
+        <v>0.1258582313329289</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534345441172064</v>
+        <v>-0.8534406727890705</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542433469129695</v>
+        <v>-0.254238031622931</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355829095574813</v>
+        <v>-0.8355798935765973</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511196568131918</v>
+        <v>-0.7511205820772647</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2402004326820305</v>
+        <v>-0.2402003417776325</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162808677882171</v>
+        <v>0.6162771026258468</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510813286147418</v>
+        <v>0.1510839872659911</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8461726091592989</v>
+        <v>-0.8461806921971232</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892691435694158</v>
+        <v>-0.5892684759263115</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4933153155373166</v>
+        <v>-0.4933108425782172</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783655876430113</v>
+        <v>-0.5783703007075721</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111243773255464</v>
+        <v>-0.2111323949451053</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491722139434311</v>
+        <v>-0.5491688712707516</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408256363774603</v>
+        <v>-0.4408247767395466</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378801044000896</v>
+        <v>0.2378757794538663</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1279956729861792</v>
+        <v>0.127998322181713</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.931674079166664</v>
+        <v>-0.9316708382201599</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.458527631208539</v>
+        <v>-0.4585266635951239</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284102975190938</v>
+        <v>-0.7284147802659853</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.26332911012281</v>
+        <v>-0.2633352203517682</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7402104586681896</v>
+        <v>-0.7402157157753977</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036906908715918</v>
+        <v>1.036902667840558</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3764075218946219</v>
+        <v>0.3764021941441376</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4958846520619549</v>
+        <v>0.495883390675402</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171493229467286</v>
+        <v>0.3171557781912034</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07606442454712638</v>
+        <v>0.07606768583781563</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03167632485392529</v>
+        <v>-0.03167761686054047</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.41082970298129</v>
+        <v>-0.4108360914914878</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947951071053192</v>
+        <v>-0.4947929379137757</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1191976358427331</v>
+        <v>0.1192029428189769</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449343568126743</v>
+        <v>-0.8449291879954456</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023138354415488</v>
+        <v>-1.023145612351528</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1326576973085622</v>
+        <v>-0.1326681428621867</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.24555325119128</v>
+        <v>-0.2455636595938163</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6542532734179825</v>
+        <v>-0.6542666623040357</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205635611313843</v>
+        <v>-1.205639738057923</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.806043497701037</v>
+        <v>-0.8060444500615094</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894619279844333</v>
+        <v>-0.1894625666436677</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.18903672883148</v>
+        <v>-0.1890381051483991</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.744419056993985</v>
+        <v>-0.744414415225098</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.711621788834269</v>
+        <v>-0.7116208967985459</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007591309123934675</v>
+        <v>-0.007587674437457329</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177631685731979</v>
+        <v>-0.6177576478235812</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410403621721396</v>
+        <v>-1.410411352594446</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791260831425771</v>
+        <v>-0.9791292438324832</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08228429284886075</v>
+        <v>-0.08228551677628743</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579322820503168</v>
+        <v>-0.8579409578861033</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304624604424188</v>
+        <v>-1.304633625416457</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223598736721715</v>
+        <v>-1.223601050848259</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542251434577615</v>
+        <v>-0.8542259673099005</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2840656827043173</v>
+        <v>-0.2840740969208906</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051314773502195</v>
+        <v>-0.6051309953806628</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.711455597122883</v>
+        <v>-0.7114588642449751</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.3170110357804678</v>
+        <v>-0.317021241912178</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942026389483848</v>
+        <v>-0.7942093678034883</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05085885446139816</v>
+        <v>-0.05086003958473546</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.7561875891376146</v>
+        <v>-0.756203352603221</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.695767274069376</v>
+        <v>-1.69578015508611</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465599985535006</v>
+        <v>-1.465609771902235</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9830995974482427</v>
+        <v>-0.9831061173491161</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8424065270782306</v>
+        <v>-0.8423983674808982</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571867471550965</v>
+        <v>-0.5571856436926391</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.389751769861004</v>
+        <v>-1.379679045830017</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392512896079415</v>
+        <v>0.7392591151854427</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9933592626493826</v>
+        <v>0.993370763661422</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169602672740579</v>
+        <v>1.169602705127686</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9731883780271547</v>
+        <v>0.9732178043733025</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977909447273904</v>
+        <v>0.8978024913167555</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2163903691755896</v>
+        <v>0.2164104445580197</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195664602823154</v>
+        <v>1.195686314305667</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3778223053369449</v>
+        <v>0.3777999424643209</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845292439249048</v>
+        <v>0.2845475514415324</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059536709239034</v>
+        <v>1.059530293163059</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250278256820605</v>
+        <v>1.250311281443886</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783272970570011</v>
+        <v>0.9783381012908767</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406322759615868</v>
+        <v>1.406348650790371</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428455248667034</v>
+        <v>1.428465578292959</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504813971839492</v>
+        <v>0.9504695576744909</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8021958716920173</v>
+        <v>0.8022295897032544</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02090510665068459</v>
+        <v>-0.02089919318152118</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.48420162662355</v>
+        <v>0.4842023063333371</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277652200173959</v>
+        <v>1.277652206024943</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600602807359165</v>
+        <v>0.7600715479533157</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066324731348534</v>
+        <v>1.066319899344689</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738032660156154</v>
+        <v>0.1738121244504102</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01895134555191932</v>
+        <v>0.0189546754841367</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.322819242765024</v>
+        <v>1.32284001235678</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388894670016154</v>
+        <v>1.38892104815136</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007648041158963</v>
+        <v>1.007639463893558</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580634186753073</v>
+        <v>0.9580374659580374</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404395434027102</v>
+        <v>1.404383146931582</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255905155640767</v>
+        <v>0.1255773035612268</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151346390788411</v>
+        <v>1.151325636982159</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.569662479570142</v>
+        <v>1.569647124029572</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9722210991706047</v>
+        <v>0.9722105016938594</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132190772343455</v>
+        <v>0.4132271571460822</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149214830612139</v>
+        <v>-0.1149222774714556</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135843543245779</v>
+        <v>0.1135835897304832</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077848849653342</v>
+        <v>0.3077635087755322</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706466396451921</v>
+        <v>0.7706376657076133</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9646949050898856</v>
+        <v>0.9647088415892198</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449042134267373</v>
+        <v>0.5449140110726962</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390055286627674</v>
+        <v>0.9390500098527276</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970839784106511</v>
+        <v>1.970884340084862</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195172356016463</v>
+        <v>1.195188839686831</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618011997656532</v>
+        <v>0.2618003600005837</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331322568835295</v>
+        <v>1.331376863548343</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650077359359747</v>
+        <v>1.650075978111195</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072900528698687</v>
+        <v>1.072916364457841</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191145101816963</v>
+        <v>1.191172673287396</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519488949933606</v>
+        <v>1.519502246694051</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586037748949979</v>
+        <v>1.586051524415325</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718597046671772</v>
+        <v>0.2718717023436223</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719770749072992</v>
+        <v>1.719796091868851</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400963410001509</v>
+        <v>1.400989532869194</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332305784042387</v>
+        <v>1.332333380628485</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593479686257115</v>
+        <v>1.593481344765192</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6253988494447469</v>
+        <v>0.62539429239327</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119795424685556</v>
+        <v>0.3119910415593332</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9784730290651332</v>
+        <v>0.9785151826429987</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058715696775403</v>
+        <v>0.5058693745920448</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798209228409988</v>
+        <v>0.3798541293280955</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435372192325385</v>
+        <v>1.435378005547345</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.483001083875169</v>
+        <v>1.48301639997377</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002117308752818</v>
+        <v>2.002141411120721</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095242387131608</v>
+        <v>1.095233738983109</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518519837659888</v>
+        <v>1.518532569786845</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8031860590403026</v>
+        <v>0.8031955235425324</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861058675935877</v>
+        <v>0.3861311594794143</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363845315058286</v>
+        <v>1.363876288650203</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439122939105396</v>
+        <v>0.7439356519714473</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848675093144921</v>
+        <v>0.9848704011595633</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9008464378746217</v>
+        <v>0.9008481615171365</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846522737721206</v>
+        <v>0.6846735326291451</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972564521829762</v>
+        <v>0.6972694376698341</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8790177644394328</v>
+        <v>0.8789849376916833</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650992566827939</v>
+        <v>0.6650830290641437</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754175938623786</v>
+        <v>0.4754379579283225</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.478560761756449</v>
+        <v>1.478586674068183</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181201446067374</v>
+        <v>0.2181347983554401</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070067564590383</v>
+        <v>1.070105875365559</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074207837673362</v>
+        <v>0.6074094125626059</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906693490708149</v>
+        <v>1.906695457417395</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5080057856718205</v>
+        <v>0.5079977055539076</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.620954194946749</v>
+        <v>0.6209639489767358</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.577187562497684</v>
+        <v>-0.5771735291763785</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214639416448776</v>
+        <v>0.5214580939170045</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9443662328348654</v>
+        <v>0.9443755073797188</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5424285364866477</v>
+        <v>0.5424183699514842</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808353434142488</v>
+        <v>0.5808239529867364</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1600560192267596</v>
+        <v>-0.160075123019467</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5520045118211385</v>
+        <v>0.5519989888444061</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411183517173398</v>
+        <v>1.411212292606607</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743128514135544</v>
+        <v>0.3743071945283676</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5607947161737961</v>
+        <v>0.5608006747177877</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.297840869268323</v>
+        <v>0.2978175696303202</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3273867319141553</v>
+        <v>0.3274006445818219</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8192802215892103</v>
+        <v>0.8193177498739197</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007755866385014</v>
+        <v>0.2007503761115083</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129859501687759</v>
+        <v>0.1129684167136348</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185499289927394</v>
+        <v>0.6185255874060673</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568741660580479</v>
+        <v>0.4568498860269451</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247946737020862</v>
+        <v>-0.2247812288762898</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.739494111810842</v>
+        <v>-0.739512852326491</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5347850457927726</v>
+        <v>-0.5347921892814075</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909576592067472</v>
+        <v>0.1909625864402928</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594903020321789</v>
+        <v>1.594925148372424</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211753910698146</v>
+        <v>0.5211722132594852</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3855852187443032</v>
+        <v>0.3856124914873363</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06904326438896678</v>
+        <v>0.06907160996629681</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7830234400440403</v>
+        <v>0.783054396268138</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.883444485056</v>
+        <v>0.8834698397398697</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03037616300480266</v>
+        <v>-0.03038756726222797</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01560772287493512</v>
+        <v>0.01563158262425778</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3874788588428408</v>
+        <v>0.3874933097480735</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405752779550456</v>
+        <v>1.405794598580989</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.87800028278538</v>
+        <v>1.877999536142617</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4371760539860788</v>
+        <v>0.4371903650004231</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381125315337532</v>
+        <v>0.2381027158471567</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.6692698004886826</v>
+        <v>-0.669271138746289</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015320903692486</v>
+        <v>2.015356897507929</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9051362612237035</v>
+        <v>0.9051785732904775</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259748188371755</v>
+        <v>1.259766864665397</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4006683058520367</v>
+        <v>0.4006802492543958</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1270280922294415</v>
+        <v>0.1270200389108475</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994161788583178</v>
+        <v>0.1994239372339263</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636695200149741</v>
+        <v>1.636697373272114</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.23877840068828</v>
+        <v>1.238809215558244</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8033340372016</v>
+        <v>0.803331317962248</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757331178904909</v>
+        <v>0.5757506506639304</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5817807499859335</v>
+        <v>0.5817954954768884</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.0776407818477223</v>
+        <v>-0.07762146932447035</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304917176419387</v>
+        <v>-0.9304608982539758</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232749995840929</v>
+        <v>-0.3232792400208179</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078501473705951</v>
+        <v>0.1078649907711365</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2312698296206971</v>
+        <v>-0.2312924720430091</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8557745302200847</v>
+        <v>0.855789355582332</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.429333535592266</v>
+        <v>0.4293405627911978</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.493999732086657</v>
+        <v>1.494009925010438</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875514094193702</v>
+        <v>1.875559513266054</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.363827390942402</v>
+        <v>0.3638222279243252</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011403920673845</v>
+        <v>1.011414712231539</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4187980387044893</v>
+        <v>0.4187834150937197</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5397019433499469</v>
+        <v>-0.5397039657371504</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944547124394492</v>
+        <v>0.6944602001764885</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01413382364464683</v>
+        <v>-0.01414735977481442</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775337785048084</v>
+        <v>-0.4775391474654318</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107854735118521</v>
+        <v>1.107845186186343</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930416635418951</v>
+        <v>0.1930595822952993</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05766814679422552</v>
+        <v>0.057691942823087</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5150553625138722</v>
+        <v>0.515068982808114</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2705120705780354</v>
+        <v>-0.2704942702445577</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806508244782683</v>
+        <v>-0.1806448642992801</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841516213449815</v>
+        <v>0.4841650814605264</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685259921868987</v>
+        <v>-0.2685235073088165</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4520955314771378</v>
+        <v>-0.4521090571941847</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947956781361473</v>
+        <v>-0.2947928745448201</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01050324080982704</v>
+        <v>0.01052294221280827</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107843991437614</v>
+        <v>1.107859956788937</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.696138191080198</v>
+        <v>0.6961273247922605</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2177210313570231</v>
+        <v>0.2177063724390042</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479026467617019</v>
+        <v>0.5479130378738492</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08415242222602295</v>
+        <v>-0.08417547848079533</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.615502517894566</v>
+        <v>0.6155359042733362</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096205860859749</v>
+        <v>1.096201973244843</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8312383921768425</v>
+        <v>0.8312468032559527</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3103917936823624</v>
+        <v>-0.3104031449744699</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08340893320317025</v>
+        <v>0.08338661201762652</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979237203110366</v>
+        <v>-0.5979370010079752</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702191535071083</v>
+        <v>-0.1702440102934428</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3598148766282722</v>
+        <v>-0.3598182817234961</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2597958403950918</v>
+        <v>-0.259800331775545</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2567593904071832</v>
+        <v>0.2567789791084339</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4796520888836489</v>
+        <v>0.4796814509130657</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453743148816521</v>
+        <v>-0.3453668969508511</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617341106655431</v>
+        <v>-0.7617194882551499</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720590545679936</v>
+        <v>0.2720801982850491</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7176496774269288</v>
+        <v>-0.717639979037722</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6639818449595355</v>
+        <v>0.663984281268185</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03991497454067937</v>
+        <v>-0.03990468628678608</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115305460742019</v>
+        <v>-0.5115209557118141</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4208657994976667</v>
+        <v>0.4208934709975309</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426515675666938</v>
+        <v>0.3426621840441231</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363755195031859</v>
+        <v>0.2363653695734373</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.5465888867025163</v>
+        <v>-0.546572591097842</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266128425738016</v>
+        <v>1.266135682443991</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935295245134582</v>
+        <v>0.9935431440353455</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320453540350307</v>
+        <v>0.8320489621271792</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.680832147048775</v>
+        <v>0.6808361192654432</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147722992441299</v>
+        <v>0.3147796324805429</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241676381035053</v>
+        <v>1.241675212607802</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059221696576245</v>
+        <v>0.4059334567754389</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4855501055791867</v>
+        <v>0.4855267764166466</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497453157320699</v>
+        <v>0.5497296327890326</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.671420347394956</v>
+        <v>0.671436886000829</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028434193665399</v>
+        <v>0.8028602514983977</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310077138840286</v>
+        <v>0.2310055832661544</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2860993257759419</v>
+        <v>0.2860989227933159</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.0062487981729064</v>
+        <v>-0.006272208471540538</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.457492417233712</v>
+        <v>0.4575065066856602</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088708592591851</v>
+        <v>0.1088528205420593</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068150424518731</v>
+        <v>0.1068218506083701</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.75026597607153</v>
+        <v>1.750267181777426</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09876974237691817</v>
+        <v>-0.09876967233746591</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022185412329549</v>
+        <v>0.2022434601478071</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711344125029735</v>
+        <v>0.5711462707405204</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472130769216227</v>
+        <v>0.4472332409794619</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04314887275760712</v>
+        <v>-0.04312902498074395</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.522189737811148</v>
+        <v>1.52220546636331</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1075826434659102</v>
+        <v>0.1076267450832298</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770065516918741</v>
+        <v>0.4770043887354665</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.29113611174913</v>
+        <v>1.291146377487341</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7409767155000708</v>
+        <v>0.7410019654495887</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9810007475727474</v>
+        <v>0.9810107134847029</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07318974791918971</v>
+        <v>-0.07319176037485421</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144727342105033</v>
+        <v>0.5144578315081818</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155614678312029</v>
+        <v>1.155610401703926</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979274944936662</v>
+        <v>0.7979546784351181</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.382460697227615</v>
+        <v>1.38245172509599</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3758792764279212</v>
+        <v>0.375871848071379</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993636185595328</v>
+        <v>0.2993494071548629</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9440095657893679</v>
+        <v>0.9440144580884386</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251167899343606</v>
+        <v>1.251188713893721</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1697701862926236</v>
+        <v>0.1697960395005065</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522516771147079</v>
+        <v>0.4522390132784253</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793369168460378</v>
+        <v>0.1793576507352503</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393989429419144</v>
+        <v>-0.4393990372440622</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1947010808525362</v>
+        <v>-0.194716394069915</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2423728461744911</v>
+        <v>-0.2423901589673056</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304608864959785</v>
+        <v>0.3304685205158833</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.315293180400897</v>
+        <v>0.3152934256681654</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174782348028189</v>
+        <v>0.6174878419289993</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.302913757058516</v>
+        <v>0.3028968627287859</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.388225567939339</v>
+        <v>-0.3882277603241868</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095558652733123</v>
+        <v>-0.1095709899142398</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372715071651534</v>
+        <v>0.3372510549215064</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191163214466942</v>
+        <v>-0.5191626382019521</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5822494067002522</v>
+        <v>-0.5822845831217359</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652515296702006</v>
+        <v>-0.6652648066596181</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760722304860738</v>
+        <v>0.2760823343403425</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350809917326207</v>
+        <v>-0.09350534814612921</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4911337259721067</v>
+        <v>0.491146366344612</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4652459735943306</v>
+        <v>0.4652658819931861</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904458610333207</v>
+        <v>0.7904651523587425</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176281058397761</v>
+        <v>1.176281995370192</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.605394871679354</v>
+        <v>-0.605421127752932</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5601387836170425</v>
+        <v>-0.5600975102771685</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.248195531431816</v>
+        <v>-0.2481590357463445</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078787158869077</v>
+        <v>-0.4078750577389837</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585934887720839</v>
+        <v>-0.8585934048709506</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308406406346855</v>
+        <v>0.1308724990571387</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684945445555636</v>
+        <v>1.684981187756573</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243324257545502</v>
+        <v>1.243344935272311</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990078826673096</v>
+        <v>0.7990402982156174</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734604270894714</v>
+        <v>0.2734761491726928</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7307877162840823</v>
+        <v>0.7308055454760506</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182245207971758</v>
+        <v>0.5182172943500541</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487352706391546</v>
+        <v>0.5487209010603303</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5323919385756128</v>
+        <v>0.5324016725990279</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196499852156693</v>
+        <v>0.5196549168691493</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818417927968521</v>
+        <v>0.7818312407813196</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2201991628884581</v>
+        <v>-0.220193521720722</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828609465968127</v>
+        <v>-0.6828877471756508</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4301156725794584</v>
+        <v>-0.4300892872463615</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7379015256840047</v>
+        <v>0.7378907108448803</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9825779284223114</v>
+        <v>-0.9825986037701944</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1983999372469472</v>
+        <v>-0.1983744560088614</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.0120113501183053</v>
+        <v>-0.01203912260445516</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1263632850779407</v>
+        <v>-0.126351838397035</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04613497022787015</v>
+        <v>-0.04612901830433379</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102179353118889</v>
+        <v>0.6102267187566818</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03101195181042965</v>
+        <v>-0.03100457562747454</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342289109369907</v>
+        <v>-0.8342505761101917</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5732602615942078</v>
+        <v>0.573276639956069</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269781084436069</v>
+        <v>-0.7269739735353823</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6532723340409536</v>
+        <v>-0.6532841978960964</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2093972298419351</v>
+        <v>-0.2094022587384082</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.018698831692036</v>
+        <v>-1.01872380335107</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3382270639060938</v>
+        <v>0.3382086830526346</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.107931724132801</v>
+        <v>0.1079020252515421</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085506166286213</v>
+        <v>-0.4085764028596672</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09824209313568691</v>
+        <v>-0.09825908519340347</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6479824527868322</v>
+        <v>-0.6479918360718032</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03003426397222871</v>
+        <v>-0.03001192517681804</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058479529408958</v>
+        <v>-0.5058536464327041</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3365242689141972</v>
+        <v>-0.3365025093590681</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.276873618648872</v>
+        <v>-1.27687517631208</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08482675321450435</v>
+        <v>-0.08483268622315165</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04938078182756531</v>
+        <v>-0.04936876814401397</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110453038955955</v>
+        <v>-0.2110388126060093</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6343235727328841</v>
+        <v>0.634316879986511</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516790414837154</v>
+        <v>1.516807716001742</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.703587279775466</v>
+        <v>0.703569133448172</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05730114562068939</v>
+        <v>0.05728020767144328</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463312054367951</v>
+        <v>0.8463407018535811</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.083799212482368</v>
+        <v>1.08379818312987</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.62572131301036</v>
+        <v>1.625730127304546</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038508381962202</v>
+        <v>0.6038460337639392</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733368401694994</v>
+        <v>0.4733412248577619</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572936818035068</v>
+        <v>0.4572796062680379</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.109288582643763</v>
+        <v>0.1092652005267319</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2074764445666324</v>
+        <v>-0.2074842424277877</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8417377391219188</v>
+        <v>0.8417707105822351</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.690142795044505</v>
+        <v>0.6901352259898222</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627478758101502</v>
+        <v>-0.2627771687700262</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2220074595650764</v>
+        <v>-0.2219777881785387</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.062449709754159</v>
+        <v>1.06246511842985</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380812277861895</v>
+        <v>1.380826865312531</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1584037677283706</v>
+        <v>-0.1584140558939767</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355800477030184</v>
+        <v>-1.355819845166679</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408171491034993</v>
+        <v>-1.408173671190045</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2941763894238184</v>
+        <v>-0.2941912025992812</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119883628745184</v>
+        <v>-1.119923722372707</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.00815079851799394</v>
+        <v>-0.008155833473292858</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698014056089853</v>
+        <v>-0.1698014522089222</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317574873448907</v>
+        <v>0.1317341861092867</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.760389202646266</v>
+        <v>-0.7603990264621305</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4644678919569381</v>
+        <v>-0.464484420326452</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023989826042196</v>
+        <v>-1.023980999813414</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981529742420324</v>
+        <v>-0.2981797502665554</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.361021492101051</v>
+        <v>-0.3610405567208394</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03787363221859939</v>
+        <v>0.03788412261516604</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7330078860291057</v>
+        <v>0.7330175438684141</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2105165886863932</v>
+        <v>-0.2104956651773384</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8015827854088127</v>
+        <v>-0.8016006939176638</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518973506927647</v>
+        <v>0.2518781256791556</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02722078960652514</v>
+        <v>0.02723822093129201</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.322791106361989</v>
+        <v>0.3228233078994063</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350829617951729</v>
+        <v>0.4350767406367848</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947282951134382</v>
+        <v>-0.5947406214296332</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181792519059682</v>
+        <v>0.1181731949201562</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8116970754980596</v>
+        <v>0.8117090431373886</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609632769855875</v>
+        <v>0.4609501598143996</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884725342321634</v>
+        <v>0.4884586267841338</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769488215747571</v>
+        <v>-0.1769551110182052</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7723687985630053</v>
+        <v>-0.7724044753677538</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.810614189292022</v>
+        <v>-0.8106251315685016</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235397123001686</v>
+        <v>0.6235387682443363</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517883677748963</v>
+        <v>0.8517696854975065</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779103167737008</v>
+        <v>0.9779114344848377</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.219484058923655</v>
+        <v>-0.2194927533513421</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04634938563845013</v>
+        <v>0.0463378425560197</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503682280359298</v>
+        <v>-0.6503613275617203</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742248129235126</v>
+        <v>0.9742462105255731</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6572812915122022</v>
+        <v>0.65728194061014</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026788511374066</v>
+        <v>1.026791421332152</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1940951782543102</v>
+        <v>0.1941028239366528</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3121853224388298</v>
+        <v>0.3122050839358794</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077235354581094</v>
+        <v>1.077272080999812</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.522549934051677</v>
+        <v>0.5225700937321536</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153275608863127</v>
+        <v>1.153311740547925</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129279421751627</v>
+        <v>1.129286533677379</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288619511840403</v>
+        <v>0.1288547119065017</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07102488039006172</v>
+        <v>0.07100915000866584</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3717568324028625</v>
+        <v>0.3717930573108326</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884060825572616</v>
+        <v>0.4884420045909078</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5034908960894904</v>
+        <v>0.5035126444453709</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03148168999851533</v>
+        <v>-0.03149796300181404</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2337393196578288</v>
+        <v>-0.23373792814766</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.487291104752373</v>
+        <v>1.4873337332391</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.916220926968086</v>
+        <v>0.9162402447767602</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.524296997144037</v>
+        <v>0.5243156957362362</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3362814331907409</v>
+        <v>0.3363181981198439</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09794388866210543</v>
+        <v>0.09793440317623471</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516759161176834</v>
+        <v>-0.1516694331809953</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163734034940084</v>
+        <v>0.1163656861625256</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526677479927342</v>
+        <v>-0.6526463554260283</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455874664369019</v>
+        <v>-0.4455837699831202</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204200940135811</v>
+        <v>0.2204097989528638</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4695531857578141</v>
+        <v>0.4695860311095715</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840347024546777</v>
+        <v>-0.2840224550422421</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.852026471695514</v>
+        <v>-0.8520169669587095</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2097955647826154</v>
+        <v>0.2098157542800448</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2361997588581811</v>
+        <v>0.2362065616718586</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.231762060986499</v>
+        <v>-0.231739315287055</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03038923372757071</v>
+        <v>-0.03039539833928009</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342747863550957</v>
+        <v>-0.1342810131400521</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728401673260713</v>
+        <v>-0.6728400077236719</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3695128101261183</v>
+        <v>-0.36948173913728</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.162415461437891</v>
+        <v>0.1624194416322792</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321269639968199</v>
+        <v>-0.9321519853447998</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568747623044086</v>
+        <v>-0.6568569812329167</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.335757311993839</v>
+        <v>0.3357897563839277</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514628994247768</v>
+        <v>0.1514675885913141</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.213657057466838</v>
+        <v>0.2136672485741181</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09280708506792205</v>
+        <v>0.09282455809196068</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4871736502478751</v>
+        <v>0.4872106586106028</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663144669952931</v>
+        <v>0.1663229501397814</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078099560198294</v>
+        <v>0.3078261184772298</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064579718898652</v>
+        <v>1.064612080795984</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403778927280873</v>
+        <v>0.9403681248004246</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100498944214354</v>
+        <v>-0.2100679724913345</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842460424248173</v>
+        <v>0.4842587057418345</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806333313315007</v>
+        <v>0.5806224300934867</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.14182836924535</v>
+        <v>-0.1418427278314635</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7154234187178962</v>
+        <v>0.715439527572908</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.551215726943762</v>
+        <v>-0.5512227313734677</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.1606891831698</v>
+        <v>1.160694075365812</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09365489223340695</v>
+        <v>0.09366388233170095</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.19399339280417</v>
+        <v>-0.1940168188032359</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001676359048929464</v>
+        <v>0.001658786022773346</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226423445922525</v>
+        <v>-0.4226481687583684</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09177101734351729</v>
+        <v>0.09178347772295239</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.281385286129305</v>
+        <v>0.2813959513830247</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.511544018650919</v>
+        <v>-0.5115341322736411</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847648548061973</v>
+        <v>-0.3847476237348635</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4987933452354331</v>
+        <v>0.49880729988039</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234217886049286</v>
+        <v>1.234222753113138</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1130904223549388</v>
+        <v>-0.1130966550777178</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822682560495226</v>
+        <v>-0.4822656225059053</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.3073333940051766</v>
+        <v>-0.307333624064391</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023783605284225</v>
+        <v>0.2023658220693335</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.315416154012837</v>
+        <v>-0.3154311561727208</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352535513028827</v>
+        <v>-0.2352434898409831</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4582241678814262</v>
+        <v>-0.4581834136277325</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05209880574250962</v>
+        <v>-0.0520805667185939</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073716227977489</v>
+        <v>-0.5073817231717805</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440331704251428</v>
+        <v>0.3440252214707673</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.10967244866847</v>
+        <v>0.1096607652011237</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1632960744768256</v>
+        <v>-0.1632832883351618</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.958403671273023</v>
+        <v>0.9584103044955294</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036228109895065</v>
+        <v>0.5036129435699004</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442108194790611</v>
+        <v>0.5442171468670702</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267861863761476</v>
+        <v>1.267894150810871</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199663170041283</v>
+        <v>1.199666351482235</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3778002539441818</v>
+        <v>0.3777834349133675</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894545739286909</v>
+        <v>-0.4894649098216041</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2258969043742409</v>
+        <v>-0.2259128618608331</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473110155355733</v>
+        <v>0.3473078838757004</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342371008788809</v>
+        <v>-0.5342447621283929</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365253454039805</v>
+        <v>-0.8365382668289905</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152262999965025</v>
+        <v>0.4152289136580218</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.867729422767019</v>
+        <v>-0.8677273106513786</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7377837124782286</v>
+        <v>-0.737763732052785</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1415593228499626</v>
+        <v>-0.141539318792883</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5418980239920709</v>
+        <v>0.5419092337017151</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.270637426828174</v>
+        <v>0.2706487209059636</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782931151430023</v>
+        <v>-0.7782835417461056</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078208612294492</v>
+        <v>0.3078296832684931</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6504348119803512</v>
+        <v>0.6504127478321259</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800393500784257</v>
+        <v>-0.3800700651542434</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.778068720514307</v>
+        <v>-0.778080820696142</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161178651347876</v>
+        <v>-0.1161052704736839</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0004614144059811309</v>
+        <v>-0.0004226277017159941</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.45687150524742</v>
+        <v>0.4568704058334053</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598562034556212</v>
+        <v>-0.4598798658932031</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964599148393797</v>
+        <v>-0.4964556709544587</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07681893621197303</v>
+        <v>-0.07680828056508046</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2732264241495735</v>
+        <v>-0.273214408662906</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.120728555332721</v>
+        <v>0.1207084469330911</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5688984578709333</v>
+        <v>-0.5689128308068079</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168525362419687</v>
+        <v>-0.3168519020925401</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1802273879059224</v>
+        <v>-0.1801960491798976</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132426183510835</v>
+        <v>-0.2132242894541847</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.7671015942921954</v>
+        <v>-0.767120359203124</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.939019582279862</v>
+        <v>-0.9390300341082303</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04835264440818531</v>
+        <v>-0.04834356928511165</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563593724812102</v>
+        <v>-0.4563618430993188</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5665524827219467</v>
+        <v>-0.566556577057219</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104561873576575</v>
+        <v>-0.2104590173836604</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03853611731006362</v>
+        <v>0.03855201569078347</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03057603523452449</v>
+        <v>0.03057872435401377</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124912794273802</v>
+        <v>0.2124968651040141</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815748171189845</v>
+        <v>0.9815733315757676</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003794117261403</v>
+        <v>1.003834953916282</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5811556829412426</v>
+        <v>0.5811807539257593</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485336980641971</v>
+        <v>0.2485440790994778</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838207492415626</v>
+        <v>0.6838452167150132</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665545719691538</v>
+        <v>-0.2665372291639103</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519642711398186</v>
+        <v>0.7519787739782635</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453461353624535</v>
+        <v>-0.1453409716731341</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880491414667057</v>
+        <v>-0.2880439652167694</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252238482117607</v>
+        <v>0.6252522281300752</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7352235661435845</v>
+        <v>0.7352638743860319</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3041818111227296</v>
+        <v>-0.3042020202211712</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5968943665207616</v>
+        <v>-0.5969150629530861</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.5397303741010624</v>
+        <v>0.5397295931078189</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164954546338973</v>
+        <v>1.164954878204673</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.387994061517427</v>
+        <v>-0.387989253902985</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.210964685633062</v>
+        <v>1.210974204696883</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705451599561735</v>
+        <v>-0.2705452530313778</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7004386181430267</v>
+        <v>-0.7004138435869048</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313148674168739</v>
+        <v>-0.1313173545704845</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098721830320628</v>
+        <v>0.3098485099504964</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1528143989288383</v>
+        <v>-0.1527927141593329</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632079977652426</v>
+        <v>0.2632181695815</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02413390580391301</v>
+        <v>0.02411326357346251</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289101421046994</v>
+        <v>-0.5289451308579087</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363041453333399</v>
+        <v>-0.5363395216419958</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827510864162258</v>
+        <v>-0.1827615548594647</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786464517297547</v>
+        <v>0.5786219481261312</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4096765229554406</v>
+        <v>-0.4096989901148353</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866503438608508</v>
+        <v>0.2866494772615465</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338665283232508</v>
+        <v>-0.7338861918488989</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537360416692169</v>
+        <v>-0.2537365154432671</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470791194018524</v>
+        <v>-0.8470922374296246</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.4873883713578655</v>
+        <v>-0.487389386129381</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182513994758152</v>
+        <v>-0.2182662330480848</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415502212848965</v>
+        <v>-0.1415791899266743</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016803783480965</v>
+        <v>-1.016782303052091</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460668273365089</v>
+        <v>-0.946085577518618</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9789201949527782</v>
+        <v>-0.9789162648091065</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915509449926134</v>
+        <v>-0.7915336109071104</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.396232986557735</v>
+        <v>-0.3962255282494321</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941914791924648</v>
+        <v>-0.4941759640659603</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189433370817836</v>
+        <v>-0.5189347433799706</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.332377649930431</v>
+        <v>0.3323721604822556</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200431417238215</v>
+        <v>0.4200305380807766</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8417275185076358</v>
+        <v>-0.841751861452992</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2085763142315044</v>
+        <v>-0.2085941358499497</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097450696798911</v>
+        <v>1.097441044727021</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661733571965253</v>
+        <v>0.3661677475355865</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1448758590894056</v>
+        <v>0.1449060542937914</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.1450888924509086</v>
+        <v>-0.1450756234545588</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02428679739926546</v>
+        <v>0.02430150783898759</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141699071257409</v>
+        <v>-0.2141722359495785</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3979881298544988</v>
+        <v>-0.3979997038182126</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07369021020768497</v>
+        <v>-0.07368788495678466</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685836977857236</v>
+        <v>0.5685835321917129</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03657510992075987</v>
+        <v>0.03657670361422533</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09160735582556034</v>
+        <v>0.09161335343381953</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2098073458343075</v>
+        <v>0.2098420392234102</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362651163472937</v>
+        <v>0.5362837035210719</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360480600964951</v>
+        <v>1.360487995658713</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.23887542940562</v>
+        <v>1.238886414746231</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.391970425931447</v>
+        <v>0.391958452698787</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988476202711862</v>
+        <v>0.1988634670360475</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3165678642312503</v>
+        <v>0.3165929508228773</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307043140930152</v>
+        <v>1.307066647285005</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6254455748293603</v>
+        <v>0.625462109722672</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290538346592101</v>
+        <v>1.290548367641706</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06454862904054547</v>
+        <v>-0.06452858862810656</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111837400311878</v>
+        <v>1.111830979588875</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.33074166016446</v>
+        <v>1.330736370068567</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942732047605752</v>
+        <v>0.1942587867066944</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536373054720337</v>
+        <v>1.536372040557839</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.111600862186486</v>
+        <v>1.1116130111161</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.0438346841390268</v>
+        <v>0.04382063701818344</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415654817057477</v>
+        <v>0.4415689231233978</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4847513286328959</v>
+        <v>0.4847739850459007</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540541269350285</v>
+        <v>-0.1540561558109309</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332678047732369</v>
+        <v>-0.3332428055058255</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696471717805555</v>
+        <v>0.3696549746100374</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278384717019671</v>
+        <v>1.278400510771491</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272849191504116</v>
+        <v>-0.1272707430839101</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561172304614591</v>
+        <v>0.7561379693914625</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264478483023476</v>
+        <v>0.4264655737048048</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.007057230151215209</v>
+        <v>0.00706577712856347</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3188121092698702</v>
+        <v>0.3188256153883764</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260149392393487</v>
+        <v>-1.260161983589732</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05160338470201119</v>
+        <v>0.0516185741356695</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09316345229469346</v>
+        <v>0.09315780273030753</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113480613111589</v>
+        <v>0.1113605434265207</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01550632239984238</v>
+        <v>-0.01549678316813616</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077618459496055</v>
+        <v>0.1077671882704243</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1289272942979656</v>
+        <v>-0.1289118659189185</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5139651144863104</v>
+        <v>-0.513971140711844</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4845916572630571</v>
+        <v>0.4846064951047713</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218198319138577</v>
+        <v>0.2218177797213626</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8456693474621571</v>
+        <v>0.8456962736686784</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649383179912867</v>
+        <v>0.4649406316706276</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4259009013253985</v>
+        <v>0.4259082468831191</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286720165958921</v>
+        <v>-0.6286824912702106</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688817206058973</v>
+        <v>1.688841098869495</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289810881837632</v>
+        <v>1.289823033766163</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.0866023045209728</v>
+        <v>-0.08660742075500102</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4325302149034804</v>
+        <v>0.432526618262047</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548336844884182</v>
+        <v>-0.4548496534248537</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.254979047695106</v>
+        <v>-0.2549791407599354</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3968956940382251</v>
+        <v>0.3968992995910963</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816591902686618</v>
+        <v>-0.5816287673067672</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887901750492096</v>
+        <v>-0.5887789751757393</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135146252327563</v>
+        <v>1.135143125890596</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217768490488698</v>
+        <v>2.21776640886101</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4925647612135278</v>
+        <v>0.49254459514361</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1862840833391536</v>
+        <v>-0.18628772938265</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379284323274304</v>
+        <v>-0.1379232593771584</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.310472445946178</v>
+        <v>-0.3104902220405037</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501891086630073</v>
+        <v>-0.4501672896466447</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2499167680733031</v>
+        <v>-0.249924480196403</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06521604120533263</v>
+        <v>0.06520667679771507</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981244404550118</v>
+        <v>-0.1981208372104835</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.584409826121279</v>
+        <v>-0.5844156375320326</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475463974706969</v>
+        <v>-0.5475462847698837</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268372049708649</v>
+        <v>0.4268474277701383</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.495591613500003</v>
+        <v>-0.4955804694052741</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705075331782272</v>
+        <v>0.5705180194314382</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529679188095626</v>
+        <v>-0.6529504914055423</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027882572614535</v>
+        <v>-0.4027794993340558</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055579772820134</v>
+        <v>1.055603935305503</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622751167999784</v>
+        <v>-0.1622759691666855</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903480243872689</v>
+        <v>-0.3903587294806534</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445734933727202</v>
+        <v>0.2445628560453339</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2088866696128736</v>
+        <v>0.2089082828427667</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881427285240844</v>
+        <v>0.8881771816354662</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07284457325009054</v>
+        <v>-0.07283320618231118</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665763645746073</v>
+        <v>0.1665482963807884</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5951855906651369</v>
+        <v>0.5951970466790487</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2822560293327919</v>
+        <v>0.2822862421673697</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5033090801724439</v>
+        <v>0.5032896375735191</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8072156447033724</v>
+        <v>0.8071964991005268</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746960337829603</v>
+        <v>0.6746753362207231</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6117059947624262</v>
+        <v>0.6116968601004189</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4500032008424031</v>
+        <v>0.4499846188633308</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3178645107769249</v>
+        <v>-0.3178579003951534</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1099537247885351</v>
+        <v>-0.109962994156371</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936522324489869</v>
+        <v>-0.4936436734012046</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.08995676307597819</v>
+        <v>0.08995719607143755</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068903691429704</v>
+        <v>-1.068935517611211</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.211687030328781</v>
+        <v>-1.21170661386991</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8965331489704309</v>
+        <v>-0.8965889401953775</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1167375399096895</v>
+        <v>-0.1167615591146578</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836150654407606</v>
+        <v>-0.7836275115166939</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735104650730309</v>
+        <v>-0.5735258737646716</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294377111710633</v>
+        <v>-0.5294411453833437</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053389784661363</v>
+        <v>-0.9053540728598437</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.527449485240843</v>
+        <v>-0.5274631089711679</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829247221451733</v>
+        <v>-0.2829199204606709</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01212434060042757</v>
+        <v>-0.01210764412980417</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063725286984862</v>
+        <v>-0.9063734039952938</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1273012046668404</v>
+        <v>0.1272932517034954</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.3365609977368358</v>
+        <v>-0.336563011290495</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374721539962517</v>
+        <v>0.1374696772070113</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3836820009177795</v>
+        <v>-0.3837042027945105</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022948224378834</v>
+        <v>-1.022969518285012</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766944830645886</v>
+        <v>-0.8766836291590639</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824534590912452</v>
+        <v>0.1824659627560216</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975318613699805</v>
+        <v>0.2975392712453932</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06923742820083989</v>
+        <v>-0.06925429659042762</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5589912802381392</v>
+        <v>-0.5590103101321463</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.568618411933798</v>
+        <v>-0.5686292116565338</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263875034495282</v>
+        <v>-0.9263883016273777</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417432609576153</v>
+        <v>-0.3417487160040847</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021095170428654</v>
+        <v>-1.02110131575321</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783686880636459</v>
+        <v>0.2783464702276812</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8146600959026754</v>
+        <v>0.814661087172574</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1350943648513511</v>
+        <v>0.1350988690546664</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628546407188658</v>
+        <v>0.5628371941436343</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528819637487858</v>
+        <v>0.5528864054225185</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2338097236186522</v>
+        <v>0.2337879088107437</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.0847478904670067</v>
+        <v>0.08473115352602252</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.09507118468857956</v>
+        <v>0.0950695131234312</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2733863892876228</v>
+        <v>-0.2734018100150221</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500163388385595</v>
+        <v>-0.2500197636885169</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034550485311258</v>
+        <v>-0.3034611366697249</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4682929061814612</v>
+        <v>0.4682729195599091</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1101827208638741</v>
+        <v>0.11021298639248</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.944001431799227</v>
+        <v>-0.9440169561060796</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668366198434279</v>
+        <v>-0.7668189785647281</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6517975511829383</v>
+        <v>-0.6518041596186143</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.697838838479732</v>
+        <v>-0.6978094847037215</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825349757529501</v>
+        <v>-0.3825326597748803</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.302932675909684</v>
+        <v>-0.3029191706538119</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265127363581365</v>
+        <v>1.265120297479401</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801057733015155</v>
+        <v>-0.3801346939347515</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783653163638907</v>
+        <v>1.783638420369321</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234382497735621</v>
+        <v>1.234376408043702</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2382963586031472</v>
+        <v>-0.2382849695340316</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920099173974484</v>
+        <v>0.3920079015329156</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0353892060754268</v>
+        <v>0.0353770576719975</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194637838962818</v>
+        <v>1.194637967591189</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109252125961841</v>
+        <v>0.9109300543193825</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257141102685717</v>
+        <v>-0.2257099598830118</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.378418900678078</v>
+        <v>0.3784081357093702</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2789579429471853</v>
+        <v>-0.278965912426661</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541590910551252</v>
+        <v>-0.2541476514843972</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2696064401353133</v>
+        <v>-0.2696243213415144</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412223088337977</v>
+        <v>-0.4412415960865955</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009046355514750269</v>
+        <v>0.009059919545776323</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866088946845914</v>
+        <v>-0.8866204159461314</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2866234438750586</v>
+        <v>-0.2865826867230792</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5873727662275096</v>
+        <v>0.5873959024408603</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002451048936806</v>
+        <v>-0.1002318371555659</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8669610611642375</v>
+        <v>0.866961580973768</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084806378983726</v>
+        <v>0.2084620268973702</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670541833305807</v>
+        <v>-0.3670357258053485</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461074622230724</v>
+        <v>0.2461153160457189</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501849162713746</v>
+        <v>0.4501934998848932</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862359336519056</v>
+        <v>-0.2862455075408475</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7462212501805313</v>
+        <v>-0.7462071029087116</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257103404254859</v>
+        <v>-0.5257082074140044</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03146674770835468</v>
+        <v>0.03148259375354689</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7977610522169931</v>
+        <v>0.7977996030786091</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366840932675477</v>
+        <v>0.7366891442537226</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142197108144259</v>
+        <v>-0.1142429230016484</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02204633347936702</v>
+        <v>-0.02203081179170433</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858714515947453</v>
+        <v>0.5858738255841355</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02492568808624975</v>
+        <v>0.024904034880183</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.740691197258761</v>
+        <v>-0.7406755890901405</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04097850222238417</v>
+        <v>-0.04097177588697098</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.40767036018338</v>
+        <v>0.4076694898224214</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.273758920459289</v>
+        <v>0.2737678332744655</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173911088924654</v>
+        <v>1.173923186612176</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01181928695050012</v>
+        <v>-0.0118171417559463</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2124835949683777</v>
+        <v>0.2125058516761556</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039278957219393</v>
+        <v>-0.7039473738285201</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859065208872715</v>
+        <v>-0.3859149199910159</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782585913014406</v>
+        <v>0.2782440073980614</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652824408550937</v>
+        <v>0.2652889299595664</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840690955410193</v>
+        <v>-0.2840817626837661</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03692909017437362</v>
+        <v>0.03693516627757925</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03453280022868535</v>
+        <v>-0.03454285890278223</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5082048920301871</v>
+        <v>-0.5081785912104905</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.430700612773833</v>
+        <v>-0.4306543276290432</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2343293760666366</v>
+        <v>0.2343357964675752</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242066745332503</v>
+        <v>0.2242047216697227</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01110230339818675</v>
+        <v>-0.01112409235907342</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350306794382439</v>
+        <v>0.2350192762729238</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3090580675994566</v>
+        <v>-0.3090732636387579</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1315222504540239</v>
+        <v>0.1315056887845413</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2448867600142769</v>
+        <v>0.2448981843771574</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.226308475654662</v>
+        <v>-0.2263246483563877</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216504666150306</v>
+        <v>0.5216326059472275</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397643160183561</v>
+        <v>-0.1397816239434483</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5160052270366554</v>
+        <v>0.5159785975073732</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971216812413979</v>
+        <v>-0.5971428284234861</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9081142899583144</v>
+        <v>0.9080948740936333</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5326027252587886</v>
+        <v>0.5325773241210677</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5393324865997221</v>
+        <v>-0.539362496529746</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972348715469258</v>
+        <v>-0.7972570883113941</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2955021273041353</v>
+        <v>0.2954957152383</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.446550175394391</v>
+        <v>0.4465280039585801</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686148631431186</v>
+        <v>-0.8686172797818927</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750380407307921</v>
+        <v>-0.4750439436243005</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708577747138221</v>
+        <v>-0.3708405546693527</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759815029404982</v>
+        <v>-0.7759897235989938</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945617183880177</v>
+        <v>0.2945536805862639</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3252584118647132</v>
+        <v>0.3252868479018632</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6971729421253153</v>
+        <v>-0.6971936693292491</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173991533181689</v>
+        <v>-0.4173907413081815</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8811116928753233</v>
+        <v>0.881111536340298</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402730494789494</v>
+        <v>-1.402725442295094</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970164554624337</v>
+        <v>-0.4970422889762701</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114633499379639</v>
+        <v>-0.7114706561105987</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300462245605681</v>
+        <v>-0.4300216068832192</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1955115631819852</v>
+        <v>-0.1954948726158131</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947109791011335</v>
+        <v>-0.3947492900866308</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5668214676898559</v>
+        <v>-0.5668192601236106</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115479949408479</v>
+        <v>-0.7115417321482221</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2302707114487198</v>
+        <v>0.230297231054067</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1708113919800988</v>
+        <v>0.170809243374671</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4983242935301025</v>
+        <v>0.498305192181386</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1560074405752252</v>
+        <v>-0.155987934679629</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6679975529561395</v>
+        <v>-0.6680041475436692</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195647970247449</v>
+        <v>0.7195644066268012</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.03488253648725</v>
+        <v>2.034869258095982</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411498757631735</v>
+        <v>0.2411468555390957</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08331371313377292</v>
+        <v>-0.08330018647650592</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.0895241263649081</v>
+        <v>0.08949255468414208</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1193811462721581</v>
+        <v>0.119372736956021</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887489867445766</v>
+        <v>-0.3887643105916637</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143416998551161</v>
+        <v>-1.143405301761847</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857472600723433</v>
+        <v>-0.9857560655880583</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.09931821137687</v>
+        <v>-1.099343012261552</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761642249793556</v>
+        <v>-0.9761674336628713</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1585704306410923</v>
+        <v>-0.1585873439645796</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.31034652557388</v>
+        <v>-1.310352246023229</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021128915622184</v>
+        <v>-1.021135195871394</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1477981198599912</v>
+        <v>-0.1478188970427595</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7602959081392175</v>
+        <v>-0.7603166326727471</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086825996662052</v>
+        <v>-1.086828324891006</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3928945229645304</v>
+        <v>-0.3929047806024246</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2263013893434393</v>
+        <v>0.2262897148823556</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9481009894240424</v>
+        <v>-0.9480931198590441</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926150328510672</v>
+        <v>-0.3926242667444146</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4381272126275573</v>
+        <v>0.4381040150228369</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2112113121830565</v>
+        <v>-0.2112426023284607</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7248855863188406</v>
+        <v>0.7248904926101714</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490715450818188</v>
+        <v>-0.8490845056210441</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03463919268724789</v>
+        <v>-0.03464890133474366</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398723952361624</v>
+        <v>-1.398718194400339</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966109270999554</v>
+        <v>0.1966179489154341</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6516983225328389</v>
+        <v>0.651718669034589</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604069936497</v>
+        <v>-0.2604022176628262</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061669407990506</v>
+        <v>-1.061683416944545</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005043964027817131</v>
+        <v>0.0005136496195375176</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7978246717985826</v>
+        <v>0.7978267402653412</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.535714134230257</v>
+        <v>-0.5357241279340308</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7634106308453609</v>
+        <v>-0.7633879436699098</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.527464998483166</v>
+        <v>-0.5274700875955817</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512934482432344</v>
+        <v>0.8512775922044883</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814904907833897</v>
+        <v>0.6814940068121476</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4324167336204151</v>
+        <v>0.4324027395611724</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03489232159631848</v>
+        <v>0.03491080974229428</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08814180232255306</v>
+        <v>-0.08814902048392789</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883485587241774</v>
+        <v>-0.7883603771936718</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3092949268847598</v>
+        <v>-0.309274887619461</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4348935723868712</v>
+        <v>-0.434923845348243</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.779359237858591</v>
+        <v>-0.7793700123937357</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100823427055502</v>
+        <v>-1.100850280148324</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.0374056043767513</v>
+        <v>0.03743016366534557</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07102359730328617</v>
+        <v>0.07101418568372639</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09695520736283608</v>
+        <v>0.09696153469008095</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097340719254837</v>
+        <v>-0.2097310442482316</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1433883603180866</v>
+        <v>0.1434056184939038</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7842694951572615</v>
+        <v>0.7842655423513126</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01486075454134757</v>
+        <v>0.01486444229730815</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595224734556129</v>
+        <v>0.2595255265414808</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365822902652741</v>
+        <v>-0.6365556598594787</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421612322762663</v>
+        <v>-0.5421716537020241</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908187796284585</v>
+        <v>-0.8908229505942662</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05263414487236046</v>
+        <v>0.05264927379322803</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006185878859725081</v>
+        <v>-0.006199730067996338</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01687262272137537</v>
+        <v>-0.01689811520061548</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292308874547998</v>
+        <v>0.5292343937944116</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5927016722756329</v>
+        <v>0.5927059575074715</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688686391415231</v>
+        <v>-0.2688685848209462</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508189562666666</v>
+        <v>-0.2508082276665339</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732383521200941</v>
+        <v>-0.3732504009459898</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.0237951609843592</v>
+        <v>-0.02376425211916236</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.125732503187134</v>
+        <v>-0.1257270299241451</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641811539023343</v>
+        <v>0.1641870778631453</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2369225302762101</v>
+        <v>0.2369070530204395</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.115264423010999</v>
+        <v>-0.1152615748924378</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672226577406427</v>
+        <v>0.2672379628357739</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456795277499184</v>
+        <v>0.8456759569493099</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07323852972043589</v>
+        <v>0.07320001893946458</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017706503713999</v>
+        <v>-0.1017789904725359</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8797998664542021</v>
+        <v>0.8798089111212078</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07995731161725035</v>
+        <v>-0.07997145504968041</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386449547781108</v>
+        <v>-0.3386573165332435</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401041615152089</v>
+        <v>-0.9401133027711843</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611640986286078</v>
+        <v>0.5611631485197762</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297605166690357</v>
+        <v>-0.2297362367274609</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713106755092969</v>
+        <v>-1.713122241514073</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647926783131668</v>
+        <v>0.1647948309139643</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467196772722443</v>
+        <v>-0.4467325742813611</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.33665714042084</v>
+        <v>-1.336648526944376</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1095092743726399</v>
+        <v>-0.1094911672126704</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3136949208577167</v>
+        <v>0.3137015784183285</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847277746091066</v>
+        <v>0.5847318965314472</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053951762887722</v>
+        <v>1.053961237044237</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.4479548222076368</v>
+        <v>-0.4479570612754905</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026528291254786</v>
+        <v>-0.9026906932657068</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568625221413418</v>
+        <v>-0.7568672063570209</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131021034788123</v>
+        <v>-0.8131240296668908</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276593990216557</v>
+        <v>0.2276699462515729</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457497073047386</v>
+        <v>-0.4457354318323591</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.149930002634937</v>
+        <v>-0.1499239306147647</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04139929076043077</v>
+        <v>-0.04137240995314236</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258582313329289</v>
+        <v>0.1258415226827657</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534406727890705</v>
+        <v>-0.8534654548512915</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.254238031622931</v>
+        <v>-0.2542303740752502</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355798935765973</v>
+        <v>-0.8355803268372113</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511205820772647</v>
+        <v>-0.7511266502723303</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2402003417776325</v>
+        <v>-0.2401890689948268</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162771026258468</v>
+        <v>0.6162824163574394</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510839872659911</v>
+        <v>0.1510917158463491</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8461806921971232</v>
+        <v>-0.8462045884607395</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892684759263115</v>
+        <v>-0.5892644000973982</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4933108425782172</v>
+        <v>-0.4932883946384012</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783703007075721</v>
+        <v>-0.5783721145816084</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111323949451053</v>
+        <v>-0.2111601595611782</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491688712707516</v>
+        <v>-0.5491606029825857</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408247767395466</v>
+        <v>-0.440828636628337</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378757794538663</v>
+        <v>0.2378557967525194</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.127998322181713</v>
+        <v>0.1280048109853022</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316708382201599</v>
+        <v>-0.9316653822368236</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585266635951239</v>
+        <v>-0.4585198399263433</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7284147802659853</v>
+        <v>-0.728431762161161</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2633352203517682</v>
+        <v>-0.2633487626541415</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7402157157753977</v>
+        <v>-0.7402150958297562</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036902667840558</v>
+        <v>1.036893143416747</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3764021941441376</v>
+        <v>0.3763817987233121</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.495883390675402</v>
+        <v>0.4958908232592344</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171557781912034</v>
+        <v>0.3171779202984394</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07606768583781563</v>
+        <v>0.07609030289496165</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03167761686054047</v>
+        <v>-0.03168422662536426</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108360914914878</v>
+        <v>-0.4108544724774004</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947929379137757</v>
+        <v>-0.4947764060664988</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192029428189769</v>
+        <v>0.1192250363178051</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449291879954456</v>
+        <v>-0.8449227206259905</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023145612351528</v>
+        <v>-1.02316297365913</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1326681428621867</v>
+        <v>-0.1326931706902221</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2455636595938163</v>
+        <v>-0.2455979391398298</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6542666623040357</v>
+        <v>-0.6543070864640176</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205639738057923</v>
+        <v>-1.205663147180076</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060444500615094</v>
+        <v>-0.8060443865606198</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894625666436677</v>
+        <v>-0.1894624020631145</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1890381051483991</v>
+        <v>-0.189031499362437</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.744414415225098</v>
+        <v>-0.7443982928699876</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116208967985459</v>
+        <v>-0.7116177880408354</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007587674437457329</v>
+        <v>-0.007570274726949918</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177576478235812</v>
+        <v>-0.6177518570427664</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410411352594446</v>
+        <v>-1.410430256124793</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791292438324832</v>
+        <v>-0.9791334938559332</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08228551677628743</v>
+        <v>-0.08228966501783196</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.8579409578861033</v>
+        <v>-0.857957798747799</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304633625416457</v>
+        <v>-1.304659332960686</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223601050848259</v>
+        <v>-1.223608021402524</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8542259673099005</v>
+        <v>-0.854230898163254</v>
       </c>
     </row>
     <row r="890">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="E890" t="n">
-        <v>-0.2840740969208906</v>
+        <v>-0.2841018661140385</v>
       </c>
     </row>
     <row r="891">
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-0.6051309953806628</v>
+        <v>-0.6051379514474498</v>
       </c>
     </row>
     <row r="892">
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.7114588642449751</v>
+        <v>-0.7114680292142156</v>
       </c>
     </row>
     <row r="893">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-0.317021241912178</v>
+        <v>-0.3170551380434606</v>
       </c>
     </row>
     <row r="894">
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.7942093678034883</v>
+        <v>-0.7942314402547671</v>
       </c>
     </row>
     <row r="895">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>-0.05086003958473546</v>
+        <v>-0.05085861037854916</v>
       </c>
     </row>
     <row r="896">
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>-0.756203352603221</v>
+        <v>-0.7562457729445964</v>
       </c>
     </row>
     <row r="897">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-1.69578015508611</v>
+        <v>-1.695808251969147</v>
       </c>
     </row>
     <row r="898">
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E898" t="n">
-        <v>-1.465609771902235</v>
+        <v>-1.46563636271387</v>
       </c>
     </row>
     <row r="899">
@@ -15730,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-0.9831061173491161</v>
+        <v>-0.9831274297681468</v>
       </c>
     </row>
     <row r="900">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>-0.8423983674808982</v>
+        <v>-0.8423679898862104</v>
       </c>
     </row>
     <row r="901">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>-0.5571856436926391</v>
+        <v>-0.5571883666456992</v>
       </c>
     </row>
     <row r="902">
@@ -15775,13 +15775,13 @@
         <v>500</v>
       </c>
       <c r="C902" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>-1.379679045830017</v>
+        <v>-1.342342506957178</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E902"/>
+  <dimension ref="A1:E889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392591151854427</v>
+        <v>0.7392580018832416</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.993370763661422</v>
+        <v>0.9931246632505456</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.169602705127686</v>
+        <v>1.169894677992958</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9732178043733025</v>
+        <v>0.9725083684263519</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978024913167555</v>
+        <v>0.8974039777151801</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2164104445580197</v>
+        <v>0.215335743652712</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195686314305667</v>
+        <v>1.195476883852167</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3777999424643209</v>
+        <v>0.3785873485274159</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2845475514415324</v>
+        <v>0.2844417311240647</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.059530293163059</v>
+        <v>1.059272447576612</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250311281443886</v>
+        <v>1.249732767166754</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9783381012908767</v>
+        <v>0.9781919219323411</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.406348650790371</v>
+        <v>1.406487274946718</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428465578292959</v>
+        <v>1.428148492711634</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504695576744909</v>
+        <v>0.9514281135581073</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8022295897032544</v>
+        <v>0.8010330389899915</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02089919318152118</v>
+        <v>-0.01921726139948014</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4842023063333371</v>
+        <v>0.4842564266311984</v>
       </c>
     </row>
     <row r="20">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277652206024943</v>
+        <v>1.277897547118181</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600715479533157</v>
+        <v>0.7600317993253974</v>
       </c>
     </row>
     <row r="22">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.066319899344689</v>
+        <v>1.066500815605975</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738121244504102</v>
+        <v>0.1738766565093015</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0189546754841367</v>
+        <v>0.01870701061628294</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.32284001235678</v>
+        <v>1.322376445776682</v>
       </c>
     </row>
     <row r="26">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.38892104815136</v>
+        <v>1.388305295022124</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.007639463893558</v>
+        <v>1.007064966752936</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9580374659580374</v>
+        <v>0.9587945253475363</v>
       </c>
     </row>
     <row r="29">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.404383146931582</v>
+        <v>1.40454307152739</v>
       </c>
     </row>
     <row r="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1255773035612268</v>
+        <v>0.126459866829409</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.151325636982159</v>
+        <v>1.152616831336426</v>
       </c>
     </row>
     <row r="32">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.569647124029572</v>
+        <v>1.570526158695564</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9722105016938594</v>
+        <v>0.9724450375361531</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4132271571460822</v>
+        <v>0.4129630517294485</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1149222774714556</v>
+        <v>-0.1144480959224299</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1135835897304832</v>
+        <v>0.1132147825028942</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3077635087755322</v>
+        <v>0.3087557231945003</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7706376657076133</v>
+        <v>0.7713186065038187</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9647088415892198</v>
+        <v>0.9638831191308554</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5449140110726962</v>
+        <v>0.5444088146323548</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9390500098527276</v>
+        <v>0.9380545713857497</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970884340084862</v>
+        <v>1.970548403740196</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.195188839686831</v>
+        <v>1.194627412924093</v>
       </c>
     </row>
     <row r="44">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2618003600005837</v>
+        <v>0.2618685984528465</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331376863548343</v>
+        <v>1.330215695968737</v>
       </c>
     </row>
     <row r="46">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1.650075978111195</v>
+        <v>1.650524469171391</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.072916364457841</v>
+        <v>1.073202779462085</v>
       </c>
     </row>
     <row r="48">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.191172673287396</v>
+        <v>1.189990721450248</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519502246694051</v>
+        <v>1.519951682203653</v>
       </c>
     </row>
     <row r="50">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1.586051524415325</v>
+        <v>1.585465989183839</v>
       </c>
     </row>
     <row r="51">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2718717023436223</v>
+        <v>0.2712929304756646</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719796091868851</v>
+        <v>1.718915141441074</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400989532869194</v>
+        <v>1.400327221234372</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.332333380628485</v>
+        <v>1.331402430758133</v>
       </c>
     </row>
     <row r="55">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.593481344765192</v>
+        <v>1.593226261397352</v>
       </c>
     </row>
     <row r="56">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.62539429239327</v>
+        <v>0.6255492960572818</v>
       </c>
     </row>
     <row r="57">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3119910415593332</v>
+        <v>0.3115990830307883</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9785151826429987</v>
+        <v>0.9770449207834009</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5058693745920448</v>
+        <v>0.5061228879419992</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3798541293280955</v>
+        <v>0.3790717709952546</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435378005547345</v>
+        <v>1.435956155362919</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.48301639997377</v>
+        <v>1.48307302212233</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.002141411120721</v>
+        <v>2.000994797508052</v>
       </c>
     </row>
     <row r="64">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.095233738983109</v>
+        <v>1.095557930873999</v>
       </c>
     </row>
     <row r="65">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1.518532569786845</v>
+        <v>1.518439169547946</v>
       </c>
     </row>
     <row r="66">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8031955235425324</v>
+        <v>0.8019778206287319</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3861311594794143</v>
+        <v>0.3843644331615624</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.363876288650203</v>
+        <v>1.362478107720066</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7439356519714473</v>
+        <v>0.7431169635751318</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9848704011595633</v>
+        <v>0.9850538841474842</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9008481615171365</v>
+        <v>0.9002670018893378</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6846735326291451</v>
+        <v>0.6834761007943093</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6972694376698341</v>
+        <v>0.696790234074902</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8789849376916833</v>
+        <v>0.87990614018951</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650830290641437</v>
+        <v>0.6650561605718003</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4754379579283225</v>
+        <v>0.4744098764671359</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.478586674068183</v>
+        <v>1.477510317846979</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2181347983554401</v>
+        <v>0.2175916484630163</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.070105875365559</v>
+        <v>1.069402529728684</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6074094125626059</v>
+        <v>0.6075181189222325</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906695457417395</v>
+        <v>1.906814558294898</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5079977055539076</v>
+        <v>0.5079286444297174</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6209639489767358</v>
+        <v>0.6195882946868139</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5771735291763785</v>
+        <v>-0.5778296368323946</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5214580939170045</v>
+        <v>0.5218641516767504</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9443755073797188</v>
+        <v>0.9435088047942934</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5424183699514842</v>
+        <v>0.5425459060660657</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808239529867364</v>
+        <v>0.5808245301403965</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.160075123019467</v>
+        <v>-0.1590009088237663</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5519989888444061</v>
+        <v>0.5525815913973129</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411212292606607</v>
+        <v>1.411064163492482</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3743071945283676</v>
+        <v>0.374973069403535</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5608006747177877</v>
+        <v>0.5600096522018667</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2978175696303202</v>
+        <v>0.2981303301620111</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3274006445818219</v>
+        <v>0.326365778141885</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8193177498739197</v>
+        <v>0.8180384946360283</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2007503761115083</v>
+        <v>0.2020425542895201</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1129684167136348</v>
+        <v>0.1140548963743357</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6185255874060673</v>
+        <v>0.6199545565080473</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4568498860269451</v>
+        <v>0.4572103499824385</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2247812288762898</v>
+        <v>-0.2243539472739651</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.739512852326491</v>
+        <v>-0.7389684891578235</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5347921892814075</v>
+        <v>-0.5353408744728742</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1909625864402928</v>
+        <v>0.1905047800462823</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.594925148372424</v>
+        <v>1.593979923601702</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5211722132594852</v>
+        <v>0.5198694805418669</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3856124914873363</v>
+        <v>0.3841123206518899</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06907160996629681</v>
+        <v>0.06835985565245729</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.783054396268138</v>
+        <v>0.7825544723142742</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8834698397398697</v>
+        <v>0.882801557570812</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.03038756726222797</v>
+        <v>-0.02937918944563888</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01563158262425778</v>
+        <v>0.01474309174240698</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3874933097480735</v>
+        <v>0.3879647410071775</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.405794598580989</v>
+        <v>1.404582253215862</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.877999536142617</v>
+        <v>1.878824773991208</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4371903650004231</v>
+        <v>0.4378577792646584</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2381027158471567</v>
+        <v>0.2393438918575818</v>
       </c>
     </row>
     <row r="118">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.669271138746289</v>
+        <v>-0.6691479360468418</v>
       </c>
     </row>
     <row r="119">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.015356897507929</v>
+        <v>2.01431418750206</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9051785732904775</v>
+        <v>0.9040971980827351</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259766864665397</v>
+        <v>1.259394288891714</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4006802492543958</v>
+        <v>0.4004373988132326</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1270200389108475</v>
+        <v>0.1277836824636465</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1994239372339263</v>
+        <v>0.2000425358111016</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636697373272114</v>
+        <v>1.636941950151273</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238809215558244</v>
+        <v>1.238447764474992</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.803331317962248</v>
+        <v>0.803458393805572</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5757506506639304</v>
+        <v>0.5766484437393051</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5817954954768884</v>
+        <v>0.5809830157552388</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07762146932447035</v>
+        <v>-0.07829191088605818</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9304608982539758</v>
+        <v>-0.9321000340517654</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3232792400208179</v>
+        <v>-0.3237121889869167</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1078649907711365</v>
+        <v>0.1076555521507081</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2312924720430091</v>
+        <v>-0.2303332290650332</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.855789355582332</v>
+        <v>0.8551746791825783</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4293405627911978</v>
+        <v>0.4289134665626674</v>
       </c>
     </row>
     <row r="137">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1.494009925010438</v>
+        <v>1.494402848661192</v>
       </c>
     </row>
     <row r="138">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.875559513266054</v>
+        <v>1.874957340420707</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3638222279243252</v>
+        <v>0.365043050015409</v>
       </c>
     </row>
     <row r="140">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1.011414712231539</v>
+        <v>1.01180496307923</v>
       </c>
     </row>
     <row r="141">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4187834150937197</v>
+        <v>0.4184257381580856</v>
       </c>
     </row>
     <row r="142">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5397039657371504</v>
+        <v>-0.5401181028450218</v>
       </c>
     </row>
     <row r="143">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944602001764885</v>
+        <v>0.6944963517071798</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01414735977481442</v>
+        <v>-0.01342418951673043</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4775391474654318</v>
+        <v>-0.4765728125486156</v>
       </c>
     </row>
     <row r="146">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1.107845186186343</v>
+        <v>1.108474830248467</v>
       </c>
     </row>
     <row r="147">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1930595822952993</v>
+        <v>0.1925609287458118</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.057691942823087</v>
+        <v>0.05733933720535448</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.515068982808114</v>
+        <v>0.5153171419847179</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2704942702445577</v>
+        <v>-0.2697141805250039</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1806448642992801</v>
+        <v>-0.1805392595143152</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4841650814605264</v>
+        <v>0.4833604976804165</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2685235073088165</v>
+        <v>-0.2684307913149042</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4521090571941847</v>
+        <v>-0.4517765753622795</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2947928745448201</v>
+        <v>-0.2956997519781662</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01052294221280827</v>
+        <v>0.009885946608688861</v>
       </c>
     </row>
     <row r="157">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1.107859956788937</v>
+        <v>1.107830542007227</v>
       </c>
     </row>
     <row r="158">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6961273247922605</v>
+        <v>0.6960345372297146</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2177063724390042</v>
+        <v>0.2178964559244771</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5479130378738492</v>
+        <v>0.5470455911405666</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08417547848079533</v>
+        <v>-0.08340648632022024</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6155359042733362</v>
+        <v>0.6147574010676428</v>
       </c>
     </row>
     <row r="163">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1.096201973244843</v>
+        <v>1.096987449930756</v>
       </c>
     </row>
     <row r="164">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8312468032559527</v>
+        <v>0.8321594828521391</v>
       </c>
     </row>
     <row r="165">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3104031449744699</v>
+        <v>-0.3093932843650699</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08338661201762652</v>
+        <v>0.08327947260267553</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5979370010079752</v>
+        <v>-0.5981475785684875</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1702440102934428</v>
+        <v>-0.1699458740024211</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3598182817234961</v>
+        <v>-0.3596329877634915</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.259800331775545</v>
+        <v>-0.2592839131805661</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2567789791084339</v>
+        <v>0.2567189495060979</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4796814509130657</v>
+        <v>0.4793477946631867</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3453668969508511</v>
+        <v>-0.3459016480200642</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617194882551499</v>
+        <v>-0.7617303995610702</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2720801982850491</v>
+        <v>0.2707466770596818</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.717639979037722</v>
+        <v>-0.7179535352632584</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.663984281268185</v>
+        <v>0.6638984489631298</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.03990468628678608</v>
+        <v>-0.04063015227092732</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5115209557118141</v>
+        <v>-0.5117360369065256</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4208934709975309</v>
+        <v>0.4203636659487016</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3426621840441231</v>
+        <v>0.3432009185085399</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2363653695734373</v>
+        <v>0.2369329882149268</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.546572591097842</v>
+        <v>-0.54646365170487</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266135682443991</v>
+        <v>1.266278442255064</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9935431440353455</v>
+        <v>0.9938065105374477</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8320489621271792</v>
+        <v>0.8321873183541293</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6808361192654432</v>
+        <v>0.6809917732008336</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3147796324805429</v>
+        <v>0.3150311236217507</v>
       </c>
     </row>
     <row r="189">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1.241675212607802</v>
+        <v>1.242909729259836</v>
       </c>
     </row>
     <row r="190">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4059334567754389</v>
+        <v>0.4061785476174113</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4855267764166466</v>
+        <v>0.4873375373505311</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5497296327890326</v>
+        <v>0.5509485316885893</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.671436886000829</v>
+        <v>0.6707763928770818</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8028602514983977</v>
+        <v>0.802300252945318</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2310055832661544</v>
+        <v>0.2313329568935938</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2860989227933159</v>
+        <v>0.2859026013433484</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.006272208471540538</v>
+        <v>-0.005195507847608664</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4575065066856602</v>
+        <v>0.4570302021040157</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1088528205420593</v>
+        <v>0.1092100555550438</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1068218506083701</v>
+        <v>0.1063823354370467</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.750267181777426</v>
+        <v>1.74941302604922</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09876967233746591</v>
+        <v>-0.09904284287765351</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2022434601478071</v>
+        <v>0.2019559002746234</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5711462707405204</v>
+        <v>0.5713453062800327</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472332409794619</v>
+        <v>0.4472811783083039</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.04312902498074395</v>
+        <v>-0.0434490785553336</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.52220546636331</v>
+        <v>1.521350541843111</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1076267450832298</v>
+        <v>0.1063175759660313</v>
       </c>
     </row>
     <row r="209">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4770043887354665</v>
+        <v>0.4773499353157805</v>
       </c>
     </row>
     <row r="210">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.291146377487341</v>
+        <v>1.291098702360617</v>
       </c>
     </row>
     <row r="211">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7410019654495887</v>
+        <v>0.740785601696527</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9810107134847029</v>
+        <v>0.9822278450454766</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07319176037485421</v>
+        <v>-0.07248439990829164</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5144578315081818</v>
+        <v>0.515265148552708</v>
       </c>
     </row>
     <row r="215">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.155610401703926</v>
+        <v>1.155360468175325</v>
       </c>
     </row>
     <row r="216">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7979546784351181</v>
+        <v>0.7973956208946739</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.38245172509599</v>
+        <v>1.383546637988027</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.375871848071379</v>
+        <v>0.3761240458367727</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2993494071548629</v>
+        <v>0.3002824440723182</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9440144580884386</v>
+        <v>0.9444141714986948</v>
       </c>
     </row>
     <row r="221">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.251188713893721</v>
+        <v>1.25160836845579</v>
       </c>
     </row>
     <row r="222">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1697960395005065</v>
+        <v>0.1691068297834283</v>
       </c>
     </row>
     <row r="223">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4522390132784253</v>
+        <v>0.4521795781690578</v>
       </c>
     </row>
     <row r="224">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1793576507352503</v>
+        <v>0.1790416035868161</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393990372440622</v>
+        <v>-0.4393038971968684</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.194716394069915</v>
+        <v>-0.1936520419150908</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2423901589673056</v>
+        <v>-0.2420637994531623</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3304685205158833</v>
+        <v>0.3305554400436923</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3152934256681654</v>
+        <v>0.3150962474104594</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6174878419289993</v>
+        <v>0.6175390801250421</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3028968627287859</v>
+        <v>0.3031068151622334</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3882277603241868</v>
+        <v>-0.3879487729585797</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1095709899142398</v>
+        <v>-0.109083560040875</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3372510549215064</v>
+        <v>0.3380670469099185</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5191626382019521</v>
+        <v>-0.5179219989783337</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.5822845831217359</v>
+        <v>-0.580623971024573</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6652648066596181</v>
+        <v>-0.6653045435900723</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2760823343403425</v>
+        <v>0.2755446441549302</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09350534814612921</v>
+        <v>-0.09356741866255454</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.491146366344612</v>
+        <v>0.4898909631834982</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4652658819931861</v>
+        <v>0.4654302809730393</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7904651523587425</v>
+        <v>0.7897164316926056</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.176281995370192</v>
+        <v>1.175855476503142</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.605421127752932</v>
+        <v>-0.6043992039610516</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5600975102771685</v>
+        <v>-0.5618963338695037</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2481590357463445</v>
+        <v>-0.2487572798561941</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4078750577389837</v>
+        <v>-0.4079210252512112</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8585934048709506</v>
+        <v>-0.8592273716059071</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1308724990571387</v>
+        <v>0.1295309348368796</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684981187756573</v>
+        <v>1.684458976843192</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243344935272311</v>
+        <v>1.241680481394241</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7990402982156174</v>
+        <v>0.798136332865193</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2734761491726928</v>
+        <v>0.2738224171855949</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7308055454760506</v>
+        <v>0.7310637567818898</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5182172943500541</v>
+        <v>0.5181578203452153</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5487209010603303</v>
+        <v>0.5493671374822606</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5324016725990279</v>
+        <v>0.5311015059982822</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5196549168691493</v>
+        <v>0.5206505186597671</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7818312407813196</v>
+        <v>0.7819090585916535</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.220193521720722</v>
+        <v>-0.2199125561944135</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6828877471756508</v>
+        <v>-0.6825450723553538</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4300892872463615</v>
+        <v>-0.4320397123256391</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7378907108448803</v>
+        <v>0.7381984342355541</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9825986037701944</v>
+        <v>-0.9814569954783356</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1983744560088614</v>
+        <v>-0.1987137458810312</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01203912260445516</v>
+        <v>-0.01026676706633177</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.126351838397035</v>
+        <v>-0.1273101127490102</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04612901830433379</v>
+        <v>-0.04562444870163048</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6102267187566818</v>
+        <v>0.609885639430371</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03100457562747454</v>
+        <v>-0.03196934082979951</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8342505761101917</v>
+        <v>-0.8338970833695296</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.573276639956069</v>
+        <v>0.5720523694642148</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7269739735353823</v>
+        <v>-0.7281250825624341</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6532841978960964</v>
+        <v>-0.6547943241486833</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2094022587384082</v>
+        <v>-0.2096085984089623</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.01872380335107</v>
+        <v>-1.017694928264899</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3382086830526346</v>
+        <v>0.3386146531593561</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1079020252515421</v>
+        <v>0.1091877467523661</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4085764028596672</v>
+        <v>-0.4075383724200717</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09825908519340347</v>
+        <v>-0.09788215395641292</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6479918360718032</v>
+        <v>-0.6477991867086873</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03001192517681804</v>
+        <v>-0.03008175846631895</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5058536464327041</v>
+        <v>-0.5057679551327958</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3365025093590681</v>
+        <v>-0.3368208816213279</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.27687517631208</v>
+        <v>-1.277751513186489</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08483268622315165</v>
+        <v>-0.08596337202100288</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04936876814401397</v>
+        <v>-0.04909568881576547</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2110388126060093</v>
+        <v>-0.2113861539028618</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.634316879986511</v>
+        <v>0.6350387880363112</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.516807716001742</v>
+        <v>1.517103559386691</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.703569133448172</v>
+        <v>0.7047329567725938</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.05728020767144328</v>
+        <v>0.0582845385641408</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8463407018535811</v>
+        <v>0.8461792162208343</v>
       </c>
     </row>
     <row r="294">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1.08379818312987</v>
+        <v>1.084173971314589</v>
       </c>
     </row>
     <row r="295">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.625730127304546</v>
+        <v>1.626729863957479</v>
       </c>
     </row>
     <row r="296">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6038460337639392</v>
+        <v>0.6033325760166185</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4733412248577619</v>
+        <v>0.4745176252693811</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4572796062680379</v>
+        <v>0.4569722800616953</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1092652005267319</v>
+        <v>0.1099094550277269</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2074842424277877</v>
+        <v>-0.206501850007268</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8417707105822351</v>
+        <v>0.8410406434955751</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.6901352259898222</v>
+        <v>0.690185882277729</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2627771687700262</v>
+        <v>-0.2615693898736401</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2219777881785387</v>
+        <v>-0.2231193381649284</v>
       </c>
     </row>
     <row r="305">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>1.06246511842985</v>
+        <v>1.062243973254641</v>
       </c>
     </row>
     <row r="306">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>1.380826865312531</v>
+        <v>1.379925339850375</v>
       </c>
     </row>
     <row r="307">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.1584140558939767</v>
+        <v>-0.159315903879018</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.355819845166679</v>
+        <v>-1.354662303160604</v>
       </c>
     </row>
     <row r="309">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.408173671190045</v>
+        <v>-1.409032808654233</v>
       </c>
     </row>
     <row r="310">
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.2941912025992812</v>
+        <v>-0.2948431582857483</v>
       </c>
     </row>
     <row r="311">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.119923722372707</v>
+        <v>-1.11970128633463</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.008155833473292858</v>
+        <v>-0.007930611771985292</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1698014522089222</v>
+        <v>-0.1696027421151909</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1317341861092867</v>
+        <v>0.1320262613473943</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7603990264621305</v>
+        <v>-0.7599128440885259</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.464484420326452</v>
+        <v>-0.4645632053608456</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.023980999813414</v>
+        <v>-1.024270087899946</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2981797502665554</v>
+        <v>-0.2966181145850112</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3610405567208394</v>
+        <v>-0.3609886807825013</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03788412261516604</v>
+        <v>0.03653356475336798</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.7330175438684141</v>
+        <v>0.731946443229451</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.2104956651773384</v>
+        <v>-0.211841061678872</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8016006939176638</v>
+        <v>-0.8013445972259755</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2518781256791556</v>
+        <v>0.2532738928462448</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02723822093129201</v>
+        <v>0.02722553960941359</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3228233078994063</v>
+        <v>0.3230021703579311</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4350767406367848</v>
+        <v>0.4352205036759594</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5947406214296332</v>
+        <v>-0.5938755091674831</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1181731949201562</v>
+        <v>0.1180314161922377</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8117090431373886</v>
+        <v>0.8115427000597677</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4609501598143996</v>
+        <v>0.4620809497858009</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4884586267841338</v>
+        <v>0.4886286138625445</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1769551110182052</v>
+        <v>-0.1776518728208686</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7724044753677538</v>
+        <v>-0.7719154473787817</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8106251315685016</v>
+        <v>-0.8115356608133846</v>
       </c>
     </row>
     <row r="336">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>0.6235387682443363</v>
+        <v>0.6236226094286773</v>
       </c>
     </row>
     <row r="337">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8517696854975065</v>
+        <v>0.8520342988296201</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9779114344848377</v>
+        <v>0.9776526016712148</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2194927533513421</v>
+        <v>-0.2193469093120906</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.0463378425560197</v>
+        <v>0.04699817761404405</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6503613275617203</v>
+        <v>-0.6507537702110795</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9742462105255731</v>
+        <v>0.9741882285890083</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.65728194061014</v>
+        <v>0.6571040383183562</v>
       </c>
     </row>
     <row r="344">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>1.026791421332152</v>
+        <v>1.026385035687686</v>
       </c>
     </row>
     <row r="345">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1941028239366528</v>
+        <v>0.1944295967765214</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3122050839358794</v>
+        <v>0.3131377139781054</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077272080999812</v>
+        <v>1.077723843246217</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5225700937321536</v>
+        <v>0.5228264088169224</v>
       </c>
     </row>
     <row r="349">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>1.153311740547925</v>
+        <v>1.153689266748303</v>
       </c>
     </row>
     <row r="350">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1.129286533677379</v>
+        <v>1.129330683969692</v>
       </c>
     </row>
     <row r="351">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1288547119065017</v>
+        <v>0.1295045794584164</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07100915000866584</v>
+        <v>0.07209004504959372</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3717930573108326</v>
+        <v>0.3698251665464095</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4884420045909078</v>
+        <v>0.4870067665604993</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5035126444453709</v>
+        <v>0.5021064338769455</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.03149796300181404</v>
+        <v>-0.0309004160459023</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.23373792814766</v>
+        <v>-0.2343564768841652</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.4873337332391</v>
+        <v>1.48636801257304</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9162402447767602</v>
+        <v>0.9159518108130251</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5243156957362362</v>
+        <v>0.523554211681166</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3363181981198439</v>
+        <v>0.3359790642889393</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09793440317623471</v>
+        <v>0.09906337514511437</v>
       </c>
     </row>
     <row r="363">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.1516694331809953</v>
+        <v>-0.1514642455040099</v>
       </c>
     </row>
     <row r="364">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1163656861625256</v>
+        <v>0.1169717578817817</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6526463554260283</v>
+        <v>-0.6522871020712092</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4455837699831202</v>
+        <v>-0.4449598620975433</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2204097989528638</v>
+        <v>0.2205412768234191</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4695860311095715</v>
+        <v>0.4690837407159182</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2840224550422421</v>
+        <v>-0.2845978774251981</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8520169669587095</v>
+        <v>-0.8521575885168097</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2098157542800448</v>
+        <v>0.2087640555172131</v>
       </c>
     </row>
     <row r="372">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>0.2362065616718586</v>
+        <v>0.2365146008019298</v>
       </c>
     </row>
     <row r="373">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.231739315287055</v>
+        <v>-0.2325118349521789</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03039539833928009</v>
+        <v>-0.03029035646786159</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1342810131400521</v>
+        <v>-0.1343584377058835</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6728400077236719</v>
+        <v>-0.6722550549015446</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.36948173913728</v>
+        <v>-0.3698812735729539</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1624194416322792</v>
+        <v>0.1632624044079394</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9321519853447998</v>
+        <v>-0.9310185108221092</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.6568569812329167</v>
+        <v>-0.656779348186973</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3357897563839277</v>
+        <v>0.3346334005133872</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1514675885913141</v>
+        <v>0.1506490351777661</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2136672485741181</v>
+        <v>0.2128815060673055</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09282455809196068</v>
+        <v>0.09308455177838539</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4872106586106028</v>
+        <v>0.4863703132341206</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1663229501397814</v>
+        <v>0.1665728141634368</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3078261184772298</v>
+        <v>0.3075038478045564</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.064612080795984</v>
+        <v>1.063481321288406</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9403681248004246</v>
+        <v>0.9418398077910197</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2100679724913345</v>
+        <v>-0.2096913468809417</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4842587057418345</v>
+        <v>0.4846327867896767</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5806224300934867</v>
+        <v>0.5820659518698265</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418427278314635</v>
+        <v>-0.1418618049183978</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.715439527572908</v>
+        <v>0.7145695243334675</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5512227313734677</v>
+        <v>-0.5509461427258948</v>
       </c>
     </row>
     <row r="396">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>1.160694075365812</v>
+        <v>1.160521769993511</v>
       </c>
     </row>
     <row r="397">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.09366388233170095</v>
+        <v>0.09422276302422478</v>
       </c>
     </row>
     <row r="398">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1940168188032359</v>
+        <v>-0.1933747595525814</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001658786022773346</v>
+        <v>0.001820718624153593</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4226481687583684</v>
+        <v>-0.4216175502985582</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09178347772295239</v>
+        <v>0.09219578390239934</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2813959513830247</v>
+        <v>0.2811380390783172</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5115341322736411</v>
+        <v>-0.5112969954853578</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3847476237348635</v>
+        <v>-0.3854161813974731</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.49880729988039</v>
+        <v>0.4985703361704535</v>
       </c>
     </row>
     <row r="406">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="n">
-        <v>1.234222753113138</v>
+        <v>1.234476175181013</v>
       </c>
     </row>
     <row r="407">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1130966550777178</v>
+        <v>-0.1125190877706789</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4822656225059053</v>
+        <v>-0.4828021840576834</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.307333624064391</v>
+        <v>-0.306943714649261</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2023658220693335</v>
+        <v>0.2027293030602764</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3154311561727208</v>
+        <v>-0.3151219454056937</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2352434898409831</v>
+        <v>-0.2356578882504761</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4581834136277325</v>
+        <v>-0.4585696826996711</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.0520805667185939</v>
+        <v>-0.05208465104864605</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5073817231717805</v>
+        <v>-0.5059209281188828</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3440252214707673</v>
+        <v>0.3452492355019262</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1096607652011237</v>
+        <v>0.1100799338923705</v>
       </c>
     </row>
     <row r="418">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.1632832883351618</v>
+        <v>-0.1628403614443555</v>
       </c>
     </row>
     <row r="419">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9584103044955294</v>
+        <v>0.9592794088992674</v>
       </c>
     </row>
     <row r="420">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5036129435699004</v>
+        <v>0.5037122730535839</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5442171468670702</v>
+        <v>0.5440872254805649</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267894150810871</v>
+        <v>1.267692837192011</v>
       </c>
     </row>
     <row r="423">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1.199666351482235</v>
+        <v>1.200402453506712</v>
       </c>
     </row>
     <row r="424">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3777834349133675</v>
+        <v>0.3783989268766664</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4894649098216041</v>
+        <v>-0.4890233145731582</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259128618608331</v>
+        <v>-0.2259213909391802</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3473078838757004</v>
+        <v>0.3476512004861406</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5342447621283929</v>
+        <v>-0.5350572058832015</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.8365382668289905</v>
+        <v>-0.836204069522346</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4152289136580218</v>
+        <v>0.4147535625672172</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8677273106513786</v>
+        <v>-0.8679107572127378</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.737763732052785</v>
+        <v>-0.7388921550391123</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.141539318792883</v>
+        <v>-0.1418331480483573</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5419092337017151</v>
+        <v>0.5418744660419561</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2706487209059636</v>
+        <v>0.2703038339345204</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7782835417461056</v>
+        <v>-0.7776505621149998</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3078296832684931</v>
+        <v>0.3073401319999458</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6504127478321259</v>
+        <v>0.6509150441179296</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3800700651542434</v>
+        <v>-0.3787050648618897</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.778080820696142</v>
+        <v>-0.7779437099728426</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1161052704736839</v>
+        <v>-0.1164476030197325</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0004226277017159941</v>
+        <v>-0.0007435196313498871</v>
       </c>
     </row>
     <row r="443">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0.4568704058334053</v>
+        <v>0.456847269356334</v>
       </c>
     </row>
     <row r="444">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4598798658932031</v>
+        <v>-0.4591722693978777</v>
       </c>
     </row>
     <row r="445">
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>-0.4964556709544587</v>
+        <v>-0.4962408120175005</v>
       </c>
     </row>
     <row r="446">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07680828056508046</v>
+        <v>-0.07701070671651186</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.273214408662906</v>
+        <v>-0.2738463450157873</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1207084469330911</v>
+        <v>0.1213691546130632</v>
       </c>
     </row>
     <row r="449">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0.5689128308068079</v>
+        <v>-0.5687880196745534</v>
       </c>
     </row>
     <row r="450">
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.3168519020925401</v>
+        <v>-0.3169345199751482</v>
       </c>
     </row>
     <row r="451">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1801960491798976</v>
+        <v>-0.1797513212101688</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132242894541847</v>
+        <v>-0.2132864375268744</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.767120359203124</v>
+        <v>-0.766516799206738</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9390300341082303</v>
+        <v>-0.9389940781299637</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04834356928511165</v>
+        <v>-0.04734241335304615</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4563618430993188</v>
+        <v>-0.4554892442868393</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.566556577057219</v>
+        <v>-0.5657256763418828</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104590173836604</v>
+        <v>-0.2104380242317</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03855201569078347</v>
+        <v>0.03802532277938074</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03057872435401377</v>
+        <v>0.03027216535067769</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2124968651040141</v>
+        <v>0.2119797075331443</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9815733315757676</v>
+        <v>0.9818351328768081</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.003834953916282</v>
+        <v>1.001808440313824</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5811807539257593</v>
+        <v>0.5809612516121806</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2485440790994778</v>
+        <v>0.2488910681274142</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6838452167150132</v>
+        <v>0.6844864793817205</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2665372291639103</v>
+        <v>-0.2652546018314612</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.7519787739782635</v>
+        <v>0.75235663407103</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1453409716731341</v>
+        <v>-0.1447679123601724</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2880439652167694</v>
+        <v>-0.2882646005388394</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6252522281300752</v>
+        <v>0.6246029843987698</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7352638743860319</v>
+        <v>0.7351669756107484</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3042020202211712</v>
+        <v>-0.3038914433599963</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5969150629530861</v>
+        <v>-0.59594541237183</v>
       </c>
     </row>
     <row r="475">
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>0.5397295931078189</v>
+        <v>0.5401909031848281</v>
       </c>
     </row>
     <row r="476">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1.164954878204673</v>
+        <v>1.166044539902678</v>
       </c>
     </row>
     <row r="477">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.387989253902985</v>
+        <v>-0.3877432292776335</v>
       </c>
     </row>
     <row r="478">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1.210974204696883</v>
+        <v>1.211816967381913</v>
       </c>
     </row>
     <row r="479">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.2705452530313778</v>
+        <v>-0.269851230846752</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7004138435869048</v>
+        <v>-0.7009361380604899</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.1313173545704845</v>
+        <v>-0.131096168981001</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3098485099504964</v>
+        <v>0.3109636387359866</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1527927141593329</v>
+        <v>-0.1533399347578421</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2632181695815</v>
+        <v>0.2623079236752157</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02411326357346251</v>
+        <v>0.02524565946975078</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5289451308579087</v>
+        <v>-0.5274568044895896</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5363395216419958</v>
+        <v>-0.5359694434098501</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1827615548594647</v>
+        <v>-0.1823426147976348</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5786219481261312</v>
+        <v>0.5793985479631556</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.4096989901148353</v>
+        <v>-0.409641901782514</v>
       </c>
     </row>
     <row r="491">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0.2866494772615465</v>
+        <v>0.2858898197033254</v>
       </c>
     </row>
     <row r="492">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.7338861918488989</v>
+        <v>-0.733212313316241</v>
       </c>
     </row>
     <row r="493">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.2537365154432671</v>
+        <v>-0.2538934534291249</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8470922374296246</v>
+        <v>-0.8464822464551753</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.487389386129381</v>
+        <v>-0.4875737500888953</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2182662330480848</v>
+        <v>-0.2184345064767399</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1415791899266743</v>
+        <v>-0.1406874484125051</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.016782303052091</v>
+        <v>-1.017599307212469</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.946085577518618</v>
+        <v>-0.9460200854639265</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9789162648091065</v>
+        <v>-0.9787505114544822</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7915336109071104</v>
+        <v>-0.7923576851080429</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962255282494321</v>
+        <v>-0.3962523488627638</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4941759640659603</v>
+        <v>-0.4944959979070172</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5189347433799706</v>
+        <v>-0.5197241823362977</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3323721604822556</v>
+        <v>0.3317744659768921</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4200305380807766</v>
+        <v>0.4204760958337452</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.841751861452992</v>
+        <v>-0.8398993900179548</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2085941358499497</v>
+        <v>-0.2083593257082864</v>
       </c>
     </row>
     <row r="509">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>1.097441044727021</v>
+        <v>1.097937690560427</v>
       </c>
     </row>
     <row r="510">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="E510" t="n">
-        <v>0.3661677475355865</v>
+        <v>0.3651558903375003</v>
       </c>
     </row>
     <row r="511">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.1449060542937914</v>
+        <v>0.143899358476966</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.1450756234545588</v>
+        <v>-0.1454160770552301</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02430150783898759</v>
+        <v>0.02415778791166578</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2141722359495785</v>
+        <v>-0.2132839191872082</v>
       </c>
     </row>
     <row r="515">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-0.3979997038182126</v>
+        <v>-0.3983201646945974</v>
       </c>
     </row>
     <row r="516">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07368788495678466</v>
+        <v>-0.07433101672803101</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5685835321917129</v>
+        <v>0.5684557408887775</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03657670361422533</v>
+        <v>0.03601207059973398</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09161335343381953</v>
+        <v>0.09055841273260391</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.2098420392234102</v>
+        <v>0.209556657996652</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.5362837035210719</v>
+        <v>0.535380940368953</v>
       </c>
     </row>
     <row r="522">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1.360487995658713</v>
+        <v>1.36137015184313</v>
       </c>
     </row>
     <row r="523">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1.238886414746231</v>
+        <v>1.239317576319415</v>
       </c>
     </row>
     <row r="524">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.391958452698787</v>
+        <v>0.3929315004102719</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1988634670360475</v>
+        <v>0.1978395409411583</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3165929508228773</v>
+        <v>0.3162717322847261</v>
       </c>
     </row>
     <row r="527">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>1.307066647285005</v>
+        <v>1.306975903718831</v>
       </c>
     </row>
     <row r="528">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.625462109722672</v>
+        <v>0.6254877672371341</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290548367641706</v>
+        <v>1.290879182762504</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06452858862810656</v>
+        <v>-0.06477828628865551</v>
       </c>
     </row>
     <row r="531">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>1.111830979588875</v>
+        <v>1.112615153946081</v>
       </c>
     </row>
     <row r="532">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.330736370068567</v>
+        <v>1.33165200919176</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1942587867066944</v>
+        <v>0.1948964998847972</v>
       </c>
     </row>
     <row r="534">
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>1.536372040557839</v>
+        <v>1.536744143846531</v>
       </c>
     </row>
     <row r="535">
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>1.1116130111161</v>
+        <v>1.111635126338139</v>
       </c>
     </row>
     <row r="536">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04382063701818344</v>
+        <v>0.04480485526288226</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415689231233978</v>
+        <v>0.4415145856438388</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4847739850459007</v>
+        <v>0.4845754758747046</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1540561558109309</v>
+        <v>-0.1543519891659511</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3332428055058255</v>
+        <v>-0.3322600505778484</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3696549746100374</v>
+        <v>0.3697290898301054</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278400510771491</v>
+        <v>1.278141156712187</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1272707430839101</v>
+        <v>-0.1270257110304666</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7561379693914625</v>
+        <v>0.7566042852018895</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4264655737048048</v>
+        <v>0.4266158267404604</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.00706577712856347</v>
+        <v>0.006582180023702294</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3188256153883764</v>
+        <v>0.3179282617541018</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.260161983589732</v>
+        <v>-1.26030193967547</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.0516185741356695</v>
+        <v>0.05172642301043198</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.09315780273030753</v>
+        <v>0.0940843426304319</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1113605434265207</v>
+        <v>0.1118821517995147</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01549678316813616</v>
+        <v>-0.01592801401913631</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1077671882704243</v>
+        <v>0.1081428988741587</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1289118659189185</v>
+        <v>-0.1292067131078942</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.513971140711844</v>
+        <v>-0.5134149810596537</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4846064951047713</v>
+        <v>0.4853355340017446</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2218177797213626</v>
+        <v>0.2217176204716984</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8456962736686784</v>
+        <v>0.8451822965532343</v>
       </c>
     </row>
     <row r="559">
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>0.4649406316706276</v>
+        <v>0.465436520606521</v>
       </c>
     </row>
     <row r="560">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4259082468831191</v>
+        <v>0.4263722257638683</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6286824912702106</v>
+        <v>-0.6290890928287606</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688841098869495</v>
+        <v>1.688644290572124</v>
       </c>
     </row>
     <row r="563">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1.289823033766163</v>
+        <v>1.290383659317222</v>
       </c>
     </row>
     <row r="564">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08660742075500102</v>
+        <v>-0.08690422913801805</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.432526618262047</v>
+        <v>0.4329550205022245</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4548496534248537</v>
+        <v>-0.4540835576435093</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2549791407599354</v>
+        <v>-0.2545116533655504</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3968992995910963</v>
+        <v>0.3970859226035242</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5816287673067672</v>
+        <v>-0.5830646355653493</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.5887789751757393</v>
+        <v>-0.589151120059101</v>
       </c>
     </row>
     <row r="571">
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>1.135143125890596</v>
+        <v>1.135770489925495</v>
       </c>
     </row>
     <row r="572">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.21776640886101</v>
+        <v>2.217013255921124</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.49254459514361</v>
+        <v>0.4926538249320694</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.18628772938265</v>
+        <v>-0.1863688996613099</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1379232593771584</v>
+        <v>-0.1383842566874292</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.3104902220405037</v>
+        <v>-0.309725192221694</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.4501672896466447</v>
+        <v>-0.450644916159455</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.249924480196403</v>
+        <v>-0.2494074790813056</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06520667679771507</v>
+        <v>0.06508517456657838</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1981208372104835</v>
+        <v>-0.1987697902643595</v>
       </c>
     </row>
     <row r="581">
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.5844156375320326</v>
+        <v>-0.5847783899099128</v>
       </c>
     </row>
     <row r="582">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5475462847698837</v>
+        <v>-0.5481397617431613</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4268474277701383</v>
+        <v>0.4265979101957768</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4955804694052741</v>
+        <v>-0.4950057188496796</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5705180194314382</v>
+        <v>0.5696556189414304</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6529504914055423</v>
+        <v>-0.6540476857637547</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4027794993340558</v>
+        <v>-0.4037858986785512</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.055603935305503</v>
+        <v>1.054867358558214</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1622759691666855</v>
+        <v>-0.1619828513105788</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3903587294806534</v>
+        <v>-0.3908357544855447</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2445628560453339</v>
+        <v>0.2447314515029461</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2089082828427667</v>
+        <v>0.2089144462525783</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8881771816354662</v>
+        <v>0.8867055464252264</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07283320618231118</v>
+        <v>-0.07234751659566276</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1665482963807884</v>
+        <v>0.1679808229024521</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5951970466790487</v>
+        <v>0.5951194701054555</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2822862421673697</v>
+        <v>0.2817122260801192</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5032896375735191</v>
+        <v>0.5053098389294971</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.8071964991005268</v>
+        <v>0.807741884630034</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6746753362207231</v>
+        <v>0.6753016174216798</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6116968601004189</v>
+        <v>0.6118341551393025</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4499846188633308</v>
+        <v>0.4504189542174462</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3178579003951534</v>
+        <v>-0.3170881331838259</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.109962994156371</v>
+        <v>-0.1100429016968454</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4936436734012046</v>
+        <v>-0.4937665674650864</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.08995719607143755</v>
+        <v>0.09139522538410495</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068935517611211</v>
+        <v>-1.068210565751971</v>
       </c>
     </row>
     <row r="608">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="n">
-        <v>-1.21170661386991</v>
+        <v>-1.213024598899868</v>
       </c>
     </row>
     <row r="609">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8965889401953775</v>
+        <v>-0.8962752808964098</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1167615591146578</v>
+        <v>-0.1165691874877158</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7836275115166939</v>
+        <v>-0.7841984430534604</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5735258737646716</v>
+        <v>-0.5728768385223304</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5294411453833437</v>
+        <v>-0.5289615258321383</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9053540728598437</v>
+        <v>-0.9049959327998356</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5274631089711679</v>
+        <v>-0.5272290121880724</v>
       </c>
     </row>
     <row r="616">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>-0.2829199204606709</v>
+        <v>-0.2829009939651402</v>
       </c>
     </row>
     <row r="617">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01210764412980417</v>
+        <v>-0.01221096322245616</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9063734039952938</v>
+        <v>-0.9068089560436965</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.1272932517034954</v>
+        <v>0.127418582617775</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.336563011290495</v>
+        <v>-0.337056849713139</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.1374696772070113</v>
+        <v>0.138209952553533</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3837042027945105</v>
+        <v>-0.3831721038887272</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.022969518285012</v>
+        <v>-1.0219278765758</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8766836291590639</v>
+        <v>-0.8772104494828951</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1824659627560216</v>
+        <v>0.1820819155474011</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2975392712453932</v>
+        <v>0.2974945233302714</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06925429659042762</v>
+        <v>-0.06905788124093822</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.5590103101321463</v>
+        <v>-0.559109951031772</v>
       </c>
     </row>
     <row r="629">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-0.5686292116565338</v>
+        <v>-0.5691516399422276</v>
       </c>
     </row>
     <row r="630">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9263883016273777</v>
+        <v>-0.9264374431973654</v>
       </c>
     </row>
     <row r="631">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>-0.3417487160040847</v>
+        <v>-0.3420950262412475</v>
       </c>
     </row>
     <row r="632">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.02110131575321</v>
+        <v>-1.021069320720699</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2783464702276812</v>
+        <v>0.2795709960812285</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.814661087172574</v>
+        <v>0.8147589341925944</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1350988690546664</v>
+        <v>0.1354053354546974</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.5628371941436343</v>
+        <v>0.563581944988613</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5528864054225185</v>
+        <v>0.5525331356659597</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2337879088107437</v>
+        <v>0.2338069037623381</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08473115352602252</v>
+        <v>0.08388709050848683</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.0950695131234312</v>
+        <v>0.0949352077787194</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.2734018100150221</v>
+        <v>-0.272827435649833</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2500197636885169</v>
+        <v>-0.2506360992811273</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3034611366697249</v>
+        <v>-0.3037223877887869</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4682729195599091</v>
+        <v>0.4699269272898634</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.11021298639248</v>
+        <v>0.1087446242027556</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.9440169561060796</v>
+        <v>-0.943294489266247</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7668189785647281</v>
+        <v>-0.7673997050746212</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.6518041596186143</v>
+        <v>-0.652858571681776</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.6978094847037215</v>
+        <v>-0.699195030773573</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3825326597748803</v>
+        <v>-0.3824266266288167</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3029191706538119</v>
+        <v>-0.3028139064510573</v>
       </c>
     </row>
     <row r="652">
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1.265120297479401</v>
+        <v>1.265027106367972</v>
       </c>
     </row>
     <row r="653">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3801346939347515</v>
+        <v>-0.3798854532768446</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.783638420369321</v>
+        <v>1.784797535999461</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234376408043702</v>
+        <v>1.234341919382495</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2382849695340316</v>
+        <v>-0.2382564618337754</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3920079015329156</v>
+        <v>0.3929392867680011</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.0353770576719975</v>
+        <v>0.03536539597103548</v>
       </c>
     </row>
     <row r="659">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1.194637967591189</v>
+        <v>1.194839214217857</v>
       </c>
     </row>
     <row r="660">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9109300543193825</v>
+        <v>0.9107809093383413</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2257099598830118</v>
+        <v>-0.2263549878246147</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3784081357093702</v>
+        <v>0.3782397621801005</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.278965912426661</v>
+        <v>-0.2800343490886835</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2541476514843972</v>
+        <v>-0.2537759118966194</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2696243213415144</v>
+        <v>-0.2681027139734262</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.4412415960865955</v>
+        <v>-0.440584416295569</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.009059919545776323</v>
+        <v>0.00751483554653127</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8866204159461314</v>
+        <v>-0.8870575465794303</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.2865826867230792</v>
+        <v>-0.287748996934431</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.5873959024408603</v>
+        <v>0.58606792678431</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1002318371555659</v>
+        <v>-0.1010108361506484</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.866961580973768</v>
+        <v>0.8668368423866288</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084620268973702</v>
+        <v>0.2084500918085173</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3670357258053485</v>
+        <v>-0.3683557911146728</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2461153160457189</v>
+        <v>0.2462964218438835</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4501934998848932</v>
+        <v>0.4495975444611012</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2862455075408475</v>
+        <v>-0.2864744452810645</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7462071029087116</v>
+        <v>-0.7460654345119826</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5257082074140044</v>
+        <v>-0.5263880829168537</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.03148259375354689</v>
+        <v>0.030511984398734</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7977996030786091</v>
+        <v>0.7976436198978711</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7366891442537226</v>
+        <v>0.7364640466379169</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.1142429230016484</v>
+        <v>-0.11384860443654</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02203081179170433</v>
+        <v>-0.02250121377501097</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5858738255841355</v>
+        <v>0.5854644696181761</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.024904034880183</v>
+        <v>0.02588824049707055</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7406755890901405</v>
+        <v>-0.7404194216450543</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04097177588697098</v>
+        <v>-0.04154496730927245</v>
       </c>
     </row>
     <row r="689">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>0.4076694898224214</v>
+        <v>0.4075777347447291</v>
       </c>
     </row>
     <row r="690">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2737678332744655</v>
+        <v>0.2720167983920161</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.173923186612176</v>
+        <v>1.17388603946693</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.0118171417559463</v>
+        <v>-0.01152614876963967</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2125058516761556</v>
+        <v>0.2114759993731962</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7039473738285201</v>
+        <v>-0.7032047132195351</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3859149199910159</v>
+        <v>-0.3855111825874111</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2782440073980614</v>
+        <v>0.2793282862267928</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2652889299595664</v>
+        <v>0.2663731116110262</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2840817626837661</v>
+        <v>-0.2845012833277414</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03693516627757925</v>
+        <v>0.03702236623870688</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03454285890278223</v>
+        <v>-0.03542336397771254</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5081785912104905</v>
+        <v>-0.5092947833866696</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4306543276290432</v>
+        <v>-0.4319105023391647</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2343357964675752</v>
+        <v>0.2346137440397498</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2242047216697227</v>
+        <v>0.2243963379357606</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01112409235907342</v>
+        <v>-0.01053163555230667</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2350192762729238</v>
+        <v>0.2351287745498704</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3090732636387579</v>
+        <v>-0.3093525307511301</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1315056887845413</v>
+        <v>0.1314817068461915</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2448981843771574</v>
+        <v>0.2434895398737043</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2263246483563877</v>
+        <v>-0.2255276429000626</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.5216326059472275</v>
+        <v>0.522557824704056</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1397816239434483</v>
+        <v>-0.1390853991762315</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5159785975073732</v>
+        <v>0.5163645631881676</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5971428284234861</v>
+        <v>-0.5973126155803486</v>
       </c>
     </row>
     <row r="715">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9080948740936333</v>
+        <v>0.9078945496689733</v>
       </c>
     </row>
     <row r="716">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5325773241210677</v>
+        <v>0.5338891794743889</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.539362496529746</v>
+        <v>-0.5397646715412113</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.7972570883113941</v>
+        <v>-0.796584672216289</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2954957152383</v>
+        <v>0.2950516013369058</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4465280039585801</v>
+        <v>0.4469616297316231</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8686172797818927</v>
+        <v>-0.8684822672049225</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4750439436243005</v>
+        <v>-0.4746630802625994</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3708405546693527</v>
+        <v>-0.3714446374028717</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7759897235989938</v>
+        <v>-0.7757978633101322</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2945536805862639</v>
+        <v>0.2947475757152668</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.3252868479018632</v>
+        <v>0.324451012585648</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6971936693292491</v>
+        <v>-0.6971787066242238</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4173907413081815</v>
+        <v>-0.4178615536979383</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.881111536340298</v>
+        <v>0.8804304547427115</v>
       </c>
     </row>
     <row r="730">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E730" t="n">
-        <v>-1.402725442295094</v>
+        <v>-1.403827601692119</v>
       </c>
     </row>
     <row r="731">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4970422889762701</v>
+        <v>-0.4968615917077621</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.7114706561105987</v>
+        <v>-0.712275340717454</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4300216068832192</v>
+        <v>-0.4304389318345913</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1954948726158131</v>
+        <v>-0.1966385095566704</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3947492900866308</v>
+        <v>-0.3936476832187966</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5668192601236106</v>
+        <v>-0.5676214673710771</v>
       </c>
     </row>
     <row r="737">
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-0.7115417321482221</v>
+        <v>-0.7117597594997686</v>
       </c>
     </row>
     <row r="738">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.230297231054067</v>
+        <v>0.2285547587194701</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.170809243374671</v>
+        <v>0.1716117404958052</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.498305192181386</v>
+        <v>0.4998834374089013</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.155987934679629</v>
+        <v>-0.1577243838276236</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6680041475436692</v>
+        <v>-0.6688043439939173</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7195644066268012</v>
+        <v>0.7185274441651118</v>
       </c>
     </row>
     <row r="744">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2.034869258095982</v>
+        <v>2.034401909356963</v>
       </c>
     </row>
     <row r="745">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2411468555390957</v>
+        <v>0.2406064293351782</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08330018647650592</v>
+        <v>-0.08463056264328669</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.08949255468414208</v>
+        <v>0.09064142588063753</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.119372736956021</v>
+        <v>0.1190904097726155</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887643105916637</v>
+        <v>-0.3887338822425104</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.143405301761847</v>
+        <v>-1.144174807626094</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9857560655880583</v>
+        <v>-0.9868170691992494</v>
       </c>
     </row>
     <row r="752">
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>-1.099343012261552</v>
+        <v>-1.099400565623337</v>
       </c>
     </row>
     <row r="753">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9761674336628713</v>
+        <v>-0.9770711950847091</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1585873439645796</v>
+        <v>-0.1594011732666595</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.310352246023229</v>
+        <v>-1.31151643888243</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021135195871394</v>
+        <v>-1.021566289027473</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1478188970427595</v>
+        <v>-0.1481423141089874</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.7603166326727471</v>
+        <v>-0.760366387348317</v>
       </c>
     </row>
     <row r="759">
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-1.086828324891006</v>
+        <v>-1.087880991801566</v>
       </c>
     </row>
     <row r="760">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3929047806024246</v>
+        <v>-0.3939355337385911</v>
       </c>
     </row>
     <row r="761">
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>0.2262897148823556</v>
+        <v>0.2261011640502497</v>
       </c>
     </row>
     <row r="762">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9480931198590441</v>
+        <v>-0.9494416169475469</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3926242667444146</v>
+        <v>-0.3930827928103935</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4381040150228369</v>
+        <v>0.4383193193702843</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2112426023284607</v>
+        <v>-0.2102129220264148</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7248904926101714</v>
+        <v>0.7249933482839281</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8490845056210441</v>
+        <v>-0.8495347057127808</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03464890133474366</v>
+        <v>-0.03504369080113947</v>
       </c>
     </row>
     <row r="769">
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>-1.398718194400339</v>
+        <v>-1.398441189145606</v>
       </c>
     </row>
     <row r="770">
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>0.1966179489154341</v>
+        <v>0.1966857393885507</v>
       </c>
     </row>
     <row r="771">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.651718669034589</v>
+        <v>0.6513134902699218</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604022176628262</v>
+        <v>-0.2604655381604955</v>
       </c>
     </row>
     <row r="773">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-1.061683416944545</v>
+        <v>-1.061952679631414</v>
       </c>
     </row>
     <row r="774">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005136496195375176</v>
+        <v>-0.000277498608689208</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7978267402653412</v>
+        <v>0.7968186914327063</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5357241279340308</v>
+        <v>-0.5361506611712383</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7633879436699098</v>
+        <v>-0.7644354809869031</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274700875955817</v>
+        <v>-0.5274559932671086</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8512775922044883</v>
+        <v>0.8513309657466199</v>
       </c>
     </row>
     <row r="780">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6814940068121476</v>
+        <v>0.6818560693434446</v>
       </c>
     </row>
     <row r="781">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4324027395611724</v>
+        <v>0.4328212472327985</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.03491080974229428</v>
+        <v>0.0342533844302541</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08814902048392789</v>
+        <v>-0.08734219309863356</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.7883603771936718</v>
+        <v>-0.78811455364072</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.309274887619461</v>
+        <v>-0.3102123221345244</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.434923845348243</v>
+        <v>-0.4343477579411565</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7793700123937357</v>
+        <v>-0.7802293514661832</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.100850280148324</v>
+        <v>-1.10083801602448</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03743016366534557</v>
+        <v>0.03585356788699166</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07101418568372639</v>
+        <v>0.07085748510170356</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09696153469008095</v>
+        <v>0.09589691134277024</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2097310442482316</v>
+        <v>-0.2102533068033769</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1434056184939038</v>
+        <v>0.1431633319820867</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7842655423513126</v>
+        <v>0.7838518605747754</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01486444229730815</v>
+        <v>0.01479292833084993</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2595255265414808</v>
+        <v>0.2592316032785127</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.6365556598594787</v>
+        <v>-0.637509422341333</v>
       </c>
     </row>
     <row r="798">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>-0.5421716537020241</v>
+        <v>-0.5430712687305556</v>
       </c>
     </row>
     <row r="799">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8908229505942662</v>
+        <v>-0.8919444956811486</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05264927379322803</v>
+        <v>0.05264106596567911</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.006199730067996338</v>
+        <v>-0.005564181781241904</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01689811520061548</v>
+        <v>-0.01635862933692848</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5292343937944116</v>
+        <v>0.5290148689257372</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5927059575074715</v>
+        <v>0.5918956530859013</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2688685848209462</v>
+        <v>-0.2681802160929528</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2508082276665339</v>
+        <v>-0.2506160524638934</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3732504009459898</v>
+        <v>-0.3726027111252429</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02376425211916236</v>
+        <v>-0.02472329206219756</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1257270299241451</v>
+        <v>-0.1255278098529292</v>
       </c>
     </row>
     <row r="810">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="E810" t="n">
-        <v>0.1641870778631453</v>
+        <v>0.163829925809851</v>
       </c>
     </row>
     <row r="811">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2369070530204395</v>
+        <v>0.2362481366437747</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1152615748924378</v>
+        <v>-0.1161222773851719</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2672379628357739</v>
+        <v>0.2665394321152307</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8456759569493099</v>
+        <v>0.8466108134571187</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07320001893946458</v>
+        <v>0.07437695595073598</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1017789904725359</v>
+        <v>-0.1018825085753473</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8798089111212078</v>
+        <v>0.8799218074992016</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07997145504968041</v>
+        <v>-0.07865226590454948</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3386573165332435</v>
+        <v>-0.3383961265640426</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.9401133027711843</v>
+        <v>-0.939833569384051</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5611631485197762</v>
+        <v>0.5615229586345392</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2297362367274609</v>
+        <v>-0.2287186066184663</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.713122241514073</v>
+        <v>-1.712832164154041</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1647948309139643</v>
+        <v>0.1646758834970399</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4467325742813611</v>
+        <v>-0.4461422531366617</v>
       </c>
     </row>
     <row r="826">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>-1.336648526944376</v>
+        <v>-1.336551419143983</v>
       </c>
     </row>
     <row r="827">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1094911672126704</v>
+        <v>-0.1096137718635225</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3137015784183285</v>
+        <v>0.3136574330064487</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5847318965314472</v>
+        <v>0.5845300274574525</v>
       </c>
     </row>
     <row r="830">
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1.053961237044237</v>
+        <v>1.052696137364691</v>
       </c>
     </row>
     <row r="831">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-0.4479570612754905</v>
+        <v>-0.4486234171896341</v>
       </c>
     </row>
     <row r="832">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9026906932657068</v>
+        <v>-0.9013071160375579</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7568672063570209</v>
+        <v>-0.7563649533297016</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8131240296668908</v>
+        <v>-0.8129684810989809</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2276699462515729</v>
+        <v>0.2266617976688138</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4457354318323591</v>
+        <v>-0.4472861549023838</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1499239306147647</v>
+        <v>-0.1514896670883928</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04137240995314236</v>
+        <v>-0.04305861408652575</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1258415226827657</v>
+        <v>0.1255681639624735</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8534654548512915</v>
+        <v>-0.8521407273729431</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2542303740752502</v>
+        <v>-0.2546613262782776</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.8355803268372113</v>
+        <v>-0.835807176822796</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511266502723303</v>
+        <v>-0.7511449673722351</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2401890689948268</v>
+        <v>-0.2418534716671907</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6162824163574394</v>
+        <v>0.6146065254682519</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1510917158463491</v>
+        <v>0.1509319989694036</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8462045884607395</v>
+        <v>-0.8458113222912235</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5892644000973982</v>
+        <v>-0.5894933221318689</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4932883946384012</v>
+        <v>-0.4947561603435974</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.5783721145816084</v>
+        <v>-0.579490371927193</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2111601595611782</v>
+        <v>-0.2098857689369327</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5491606029825857</v>
+        <v>-0.5496413782793635</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.440828636628337</v>
+        <v>-0.4408153907201944</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2378557967525194</v>
+        <v>0.2377606102786744</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1280048109853022</v>
+        <v>0.1281952103672982</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9316653822368236</v>
+        <v>-0.9317769315198059</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4585198399263433</v>
+        <v>-0.4592538380750593</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.728431762161161</v>
+        <v>-0.7285995877474251</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.2633487626541415</v>
+        <v>-0.263820559041762</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7402150958297562</v>
+        <v>-0.7415491467334289</v>
       </c>
     </row>
     <row r="861">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1.036893143416747</v>
+        <v>1.03719944864426</v>
       </c>
     </row>
     <row r="862">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.3763817987233121</v>
+        <v>0.377200277155687</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4958908232592344</v>
+        <v>0.4951931800200944</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3171779202984394</v>
+        <v>0.3159671474438248</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07609030289496165</v>
+        <v>0.07445718630189171</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.03168422662536426</v>
+        <v>-0.031563361297002</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4108544724774004</v>
+        <v>-0.4104813692175673</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4947764060664988</v>
+        <v>-0.4956607463060274</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1192250363178051</v>
+        <v>0.1186200096090603</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8449227206259905</v>
+        <v>-0.8445281408651544</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.02316297365913</v>
+        <v>-1.023182197877886</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1326931706902221</v>
+        <v>-0.1317132845211264</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2455979391398298</v>
+        <v>-0.2451985889700769</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6543070864640176</v>
+        <v>-0.6540414986162818</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.205663147180076</v>
+        <v>-1.204795886727908</v>
       </c>
     </row>
     <row r="876">
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.8060443865606198</v>
+        <v>-0.8064380615949093</v>
       </c>
     </row>
     <row r="877">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.1894624020631145</v>
+        <v>-0.1895171659443003</v>
       </c>
     </row>
     <row r="878">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.189031499362437</v>
+        <v>-0.1897470859066369</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7443982928699876</v>
+        <v>-0.7442604679742801</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7116177880408354</v>
+        <v>-0.7118305082752391</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.007570274726949918</v>
+        <v>-0.008840775862884084</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6177518570427664</v>
+        <v>-0.6174819789649779</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410430256124793</v>
+        <v>-1.410458254944883</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9791334938559332</v>
+        <v>-0.9802057574925322</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08228966501783196</v>
+        <v>-0.08290014746463012</v>
       </c>
     </row>
     <row r="886">
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.857957798747799</v>
+        <v>-0.858952174268408</v>
       </c>
     </row>
     <row r="887">
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-1.304659332960686</v>
+        <v>-1.304572852312136</v>
       </c>
     </row>
     <row r="888">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223608021402524</v>
+        <v>-1.223711217683213</v>
       </c>
     </row>
     <row r="889">
@@ -15560,228 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.854230898163254</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B890" t="n">
-        <v>500</v>
-      </c>
-      <c r="C890" t="n">
-        <v>16</v>
-      </c>
-      <c r="D890" t="n">
-        <v>1</v>
-      </c>
-      <c r="E890" t="n">
-        <v>-0.2841018661140385</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="B891" t="n">
-        <v>500</v>
-      </c>
-      <c r="C891" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="D891" t="n">
-        <v>1</v>
-      </c>
-      <c r="E891" t="n">
-        <v>-0.6051379514474498</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="2" t="n">
-        <v>44621</v>
-      </c>
-      <c r="B892" t="n">
-        <v>500</v>
-      </c>
-      <c r="C892" t="n">
-        <v>75</v>
-      </c>
-      <c r="D892" t="n">
-        <v>1</v>
-      </c>
-      <c r="E892" t="n">
-        <v>-0.7114680292142156</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" s="2" t="n">
-        <v>44652</v>
-      </c>
-      <c r="B893" t="n">
-        <v>500</v>
-      </c>
-      <c r="C893" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="D893" t="n">
-        <v>1</v>
-      </c>
-      <c r="E893" t="n">
-        <v>-0.3170551380434606</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="B894" t="n">
-        <v>500</v>
-      </c>
-      <c r="C894" t="n">
-        <v>136</v>
-      </c>
-      <c r="D894" t="n">
-        <v>1</v>
-      </c>
-      <c r="E894" t="n">
-        <v>-0.7942314402547671</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B895" t="n">
-        <v>500</v>
-      </c>
-      <c r="C895" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="D895" t="n">
-        <v>1</v>
-      </c>
-      <c r="E895" t="n">
-        <v>-0.05085861037854916</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B896" t="n">
-        <v>500</v>
-      </c>
-      <c r="C896" t="n">
-        <v>197</v>
-      </c>
-      <c r="D896" t="n">
-        <v>1</v>
-      </c>
-      <c r="E896" t="n">
-        <v>-0.7562457729445964</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B897" t="n">
-        <v>500</v>
-      </c>
-      <c r="C897" t="n">
-        <v>228</v>
-      </c>
-      <c r="D897" t="n">
-        <v>1</v>
-      </c>
-      <c r="E897" t="n">
-        <v>-1.695808251969147</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B898" t="n">
-        <v>500</v>
-      </c>
-      <c r="C898" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="D898" t="n">
-        <v>1</v>
-      </c>
-      <c r="E898" t="n">
-        <v>-1.46563636271387</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B899" t="n">
-        <v>500</v>
-      </c>
-      <c r="C899" t="n">
-        <v>289</v>
-      </c>
-      <c r="D899" t="n">
-        <v>1</v>
-      </c>
-      <c r="E899" t="n">
-        <v>-0.9831274297681468</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B900" t="n">
-        <v>500</v>
-      </c>
-      <c r="C900" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="D900" t="n">
-        <v>1</v>
-      </c>
-      <c r="E900" t="n">
-        <v>-0.8423679898862104</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B901" t="n">
-        <v>500</v>
-      </c>
-      <c r="C901" t="n">
-        <v>350</v>
-      </c>
-      <c r="D901" t="n">
-        <v>1</v>
-      </c>
-      <c r="E901" t="n">
-        <v>-0.5571883666456992</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B902" t="n">
-        <v>500</v>
-      </c>
-      <c r="C902" t="n">
-        <v>11</v>
-      </c>
-      <c r="D902" t="n">
-        <v>1</v>
-      </c>
-      <c r="E902" t="n">
-        <v>-1.342342506957178</v>
+        <v>-0.8539775165105031</v>
       </c>
     </row>
   </sheetData>

--- a/SPBI/outputs/SPBI_Monthly_Final.xlsx
+++ b/SPBI/outputs/SPBI_Monthly_Final.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7392580018832416</v>
+        <v>0.7392580018832413</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9931246632505456</v>
+        <v>0.9931246632505452</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9725083684263519</v>
+        <v>0.9725083684263506</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8974039777151801</v>
+        <v>0.8974039777151795</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.215335743652712</v>
+        <v>0.2153357436527108</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195476883852167</v>
+        <v>1.195476883852166</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3785873485274159</v>
+        <v>0.3785873485274167</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2844417311240647</v>
+        <v>0.2844417311240638</v>
       </c>
     </row>
     <row r="11">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.249732767166754</v>
+        <v>1.249732767166753</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9781919219323411</v>
+        <v>0.9781919219323405</v>
       </c>
     </row>
     <row r="14">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428148492711634</v>
+        <v>1.428148492711633</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9514281135581073</v>
+        <v>0.9514281135581079</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8010330389899915</v>
+        <v>0.80103303898999</v>
       </c>
     </row>
     <row r="18">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01921726139948014</v>
+        <v>-0.01921726139947961</v>
       </c>
     </row>
     <row r="19">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7600317993253974</v>
+        <v>0.7600317993253967</v>
       </c>
     </row>
     <row r="22">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1738766565093015</v>
+        <v>0.173876656509301</v>
       </c>
     </row>
     <row r="24">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01870701061628294</v>
+        <v>0.01870701061628247</v>
       </c>
     </row>
     <row r="25">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388305295022124</v>
+        <v>1.388305295022123</v>
       </c>
     </row>
     <row r="27">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9587945253475363</v>
+        <v>0.9587945253475371</v>
       </c>
     </row>
     <row r="29">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126459866829409</v>
+        <v>0.1264598668294095</v>
       </c>
     </row>
     <row r="31">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.570526158695564</v>
+        <v>1.570526158695565</v>
       </c>
     </row>
     <row r="33">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9724450375361531</v>
+        <v>0.9724450375361532</v>
       </c>
     </row>
     <row r="34">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4129630517294485</v>
+        <v>0.412963051729448</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1144480959224299</v>
+        <v>-0.1144480959224297</v>
       </c>
     </row>
     <row r="36">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1132147825028942</v>
+        <v>0.1132147825028939</v>
       </c>
     </row>
     <row r="37">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3087557231945003</v>
+        <v>0.3087557231945013</v>
       </c>
     </row>
     <row r="38">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7713186065038187</v>
+        <v>0.771318606503819</v>
       </c>
     </row>
     <row r="39">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9638831191308554</v>
+        <v>0.9638831191308544</v>
       </c>
     </row>
     <row r="40">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5444088146323548</v>
+        <v>0.5444088146323541</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9380545713857497</v>
+        <v>0.9380545713857475</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.970548403740196</v>
+        <v>1.970548403740194</v>
       </c>
     </row>
     <row r="43">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.194627412924093</v>
+        <v>1.194627412924092</v>
       </c>
     </row>
     <row r="44">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.330215695968737</v>
+        <v>1.330215695968735</v>
       </c>
     </row>
     <row r="46">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.189990721450248</v>
+        <v>1.189990721450246</v>
       </c>
     </row>
     <row r="49">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.519951682203653</v>
+        <v>1.519951682203652</v>
       </c>
     </row>
     <row r="50">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2712929304756646</v>
+        <v>0.2712929304756639</v>
       </c>
     </row>
     <row r="52">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.718915141441074</v>
+        <v>1.718915141441073</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1.400327221234372</v>
+        <v>1.40032722123437</v>
       </c>
     </row>
     <row r="54">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1.331402430758133</v>
+        <v>1.331402430758132</v>
       </c>
     </row>
     <row r="55">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3115990830307883</v>
+        <v>0.3115990830307876</v>
       </c>
     </row>
     <row r="58">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9770449207834009</v>
+        <v>0.9770449207833989</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5061228879419992</v>
+        <v>0.5061228879419993</v>
       </c>
     </row>
     <row r="60">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3790717709952546</v>
+        <v>0.3790717709952532</v>
       </c>
     </row>
     <row r="61">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.435956155362919</v>
+        <v>1.435956155362918</v>
       </c>
     </row>
     <row r="62">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1.48307302212233</v>
+        <v>1.483073022122329</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2.000994797508052</v>
+        <v>2.00099479750805</v>
       </c>
     </row>
     <row r="64">
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8019778206287319</v>
+        <v>0.8019778206287308</v>
       </c>
     </row>
     <row r="67">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3843644331615624</v>
+        <v>0.3843644331615605</v>
       </c>
     </row>
     <row r="68">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1.362478107720066</v>
+        <v>1.362478107720064</v>
       </c>
     </row>
     <row r="69">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7431169635751318</v>
+        <v>0.7431169635751302</v>
       </c>
     </row>
     <row r="70">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9850538841474842</v>
+        <v>0.9850538841474843</v>
       </c>
     </row>
     <row r="71">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9002670018893378</v>
+        <v>0.9002670018893371</v>
       </c>
     </row>
     <row r="72">
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6834761007943093</v>
+        <v>0.6834761007943082</v>
       </c>
     </row>
     <row r="73">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.696790234074902</v>
+        <v>0.6967902340749015</v>
       </c>
     </row>
     <row r="74">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.87990614018951</v>
+        <v>0.879906140189511</v>
       </c>
     </row>
     <row r="75">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6650561605718003</v>
+        <v>0.6650561605718004</v>
       </c>
     </row>
     <row r="76">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4744098764671359</v>
+        <v>0.4744098764671346</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.477510317846979</v>
+        <v>1.477510317846978</v>
       </c>
     </row>
     <row r="78">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2175916484630163</v>
+        <v>0.2175916484630155</v>
       </c>
     </row>
     <row r="79">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.069402529728684</v>
+        <v>1.069402529728683</v>
       </c>
     </row>
     <row r="80">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6075181189222325</v>
+        <v>0.6075181189222327</v>
       </c>
     </row>
     <row r="81">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5079286444297174</v>
+        <v>0.5079286444297171</v>
       </c>
     </row>
     <row r="83">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6195882946868139</v>
+        <v>0.6195882946868128</v>
       </c>
     </row>
     <row r="84">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5778296368323946</v>
+        <v>-0.5778296368323954</v>
       </c>
     </row>
     <row r="85">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5218641516767504</v>
+        <v>0.5218641516767506</v>
       </c>
     </row>
     <row r="86">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9435088047942934</v>
+        <v>0.9435088047942928</v>
       </c>
     </row>
     <row r="87">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5425459060660657</v>
+        <v>0.542545906066066</v>
       </c>
     </row>
     <row r="88">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5808245301403965</v>
+        <v>0.5808245301403966</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1590009088237663</v>
+        <v>-0.1590009088237654</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5525815913973129</v>
+        <v>0.552581591397313</v>
       </c>
     </row>
     <row r="91">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.411064163492482</v>
+        <v>1.411064163492481</v>
       </c>
     </row>
     <row r="92">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.374973069403535</v>
+        <v>0.3749730694035352</v>
       </c>
     </row>
     <row r="93">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5600096522018667</v>
+        <v>0.5600096522018659</v>
       </c>
     </row>
     <row r="94">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2981303301620111</v>
+        <v>0.2981303301620116</v>
       </c>
     </row>
     <row r="95">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.326365778141885</v>
+        <v>0.3263657781418838</v>
       </c>
     </row>
     <row r="96">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8180384946360283</v>
+        <v>0.818038494636027</v>
       </c>
     </row>
     <row r="97">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2020425542895201</v>
+        <v>0.2020425542895211</v>
       </c>
     </row>
     <row r="98">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1140548963743357</v>
+        <v>0.1140548963743367</v>
       </c>
     </row>
     <row r="99">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6199545565080473</v>
+        <v>0.6199545565080483</v>
       </c>
     </row>
     <row r="100">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4572103499824385</v>
+        <v>0.4572103499824391</v>
       </c>
     </row>
     <row r="101">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.2243539472739651</v>
+        <v>-0.2243539472739652</v>
       </c>
     </row>
     <row r="102">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7389684891578235</v>
+        <v>-0.738968489157823</v>
       </c>
     </row>
     <row r="103">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5353408744728742</v>
+        <v>-0.5353408744728744</v>
       </c>
     </row>
     <row r="104">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1905047800462823</v>
+        <v>0.1905047800462818</v>
       </c>
     </row>
     <row r="105">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.593979923601702</v>
+        <v>1.5939799236017</v>
       </c>
     </row>
     <row r="106">
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5198694805418669</v>
+        <v>0.519869480541866</v>
       </c>
     </row>
     <row r="107">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3841123206518899</v>
+        <v>0.3841123206518881</v>
       </c>
     </row>
     <row r="108">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.06835985565245729</v>
+        <v>0.06835985565245602</v>
       </c>
     </row>
     <row r="109">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7825544723142742</v>
+        <v>0.7825544723142732</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.882801557570812</v>
+        <v>0.882801557570811</v>
       </c>
     </row>
     <row r="111">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.02937918944563888</v>
+        <v>-0.02937918944563804</v>
       </c>
     </row>
     <row r="112">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01474309174240698</v>
+        <v>0.01474309174240582</v>
       </c>
     </row>
     <row r="113">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3879647410071775</v>
+        <v>0.3879647410071773</v>
       </c>
     </row>
     <row r="114">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.404582253215862</v>
+        <v>1.40458225321586</v>
       </c>
     </row>
     <row r="115">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.878824773991208</v>
+        <v>1.878824773991209</v>
       </c>
     </row>
     <row r="116">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4378577792646584</v>
+        <v>0.437857779264658</v>
       </c>
     </row>
     <row r="117">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2393438918575818</v>
+        <v>0.2393438918575825</v>
       </c>
     </row>
     <row r="118">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2.01431418750206</v>
+        <v>2.014314187502058</v>
       </c>
     </row>
     <row r="120">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9040971980827351</v>
+        <v>0.9040971980827334</v>
       </c>
     </row>
     <row r="121">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1.259394288891714</v>
+        <v>1.259394288891713</v>
       </c>
     </row>
     <row r="122">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4004373988132326</v>
+        <v>0.4004373988132321</v>
       </c>
     </row>
     <row r="123">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1277836824636465</v>
+        <v>0.1277836824636472</v>
       </c>
     </row>
     <row r="124">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2000425358111016</v>
+        <v>0.200042535811102</v>
       </c>
     </row>
     <row r="125">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.636941950151273</v>
+        <v>1.636941950151274</v>
       </c>
     </row>
     <row r="126">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.238447764474992</v>
+        <v>1.238447764474991</v>
       </c>
     </row>
     <row r="127">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.803458393805572</v>
+        <v>0.8034583938055722</v>
       </c>
     </row>
     <row r="128">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5766484437393051</v>
+        <v>0.5766484437393049</v>
       </c>
     </row>
     <row r="129">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5809830157552388</v>
+        <v>0.5809830157552379</v>
       </c>
     </row>
     <row r="130">
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07829191088605818</v>
+        <v>-0.07829191088605914</v>
       </c>
     </row>
     <row r="131">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.9321000340517654</v>
+        <v>-0.9321000340517671</v>
       </c>
     </row>
     <row r="132">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.3237121889869167</v>
+        <v>-0.3237121889869169</v>
       </c>
     </row>
     <row r="133">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1076555521507081</v>
+        <v>0.1076555521507076</v>
       </c>
     </row>
     <row r="134">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2303332290650332</v>
+        <v>-0.2303332290650321</v>
       </c>
     </row>
     <row r="135">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8551746791825783</v>
+        <v>0.8551746791825775</v>
       </c>
     </row>
     <row r="136">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4289134665626674</v>
+        <v>0.4289134665626668</v>
       </c>
     </row>
     <row r="137">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1.874957340420707</v>
+        <v>1.874957340420705</v>
       </c>
     </row>
     <row r="139">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.365043050015409</v>
+        <v>0.3650430500154098</v>
       </c>
     </row>
     <row r="140">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6944963517071798</v>
+        <v>0.6944963517071793</v>
       </c>
     </row>
     <row r="144">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01342418951673043</v>
+        <v>-0.01342418951672967</v>
       </c>
     </row>
     <row r="145">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4765728125486156</v>
+        <v>-0.4765728125486152</v>
       </c>
     </row>
     <row r="146">
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1925609287458118</v>
+        <v>0.1925609287458113</v>
       </c>
     </row>
     <row r="148">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05733933720535448</v>
+        <v>0.05733933720535359</v>
       </c>
     </row>
     <row r="149">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5153171419847179</v>
+        <v>0.5153171419847176</v>
       </c>
     </row>
     <row r="150">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2697141805250039</v>
+        <v>-0.269714180525004</v>
       </c>
     </row>
     <row r="151">
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.1805392595143152</v>
+        <v>-0.1805392595143154</v>
       </c>
     </row>
     <row r="152">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4833604976804165</v>
+        <v>0.4833604976804154</v>
       </c>
     </row>
     <row r="153">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.2684307913149042</v>
+        <v>-0.2684307913149044</v>
       </c>
     </row>
     <row r="154">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.4517765753622795</v>
+        <v>-0.4517765753622791</v>
       </c>
     </row>
     <row r="155">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.2956997519781662</v>
+        <v>-0.2956997519781669</v>
       </c>
     </row>
     <row r="156">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.009885946608688861</v>
+        <v>0.009885946608687957</v>
       </c>
     </row>
     <row r="157">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6960345372297146</v>
+        <v>0.6960345372297142</v>
       </c>
     </row>
     <row r="159">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2178964559244771</v>
+        <v>0.2178964559244775</v>
       </c>
     </row>
     <row r="160">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5470455911405666</v>
+        <v>0.5470455911405658</v>
       </c>
     </row>
     <row r="161">
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.08340648632022024</v>
+        <v>-0.08340648632021933</v>
       </c>
     </row>
     <row r="162">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6147574010676428</v>
+        <v>0.6147574010676413</v>
       </c>
     </row>
     <row r="163">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3093932843650699</v>
+        <v>-0.3093932843650694</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.08327947260267553</v>
+        <v>0.0832794726026759</v>
       </c>
     </row>
     <row r="167">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.5981475785684875</v>
+        <v>-0.5981475785684872</v>
       </c>
     </row>
     <row r="168">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1699458740024211</v>
+        <v>-0.1699458740024204</v>
       </c>
     </row>
     <row r="169">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3596329877634915</v>
+        <v>-0.3596329877634912</v>
       </c>
     </row>
     <row r="170">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2592839131805661</v>
+        <v>-0.2592839131805657</v>
       </c>
     </row>
     <row r="171">
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2567189495060979</v>
+        <v>0.2567189495060972</v>
       </c>
     </row>
     <row r="172">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4793477946631867</v>
+        <v>0.4793477946631856</v>
       </c>
     </row>
     <row r="173">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.3459016480200642</v>
+        <v>-0.3459016480200648</v>
       </c>
     </row>
     <row r="174">
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.7617303995610702</v>
+        <v>-0.7617303995610706</v>
       </c>
     </row>
     <row r="175">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2707466770596818</v>
+        <v>0.2707466770596809</v>
       </c>
     </row>
     <row r="176">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.7179535352632584</v>
+        <v>-0.7179535352632587</v>
       </c>
     </row>
     <row r="177">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6638984489631298</v>
+        <v>0.6638984489631296</v>
       </c>
     </row>
     <row r="178">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.04063015227092732</v>
+        <v>-0.04063015227092794</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.5117360369065256</v>
+        <v>-0.5117360369065259</v>
       </c>
     </row>
     <row r="180">
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4203636659487016</v>
+        <v>0.4203636659487007</v>
       </c>
     </row>
     <row r="181">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3432009185085399</v>
+        <v>0.3432009185085398</v>
       </c>
     </row>
     <row r="182">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2369329882149268</v>
+        <v>0.2369329882149272</v>
       </c>
     </row>
     <row r="183">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.54646365170487</v>
+        <v>-0.5464636517048701</v>
       </c>
     </row>
     <row r="184">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1.266278442255064</v>
+        <v>1.266278442255063</v>
       </c>
     </row>
     <row r="185">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9938065105374477</v>
+        <v>0.9938065105374475</v>
       </c>
     </row>
     <row r="186">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8321873183541293</v>
+        <v>0.832187318354129</v>
       </c>
     </row>
     <row r="187">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6809917732008336</v>
+        <v>0.6809917732008333</v>
       </c>
     </row>
     <row r="188">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3150311236217507</v>
+        <v>0.3150311236217502</v>
       </c>
     </row>
     <row r="189">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4061785476174113</v>
+        <v>0.406178547617411</v>
       </c>
     </row>
     <row r="191">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4873375373505311</v>
+        <v>0.4873375373505325</v>
       </c>
     </row>
     <row r="192">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5509485316885893</v>
+        <v>0.5509485316885904</v>
       </c>
     </row>
     <row r="193">
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6707763928770818</v>
+        <v>0.6707763928770811</v>
       </c>
     </row>
     <row r="194">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.802300252945318</v>
+        <v>0.8023002529453174</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0.2313329568935938</v>
+        <v>0.2313329568935935</v>
       </c>
     </row>
     <row r="196">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2859026013433484</v>
+        <v>0.2859026013433485</v>
       </c>
     </row>
     <row r="197">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.005195507847608664</v>
+        <v>-0.005195507847607406</v>
       </c>
     </row>
     <row r="198">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4570302021040157</v>
+        <v>0.4570302021040152</v>
       </c>
     </row>
     <row r="199">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1092100555550438</v>
+        <v>0.1092100555550442</v>
       </c>
     </row>
     <row r="200">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1063823354370467</v>
+        <v>0.1063823354370465</v>
       </c>
     </row>
     <row r="201">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1.74941302604922</v>
+        <v>1.749413026049219</v>
       </c>
     </row>
     <row r="202">
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.09904284287765351</v>
+        <v>-0.09904284287765365</v>
       </c>
     </row>
     <row r="203">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2019559002746234</v>
+        <v>0.2019559002746223</v>
       </c>
     </row>
     <row r="204">
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5713453062800327</v>
+        <v>0.5713453062800323</v>
       </c>
     </row>
     <row r="205">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4472811783083039</v>
+        <v>0.4472811783083033</v>
       </c>
     </row>
     <row r="206">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.0434490785553336</v>
+        <v>-0.04344907855533437</v>
       </c>
     </row>
     <row r="207">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.521350541843111</v>
+        <v>1.52135054184311</v>
       </c>
     </row>
     <row r="208">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.1063175759660313</v>
+        <v>0.1063175759660299</v>
       </c>
     </row>
     <row r="209">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.740785601696527</v>
+        <v>0.7407856016965262</v>
       </c>
     </row>
     <row r="212">
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9822278450454766</v>
+        <v>0.9822278450454769</v>
       </c>
     </row>
     <row r="213">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.07248439990829164</v>
+        <v>-0.07248439990829139</v>
       </c>
     </row>
     <row r="214">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0.515265148552708</v>
+        <v>0.5152651485527087</v>
       </c>
     </row>
     <row r="215">
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7973956208946739</v>
+        <v>0.7973956208946728</v>
       </c>
     </row>
     <row r="217">
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1.383546637988027</v>
+        <v>1.383546637988028</v>
       </c>
     </row>
     <row r="218">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3761240458367727</v>
+        <v>0.3761240458367731</v>
       </c>
     </row>
     <row r="219">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3002824440723182</v>
+        <v>0.300282444072319</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9444141714986948</v>
+        <v>0.9444141714986947</v>
       </c>
     </row>
     <row r="221">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1691068297834283</v>
+        <v>0.1691068297834271</v>
       </c>
     </row>
     <row r="223">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.1790416035868161</v>
+        <v>0.1790416035868152</v>
       </c>
     </row>
     <row r="225">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.4393038971968684</v>
+        <v>-0.4393038971968686</v>
       </c>
     </row>
     <row r="226">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1936520419150908</v>
+        <v>-0.1936520419150903</v>
       </c>
     </row>
     <row r="227">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.2420637994531623</v>
+        <v>-0.242063799453162</v>
       </c>
     </row>
     <row r="228">
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3305554400436923</v>
+        <v>0.3305554400436919</v>
       </c>
     </row>
     <row r="229">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3150962474104594</v>
+        <v>0.3150962474104593</v>
       </c>
     </row>
     <row r="230">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6175390801250421</v>
+        <v>0.6175390801250419</v>
       </c>
     </row>
     <row r="231">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3031068151622334</v>
+        <v>0.3031068151622341</v>
       </c>
     </row>
     <row r="232">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.3879487729585797</v>
+        <v>-0.3879487729585793</v>
       </c>
     </row>
     <row r="233">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.109083560040875</v>
+        <v>-0.1090835600408743</v>
       </c>
     </row>
     <row r="234">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3380670469099185</v>
+        <v>0.3380670469099193</v>
       </c>
     </row>
     <row r="235">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5179219989783337</v>
+        <v>-0.517921998978332</v>
       </c>
     </row>
     <row r="236">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.580623971024573</v>
+        <v>-0.5806239710245713</v>
       </c>
     </row>
     <row r="237">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.6653045435900723</v>
+        <v>-0.6653045435900717</v>
       </c>
     </row>
     <row r="238">
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2755446441549302</v>
+        <v>0.2755446441549295</v>
       </c>
     </row>
     <row r="239">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.09356741866255454</v>
+        <v>-0.09356741866255452</v>
       </c>
     </row>
     <row r="240">
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4898909631834982</v>
+        <v>0.4898909631834972</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4654302809730393</v>
+        <v>0.465430280973039</v>
       </c>
     </row>
     <row r="242">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.7897164316926056</v>
+        <v>0.7897164316926047</v>
       </c>
     </row>
     <row r="243">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.175855476503142</v>
+        <v>1.175855476503141</v>
       </c>
     </row>
     <row r="244">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.6043992039610516</v>
+        <v>-0.6043992039610503</v>
       </c>
     </row>
     <row r="245">
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.5618963338695037</v>
+        <v>-0.5618963338695053</v>
       </c>
     </row>
     <row r="246">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.2487572798561941</v>
+        <v>-0.2487572798561951</v>
       </c>
     </row>
     <row r="247">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.4079210252512112</v>
+        <v>-0.4079210252512115</v>
       </c>
     </row>
     <row r="248">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.8592273716059071</v>
+        <v>-0.8592273716059072</v>
       </c>
     </row>
     <row r="249">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1295309348368796</v>
+        <v>0.129530934836878</v>
       </c>
     </row>
     <row r="250">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1.684458976843192</v>
+        <v>1.684458976843191</v>
       </c>
     </row>
     <row r="251">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1.241680481394241</v>
+        <v>1.241680481394239</v>
       </c>
     </row>
     <row r="252">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0.798136332865193</v>
+        <v>0.7981363328651919</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.2738224171855949</v>
+        <v>0.2738224171855946</v>
       </c>
     </row>
     <row r="254">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7310637567818898</v>
+        <v>0.7310637567818896</v>
       </c>
     </row>
     <row r="255">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5181578203452153</v>
+        <v>0.5181578203452152</v>
       </c>
     </row>
     <row r="256">
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5493671374822606</v>
+        <v>0.5493671374822613</v>
       </c>
     </row>
     <row r="257">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5311015059982822</v>
+        <v>0.5311015059982813</v>
       </c>
     </row>
     <row r="258">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5206505186597671</v>
+        <v>0.5206505186597674</v>
       </c>
     </row>
     <row r="259">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0.7819090585916535</v>
+        <v>0.7819090585916537</v>
       </c>
     </row>
     <row r="260">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.2199125561944135</v>
+        <v>-0.2199125561944131</v>
       </c>
     </row>
     <row r="261">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.6825450723553538</v>
+        <v>-0.6825450723553529</v>
       </c>
     </row>
     <row r="262">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.4320397123256391</v>
+        <v>-0.4320397123256408</v>
       </c>
     </row>
     <row r="263">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0.7381984342355541</v>
+        <v>0.7381984342355543</v>
       </c>
     </row>
     <row r="264">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.9814569954783356</v>
+        <v>-0.9814569954783346</v>
       </c>
     </row>
     <row r="265">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.1987137458810312</v>
+        <v>-0.1987137458810319</v>
       </c>
     </row>
     <row r="266">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.01026676706633177</v>
+        <v>-0.01026676706633016</v>
       </c>
     </row>
     <row r="267">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.1273101127490102</v>
+        <v>-0.1273101127490109</v>
       </c>
     </row>
     <row r="268">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.04562444870163048</v>
+        <v>-0.04562444870163047</v>
       </c>
     </row>
     <row r="269">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0.609885639430371</v>
+        <v>0.6098856394303707</v>
       </c>
     </row>
     <row r="270">
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03196934082979951</v>
+        <v>-0.03196934082980029</v>
       </c>
     </row>
     <row r="271">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.8338970833695296</v>
+        <v>-0.8338970833695288</v>
       </c>
     </row>
     <row r="272">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5720523694642148</v>
+        <v>0.5720523694642139</v>
       </c>
     </row>
     <row r="273">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.7281250825624341</v>
+        <v>-0.7281250825624349</v>
       </c>
     </row>
     <row r="274">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.6547943241486833</v>
+        <v>-0.6547943241486837</v>
       </c>
     </row>
     <row r="275">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.2096085984089623</v>
+        <v>-0.2096085984089621</v>
       </c>
     </row>
     <row r="276">
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.017694928264899</v>
+        <v>-1.017694928264897</v>
       </c>
     </row>
     <row r="277">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0.3386146531593561</v>
+        <v>0.3386146531593568</v>
       </c>
     </row>
     <row r="278">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0.1091877467523661</v>
+        <v>0.1091877467523671</v>
       </c>
     </row>
     <row r="279">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.4075383724200717</v>
+        <v>-0.4075383724200708</v>
       </c>
     </row>
     <row r="280">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.09788215395641292</v>
+        <v>-0.09788215395641241</v>
       </c>
     </row>
     <row r="281">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.6477991867086873</v>
+        <v>-0.647799186708687</v>
       </c>
     </row>
     <row r="282">
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.03008175846631895</v>
+        <v>-0.03008175846631964</v>
       </c>
     </row>
     <row r="283">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.5057679551327958</v>
+        <v>-0.5057679551327955</v>
       </c>
     </row>
     <row r="284">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.3368208816213279</v>
+        <v>-0.3368208816213289</v>
       </c>
     </row>
     <row r="285">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-1.277751513186489</v>
+        <v>-1.27775151318649</v>
       </c>
     </row>
     <row r="286">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.08596337202100288</v>
+        <v>-0.08596337202100331</v>
       </c>
     </row>
     <row r="287">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.04909568881576547</v>
+        <v>-0.04909568881576552</v>
       </c>
     </row>
     <row r="288">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.2113861539028618</v>
+        <v>-0.2113861539028624</v>
       </c>
     </row>
     <row r="289">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6350387880363112</v>
+        <v>0.6350387880363114</v>
       </c>
     </row>
     <row r="290">
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>1.517103559386691</v>
+        <v>1.51710355938669</v>
       </c>
     </row>
     <row r="291">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7047329567725938</v>
+        <v>0.7047329567725944</v>
       </c>
     </row>
     <row r="292">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0.0582845385641408</v>
+        <v>0.05828453856414174</v>
       </c>
     </row>
     <row r="293">
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8461792162208343</v>
+        <v>0.8461792162208338</v>
       </c>
     </row>
     <row r="294">
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6033325760166185</v>
+        <v>0.6033325760166182</v>
       </c>
     </row>
     <row r="297">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4745176252693811</v>
+        <v>0.4745176252693815</v>
       </c>
     </row>
     <row r="298">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4569722800616953</v>
+        <v>0.4569722800616958</v>
       </c>
     </row>
     <row r="299">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>0.1099094550277269</v>
+        <v>0.1099094550277278</v>
       </c>
     </row>
     <row r="300">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.206501850007268</v>
+        <v>-0.2065018500072673</v>
       </c>
     </row>
     <row r="301">
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.8410406434955751</v>
+        <v>0.8410406434955739</v>
       </c>
     </row>
     <row r="302">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>0.690185882277729</v>
+        <v>0.6901858822777294</v>
       </c>
     </row>
     <row r="303">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.2615693898736401</v>
+        <v>-0.2615693898736386</v>
       </c>
     </row>
     <row r="304">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.2231193381649284</v>
+        <v>-0.2231193381649298</v>
       </c>
     </row>
     <row r="305">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.159315903879018</v>
+        <v>-0.1593159038790181</v>
       </c>
     </row>
     <row r="308">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.354662303160604</v>
+        <v>-1.354662303160603</v>
       </c>
     </row>
     <row r="309">
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.11970128633463</v>
+        <v>-1.119701286334628</v>
       </c>
     </row>
     <row r="312">
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.007930611771985292</v>
+        <v>-0.007930611771985041</v>
       </c>
     </row>
     <row r="313">
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.1696027421151909</v>
+        <v>-0.1696027421151908</v>
       </c>
     </row>
     <row r="314">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>0.1320262613473943</v>
+        <v>0.1320262613473949</v>
       </c>
     </row>
     <row r="315">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.7599128440885259</v>
+        <v>-0.7599128440885252</v>
       </c>
     </row>
     <row r="316">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.4645632053608456</v>
+        <v>-0.4645632053608455</v>
       </c>
     </row>
     <row r="317">
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.024270087899946</v>
+        <v>-1.024270087899947</v>
       </c>
     </row>
     <row r="318">
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2966181145850112</v>
+        <v>-0.2966181145850099</v>
       </c>
     </row>
     <row r="319">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3609886807825013</v>
+        <v>-0.360988680782501</v>
       </c>
     </row>
     <row r="320">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>0.03653356475336798</v>
+        <v>0.03653356475336672</v>
       </c>
     </row>
     <row r="321">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0.731946443229451</v>
+        <v>0.7319464432294499</v>
       </c>
     </row>
     <row r="322">
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.211841061678872</v>
+        <v>-0.2118410616788734</v>
       </c>
     </row>
     <row r="323">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.8013445972259755</v>
+        <v>-0.8013445972259748</v>
       </c>
     </row>
     <row r="324">
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.2532738928462448</v>
+        <v>0.2532738928462456</v>
       </c>
     </row>
     <row r="325">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02722553960941359</v>
+        <v>0.02722553960941307</v>
       </c>
     </row>
     <row r="326">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3230021703579311</v>
+        <v>0.3230021703579302</v>
       </c>
     </row>
     <row r="327">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4352205036759594</v>
+        <v>0.4352205036759596</v>
       </c>
     </row>
     <row r="328">
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.5938755091674831</v>
+        <v>-0.5938755091674822</v>
       </c>
     </row>
     <row r="329">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>0.1180314161922377</v>
+        <v>0.1180314161922379</v>
       </c>
     </row>
     <row r="330">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.8115427000597677</v>
+        <v>0.8115427000597673</v>
       </c>
     </row>
     <row r="331">
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4620809497858009</v>
+        <v>0.4620809497858018</v>
       </c>
     </row>
     <row r="332">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4886286138625445</v>
+        <v>0.4886286138625449</v>
       </c>
     </row>
     <row r="333">
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.1776518728208686</v>
+        <v>-0.177651872820869</v>
       </c>
     </row>
     <row r="334">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.7719154473787817</v>
+        <v>-0.7719154473787805</v>
       </c>
     </row>
     <row r="335">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.8115356608133846</v>
+        <v>-0.8115356608133848</v>
       </c>
     </row>
     <row r="336">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8520342988296201</v>
+        <v>0.8520342988296208</v>
       </c>
     </row>
     <row r="338">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9776526016712148</v>
+        <v>0.9776526016712146</v>
       </c>
     </row>
     <row r="339">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.2193469093120906</v>
+        <v>-0.2193469093120902</v>
       </c>
     </row>
     <row r="340">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>0.04699817761404405</v>
+        <v>0.0469981776140445</v>
       </c>
     </row>
     <row r="341">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.6507537702110795</v>
+        <v>-0.6507537702110799</v>
       </c>
     </row>
     <row r="342">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>0.9741882285890083</v>
+        <v>0.9741882285890079</v>
       </c>
     </row>
     <row r="343">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6571040383183562</v>
+        <v>0.6571040383183558</v>
       </c>
     </row>
     <row r="344">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1944295967765214</v>
+        <v>0.1944295967765208</v>
       </c>
     </row>
     <row r="346">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>0.3131377139781054</v>
+        <v>0.3131377139781048</v>
       </c>
     </row>
     <row r="347">
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>1.077723843246217</v>
+        <v>1.077723843246216</v>
       </c>
     </row>
     <row r="348">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5228264088169224</v>
+        <v>0.5228264088169216</v>
       </c>
     </row>
     <row r="349">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1295045794584164</v>
+        <v>0.1295045794584169</v>
       </c>
     </row>
     <row r="352">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0.07209004504959372</v>
+        <v>0.07209004504959465</v>
       </c>
     </row>
     <row r="353">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3698251665464095</v>
+        <v>0.3698251665464076</v>
       </c>
     </row>
     <row r="354">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4870067665604993</v>
+        <v>0.4870067665604974</v>
       </c>
     </row>
     <row r="355">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0.5021064338769455</v>
+        <v>0.5021064338769441</v>
       </c>
     </row>
     <row r="356">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.0309004160459023</v>
+        <v>-0.03090041604590187</v>
       </c>
     </row>
     <row r="357">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.2343564768841652</v>
+        <v>-0.2343564768841656</v>
       </c>
     </row>
     <row r="358">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.48636801257304</v>
+        <v>1.486368012573038</v>
       </c>
     </row>
     <row r="359">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>0.9159518108130251</v>
+        <v>0.9159518108130246</v>
       </c>
     </row>
     <row r="360">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>0.523554211681166</v>
+        <v>0.5235542116811651</v>
       </c>
     </row>
     <row r="361">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>0.3359790642889393</v>
+        <v>0.3359790642889384</v>
       </c>
     </row>
     <row r="362">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>0.09906337514511437</v>
+        <v>0.09906337514511518</v>
       </c>
     </row>
     <row r="363">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>0.1169717578817817</v>
+        <v>0.1169717578817823</v>
       </c>
     </row>
     <row r="365">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6522871020712092</v>
+        <v>-0.6522871020712093</v>
       </c>
     </row>
     <row r="366">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.4449598620975433</v>
+        <v>-0.4449598620975431</v>
       </c>
     </row>
     <row r="367">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>0.2205412768234191</v>
+        <v>0.2205412768234189</v>
       </c>
     </row>
     <row r="368">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4690837407159182</v>
+        <v>0.4690837407159171</v>
       </c>
     </row>
     <row r="369">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2845978774251981</v>
+        <v>-0.2845978774251988</v>
       </c>
     </row>
     <row r="370">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.8521575885168097</v>
+        <v>-0.8521575885168101</v>
       </c>
     </row>
     <row r="371">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2087640555172131</v>
+        <v>0.2087640555172119</v>
       </c>
     </row>
     <row r="372">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2325118349521789</v>
+        <v>-0.2325118349521799</v>
       </c>
     </row>
     <row r="374">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.03029035646786159</v>
+        <v>-0.03029035646786114</v>
       </c>
     </row>
     <row r="375">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1343584377058835</v>
+        <v>-0.1343584377058833</v>
       </c>
     </row>
     <row r="376">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.6722550549015446</v>
+        <v>-0.6722550549015442</v>
       </c>
     </row>
     <row r="377">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.3698812735729539</v>
+        <v>-0.3698812735729547</v>
       </c>
     </row>
     <row r="378">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>0.1632624044079394</v>
+        <v>0.1632624044079398</v>
       </c>
     </row>
     <row r="379">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.9310185108221092</v>
+        <v>-0.931018510822108</v>
       </c>
     </row>
     <row r="380">
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.656779348186973</v>
+        <v>-0.6567793481869734</v>
       </c>
     </row>
     <row r="381">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.3346334005133872</v>
+        <v>0.3346334005133854</v>
       </c>
     </row>
     <row r="382">
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.1506490351777661</v>
+        <v>0.1506490351777656</v>
       </c>
     </row>
     <row r="383">
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2128815060673055</v>
+        <v>0.2128815060673045</v>
       </c>
     </row>
     <row r="384">
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>0.09308455177838539</v>
+        <v>0.09308455177838521</v>
       </c>
     </row>
     <row r="385">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4863703132341206</v>
+        <v>0.4863703132341197</v>
       </c>
     </row>
     <row r="386">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1665728141634368</v>
+        <v>0.1665728141634367</v>
       </c>
     </row>
     <row r="387">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>0.3075038478045564</v>
+        <v>0.307503847804556</v>
       </c>
     </row>
     <row r="388">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>1.063481321288406</v>
+        <v>1.063481321288405</v>
       </c>
     </row>
     <row r="389">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9418398077910197</v>
+        <v>0.9418398077910203</v>
       </c>
     </row>
     <row r="390">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.2096913468809417</v>
+        <v>-0.2096913468809409</v>
       </c>
     </row>
     <row r="391">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.4846327867896767</v>
+        <v>0.4846327867896763</v>
       </c>
     </row>
     <row r="392">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5820659518698265</v>
+        <v>0.5820659518698276</v>
       </c>
     </row>
     <row r="393">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.1418618049183978</v>
+        <v>-0.1418618049183971</v>
       </c>
     </row>
     <row r="394">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7145695243334675</v>
+        <v>0.7145695243334668</v>
       </c>
     </row>
     <row r="395">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.5509461427258948</v>
+        <v>-0.5509461427258942</v>
       </c>
     </row>
     <row r="396">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.1933747595525814</v>
+        <v>-0.1933747595525803</v>
       </c>
     </row>
     <row r="399">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0.001820718624153593</v>
+        <v>0.001820718624154013</v>
       </c>
     </row>
     <row r="400">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4216175502985582</v>
+        <v>-0.4216175502985575</v>
       </c>
     </row>
     <row r="401">
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>0.09219578390239934</v>
+        <v>0.09219578390239948</v>
       </c>
     </row>
     <row r="402">
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.2811380390783172</v>
+        <v>0.2811380390783166</v>
       </c>
     </row>
     <row r="403">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.5112969954853578</v>
+        <v>-0.5112969954853581</v>
       </c>
     </row>
     <row r="404">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.3854161813974731</v>
+        <v>-0.3854161813974738</v>
       </c>
     </row>
     <row r="405">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0.4985703361704535</v>
+        <v>0.4985703361704527</v>
       </c>
     </row>
     <row r="406">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.1125190877706789</v>
+        <v>-0.1125190877706782</v>
       </c>
     </row>
     <row r="408">
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.4828021840576834</v>
+        <v>-0.482802184057684</v>
       </c>
     </row>
     <row r="409">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.306943714649261</v>
+        <v>-0.3069437146492607</v>
       </c>
     </row>
     <row r="410">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>0.2027293030602764</v>
+        <v>0.2027293030602771</v>
       </c>
     </row>
     <row r="411">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.3151219454056937</v>
+        <v>-0.3151219454056929</v>
       </c>
     </row>
     <row r="412">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>-0.2356578882504761</v>
+        <v>-0.2356578882504767</v>
       </c>
     </row>
     <row r="413">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-0.4585696826996711</v>
+        <v>-0.4585696826996724</v>
       </c>
     </row>
     <row r="414">
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.05208465104864605</v>
+        <v>-0.05208465104864643</v>
       </c>
     </row>
     <row r="415">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5059209281188828</v>
+        <v>-0.5059209281188822</v>
       </c>
     </row>
     <row r="416">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>0.3452492355019262</v>
+        <v>0.3452492355019268</v>
       </c>
     </row>
     <row r="417">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>0.1100799338923705</v>
+        <v>0.1100799338923713</v>
       </c>
     </row>
     <row r="418">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5037122730535839</v>
+        <v>0.5037122730535847</v>
       </c>
     </row>
     <row r="421">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>0.5440872254805649</v>
+        <v>0.5440872254805645</v>
       </c>
     </row>
     <row r="422">
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1.267692837192011</v>
+        <v>1.26769283719201</v>
       </c>
     </row>
     <row r="423">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>0.3783989268766664</v>
+        <v>0.3783989268766673</v>
       </c>
     </row>
     <row r="425">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.4890233145731582</v>
+        <v>-0.4890233145731576</v>
       </c>
     </row>
     <row r="426">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.2259213909391802</v>
+        <v>-0.2259213909391797</v>
       </c>
     </row>
     <row r="427">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>0.3476512004861406</v>
+        <v>0.3476512004861407</v>
       </c>
     </row>
     <row r="428">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.5350572058832015</v>
+        <v>-0.5350572058832018</v>
       </c>
     </row>
     <row r="429">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.836204069522346</v>
+        <v>-0.8362040695223455</v>
       </c>
     </row>
     <row r="430">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>0.4147535625672172</v>
+        <v>0.4147535625672171</v>
       </c>
     </row>
     <row r="431">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.8679107572127378</v>
+        <v>-0.8679107572127379</v>
       </c>
     </row>
     <row r="432">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.7388921550391123</v>
+        <v>-0.7388921550391135</v>
       </c>
     </row>
     <row r="433">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0.1418331480483573</v>
+        <v>-0.1418331480483579</v>
       </c>
     </row>
     <row r="434">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5418744660419561</v>
+        <v>0.5418744660419555</v>
       </c>
     </row>
     <row r="435">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0.2703038339345204</v>
+        <v>0.2703038339345198</v>
       </c>
     </row>
     <row r="436">
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7776505621149998</v>
+        <v>-0.7776505621149997</v>
       </c>
     </row>
     <row r="437">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>0.3073401319999458</v>
+        <v>0.3073401319999453</v>
       </c>
     </row>
     <row r="438">
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>0.6509150441179296</v>
+        <v>0.65091504411793</v>
       </c>
     </row>
     <row r="439">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.3787050648618897</v>
+        <v>-0.3787050648618879</v>
       </c>
     </row>
     <row r="440">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.7779437099728426</v>
+        <v>-0.7779437099728423</v>
       </c>
     </row>
     <row r="441">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0.1164476030197325</v>
+        <v>-0.1164476030197333</v>
       </c>
     </row>
     <row r="442">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0007435196313498871</v>
+        <v>-0.0007435196313512045</v>
       </c>
     </row>
     <row r="443">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.4591722693978777</v>
+        <v>-0.4591722693978767</v>
       </c>
     </row>
     <row r="445">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.07701070671651186</v>
+        <v>-0.07701070671651207</v>
       </c>
     </row>
     <row r="447">
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.2738463450157873</v>
+        <v>-0.2738463450157878</v>
       </c>
     </row>
     <row r="448">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1213691546130632</v>
+        <v>0.1213691546130638</v>
       </c>
     </row>
     <row r="449">
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>-0.1797513212101688</v>
+        <v>-0.1797513212101693</v>
       </c>
     </row>
     <row r="452">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.2132864375268744</v>
+        <v>-0.213286437526875</v>
       </c>
     </row>
     <row r="453">
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-0.766516799206738</v>
+        <v>-0.7665167992067372</v>
       </c>
     </row>
     <row r="454">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.9389940781299637</v>
+        <v>-0.9389940781299636</v>
       </c>
     </row>
     <row r="455">
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.04734241335304615</v>
+        <v>-0.04734241335304613</v>
       </c>
     </row>
     <row r="456">
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.4554892442868393</v>
+        <v>-0.4554892442868388</v>
       </c>
     </row>
     <row r="457">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.5657256763418828</v>
+        <v>-0.5657256763418823</v>
       </c>
     </row>
     <row r="458">
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.2104380242317</v>
+        <v>-0.2104380242317001</v>
       </c>
     </row>
     <row r="459">
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>0.03802532277938074</v>
+        <v>0.03802532277937993</v>
       </c>
     </row>
     <row r="460">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0.03027216535067769</v>
+        <v>0.03027216535067744</v>
       </c>
     </row>
     <row r="461">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>0.2119797075331443</v>
+        <v>0.2119797075331439</v>
       </c>
     </row>
     <row r="462">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9818351328768081</v>
+        <v>0.9818351328768082</v>
       </c>
     </row>
     <row r="463">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1.001808440313824</v>
+        <v>1.001808440313821</v>
       </c>
     </row>
     <row r="464">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>0.5809612516121806</v>
+        <v>0.5809612516121799</v>
       </c>
     </row>
     <row r="465">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>0.2488910681274142</v>
+        <v>0.2488910681274137</v>
       </c>
     </row>
     <row r="466">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>0.6844864793817205</v>
+        <v>0.6844864793817201</v>
       </c>
     </row>
     <row r="467">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.2652546018314612</v>
+        <v>-0.265254601831461</v>
       </c>
     </row>
     <row r="468">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>0.75235663407103</v>
+        <v>0.7523566340710297</v>
       </c>
     </row>
     <row r="469">
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.1447679123601724</v>
+        <v>-0.1447679123601723</v>
       </c>
     </row>
     <row r="470">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.2882646005388394</v>
+        <v>-0.2882646005388395</v>
       </c>
     </row>
     <row r="471">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>0.6246029843987698</v>
+        <v>0.6246029843987688</v>
       </c>
     </row>
     <row r="472">
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>0.7351669756107484</v>
+        <v>0.7351669756107471</v>
       </c>
     </row>
     <row r="473">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.3038914433599963</v>
+        <v>-0.3038914433599956</v>
       </c>
     </row>
     <row r="474">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.59594541237183</v>
+        <v>-0.5959454123718289</v>
       </c>
     </row>
     <row r="475">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.3877432292776335</v>
+        <v>-0.3877432292776334</v>
       </c>
     </row>
     <row r="478">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.269851230846752</v>
+        <v>-0.2698512308467515</v>
       </c>
     </row>
     <row r="480">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.7009361380604899</v>
+        <v>-0.7009361380604908</v>
       </c>
     </row>
     <row r="481">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.131096168981001</v>
+        <v>-0.1310961689810008</v>
       </c>
     </row>
     <row r="482">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0.3109636387359866</v>
+        <v>0.3109636387359878</v>
       </c>
     </row>
     <row r="483">
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-0.1533399347578421</v>
+        <v>-0.1533399347578429</v>
       </c>
     </row>
     <row r="484">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>0.2623079236752157</v>
+        <v>0.2623079236752149</v>
       </c>
     </row>
     <row r="485">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0.02524565946975078</v>
+        <v>0.0252456594697516</v>
       </c>
     </row>
     <row r="486">
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>-0.5274568044895896</v>
+        <v>-0.5274568044895879</v>
       </c>
     </row>
     <row r="487">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.5359694434098501</v>
+        <v>-0.5359694434098489</v>
       </c>
     </row>
     <row r="488">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>-0.1823426147976348</v>
+        <v>-0.1823426147976339</v>
       </c>
     </row>
     <row r="489">
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0.5793985479631556</v>
+        <v>0.5793985479631565</v>
       </c>
     </row>
     <row r="490">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>-0.409641901782514</v>
+        <v>-0.4096419017825133</v>
       </c>
     </row>
     <row r="491">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>-0.733212313316241</v>
+        <v>-0.7332123133162401</v>
       </c>
     </row>
     <row r="493">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.8464822464551753</v>
+        <v>-0.8464822464551751</v>
       </c>
     </row>
     <row r="495">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-0.4875737500888953</v>
+        <v>-0.4875737500888954</v>
       </c>
     </row>
     <row r="496">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>-0.2184345064767399</v>
+        <v>-0.2184345064767397</v>
       </c>
     </row>
     <row r="497">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-0.1406874484125051</v>
+        <v>-0.1406874484125041</v>
       </c>
     </row>
     <row r="498">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>-1.017599307212469</v>
+        <v>-1.01759930721247</v>
       </c>
     </row>
     <row r="499">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.9460200854639265</v>
+        <v>-0.946020085463926</v>
       </c>
     </row>
     <row r="500">
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>-0.9787505114544822</v>
+        <v>-0.9787505114544824</v>
       </c>
     </row>
     <row r="501">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-0.7923576851080429</v>
+        <v>-0.7923576851080439</v>
       </c>
     </row>
     <row r="502">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.3962523488627638</v>
+        <v>-0.3962523488627642</v>
       </c>
     </row>
     <row r="503">
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-0.4944959979070172</v>
+        <v>-0.4944959979070177</v>
       </c>
     </row>
     <row r="504">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.5197241823362977</v>
+        <v>-0.5197241823362982</v>
       </c>
     </row>
     <row r="505">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3317744659768921</v>
+        <v>0.3317744659768918</v>
       </c>
     </row>
     <row r="506">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>0.4204760958337452</v>
+        <v>0.4204760958337457</v>
       </c>
     </row>
     <row r="507">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.8398993900179548</v>
+        <v>-0.8398993900179533</v>
       </c>
     </row>
     <row r="508">
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.2083593257082864</v>
+        <v>-0.2083593257082858</v>
       </c>
     </row>
     <row r="509">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>0.143899358476966</v>
+        <v>0.1438993584769646</v>
       </c>
     </row>
     <row r="512">
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>-0.1454160770552301</v>
+        <v>-0.1454160770552306</v>
       </c>
     </row>
     <row r="513">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0.02415778791166578</v>
+        <v>0.02415778791166504</v>
       </c>
     </row>
     <row r="514">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.2132839191872082</v>
+        <v>-0.2132839191872076</v>
       </c>
     </row>
     <row r="515">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.07433101672803101</v>
+        <v>-0.07433101672803157</v>
       </c>
     </row>
     <row r="517">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5684557408887775</v>
+        <v>0.5684557408887776</v>
       </c>
     </row>
     <row r="518">
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E518" t="n">
-        <v>0.03601207059973398</v>
+        <v>0.0360120705997336</v>
       </c>
     </row>
     <row r="519">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>0.09055841273260391</v>
+        <v>0.09055841273260357</v>
       </c>
     </row>
     <row r="520">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>0.209556657996652</v>
+        <v>0.209556657996651</v>
       </c>
     </row>
     <row r="521">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>0.535380940368953</v>
+        <v>0.535380940368952</v>
       </c>
     </row>
     <row r="522">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>0.3929315004102719</v>
+        <v>0.3929315004102725</v>
       </c>
     </row>
     <row r="525">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>0.1978395409411583</v>
+        <v>0.1978395409411575</v>
       </c>
     </row>
     <row r="526">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>0.3162717322847261</v>
+        <v>0.3162717322847252</v>
       </c>
     </row>
     <row r="527">
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>0.6254877672371341</v>
+        <v>0.6254877672371336</v>
       </c>
     </row>
     <row r="529">
@@ -9440,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.290879182762504</v>
+        <v>1.290879182762503</v>
       </c>
     </row>
     <row r="530">
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="n">
-        <v>-0.06477828628865551</v>
+        <v>-0.06477828628865615</v>
       </c>
     </row>
     <row r="531">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1.33165200919176</v>
+        <v>1.331652009191761</v>
       </c>
     </row>
     <row r="533">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>0.1948964998847972</v>
+        <v>0.1948964998847978</v>
       </c>
     </row>
     <row r="534">
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>0.04480485526288226</v>
+        <v>0.04480485526288349</v>
       </c>
     </row>
     <row r="537">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>0.4415145856438388</v>
+        <v>0.4415145856438387</v>
       </c>
     </row>
     <row r="538">
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E538" t="n">
-        <v>0.4845754758747046</v>
+        <v>0.4845754758747037</v>
       </c>
     </row>
     <row r="539">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-0.1543519891659511</v>
+        <v>-0.1543519891659512</v>
       </c>
     </row>
     <row r="540">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.3322600505778484</v>
+        <v>-0.3322600505778485</v>
       </c>
     </row>
     <row r="541">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>0.3697290898301054</v>
+        <v>0.3697290898301051</v>
       </c>
     </row>
     <row r="542">
@@ -9661,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>1.278141156712187</v>
+        <v>1.278141156712186</v>
       </c>
     </row>
     <row r="543">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-0.1270257110304666</v>
+        <v>-0.1270257110304669</v>
       </c>
     </row>
     <row r="544">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="E544" t="n">
-        <v>0.7566042852018895</v>
+        <v>0.756604285201889</v>
       </c>
     </row>
     <row r="545">
@@ -9712,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>0.4266158267404604</v>
+        <v>0.4266158267404599</v>
       </c>
     </row>
     <row r="546">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="E546" t="n">
-        <v>0.006582180023702294</v>
+        <v>0.006582180023701744</v>
       </c>
     </row>
     <row r="547">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>0.3179282617541018</v>
+        <v>0.3179282617541013</v>
       </c>
     </row>
     <row r="548">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>-1.26030193967547</v>
+        <v>-1.260301939675469</v>
       </c>
     </row>
     <row r="549">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>0.05172642301043198</v>
+        <v>0.05172642301043182</v>
       </c>
     </row>
     <row r="550">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>0.0940843426304319</v>
+        <v>0.09408434263043215</v>
       </c>
     </row>
     <row r="551">
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0.1118821517995147</v>
+        <v>0.1118821517995149</v>
       </c>
     </row>
     <row r="552">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.01592801401913631</v>
+        <v>-0.01592801401913683</v>
       </c>
     </row>
     <row r="553">
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>0.1081428988741587</v>
+        <v>0.1081428988741586</v>
       </c>
     </row>
     <row r="554">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>-0.1292067131078942</v>
+        <v>-0.1292067131078944</v>
       </c>
     </row>
     <row r="555">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-0.5134149810596537</v>
+        <v>-0.5134149810596534</v>
       </c>
     </row>
     <row r="556">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>0.4853355340017446</v>
+        <v>0.4853355340017445</v>
       </c>
     </row>
     <row r="557">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>0.2217176204716984</v>
+        <v>0.2217176204716987</v>
       </c>
     </row>
     <row r="558">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E558" t="n">
-        <v>0.8451822965532343</v>
+        <v>0.8451822965532333</v>
       </c>
     </row>
     <row r="559">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>0.4263722257638683</v>
+        <v>0.4263722257638684</v>
       </c>
     </row>
     <row r="561">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.6290890928287606</v>
+        <v>-0.6290890928287602</v>
       </c>
     </row>
     <row r="562">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>1.688644290572124</v>
+        <v>1.688644290572122</v>
       </c>
     </row>
     <row r="563">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.08690422913801805</v>
+        <v>-0.08690422913801778</v>
       </c>
     </row>
     <row r="565">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>0.4329550205022245</v>
+        <v>0.4329550205022251</v>
       </c>
     </row>
     <row r="566">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>-0.4540835576435093</v>
+        <v>-0.4540835576435086</v>
       </c>
     </row>
     <row r="567">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.2545116533655504</v>
+        <v>-0.25451165336555</v>
       </c>
     </row>
     <row r="568">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>0.3970859226035242</v>
+        <v>0.3970859226035244</v>
       </c>
     </row>
     <row r="569">
@@ -10120,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.5830646355653493</v>
+        <v>-0.5830646355653506</v>
       </c>
     </row>
     <row r="570">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.589151120059101</v>
+        <v>-0.5891511200591012</v>
       </c>
     </row>
     <row r="571">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E572" t="n">
-        <v>2.217013255921124</v>
+        <v>2.217013255921123</v>
       </c>
     </row>
     <row r="573">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4926538249320694</v>
+        <v>0.4926538249320701</v>
       </c>
     </row>
     <row r="574">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1863688996613099</v>
+        <v>-0.1863688996613098</v>
       </c>
     </row>
     <row r="575">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-0.1383842566874292</v>
+        <v>-0.1383842566874293</v>
       </c>
     </row>
     <row r="576">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.309725192221694</v>
+        <v>-0.3097251922216933</v>
       </c>
     </row>
     <row r="577">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>-0.450644916159455</v>
+        <v>-0.4506449161594556</v>
       </c>
     </row>
     <row r="578">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>-0.2494074790813056</v>
+        <v>-0.2494074790813055</v>
       </c>
     </row>
     <row r="579">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>0.06508517456657838</v>
+        <v>0.06508517456657824</v>
       </c>
     </row>
     <row r="580">
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>-0.1987697902643595</v>
+        <v>-0.19876979026436</v>
       </c>
     </row>
     <row r="581">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>-0.5481397617431613</v>
+        <v>-0.5481397617431611</v>
       </c>
     </row>
     <row r="583">
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>0.4265979101957768</v>
+        <v>0.4265979101957764</v>
       </c>
     </row>
     <row r="584">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>-0.4950057188496796</v>
+        <v>-0.49500571884968</v>
       </c>
     </row>
     <row r="585">
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>0.5696556189414304</v>
+        <v>0.5696556189414298</v>
       </c>
     </row>
     <row r="586">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="n">
-        <v>-0.6540476857637547</v>
+        <v>-0.6540476857637555</v>
       </c>
     </row>
     <row r="587">
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.4037858986785512</v>
+        <v>-0.4037858986785518</v>
       </c>
     </row>
     <row r="588">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1.054867358558214</v>
+        <v>1.054867358558212</v>
       </c>
     </row>
     <row r="589">
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>-0.1619828513105788</v>
+        <v>-0.1619828513105785</v>
       </c>
     </row>
     <row r="590">
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>-0.3908357544855447</v>
+        <v>-0.390835754485545</v>
       </c>
     </row>
     <row r="591">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>0.2447314515029461</v>
+        <v>0.2447314515029466</v>
       </c>
     </row>
     <row r="592">
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>0.2089144462525783</v>
+        <v>0.208914446252578</v>
       </c>
     </row>
     <row r="593">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>0.8867055464252264</v>
+        <v>0.8867055464252248</v>
       </c>
     </row>
     <row r="594">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.07234751659566276</v>
+        <v>-0.07234751659566278</v>
       </c>
     </row>
     <row r="595">
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>0.1679808229024521</v>
+        <v>0.1679808229024533</v>
       </c>
     </row>
     <row r="596">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5951194701054555</v>
+        <v>0.5951194701054551</v>
       </c>
     </row>
     <row r="597">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>0.2817122260801192</v>
+        <v>0.2817122260801182</v>
       </c>
     </row>
     <row r="598">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5053098389294971</v>
+        <v>0.5053098389294982</v>
       </c>
     </row>
     <row r="599">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>0.807741884630034</v>
+        <v>0.8077418846300348</v>
       </c>
     </row>
     <row r="600">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="E600" t="n">
-        <v>0.6753016174216798</v>
+        <v>0.6753016174216809</v>
       </c>
     </row>
     <row r="601">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>0.6118341551393025</v>
+        <v>0.6118341551393032</v>
       </c>
     </row>
     <row r="602">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4504189542174462</v>
+        <v>0.4504189542174468</v>
       </c>
     </row>
     <row r="603">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-0.3170881331838259</v>
+        <v>-0.3170881331838251</v>
       </c>
     </row>
     <row r="604">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>-0.1100429016968454</v>
+        <v>-0.110042901696845</v>
       </c>
     </row>
     <row r="605">
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-0.4937665674650864</v>
+        <v>-0.4937665674650863</v>
       </c>
     </row>
     <row r="606">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>0.09139522538410495</v>
+        <v>0.09139522538410587</v>
       </c>
     </row>
     <row r="607">
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-1.068210565751971</v>
+        <v>-1.06821056575197</v>
       </c>
     </row>
     <row r="608">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8962752808964098</v>
+        <v>-0.8962752808964083</v>
       </c>
     </row>
     <row r="610">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>-0.1165691874877158</v>
+        <v>-0.1165691874877148</v>
       </c>
     </row>
     <row r="611">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-0.7841984430534604</v>
+        <v>-0.7841984430534601</v>
       </c>
     </row>
     <row r="612">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>-0.5728768385223304</v>
+        <v>-0.57287683852233</v>
       </c>
     </row>
     <row r="613">
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-0.5289615258321383</v>
+        <v>-0.528961525832138</v>
       </c>
     </row>
     <row r="614">
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>-0.9049959327998356</v>
+        <v>-0.9049959327998348</v>
       </c>
     </row>
     <row r="615">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-0.5272290121880724</v>
+        <v>-0.5272290121880722</v>
       </c>
     </row>
     <row r="616">
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-0.01221096322245616</v>
+        <v>-0.01221096322245669</v>
       </c>
     </row>
     <row r="618">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>-0.9068089560436965</v>
+        <v>-0.9068089560436963</v>
       </c>
     </row>
     <row r="619">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>0.127418582617775</v>
+        <v>0.1274185826177752</v>
       </c>
     </row>
     <row r="620">
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>-0.337056849713139</v>
+        <v>-0.3370568497131392</v>
       </c>
     </row>
     <row r="621">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>0.138209952553533</v>
+        <v>0.1382099525535335</v>
       </c>
     </row>
     <row r="622">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>-0.3831721038887272</v>
+        <v>-0.3831721038887265</v>
       </c>
     </row>
     <row r="623">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-1.0219278765758</v>
+        <v>-1.021927876575799</v>
       </c>
     </row>
     <row r="624">
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>-0.8772104494828951</v>
+        <v>-0.8772104494828956</v>
       </c>
     </row>
     <row r="625">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>0.1820819155474011</v>
+        <v>0.1820819155474005</v>
       </c>
     </row>
     <row r="626">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2974945233302714</v>
+        <v>0.2974945233302708</v>
       </c>
     </row>
     <row r="627">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-0.06905788124093822</v>
+        <v>-0.06905788124093758</v>
       </c>
     </row>
     <row r="628">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="E628" t="n">
-        <v>-0.559109951031772</v>
+        <v>-0.5591099510317712</v>
       </c>
     </row>
     <row r="629">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>-0.9264374431973654</v>
+        <v>-0.9264374431973649</v>
       </c>
     </row>
     <row r="631">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>-1.021069320720699</v>
+        <v>-1.021069320720698</v>
       </c>
     </row>
     <row r="633">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>0.2795709960812285</v>
+        <v>0.2795709960812294</v>
       </c>
     </row>
     <row r="634">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>0.8147589341925944</v>
+        <v>0.8147589341925945</v>
       </c>
     </row>
     <row r="635">
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>0.1354053354546974</v>
+        <v>0.1354053354546975</v>
       </c>
     </row>
     <row r="636">
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="E636" t="n">
-        <v>0.563581944988613</v>
+        <v>0.5635819449886136</v>
       </c>
     </row>
     <row r="637">
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>0.5525331356659597</v>
+        <v>0.5525331356659596</v>
       </c>
     </row>
     <row r="638">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>0.2338069037623381</v>
+        <v>0.2338069037623386</v>
       </c>
     </row>
     <row r="639">
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>0.08388709050848683</v>
+        <v>0.08388709050848685</v>
       </c>
     </row>
     <row r="640">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>0.0949352077787194</v>
+        <v>0.09493520777871914</v>
       </c>
     </row>
     <row r="641">
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-0.272827435649833</v>
+        <v>-0.2728274356498322</v>
       </c>
     </row>
     <row r="642">
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="E642" t="n">
-        <v>-0.2506360992811273</v>
+        <v>-0.2506360992811277</v>
       </c>
     </row>
     <row r="643">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>-0.3037223877887869</v>
+        <v>-0.3037223877887866</v>
       </c>
     </row>
     <row r="644">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>0.4699269272898634</v>
+        <v>0.4699269272898646</v>
       </c>
     </row>
     <row r="645">
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>0.1087446242027556</v>
+        <v>0.1087446242027538</v>
       </c>
     </row>
     <row r="646">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>-0.943294489266247</v>
+        <v>-0.9432944892662462</v>
       </c>
     </row>
     <row r="647">
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-0.7673997050746212</v>
+        <v>-0.7673997050746222</v>
       </c>
     </row>
     <row r="648">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>-0.652858571681776</v>
+        <v>-0.6528585716817765</v>
       </c>
     </row>
     <row r="649">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>-0.699195030773573</v>
+        <v>-0.6991950307735745</v>
       </c>
     </row>
     <row r="650">
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E650" t="n">
-        <v>-0.3824266266288167</v>
+        <v>-0.3824266266288168</v>
       </c>
     </row>
     <row r="651">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-0.3028139064510573</v>
+        <v>-0.3028139064510578</v>
       </c>
     </row>
     <row r="652">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-0.3798854532768446</v>
+        <v>-0.379885453276844</v>
       </c>
     </row>
     <row r="654">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="E654" t="n">
-        <v>1.784797535999461</v>
+        <v>1.784797535999462</v>
       </c>
     </row>
     <row r="655">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>1.234341919382495</v>
+        <v>1.234341919382496</v>
       </c>
     </row>
     <row r="656">
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="E656" t="n">
-        <v>-0.2382564618337754</v>
+        <v>-0.2382564618337755</v>
       </c>
     </row>
     <row r="657">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>0.3929392867680011</v>
+        <v>0.3929392867680015</v>
       </c>
     </row>
     <row r="658">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>0.03536539597103548</v>
+        <v>0.03536539597103636</v>
       </c>
     </row>
     <row r="659">
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>0.9107809093383413</v>
+        <v>0.910780909338341</v>
       </c>
     </row>
     <row r="661">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>-0.2263549878246147</v>
+        <v>-0.2263549878246151</v>
       </c>
     </row>
     <row r="662">
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>0.3782397621801005</v>
+        <v>0.3782397621801007</v>
       </c>
     </row>
     <row r="663">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-0.2800343490886835</v>
+        <v>-0.2800343490886838</v>
       </c>
     </row>
     <row r="664">
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.2537759118966194</v>
+        <v>-0.2537759118966195</v>
       </c>
     </row>
     <row r="665">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-0.2681027139734262</v>
+        <v>-0.2681027139734251</v>
       </c>
     </row>
     <row r="666">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.440584416295569</v>
+        <v>-0.4405844162955682</v>
       </c>
     </row>
     <row r="667">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>0.00751483554653127</v>
+        <v>0.007514835546530428</v>
       </c>
     </row>
     <row r="668">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>-0.8870575465794303</v>
+        <v>-0.88705754657943</v>
       </c>
     </row>
     <row r="669">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-0.287748996934431</v>
+        <v>-0.2877489969344327</v>
       </c>
     </row>
     <row r="670">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="E670" t="n">
-        <v>0.58606792678431</v>
+        <v>0.586067926784309</v>
       </c>
     </row>
     <row r="671">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-0.1010108361506484</v>
+        <v>-0.1010108361506493</v>
       </c>
     </row>
     <row r="672">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>0.8668368423866288</v>
+        <v>0.8668368423866286</v>
       </c>
     </row>
     <row r="673">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>0.2084500918085173</v>
+        <v>0.2084500918085178</v>
       </c>
     </row>
     <row r="674">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="E674" t="n">
-        <v>-0.3683557911146728</v>
+        <v>-0.3683557911146737</v>
       </c>
     </row>
     <row r="675">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>0.2462964218438835</v>
+        <v>0.2462964218438838</v>
       </c>
     </row>
     <row r="676">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>0.4495975444611012</v>
+        <v>0.4495975444611007</v>
       </c>
     </row>
     <row r="677">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-0.2864744452810645</v>
+        <v>-0.2864744452810644</v>
       </c>
     </row>
     <row r="678">
@@ -11973,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="E678" t="n">
-        <v>-0.7460654345119826</v>
+        <v>-0.7460654345119827</v>
       </c>
     </row>
     <row r="679">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>-0.5263880829168537</v>
+        <v>-0.5263880829168538</v>
       </c>
     </row>
     <row r="680">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E680" t="n">
-        <v>0.030511984398734</v>
+        <v>0.03051198439873323</v>
       </c>
     </row>
     <row r="681">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7976436198978711</v>
+        <v>0.7976436198978698</v>
       </c>
     </row>
     <row r="682">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7364640466379169</v>
+        <v>0.7364640466379165</v>
       </c>
     </row>
     <row r="683">
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-0.11384860443654</v>
+        <v>-0.1138486044365391</v>
       </c>
     </row>
     <row r="684">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="E684" t="n">
-        <v>-0.02250121377501097</v>
+        <v>-0.02250121377501162</v>
       </c>
     </row>
     <row r="685">
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>0.5854644696181761</v>
+        <v>0.5854644696181758</v>
       </c>
     </row>
     <row r="686">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="E686" t="n">
-        <v>0.02588824049707055</v>
+        <v>0.02588824049707164</v>
       </c>
     </row>
     <row r="687">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-0.7404194216450543</v>
+        <v>-0.7404194216450544</v>
       </c>
     </row>
     <row r="688">
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="E688" t="n">
-        <v>-0.04154496730927245</v>
+        <v>-0.04154496730927305</v>
       </c>
     </row>
     <row r="689">
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>0.2720167983920161</v>
+        <v>0.272016798392015</v>
       </c>
     </row>
     <row r="691">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1.17388603946693</v>
+        <v>1.173886039466929</v>
       </c>
     </row>
     <row r="692">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>-0.01152614876963967</v>
+        <v>-0.01152614876963905</v>
       </c>
     </row>
     <row r="693">
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.2114759993731962</v>
+        <v>0.2114759993731952</v>
       </c>
     </row>
     <row r="694">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="n">
-        <v>-0.7032047132195351</v>
+        <v>-0.703204713219534</v>
       </c>
     </row>
     <row r="695">
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-0.3855111825874111</v>
+        <v>-0.3855111825874107</v>
       </c>
     </row>
     <row r="696">
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>0.2793282862267928</v>
+        <v>0.2793282862267935</v>
       </c>
     </row>
     <row r="697">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>0.2663731116110262</v>
+        <v>0.2663731116110267</v>
       </c>
     </row>
     <row r="698">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>-0.2845012833277414</v>
+        <v>-0.2845012833277409</v>
       </c>
     </row>
     <row r="699">
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>0.03702236623870688</v>
+        <v>0.03702236623870709</v>
       </c>
     </row>
     <row r="700">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>-0.03542336397771254</v>
+        <v>-0.03542336397771274</v>
       </c>
     </row>
     <row r="701">
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-0.5092947833866696</v>
+        <v>-0.5092947833866709</v>
       </c>
     </row>
     <row r="702">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="E702" t="n">
-        <v>-0.4319105023391647</v>
+        <v>-0.4319105023391666</v>
       </c>
     </row>
     <row r="703">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>0.2346137440397498</v>
+        <v>0.23461374403975</v>
       </c>
     </row>
     <row r="704">
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>0.2243963379357606</v>
+        <v>0.2243963379357608</v>
       </c>
     </row>
     <row r="705">
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-0.01053163555230667</v>
+        <v>-0.01053163555230565</v>
       </c>
     </row>
     <row r="706">
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2351287745498704</v>
+        <v>0.235128774549871</v>
       </c>
     </row>
     <row r="707">
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-0.3093525307511301</v>
+        <v>-0.3093525307511296</v>
       </c>
     </row>
     <row r="708">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E708" t="n">
-        <v>0.1314817068461915</v>
+        <v>0.131481706846192</v>
       </c>
     </row>
     <row r="709">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>0.2434895398737043</v>
+        <v>0.243489539873703</v>
       </c>
     </row>
     <row r="710">
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E710" t="n">
-        <v>-0.2255276429000626</v>
+        <v>-0.2255276429000615</v>
       </c>
     </row>
     <row r="711">
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>0.522557824704056</v>
+        <v>0.5225578247040567</v>
       </c>
     </row>
     <row r="712">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E712" t="n">
-        <v>-0.1390853991762315</v>
+        <v>-0.1390853991762305</v>
       </c>
     </row>
     <row r="713">
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>0.5163645631881676</v>
+        <v>0.5163645631881681</v>
       </c>
     </row>
     <row r="714">
@@ -12585,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="E714" t="n">
-        <v>-0.5973126155803486</v>
+        <v>-0.5973126155803478</v>
       </c>
     </row>
     <row r="715">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>0.5338891794743889</v>
+        <v>0.5338891794743899</v>
       </c>
     </row>
     <row r="717">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-0.5397646715412113</v>
+        <v>-0.5397646715412107</v>
       </c>
     </row>
     <row r="718">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>-0.796584672216289</v>
+        <v>-0.796584672216288</v>
       </c>
     </row>
     <row r="719">
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>0.2950516013369058</v>
+        <v>0.2950516013369057</v>
       </c>
     </row>
     <row r="720">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>0.4469616297316231</v>
+        <v>0.4469616297316237</v>
       </c>
     </row>
     <row r="721">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>-0.8684822672049225</v>
+        <v>-0.8684822672049224</v>
       </c>
     </row>
     <row r="722">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E722" t="n">
-        <v>-0.4746630802625994</v>
+        <v>-0.4746630802625987</v>
       </c>
     </row>
     <row r="723">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-0.3714446374028717</v>
+        <v>-0.3714446374028725</v>
       </c>
     </row>
     <row r="724">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>-0.7757978633101322</v>
+        <v>-0.7757978633101317</v>
       </c>
     </row>
     <row r="725">
@@ -12772,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>0.2947475757152668</v>
+        <v>0.2947475757152667</v>
       </c>
     </row>
     <row r="726">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="E726" t="n">
-        <v>0.324451012585648</v>
+        <v>0.3244510125856467</v>
       </c>
     </row>
     <row r="727">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-0.6971787066242238</v>
+        <v>-0.697178706624223</v>
       </c>
     </row>
     <row r="728">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>-0.4178615536979383</v>
+        <v>-0.4178615536979388</v>
       </c>
     </row>
     <row r="729">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>0.8804304547427115</v>
+        <v>0.8804304547427109</v>
       </c>
     </row>
     <row r="730">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-0.4968615917077621</v>
+        <v>-0.496861591707761</v>
       </c>
     </row>
     <row r="732">
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>-0.712275340717454</v>
+        <v>-0.7122753407174542</v>
       </c>
     </row>
     <row r="733">
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-0.4304389318345913</v>
+        <v>-0.4304389318345918</v>
       </c>
     </row>
     <row r="734">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>-0.1966385095566704</v>
+        <v>-0.1966385095566712</v>
       </c>
     </row>
     <row r="735">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-0.3936476832187966</v>
+        <v>-0.3936476832187951</v>
       </c>
     </row>
     <row r="736">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>-0.5676214673710771</v>
+        <v>-0.5676214673710777</v>
       </c>
     </row>
     <row r="737">
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E738" t="n">
-        <v>0.2285547587194701</v>
+        <v>0.2285547587194683</v>
       </c>
     </row>
     <row r="739">
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1716117404958052</v>
+        <v>0.1716117404958054</v>
       </c>
     </row>
     <row r="740">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>0.4998834374089013</v>
+        <v>0.4998834374089027</v>
       </c>
     </row>
     <row r="741">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-0.1577243838276236</v>
+        <v>-0.1577243838276246</v>
       </c>
     </row>
     <row r="742">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>-0.6688043439939173</v>
+        <v>-0.6688043439939174</v>
       </c>
     </row>
     <row r="743">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>0.7185274441651118</v>
+        <v>0.7185274441651108</v>
       </c>
     </row>
     <row r="744">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>0.2406064293351782</v>
+        <v>0.2406064293351781</v>
       </c>
     </row>
     <row r="746">
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>-0.08463056264328669</v>
+        <v>-0.08463056264328761</v>
       </c>
     </row>
     <row r="747">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>0.09064142588063753</v>
+        <v>0.09064142588063892</v>
       </c>
     </row>
     <row r="748">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1190904097726155</v>
+        <v>0.1190904097726157</v>
       </c>
     </row>
     <row r="749">
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-0.3887338822425104</v>
+        <v>-0.3887338822425099</v>
       </c>
     </row>
     <row r="750">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>-1.144174807626094</v>
+        <v>-1.144174807626095</v>
       </c>
     </row>
     <row r="751">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>-0.9868170691992494</v>
+        <v>-0.9868170691992497</v>
       </c>
     </row>
     <row r="752">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-0.9770711950847091</v>
+        <v>-0.9770711950847094</v>
       </c>
     </row>
     <row r="754">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E754" t="n">
-        <v>-0.1594011732666595</v>
+        <v>-0.1594011732666591</v>
       </c>
     </row>
     <row r="755">
@@ -13282,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-1.31151643888243</v>
+        <v>-1.311516438882431</v>
       </c>
     </row>
     <row r="756">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>-1.021566289027473</v>
+        <v>-1.021566289027474</v>
       </c>
     </row>
     <row r="757">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>-0.1481423141089874</v>
+        <v>-0.1481423141089871</v>
       </c>
     </row>
     <row r="758">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="E758" t="n">
-        <v>-0.760366387348317</v>
+        <v>-0.7603663873483163</v>
       </c>
     </row>
     <row r="759">
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E760" t="n">
-        <v>-0.3939355337385911</v>
+        <v>-0.3939355337385915</v>
       </c>
     </row>
     <row r="761">
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="E762" t="n">
-        <v>-0.9494416169475469</v>
+        <v>-0.9494416169475478</v>
       </c>
     </row>
     <row r="763">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>-0.3930827928103935</v>
+        <v>-0.3930827928103934</v>
       </c>
     </row>
     <row r="764">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="E764" t="n">
-        <v>0.4383193193702843</v>
+        <v>0.4383193193702851</v>
       </c>
     </row>
     <row r="765">
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-0.2102129220264148</v>
+        <v>-0.2102129220264134</v>
       </c>
     </row>
     <row r="766">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="E766" t="n">
-        <v>0.7249933482839281</v>
+        <v>0.7249933482839279</v>
       </c>
     </row>
     <row r="767">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-0.8495347057127808</v>
+        <v>-0.8495347057127807</v>
       </c>
     </row>
     <row r="768">
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="E768" t="n">
-        <v>-0.03504369080113947</v>
+        <v>-0.03504369080113922</v>
       </c>
     </row>
     <row r="769">
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>0.6513134902699218</v>
+        <v>0.6513134902699207</v>
       </c>
     </row>
     <row r="772">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.2604655381604955</v>
+        <v>-0.2604655381604957</v>
       </c>
     </row>
     <row r="773">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>-0.000277498608689208</v>
+        <v>-0.0002774986086898455</v>
       </c>
     </row>
     <row r="775">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>0.7968186914327063</v>
+        <v>0.7968186914327055</v>
       </c>
     </row>
     <row r="776">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>-0.5361506611712383</v>
+        <v>-0.5361506611712384</v>
       </c>
     </row>
     <row r="777">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-0.7644354809869031</v>
+        <v>-0.7644354809869043</v>
       </c>
     </row>
     <row r="778">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5274559932671086</v>
+        <v>-0.5274559932671082</v>
       </c>
     </row>
     <row r="779">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>0.8513309657466199</v>
+        <v>0.8513309657466204</v>
       </c>
     </row>
     <row r="780">
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>0.4328212472327985</v>
+        <v>0.4328212472327994</v>
       </c>
     </row>
     <row r="782">
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="E782" t="n">
-        <v>0.0342533844302541</v>
+        <v>0.03425338443025378</v>
       </c>
     </row>
     <row r="783">
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-0.08734219309863356</v>
+        <v>-0.08734219309863293</v>
       </c>
     </row>
     <row r="784">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.78811455364072</v>
+        <v>-0.7881145536407189</v>
       </c>
     </row>
     <row r="785">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-0.3102123221345244</v>
+        <v>-0.3102123221345254</v>
       </c>
     </row>
     <row r="786">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.4343477579411565</v>
+        <v>-0.4343477579411554</v>
       </c>
     </row>
     <row r="787">
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>-0.7802293514661832</v>
+        <v>-0.7802293514661837</v>
       </c>
     </row>
     <row r="788">
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>-1.10083801602448</v>
+        <v>-1.100838016024479</v>
       </c>
     </row>
     <row r="789">
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>0.03585356788699166</v>
+        <v>0.03585356788699022</v>
       </c>
     </row>
     <row r="790">
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>0.07085748510170356</v>
+        <v>0.07085748510170387</v>
       </c>
     </row>
     <row r="791">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>0.09589691134277024</v>
+        <v>0.09589691134276987</v>
       </c>
     </row>
     <row r="792">
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="E792" t="n">
-        <v>-0.2102533068033769</v>
+        <v>-0.2102533068033774</v>
       </c>
     </row>
     <row r="793">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>0.1431633319820867</v>
+        <v>0.1431633319820863</v>
       </c>
     </row>
     <row r="794">
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E794" t="n">
-        <v>0.7838518605747754</v>
+        <v>0.7838518605747753</v>
       </c>
     </row>
     <row r="795">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>0.01479292833084993</v>
+        <v>0.01479292833084971</v>
       </c>
     </row>
     <row r="796">
@@ -13979,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="E796" t="n">
-        <v>0.2592316032785127</v>
+        <v>0.2592316032785123</v>
       </c>
     </row>
     <row r="797">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-0.637509422341333</v>
+        <v>-0.6375094223413339</v>
       </c>
     </row>
     <row r="798">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>-0.8919444956811486</v>
+        <v>-0.8919444956811492</v>
       </c>
     </row>
     <row r="800">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E800" t="n">
-        <v>0.05264106596567911</v>
+        <v>0.05264106596567867</v>
       </c>
     </row>
     <row r="801">
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-0.005564181781241904</v>
+        <v>-0.005564181781241346</v>
       </c>
     </row>
     <row r="802">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>-0.01635862933692848</v>
+        <v>-0.01635862933692737</v>
       </c>
     </row>
     <row r="803">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.5290148689257372</v>
+        <v>0.5290148689257371</v>
       </c>
     </row>
     <row r="804">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>0.5918956530859013</v>
+        <v>0.5918956530859008</v>
       </c>
     </row>
     <row r="805">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>-0.2681802160929528</v>
+        <v>-0.2681802160929525</v>
       </c>
     </row>
     <row r="806">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="E806" t="n">
-        <v>-0.2506160524638934</v>
+        <v>-0.2506160524638936</v>
       </c>
     </row>
     <row r="807">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-0.3726027111252429</v>
+        <v>-0.3726027111252424</v>
       </c>
     </row>
     <row r="808">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>-0.02472329206219756</v>
+        <v>-0.02472329206219876</v>
       </c>
     </row>
     <row r="809">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-0.1255278098529292</v>
+        <v>-0.1255278098529293</v>
       </c>
     </row>
     <row r="810">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>0.2362481366437747</v>
+        <v>0.2362481366437748</v>
       </c>
     </row>
     <row r="812">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>-0.1161222773851719</v>
+        <v>-0.1161222773851725</v>
       </c>
     </row>
     <row r="813">
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>0.2665394321152307</v>
+        <v>0.2665394321152297</v>
       </c>
     </row>
     <row r="814">
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E814" t="n">
-        <v>0.8466108134571187</v>
+        <v>0.8466108134571189</v>
       </c>
     </row>
     <row r="815">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>0.07437695595073598</v>
+        <v>0.07437695595073766</v>
       </c>
     </row>
     <row r="816">
@@ -14319,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1018825085753473</v>
+        <v>-0.1018825085753469</v>
       </c>
     </row>
     <row r="817">
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>0.8799218074992016</v>
+        <v>0.8799218074992012</v>
       </c>
     </row>
     <row r="818">
@@ -14353,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>-0.07865226590454948</v>
+        <v>-0.07865226590454837</v>
       </c>
     </row>
     <row r="819">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-0.3383961265640426</v>
+        <v>-0.3383961265640421</v>
       </c>
     </row>
     <row r="820">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E820" t="n">
-        <v>-0.939833569384051</v>
+        <v>-0.9398335693840508</v>
       </c>
     </row>
     <row r="821">
@@ -14404,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>0.5615229586345392</v>
+        <v>0.5615229586345395</v>
       </c>
     </row>
     <row r="822">
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="E822" t="n">
-        <v>-0.2287186066184663</v>
+        <v>-0.2287186066184657</v>
       </c>
     </row>
     <row r="823">
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>-1.712832164154041</v>
+        <v>-1.71283216415404</v>
       </c>
     </row>
     <row r="824">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="E824" t="n">
-        <v>0.1646758834970399</v>
+        <v>0.1646758834970402</v>
       </c>
     </row>
     <row r="825">
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-0.4461422531366617</v>
+        <v>-0.4461422531366609</v>
       </c>
     </row>
     <row r="826">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-0.1096137718635225</v>
+        <v>-0.1096137718635227</v>
       </c>
     </row>
     <row r="828">
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>0.3136574330064487</v>
+        <v>0.3136574330064486</v>
       </c>
     </row>
     <row r="829">
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>0.5845300274574525</v>
+        <v>0.5845300274574522</v>
       </c>
     </row>
     <row r="830">
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>-0.9013071160375579</v>
+        <v>-0.9013071160375559</v>
       </c>
     </row>
     <row r="833">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-0.7563649533297016</v>
+        <v>-0.7563649533297009</v>
       </c>
     </row>
     <row r="834">
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>-0.8129684810989809</v>
+        <v>-0.8129684810989802</v>
       </c>
     </row>
     <row r="835">
@@ -14642,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>0.2266617976688138</v>
+        <v>0.226661797668813</v>
       </c>
     </row>
     <row r="836">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>-0.4472861549023838</v>
+        <v>-0.4472861549023848</v>
       </c>
     </row>
     <row r="837">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-0.1514896670883928</v>
+        <v>-0.1514896670883938</v>
       </c>
     </row>
     <row r="838">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="E838" t="n">
-        <v>-0.04305861408652575</v>
+        <v>-0.04305861408652724</v>
       </c>
     </row>
     <row r="839">
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>0.1255681639624735</v>
+        <v>0.1255681639624738</v>
       </c>
     </row>
     <row r="840">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>-0.8521407273729431</v>
+        <v>-0.852140727372942</v>
       </c>
     </row>
     <row r="841">
@@ -14744,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>-0.2546613262782776</v>
+        <v>-0.2546613262782779</v>
       </c>
     </row>
     <row r="842">
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="E842" t="n">
-        <v>-0.835807176822796</v>
+        <v>-0.8358071768227958</v>
       </c>
     </row>
     <row r="843">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-0.7511449673722351</v>
+        <v>-0.751144967372235</v>
       </c>
     </row>
     <row r="844">
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="E844" t="n">
-        <v>-0.2418534716671907</v>
+        <v>-0.2418534716671918</v>
       </c>
     </row>
     <row r="845">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>0.6146065254682519</v>
+        <v>0.6146065254682508</v>
       </c>
     </row>
     <row r="846">
@@ -14829,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>0.1509319989694036</v>
+        <v>0.1509319989694035</v>
       </c>
     </row>
     <row r="847">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>-0.8458113222912235</v>
+        <v>-0.8458113222912227</v>
       </c>
     </row>
     <row r="848">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>-0.5894933221318689</v>
+        <v>-0.5894933221318688</v>
       </c>
     </row>
     <row r="849">
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-0.4947561603435974</v>
+        <v>-0.4947561603435987</v>
       </c>
     </row>
     <row r="850">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="E850" t="n">
-        <v>-0.579490371927193</v>
+        <v>-0.5794903719271933</v>
       </c>
     </row>
     <row r="851">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-0.2098857689369327</v>
+        <v>-0.2098857689369314</v>
       </c>
     </row>
     <row r="852">
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="E852" t="n">
-        <v>-0.5496413782793635</v>
+        <v>-0.549641378279364</v>
       </c>
     </row>
     <row r="853">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>-0.4408153907201944</v>
+        <v>-0.4408153907201943</v>
       </c>
     </row>
     <row r="854">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>0.2377606102786744</v>
+        <v>0.2377606102786751</v>
       </c>
     </row>
     <row r="855">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.1281952103672982</v>
+        <v>0.1281952103672984</v>
       </c>
     </row>
     <row r="856">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E856" t="n">
-        <v>-0.9317769315198059</v>
+        <v>-0.931776931519806</v>
       </c>
     </row>
     <row r="857">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.4592538380750593</v>
+        <v>-0.4592538380750596</v>
       </c>
     </row>
     <row r="858">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.7285995877474251</v>
+        <v>-0.7285995877474245</v>
       </c>
     </row>
     <row r="859">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.263820559041762</v>
+        <v>-0.2638205590417619</v>
       </c>
     </row>
     <row r="860">
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7415491467334289</v>
+        <v>-0.7415491467334292</v>
       </c>
     </row>
     <row r="861">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E862" t="n">
-        <v>0.377200277155687</v>
+        <v>0.3772002771556879</v>
       </c>
     </row>
     <row r="863">
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>0.4951931800200944</v>
+        <v>0.4951931800200937</v>
       </c>
     </row>
     <row r="864">
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>0.3159671474438248</v>
+        <v>0.3159671474438239</v>
       </c>
     </row>
     <row r="865">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>0.07445718630189171</v>
+        <v>0.07445718630189078</v>
       </c>
     </row>
     <row r="866">
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="E866" t="n">
-        <v>-0.031563361297002</v>
+        <v>-0.03156336129700164</v>
       </c>
     </row>
     <row r="867">
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-0.4104813692175673</v>
+        <v>-0.4104813692175664</v>
       </c>
     </row>
     <row r="868">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.4956607463060274</v>
+        <v>-0.4956607463060282</v>
       </c>
     </row>
     <row r="869">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>0.1186200096090603</v>
+        <v>0.1186200096090595</v>
       </c>
     </row>
     <row r="870">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>-0.8445281408651544</v>
+        <v>-0.8445281408651542</v>
       </c>
     </row>
     <row r="871">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.023182197877886</v>
+        <v>-1.023182197877885</v>
       </c>
     </row>
     <row r="872">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>-0.1317132845211264</v>
+        <v>-0.1317132845211252</v>
       </c>
     </row>
     <row r="873">
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-0.2451985889700769</v>
+        <v>-0.2451985889700759</v>
       </c>
     </row>
     <row r="874">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>-0.6540414986162818</v>
+        <v>-0.6540414986162805</v>
       </c>
     </row>
     <row r="875">
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-1.204795886727908</v>
+        <v>-1.204795886727906</v>
       </c>
     </row>
     <row r="876">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1897470859066369</v>
+        <v>-0.1897470859066375</v>
       </c>
     </row>
     <row r="879">
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-0.7442604679742801</v>
+        <v>-0.7442604679742805</v>
       </c>
     </row>
     <row r="880">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.7118305082752391</v>
+        <v>-0.7118305082752394</v>
       </c>
     </row>
     <row r="881">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-0.008840775862884084</v>
+        <v>-0.008840775862884901</v>
       </c>
     </row>
     <row r="882">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.6174819789649779</v>
+        <v>-0.6174819789649776</v>
       </c>
     </row>
     <row r="883">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>-1.410458254944883</v>
+        <v>-1.410458254944882</v>
       </c>
     </row>
     <row r="884">
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>-0.9802057574925322</v>
+        <v>-0.9802057574925324</v>
       </c>
     </row>
     <row r="885">
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-0.08290014746463012</v>
+        <v>-0.08290014746463024</v>
       </c>
     </row>
     <row r="886">
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>-1.223711217683213</v>
+        <v>-1.223711217683212</v>
       </c>
     </row>
     <row r="889">
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>-0.8539775165105031</v>
+        <v>-0.8539775165105028</v>
       </c>
     </row>
   </sheetData>
